--- a/Soft/Dimer.xlsx
+++ b/Soft/Dimer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.Datos\Electronica\Proyectos\Microchip\Proyecto Casandra\Version final - GDrive\Soft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.Datos\Electronica\Proyectos\Microchip\Git\Casandra\Soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5742CE2C-83EA-48BD-B74B-9E53F75C94F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C294F791-5A65-42F2-8AEB-99FB7C8DC24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Comandos!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="343">
   <si>
     <t>Valor</t>
   </si>
@@ -7589,8 +7588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8436,7 +8435,7 @@
         <v>241</v>
       </c>
       <c r="J46" s="30">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="K46" s="30" t="s">
         <v>250</v>
@@ -8491,7 +8490,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="154">
         <v>23</v>
       </c>
@@ -8504,8 +8503,12 @@
       <c r="E49" s="72"/>
       <c r="F49" s="159"/>
       <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J49" s="31"/>
+      <c r="K49" s="33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="155">
         <v>24</v>
       </c>
@@ -8524,7 +8527,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="151">
         <v>1</v>
       </c>
@@ -8542,7 +8545,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="152">
         <v>2</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="152">
         <v>3</v>
       </c>
@@ -8578,7 +8581,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="152">
         <v>4</v>
       </c>
@@ -8596,7 +8599,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="152">
         <v>5</v>
       </c>
@@ -8614,7 +8617,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="152">
         <v>6</v>
       </c>
@@ -8630,7 +8633,7 @@
       <c r="F56" s="159"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="152">
         <v>7</v>
       </c>
@@ -8644,7 +8647,7 @@
       <c r="F57" s="159"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="152">
         <v>8</v>
       </c>
@@ -8660,7 +8663,7 @@
       <c r="F58" s="159"/>
       <c r="G58" s="72"/>
     </row>
-    <row r="59" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="152">
         <v>9</v>
       </c>
@@ -8674,7 +8677,7 @@
       <c r="F59" s="159"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="152">
         <v>10</v>
       </c>
@@ -8688,7 +8691,7 @@
       <c r="F60" s="159"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="152">
         <v>11</v>
       </c>
@@ -8704,7 +8707,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="158">
         <v>12</v>
       </c>
@@ -8720,7 +8723,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="156">
         <v>1</v>
       </c>
@@ -8869,7 +8872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111E22BF-FED0-41F6-808D-61809D43BC66}">
   <dimension ref="B6:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>

--- a/Soft/Dimer.xlsx
+++ b/Soft/Dimer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.Datos\Electronica\Proyectos\Microchip\Git\Casandra\Soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C294F791-5A65-42F2-8AEB-99FB7C8DC24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1EB585-E1D8-4A3E-A7C3-45FAA059C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="352">
   <si>
     <t>Valor</t>
   </si>
@@ -1345,6 +1345,33 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>SwAbrir</t>
+  </si>
+  <si>
+    <t>SwCerrar</t>
+  </si>
+  <si>
+    <t>SensPuerta</t>
+  </si>
+  <si>
+    <t>SensPorton</t>
+  </si>
+  <si>
+    <t>Activa Relé</t>
+  </si>
+  <si>
+    <t>Se enciende por 250ms y se apaga solo (BC548)</t>
+  </si>
+  <si>
+    <t>Sensor de timbre</t>
+  </si>
+  <si>
+    <t>Sensor de puerta</t>
+  </si>
+  <si>
+    <t>Sensor de porton</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2434,7 @@
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2943,6 +2970,12 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4701,7 +4734,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H160" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H166" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{37A22C23-BC30-49AA-B326-A1A665DE0E10}" name="N0" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{A945BC43-56EA-42D1-88E7-9CC1375157D6}" name="N1" dataDxfId="6"/>
@@ -5043,9 +5076,9 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>116</v>
       </c>
@@ -5053,7 +5086,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>0.1</v>
       </c>
@@ -5067,7 +5100,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0.2</v>
       </c>
@@ -5081,7 +5114,7 @@
       </c>
       <c r="H5" s="129"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0.3</v>
       </c>
@@ -5097,7 +5130,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>0.4</v>
       </c>
@@ -5111,7 +5144,7 @@
       </c>
       <c r="H7" s="130"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0.5</v>
       </c>
@@ -5125,7 +5158,7 @@
       </c>
       <c r="H8" s="130"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0.6</v>
       </c>
@@ -5141,7 +5174,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0.7</v>
       </c>
@@ -5155,7 +5188,7 @@
       </c>
       <c r="H10" s="130"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0.8</v>
       </c>
@@ -5169,7 +5202,7 @@
       </c>
       <c r="H11" s="130"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0.9</v>
       </c>
@@ -5185,7 +5218,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>1</v>
       </c>
@@ -5199,7 +5232,7 @@
       </c>
       <c r="H13" s="130"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>0</v>
       </c>
@@ -5214,14 +5247,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F15" s="123"/>
       <c r="G15" s="127">
         <v>39</v>
       </c>
       <c r="H15" s="129"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F16" s="123"/>
       <c r="G16" s="125">
         <v>43</v>
@@ -5230,21 +5263,21 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" s="123"/>
       <c r="G17" s="125">
         <v>47</v>
       </c>
       <c r="H17" s="130"/>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" s="123"/>
       <c r="G18" s="125">
         <v>51</v>
       </c>
       <c r="H18" s="130"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19" s="123"/>
       <c r="G19" s="125">
         <v>55</v>
@@ -5253,21 +5286,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20" s="123"/>
       <c r="G20" s="125">
         <v>59</v>
       </c>
       <c r="H20" s="130"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F21" s="123"/>
       <c r="G21" s="125">
         <v>63</v>
       </c>
       <c r="H21" s="130"/>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F22" s="123"/>
       <c r="G22" s="125">
         <v>67</v>
@@ -5276,14 +5309,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F23" s="123"/>
       <c r="G23" s="125">
         <v>71</v>
       </c>
       <c r="H23" s="130"/>
     </row>
-    <row r="24" spans="6:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" s="123"/>
       <c r="G24" s="126">
         <v>75</v>
@@ -5307,40 +5340,40 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="25"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" customWidth="1"/>
-    <col min="13" max="13" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="25"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="198" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="200" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="F2" s="200" t="s">
+      <c r="D2" s="201"/>
+      <c r="F2" s="202" t="s">
         <v>179</v>
       </c>
-      <c r="G2" s="201"/>
-      <c r="J2" s="202" t="s">
+      <c r="G2" s="203"/>
+      <c r="J2" s="204" t="s">
         <v>154</v>
       </c>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="204"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
@@ -5356,22 +5389,22 @@
       <c r="G3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="207" t="s">
+      <c r="J3" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="K3" s="205" t="s">
+      <c r="K3" s="207" t="s">
         <v>176</v>
       </c>
-      <c r="L3" s="206"/>
-      <c r="M3" s="205" t="s">
+      <c r="L3" s="208"/>
+      <c r="M3" s="207" t="s">
         <v>177</v>
       </c>
-      <c r="N3" s="206"/>
-      <c r="O3" s="209" t="s">
+      <c r="N3" s="208"/>
+      <c r="O3" s="211" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="57">
         <v>30</v>
       </c>
@@ -5385,7 +5418,7 @@
         <v>0.1</v>
       </c>
       <c r="I4" s="46"/>
-      <c r="J4" s="208"/>
+      <c r="J4" s="210"/>
       <c r="K4" s="101" t="s">
         <v>0</v>
       </c>
@@ -5398,9 +5431,9 @@
       <c r="N4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="210"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O4" s="212"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5443,7 +5476,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5482,7 +5515,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5521,7 +5554,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5560,7 +5593,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5599,7 +5632,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5638,7 +5671,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -5677,7 +5710,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -5716,7 +5749,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -5755,7 +5788,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -5794,7 +5827,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -5833,7 +5866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -5854,7 +5887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -5882,7 +5915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -5906,7 +5939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -5930,7 +5963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -5951,7 +5984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -5972,7 +6005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -5993,7 +6026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -6014,7 +6047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -6035,7 +6068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -6056,7 +6089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -6077,7 +6110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -6098,7 +6131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -6119,7 +6152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -6144,7 +6177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -6165,7 +6198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -6186,7 +6219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -6201,7 +6234,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>29</v>
       </c>
@@ -6216,7 +6249,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -6237,7 +6270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -6258,7 +6291,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -6279,7 +6312,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -6300,7 +6333,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -6321,7 +6354,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -6342,7 +6375,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -6363,7 +6396,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
@@ -6388,7 +6421,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -6403,7 +6436,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -6418,7 +6451,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -6433,7 +6466,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -6448,7 +6481,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -6463,7 +6496,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -6478,7 +6511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -6493,7 +6526,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -6508,7 +6541,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -6523,7 +6556,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -6538,7 +6571,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -6553,7 +6586,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -6572,7 +6605,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -6587,7 +6620,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -6602,7 +6635,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -6617,7 +6650,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -6632,7 +6665,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
@@ -6647,7 +6680,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -6662,7 +6695,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -6677,7 +6710,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -6692,7 +6725,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -6707,7 +6740,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
@@ -6722,7 +6755,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -6737,7 +6770,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" s="70">
         <v>93</v>
       </c>
@@ -6749,7 +6782,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="21">
         <v>100</v>
       </c>
@@ -6757,8 +6790,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="38">
         <v>150</v>
       </c>
@@ -6772,7 +6805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E69" s="42">
         <v>90</v>
       </c>
@@ -6780,7 +6813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C70" s="38">
         <v>151</v>
       </c>
@@ -6794,7 +6827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71" s="42">
         <v>90</v>
       </c>
@@ -6802,8 +6835,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="45">
         <v>155</v>
       </c>
@@ -6820,7 +6853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E74"/>
       <c r="F74" s="14">
         <v>0</v>
@@ -6829,10 +6862,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D75" s="25"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" s="40">
         <v>160</v>
       </c>
@@ -6843,7 +6876,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" s="19">
         <v>165</v>
       </c>
@@ -6854,7 +6887,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" s="19">
         <v>163</v>
       </c>
@@ -6868,7 +6901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="78">
         <v>164</v>
       </c>
@@ -6902,22 +6935,22 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="47" t="s">
         <v>64</v>
@@ -6937,12 +6970,12 @@
       <c r="I1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="211" t="s">
+      <c r="K1" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="211"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L1" s="213"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>200</v>
       </c>
@@ -6971,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>220</v>
       </c>
@@ -7000,7 +7033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>280</v>
       </c>
@@ -7023,7 +7056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>380</v>
       </c>
@@ -7046,7 +7079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>680</v>
       </c>
@@ -7069,7 +7102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H7" s="33">
         <v>236</v>
       </c>
@@ -7077,7 +7110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="30">
         <v>247</v>
       </c>
@@ -7103,22 +7136,22 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -7144,7 +7177,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="36">
         <v>0</v>
       </c>
@@ -7170,7 +7203,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>26</v>
       </c>
@@ -7196,7 +7229,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -7222,7 +7255,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -7248,7 +7281,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -7274,7 +7307,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -7300,7 +7333,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -7318,7 +7351,7 @@
       </c>
       <c r="I9" s="29"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="34">
         <v>6</v>
       </c>
@@ -7336,7 +7369,7 @@
       </c>
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="35">
         <v>21</v>
       </c>
@@ -7348,7 +7381,7 @@
       <c r="G11" s="105"/>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
         <v>22</v>
       </c>
@@ -7359,7 +7392,7 @@
       <c r="F12" s="29"/>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="35">
         <v>23</v>
       </c>
@@ -7378,7 +7411,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="34">
         <v>31</v>
       </c>
@@ -7397,7 +7430,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="34">
         <v>32</v>
       </c>
@@ -7416,7 +7449,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="34">
         <v>33</v>
       </c>
@@ -7435,7 +7468,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="35">
         <v>41</v>
       </c>
@@ -7454,7 +7487,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="35">
         <v>42</v>
       </c>
@@ -7473,7 +7506,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="35">
         <v>43</v>
       </c>
@@ -7492,7 +7525,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="35">
         <v>44</v>
       </c>
@@ -7511,7 +7544,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="34">
         <v>51</v>
       </c>
@@ -7530,7 +7563,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="34">
         <v>52</v>
       </c>
@@ -7538,7 +7571,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="34">
         <v>53</v>
       </c>
@@ -7546,7 +7579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="35">
         <v>61</v>
       </c>
@@ -7554,7 +7587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="35">
         <v>62</v>
       </c>
@@ -7562,7 +7595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="35">
         <v>63</v>
       </c>
@@ -7570,7 +7603,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="35">
         <v>64</v>
       </c>
@@ -7588,23 +7621,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="25"/>
+    <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="146" t="s">
         <v>239</v>
       </c>
@@ -7621,7 +7654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="149">
         <v>1</v>
       </c>
@@ -7635,7 +7668,7 @@
       <c r="F3" s="159"/>
       <c r="G3" s="81"/>
     </row>
-    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="150">
         <v>2</v>
       </c>
@@ -7653,7 +7686,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="150">
         <v>3</v>
       </c>
@@ -7671,7 +7704,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="150">
         <v>4</v>
       </c>
@@ -7689,7 +7722,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="150">
         <v>5</v>
       </c>
@@ -7703,7 +7736,7 @@
       <c r="F7" s="159"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="150">
         <v>6</v>
       </c>
@@ -7721,7 +7754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="150">
         <v>7</v>
       </c>
@@ -7739,7 +7772,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="150">
         <v>8</v>
       </c>
@@ -7757,7 +7790,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="150">
         <v>9</v>
       </c>
@@ -7775,7 +7808,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="150">
         <v>10</v>
       </c>
@@ -7793,7 +7826,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="150">
         <v>11</v>
       </c>
@@ -7811,7 +7844,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="150">
         <v>12</v>
       </c>
@@ -7829,7 +7862,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="150">
         <v>13</v>
       </c>
@@ -7847,7 +7880,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="150">
         <v>14</v>
       </c>
@@ -7865,7 +7898,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="150">
         <v>15</v>
       </c>
@@ -7883,7 +7916,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="150">
         <v>16</v>
       </c>
@@ -7901,7 +7934,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="150">
         <v>17</v>
       </c>
@@ -7919,7 +7952,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="150">
         <v>18</v>
       </c>
@@ -7933,7 +7966,7 @@
       <c r="F20" s="159"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="150">
         <v>19</v>
       </c>
@@ -7951,7 +7984,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="150">
         <v>20</v>
       </c>
@@ -7969,7 +8002,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="150">
         <v>21</v>
       </c>
@@ -7987,7 +8020,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="150">
         <v>22</v>
       </c>
@@ -8001,7 +8034,7 @@
       <c r="F24" s="159"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="150">
         <v>23</v>
       </c>
@@ -8015,7 +8048,7 @@
       <c r="F25" s="159"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="166">
         <v>24</v>
       </c>
@@ -8033,7 +8066,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="153">
         <v>1</v>
       </c>
@@ -8049,7 +8082,7 @@
       <c r="F27" s="159"/>
       <c r="G27" s="81"/>
     </row>
-    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="154">
         <v>2</v>
       </c>
@@ -8072,7 +8105,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="154">
         <v>3</v>
       </c>
@@ -8091,7 +8124,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="154">
         <v>4</v>
       </c>
@@ -8110,7 +8143,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="154">
         <v>5</v>
       </c>
@@ -8129,7 +8162,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="154">
         <v>6</v>
       </c>
@@ -8148,7 +8181,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="154">
         <v>7</v>
       </c>
@@ -8171,7 +8204,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="154">
         <v>8</v>
       </c>
@@ -8194,7 +8227,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="154">
         <v>9</v>
       </c>
@@ -8217,7 +8250,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="154">
         <v>10</v>
       </c>
@@ -8231,7 +8264,7 @@
       <c r="F36" s="159"/>
       <c r="G36" s="72"/>
     </row>
-    <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="154">
         <v>11</v>
       </c>
@@ -8245,7 +8278,7 @@
       <c r="F37" s="159"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="154">
         <v>12</v>
       </c>
@@ -8268,7 +8301,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="154">
         <v>13</v>
       </c>
@@ -8282,7 +8315,7 @@
       <c r="F39" s="159"/>
       <c r="G39" s="82"/>
     </row>
-    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="154">
         <v>14</v>
       </c>
@@ -8305,7 +8338,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="154">
         <v>15</v>
       </c>
@@ -8319,7 +8352,7 @@
       <c r="F41" s="159"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="154">
         <v>16</v>
       </c>
@@ -8335,7 +8368,7 @@
       <c r="F42" s="159"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="154">
         <v>17</v>
       </c>
@@ -8360,7 +8393,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="154">
         <v>18</v>
       </c>
@@ -8385,7 +8418,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="154">
         <v>19</v>
       </c>
@@ -8412,7 +8445,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="154">
         <v>20</v>
       </c>
@@ -8441,7 +8474,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="154">
         <v>21</v>
       </c>
@@ -8470,7 +8503,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="154">
         <v>22</v>
       </c>
@@ -8490,7 +8523,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="154">
         <v>23</v>
       </c>
@@ -8503,12 +8536,14 @@
       <c r="E49" s="72"/>
       <c r="F49" s="159"/>
       <c r="G49" s="12"/>
-      <c r="J49" s="31"/>
+      <c r="J49" s="30">
+        <v>130</v>
+      </c>
       <c r="K49" s="33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="155">
         <v>24</v>
       </c>
@@ -8527,7 +8562,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="151">
         <v>1</v>
       </c>
@@ -8545,7 +8580,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="152">
         <v>2</v>
       </c>
@@ -8563,7 +8598,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="152">
         <v>3</v>
       </c>
@@ -8581,7 +8616,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="152">
         <v>4</v>
       </c>
@@ -8599,7 +8634,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="152">
         <v>5</v>
       </c>
@@ -8617,7 +8652,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="152">
         <v>6</v>
       </c>
@@ -8633,7 +8668,7 @@
       <c r="F56" s="159"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="152">
         <v>7</v>
       </c>
@@ -8647,7 +8682,7 @@
       <c r="F57" s="159"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="152">
         <v>8</v>
       </c>
@@ -8663,7 +8698,7 @@
       <c r="F58" s="159"/>
       <c r="G58" s="72"/>
     </row>
-    <row r="59" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="152">
         <v>9</v>
       </c>
@@ -8677,7 +8712,7 @@
       <c r="F59" s="159"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="152">
         <v>10</v>
       </c>
@@ -8691,7 +8726,7 @@
       <c r="F60" s="159"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="152">
         <v>11</v>
       </c>
@@ -8707,7 +8742,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="158">
         <v>12</v>
       </c>
@@ -8723,7 +8758,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="156">
         <v>1</v>
       </c>
@@ -8752,14 +8787,14 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="120" t="s">
         <v>234</v>
       </c>
@@ -8770,7 +8805,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="118" t="s">
         <v>230</v>
       </c>
@@ -8797,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="114" t="s">
         <v>231</v>
       </c>
@@ -8824,7 +8859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="114" t="s">
         <v>233</v>
       </c>
@@ -8840,7 +8875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="115" t="s">
         <v>232</v>
       </c>
@@ -8855,10 +8890,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" s="29"/>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" s="29"/>
     </row>
   </sheetData>
@@ -8876,9 +8911,9 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>333</v>
       </c>
@@ -8904,7 +8939,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="29">
         <v>0</v>
       </c>
@@ -8943,7 +8978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="29">
         <v>10</v>
       </c>
@@ -8982,7 +9017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="29">
         <v>20</v>
       </c>
@@ -9016,7 +9051,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="29">
         <v>30</v>
       </c>
@@ -9061,7 +9096,7 @@
         <v>0.10989010989010989</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="29">
         <v>40</v>
       </c>
@@ -9085,7 +9120,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="29">
         <v>50</v>
       </c>
@@ -9109,7 +9144,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="29">
         <v>60</v>
       </c>
@@ -9133,7 +9168,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="29">
         <v>70</v>
       </c>
@@ -9157,7 +9192,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="29">
         <v>80</v>
       </c>
@@ -9181,7 +9216,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="29">
         <v>90</v>
       </c>
@@ -9205,7 +9240,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="29">
         <v>100</v>
       </c>
@@ -9229,7 +9264,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="29">
         <v>110</v>
       </c>
@@ -9253,7 +9288,7 @@
         <v>33.450000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="29">
         <v>120</v>
       </c>
@@ -9277,7 +9312,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="29">
         <v>130</v>
       </c>
@@ -9301,7 +9336,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="29">
         <v>140</v>
       </c>
@@ -9325,7 +9360,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="29">
         <v>150</v>
       </c>
@@ -9349,7 +9384,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="29">
         <v>160</v>
       </c>
@@ -9373,7 +9408,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="29">
         <v>170</v>
       </c>
@@ -9397,7 +9432,7 @@
         <v>39.15</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="29">
         <v>180</v>
       </c>
@@ -9421,7 +9456,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="29">
         <v>190</v>
       </c>
@@ -9445,7 +9480,7 @@
         <v>41.05</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="29">
         <v>200</v>
       </c>
@@ -9469,7 +9504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="29">
         <v>210</v>
       </c>
@@ -9493,7 +9528,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="29">
         <v>220</v>
       </c>
@@ -9517,7 +9552,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="29">
         <v>230</v>
       </c>
@@ -9541,7 +9576,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="29">
         <v>240</v>
       </c>
@@ -9566,7 +9601,7 @@
       </c>
       <c r="O31" s="29"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="29">
         <v>250</v>
       </c>
@@ -9590,7 +9625,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="29">
         <v>260</v>
       </c>
@@ -9614,7 +9649,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="29">
         <v>270</v>
       </c>
@@ -9638,7 +9673,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="29">
         <v>280</v>
       </c>
@@ -9662,7 +9697,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="29">
         <v>290</v>
       </c>
@@ -9686,7 +9721,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="29">
         <v>300</v>
       </c>
@@ -9710,7 +9745,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="29">
         <v>310</v>
       </c>
@@ -9740,7 +9775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="29">
         <v>320</v>
       </c>
@@ -9770,7 +9805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="29">
         <v>330</v>
       </c>
@@ -9794,7 +9829,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="29">
         <v>340</v>
       </c>
@@ -9818,7 +9853,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="29">
         <v>350</v>
       </c>
@@ -9842,7 +9877,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="29">
         <v>360</v>
       </c>
@@ -9866,7 +9901,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="29">
         <v>370</v>
       </c>
@@ -9890,7 +9925,7 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="29">
         <v>380</v>
       </c>
@@ -9914,7 +9949,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="29">
         <v>390</v>
       </c>
@@ -9938,7 +9973,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="29">
         <v>400</v>
       </c>
@@ -9962,7 +9997,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="29">
         <v>410</v>
       </c>
@@ -9986,7 +10021,7 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="29">
         <v>420</v>
       </c>
@@ -10010,7 +10045,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="29">
         <v>430</v>
       </c>
@@ -10034,7 +10069,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="29">
         <v>440</v>
       </c>
@@ -10058,7 +10093,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="29">
         <v>450</v>
       </c>
@@ -10082,7 +10117,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="29">
         <v>460</v>
       </c>
@@ -10106,7 +10141,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="29">
         <v>470</v>
       </c>
@@ -10130,7 +10165,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="29">
         <v>480</v>
       </c>
@@ -10154,7 +10189,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="29">
         <v>490</v>
       </c>
@@ -10178,7 +10213,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="29">
         <v>500</v>
       </c>
@@ -10202,7 +10237,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="29">
         <v>510</v>
       </c>
@@ -10226,7 +10261,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="29">
         <v>520</v>
       </c>
@@ -10250,7 +10285,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="29">
         <v>530</v>
       </c>
@@ -10274,7 +10309,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="29">
         <v>540</v>
       </c>
@@ -10298,7 +10333,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="29">
         <v>550</v>
       </c>
@@ -10322,7 +10357,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="29">
         <v>560</v>
       </c>
@@ -10346,7 +10381,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="29">
         <v>570</v>
       </c>
@@ -10370,7 +10405,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="29">
         <v>580</v>
       </c>
@@ -10394,7 +10429,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="29">
         <v>590</v>
       </c>
@@ -10418,7 +10453,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="29">
         <v>600</v>
       </c>
@@ -10442,7 +10477,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="29">
         <v>610</v>
       </c>
@@ -10466,7 +10501,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="29">
         <v>620</v>
       </c>
@@ -10490,7 +10525,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="29">
         <v>630</v>
       </c>
@@ -10514,7 +10549,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="29">
         <v>640</v>
       </c>
@@ -10538,7 +10573,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="29">
         <v>650</v>
       </c>
@@ -10562,7 +10597,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="29">
         <v>660</v>
       </c>
@@ -10586,7 +10621,7 @@
         <v>83.72</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="29">
         <v>670</v>
       </c>
@@ -10610,7 +10645,7 @@
         <v>84.64</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="29">
         <v>680</v>
       </c>
@@ -10634,7 +10669,7 @@
         <v>85.56</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="29">
         <v>690</v>
       </c>
@@ -10658,7 +10693,7 @@
         <v>86.47999999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="29">
         <v>700</v>
       </c>
@@ -10682,7 +10717,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="29">
         <v>710</v>
       </c>
@@ -10706,7 +10741,7 @@
         <v>88.32</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="29">
         <v>720</v>
       </c>
@@ -10730,7 +10765,7 @@
         <v>89.24</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="29">
         <v>730</v>
       </c>
@@ -10754,7 +10789,7 @@
         <v>90.16</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="29">
         <v>740</v>
       </c>
@@ -10778,7 +10813,7 @@
         <v>91.08</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="29">
         <v>750</v>
       </c>
@@ -10802,7 +10837,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="29">
         <v>760</v>
       </c>
@@ -10826,7 +10861,7 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="29">
         <v>770</v>
       </c>
@@ -10850,7 +10885,7 @@
         <v>93.84</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="29">
         <v>780</v>
       </c>
@@ -10874,7 +10909,7 @@
         <v>94.76</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="29">
         <v>790</v>
       </c>
@@ -10898,7 +10933,7 @@
         <v>95.679999999999993</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="29">
         <v>800</v>
       </c>
@@ -10922,7 +10957,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="29">
         <v>810</v>
       </c>
@@ -10946,7 +10981,7 @@
         <v>97.52</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="29">
         <v>820</v>
       </c>
@@ -10970,7 +11005,7 @@
         <v>98.44</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="29">
         <v>830</v>
       </c>
@@ -10994,7 +11029,7 @@
         <v>99.36</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="29">
         <v>840</v>
       </c>
@@ -11018,7 +11053,7 @@
         <v>100.28</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="194">
         <v>850</v>
       </c>
@@ -11042,7 +11077,7 @@
         <v>101.2</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="29">
         <v>860</v>
       </c>
@@ -11066,7 +11101,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="29">
         <v>870</v>
       </c>
@@ -11090,7 +11125,7 @@
         <v>105.65</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="29">
         <v>880</v>
       </c>
@@ -11114,7 +11149,7 @@
         <v>106.6</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="29">
         <v>890</v>
       </c>
@@ -11138,7 +11173,7 @@
         <v>107.55</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="29">
         <v>900</v>
       </c>
@@ -11162,7 +11197,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="29">
         <v>910</v>
       </c>
@@ -11186,7 +11221,7 @@
         <v>109.45</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="29">
         <v>920</v>
       </c>
@@ -11210,7 +11245,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="29">
         <v>930</v>
       </c>
@@ -11234,7 +11269,7 @@
         <v>111.35</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="29">
         <v>940</v>
       </c>
@@ -11258,7 +11293,7 @@
         <v>112.3</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="29">
         <v>950</v>
       </c>
@@ -11282,7 +11317,7 @@
         <v>113.25</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="29">
         <v>960</v>
       </c>
@@ -11306,7 +11341,7 @@
         <v>114.2</v>
       </c>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="29">
         <v>970</v>
       </c>
@@ -11330,7 +11365,7 @@
         <v>115.15</v>
       </c>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" s="29">
         <v>980</v>
       </c>
@@ -11354,7 +11389,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="29">
         <v>990</v>
       </c>
@@ -11378,7 +11413,7 @@
         <v>117.05</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="29">
         <v>1000</v>
       </c>
@@ -11402,7 +11437,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="29">
         <v>1010</v>
       </c>
@@ -11426,7 +11461,7 @@
         <v>118.95</v>
       </c>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="29">
         <v>1020</v>
       </c>
@@ -11459,24 +11494,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125AF8B-2E62-4DF1-9548-A1621FB537F6}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="178" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="178" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="175" t="s">
         <v>266</v>
       </c>
@@ -11502,7 +11537,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="179" t="s">
         <v>53</v>
       </c>
@@ -11529,7 +11564,7 @@
         <v>Casandra/Cuartos/LuzEstado/01</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="184" t="s">
         <v>53</v>
       </c>
@@ -11556,7 +11591,7 @@
         <v>Casandra/Cuartos/LuzEstado/02</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="184" t="s">
         <v>53</v>
       </c>
@@ -11583,7 +11618,7 @@
         <v>Casandra/Cuartos/LuzEstado/03</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="184" t="s">
         <v>53</v>
       </c>
@@ -11610,7 +11645,7 @@
         <v>Casandra/Cuartos/LuzEstado/04</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="184" t="s">
         <v>53</v>
       </c>
@@ -11637,7 +11672,7 @@
         <v>Casandra/Cuartos/LuzEstado/05</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="184" t="s">
         <v>53</v>
       </c>
@@ -11664,7 +11699,7 @@
         <v>Casandra/Cuartos/LuzEstado/06</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="184" t="s">
         <v>53</v>
       </c>
@@ -11691,7 +11726,7 @@
         <v>Casandra/Cuartos/LuzEstado/07</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="184" t="s">
         <v>53</v>
       </c>
@@ -11718,7 +11753,7 @@
         <v>Casandra/Cuartos/LuzEstado/08</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="184" t="s">
         <v>53</v>
       </c>
@@ -11745,7 +11780,7 @@
         <v>Casandra/Cuartos/LuzEstado/09</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="184" t="s">
         <v>53</v>
       </c>
@@ -11772,7 +11807,7 @@
         <v>Casandra/Cuartos/LuzEstado/10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="184" t="s">
         <v>53</v>
       </c>
@@ -11799,7 +11834,7 @@
         <v>Casandra/Cuartos/LuzEstado/11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="184" t="s">
         <v>53</v>
       </c>
@@ -11826,7 +11861,7 @@
         <v>Casandra/Cuartos/LuzEstado/12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="184" t="s">
         <v>53</v>
       </c>
@@ -11853,7 +11888,7 @@
         <v>Casandra/Cuartos/LuzEstado/13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="184" t="s">
         <v>53</v>
       </c>
@@ -11880,7 +11915,7 @@
         <v>Casandra/Cuartos/LuzEstado/14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="184" t="s">
         <v>53</v>
       </c>
@@ -11907,7 +11942,7 @@
         <v>Casandra/Cuartos/LuzEstado/15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="184" t="s">
         <v>53</v>
       </c>
@@ -11934,7 +11969,7 @@
         <v>Casandra/Cuartos/LuzEstado/16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="184" t="s">
         <v>53</v>
       </c>
@@ -11961,7 +11996,7 @@
         <v>Casandra/Cuartos/LuzEstado/17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="184" t="s">
         <v>53</v>
       </c>
@@ -11988,7 +12023,7 @@
         <v>Casandra/Cuartos/LuzEstado/18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="184" t="s">
         <v>53</v>
       </c>
@@ -12015,7 +12050,7 @@
         <v>Casandra/Cuartos/LuzEstado/19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="184" t="s">
         <v>53</v>
       </c>
@@ -12042,7 +12077,7 @@
         <v>Casandra/Cuartos/LuzEstado/20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="184" t="s">
         <v>53</v>
       </c>
@@ -12069,7 +12104,7 @@
         <v>Casandra/Cuartos/LuzEstado/21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="184" t="s">
         <v>53</v>
       </c>
@@ -12096,7 +12131,7 @@
         <v>Casandra/Cuartos/LuzEstado/22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="184" t="s">
         <v>53</v>
       </c>
@@ -12123,7 +12158,7 @@
         <v>Casandra/Cuartos/LuzEstado/23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="184" t="s">
         <v>53</v>
       </c>
@@ -12150,7 +12185,7 @@
         <v>Casandra/Cuartos/LuzEstado/24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="184" t="s">
         <v>53</v>
       </c>
@@ -12177,7 +12212,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/01</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="184" t="s">
         <v>53</v>
       </c>
@@ -12204,7 +12239,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/02</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="184" t="s">
         <v>53</v>
       </c>
@@ -12231,7 +12266,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/03</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="184" t="s">
         <v>53</v>
       </c>
@@ -12258,7 +12293,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/04</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="184" t="s">
         <v>53</v>
       </c>
@@ -12285,7 +12320,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/05</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="184" t="s">
         <v>53</v>
       </c>
@@ -12312,7 +12347,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/06</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="184" t="s">
         <v>53</v>
       </c>
@@ -12339,7 +12374,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/07</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="184" t="s">
         <v>53</v>
       </c>
@@ -12366,7 +12401,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/08</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="184" t="s">
         <v>53</v>
       </c>
@@ -12393,7 +12428,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/09</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="184" t="s">
         <v>53</v>
       </c>
@@ -12420,7 +12455,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="184" t="s">
         <v>53</v>
       </c>
@@ -12447,7 +12482,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="184" t="s">
         <v>53</v>
       </c>
@@ -12474,7 +12509,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="184" t="s">
         <v>53</v>
       </c>
@@ -12501,7 +12536,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="184" t="s">
         <v>53</v>
       </c>
@@ -12528,7 +12563,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="184" t="s">
         <v>53</v>
       </c>
@@ -12555,7 +12590,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="184" t="s">
         <v>53</v>
       </c>
@@ -12582,7 +12617,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/16</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="184" t="s">
         <v>53</v>
       </c>
@@ -12609,7 +12644,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/17</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="184" t="s">
         <v>53</v>
       </c>
@@ -12636,7 +12671,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/18</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="184" t="s">
         <v>53</v>
       </c>
@@ -12663,7 +12698,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/19</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="184" t="s">
         <v>53</v>
       </c>
@@ -12690,7 +12725,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/20</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="184" t="s">
         <v>53</v>
       </c>
@@ -12717,7 +12752,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/21</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="184" t="s">
         <v>53</v>
       </c>
@@ -12744,7 +12779,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/22</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="184" t="s">
         <v>53</v>
       </c>
@@ -12771,7 +12806,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/23</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="184" t="s">
         <v>53</v>
       </c>
@@ -12798,7 +12833,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/24</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="184" t="s">
         <v>53</v>
       </c>
@@ -12825,7 +12860,7 @@
         <v>Casandra/Cuartos/Temperatura/01</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="184" t="s">
         <v>53</v>
       </c>
@@ -12852,7 +12887,7 @@
         <v>Casandra/Cuartos/Temperatura/02</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="184" t="s">
         <v>53</v>
       </c>
@@ -12879,7 +12914,7 @@
         <v>Casandra/Cuartos/Humedad/01</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="184" t="s">
         <v>53</v>
       </c>
@@ -12906,7 +12941,7 @@
         <v>Casandra/Cuartos/Humedad/02</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="184" t="s">
         <v>53</v>
       </c>
@@ -12933,7 +12968,7 @@
         <v>Casandra/Cuartos/SensorMov/01</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="187" t="s">
         <v>53</v>
       </c>
@@ -12960,7 +12995,7 @@
         <v>Casandra/Cuartos/SensorMov/02</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="179" t="s">
         <v>53</v>
       </c>
@@ -12987,7 +13022,7 @@
         <v>Casandra/Cocina/LuzEstado/01</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="184" t="s">
         <v>53</v>
       </c>
@@ -13014,7 +13049,7 @@
         <v>Casandra/Cocina/LuzEstado/02</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="184" t="s">
         <v>53</v>
       </c>
@@ -13041,7 +13076,7 @@
         <v>Casandra/Cocina/LuzEstado/03</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="184" t="s">
         <v>53</v>
       </c>
@@ -13068,7 +13103,7 @@
         <v>Casandra/Cocina/LuzEstado/04</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="184" t="s">
         <v>53</v>
       </c>
@@ -13095,7 +13130,7 @@
         <v>Casandra/Cocina/LuzEstado/05</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="184" t="s">
         <v>53</v>
       </c>
@@ -13122,7 +13157,7 @@
         <v>Casandra/Cocina/LuzEstado/06</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="184" t="s">
         <v>53</v>
       </c>
@@ -13149,7 +13184,7 @@
         <v>Casandra/Cocina/LuzEstado/07</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="184" t="s">
         <v>53</v>
       </c>
@@ -13176,7 +13211,7 @@
         <v>Casandra/Cocina/LuzEstado/08</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="184" t="s">
         <v>53</v>
       </c>
@@ -13203,7 +13238,7 @@
         <v>Casandra/Cocina/LuzEstado/09</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="184" t="s">
         <v>53</v>
       </c>
@@ -13230,7 +13265,7 @@
         <v>Casandra/Cocina/LuzEstado/10</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="184" t="s">
         <v>53</v>
       </c>
@@ -13257,7 +13292,7 @@
         <v>Casandra/Cocina/LuzEstado/11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="184" t="s">
         <v>53</v>
       </c>
@@ -13284,7 +13319,7 @@
         <v>Casandra/Cocina/LuzEstado/12</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="184" t="s">
         <v>53</v>
       </c>
@@ -13311,7 +13346,7 @@
         <v>Casandra/Cocina/LuzEstado/13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="184" t="s">
         <v>53</v>
       </c>
@@ -13338,7 +13373,7 @@
         <v>Casandra/Cocina/LuzEstado/14</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="184" t="s">
         <v>53</v>
       </c>
@@ -13365,7 +13400,7 @@
         <v>Casandra/Cocina/LuzEstado/15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="184" t="s">
         <v>53</v>
       </c>
@@ -13392,7 +13427,7 @@
         <v>Casandra/Cocina/LuzEstado/16</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="184" t="s">
         <v>53</v>
       </c>
@@ -13419,7 +13454,7 @@
         <v>Casandra/Cocina/LuzEstado/17</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="184" t="s">
         <v>53</v>
       </c>
@@ -13446,7 +13481,7 @@
         <v>Casandra/Cocina/LuzEstado/18</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="184" t="s">
         <v>53</v>
       </c>
@@ -13473,7 +13508,7 @@
         <v>Casandra/Cocina/LuzEstado/19</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="184" t="s">
         <v>53</v>
       </c>
@@ -13500,7 +13535,7 @@
         <v>Casandra/Cocina/LuzEstado/20</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="184" t="s">
         <v>53</v>
       </c>
@@ -13527,7 +13562,7 @@
         <v>Casandra/Cocina/LuzEstado/21</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="184" t="s">
         <v>53</v>
       </c>
@@ -13554,7 +13589,7 @@
         <v>Casandra/Cocina/LuzEstado/22</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="184" t="s">
         <v>53</v>
       </c>
@@ -13581,7 +13616,7 @@
         <v>Casandra/Cocina/LuzEstado/23</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="184" t="s">
         <v>53</v>
       </c>
@@ -13608,7 +13643,7 @@
         <v>Casandra/Cocina/LuzEstado/24</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="184" t="s">
         <v>53</v>
       </c>
@@ -13635,7 +13670,7 @@
         <v>Casandra/Cocina/LuzEstado/25</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="184" t="s">
         <v>53</v>
       </c>
@@ -13662,7 +13697,7 @@
         <v>Casandra/Cocina/LuzEstado/26</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="184" t="s">
         <v>53</v>
       </c>
@@ -13689,7 +13724,7 @@
         <v>Casandra/Cocina/LuzIntensidad/01</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="184" t="s">
         <v>53</v>
       </c>
@@ -13716,7 +13751,7 @@
         <v>Casandra/Cocina/LuzIntensidad/02</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="184" t="s">
         <v>53</v>
       </c>
@@ -13743,7 +13778,7 @@
         <v>Casandra/Cocina/LuzIntensidad/03</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="184" t="s">
         <v>53</v>
       </c>
@@ -13770,7 +13805,7 @@
         <v>Casandra/Cocina/LuzIntensidad/04</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="184" t="s">
         <v>53</v>
       </c>
@@ -13797,7 +13832,7 @@
         <v>Casandra/Cocina/LuzIntensidad/05</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="184" t="s">
         <v>53</v>
       </c>
@@ -13824,7 +13859,7 @@
         <v>Casandra/Cocina/LuzIntensidad/06</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="184" t="s">
         <v>53</v>
       </c>
@@ -13851,7 +13886,7 @@
         <v>Casandra/Cocina/LuzIntensidad/07</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="184" t="s">
         <v>53</v>
       </c>
@@ -13878,7 +13913,7 @@
         <v>Casandra/Cocina/LuzIntensidad/08</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="184" t="s">
         <v>53</v>
       </c>
@@ -13905,7 +13940,7 @@
         <v>Casandra/Cocina/LuzIntensidad/09</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="184" t="s">
         <v>53</v>
       </c>
@@ -13932,7 +13967,7 @@
         <v>Casandra/Cocina/LuzIntensidad/10</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="184" t="s">
         <v>53</v>
       </c>
@@ -13959,7 +13994,7 @@
         <v>Casandra/Cocina/LuzIntensidad/11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="184" t="s">
         <v>53</v>
       </c>
@@ -13986,7 +14021,7 @@
         <v>Casandra/Cocina/LuzIntensidad/12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="184" t="s">
         <v>53</v>
       </c>
@@ -14013,7 +14048,7 @@
         <v>Casandra/Cocina/LuzIntensidad/13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="184" t="s">
         <v>53</v>
       </c>
@@ -14040,7 +14075,7 @@
         <v>Casandra/Cocina/LuzIntensidad/14</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="184" t="s">
         <v>53</v>
       </c>
@@ -14067,7 +14102,7 @@
         <v>Casandra/Cocina/LuzIntensidad/15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="184" t="s">
         <v>53</v>
       </c>
@@ -14094,7 +14129,7 @@
         <v>Casandra/Cocina/LuzIntensidad/16</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="184" t="s">
         <v>53</v>
       </c>
@@ -14121,7 +14156,7 @@
         <v>Casandra/Cocina/LuzIntensidad/17</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="184" t="s">
         <v>53</v>
       </c>
@@ -14148,7 +14183,7 @@
         <v>Casandra/Cocina/LuzIntensidad/18</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="184" t="s">
         <v>53</v>
       </c>
@@ -14175,7 +14210,7 @@
         <v>Casandra/Cocina/LuzIntensidad/19</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="184" t="s">
         <v>53</v>
       </c>
@@ -14202,7 +14237,7 @@
         <v>Casandra/Cocina/LuzIntensidad/20</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="184" t="s">
         <v>53</v>
       </c>
@@ -14229,7 +14264,7 @@
         <v>Casandra/Cocina/LuzIntensidad/21</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="184" t="s">
         <v>53</v>
       </c>
@@ -14256,7 +14291,7 @@
         <v>Casandra/Cocina/LuzIntensidad/22</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="184" t="s">
         <v>53</v>
       </c>
@@ -14283,7 +14318,7 @@
         <v>Casandra/Cocina/LuzIntensidad/23</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="184" t="s">
         <v>53</v>
       </c>
@@ -14310,7 +14345,7 @@
         <v>Casandra/Cocina/LuzIntensidad/24</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="184" t="s">
         <v>53</v>
       </c>
@@ -14337,7 +14372,7 @@
         <v>Casandra/Cocina/Temperatura/01</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="184" t="s">
         <v>53</v>
       </c>
@@ -14364,7 +14399,7 @@
         <v>Casandra/Cocina/Temperatura/02</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="184" t="s">
         <v>53</v>
       </c>
@@ -14391,7 +14426,7 @@
         <v>Casandra/Cocina/Humedad/01</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="184" t="s">
         <v>53</v>
       </c>
@@ -14418,7 +14453,7 @@
         <v>Casandra/Cocina/Humedad/02</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="184" t="s">
         <v>53</v>
       </c>
@@ -14445,7 +14480,7 @@
         <v>Casandra/Cocina/SensorMov/01</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="184" t="s">
         <v>53</v>
       </c>
@@ -14472,7 +14507,7 @@
         <v>Casandra/Cocina/SensorMov/02</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="184" t="s">
         <v>53</v>
       </c>
@@ -14499,7 +14534,7 @@
         <v>Casandra/Cocina/SensorMov/03</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="184" t="s">
         <v>53</v>
       </c>
@@ -14526,7 +14561,7 @@
         <v>Casandra/Cocina/SensorMov/04</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="184" t="s">
         <v>53</v>
       </c>
@@ -14553,7 +14588,7 @@
         <v>Casandra/Cocina/SensorMov/05</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="187" t="s">
         <v>53</v>
       </c>
@@ -14580,7 +14615,7 @@
         <v>Casandra/Cocina/SensorMov/06</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="179" t="s">
         <v>53</v>
       </c>
@@ -14607,7 +14642,7 @@
         <v>Casandra/Galeria/LuzEstado/01</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="184" t="s">
         <v>53</v>
       </c>
@@ -14634,7 +14669,7 @@
         <v>Casandra/Galeria/LuzEstado/02</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="184" t="s">
         <v>53</v>
       </c>
@@ -14661,7 +14696,7 @@
         <v>Casandra/Galeria/LuzEstado/03</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="184" t="s">
         <v>53</v>
       </c>
@@ -14688,7 +14723,7 @@
         <v>Casandra/Galeria/LuzEstado/04</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="184" t="s">
         <v>53</v>
       </c>
@@ -14715,7 +14750,7 @@
         <v>Casandra/Galeria/LuzEstado/05</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="184" t="s">
         <v>53</v>
       </c>
@@ -14742,7 +14777,7 @@
         <v>Casandra/Galeria/LuzEstado/06</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="184" t="s">
         <v>53</v>
       </c>
@@ -14769,7 +14804,7 @@
         <v>Casandra/Galeria/LuzEstado/07</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="184" t="s">
         <v>53</v>
       </c>
@@ -14796,7 +14831,7 @@
         <v>Casandra/Galeria/LuzEstado/08</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="184" t="s">
         <v>53</v>
       </c>
@@ -14823,7 +14858,7 @@
         <v>Casandra/Galeria/LuzEstado/09</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="184" t="s">
         <v>53</v>
       </c>
@@ -14850,7 +14885,7 @@
         <v>Casandra/Galeria/LuzEstado/10</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="184" t="s">
         <v>53</v>
       </c>
@@ -14877,7 +14912,7 @@
         <v>Casandra/Galeria/LuzEstado/11</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="184" t="s">
         <v>53</v>
       </c>
@@ -14904,7 +14939,7 @@
         <v>Casandra/Galeria/LuzEstado/12</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="184" t="s">
         <v>53</v>
       </c>
@@ -14931,7 +14966,7 @@
         <v>Casandra/Galeria/LuzIntensidad/01</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="184" t="s">
         <v>53</v>
       </c>
@@ -14958,7 +14993,7 @@
         <v>Casandra/Galeria/LuzIntensidad/02</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="184" t="s">
         <v>53</v>
       </c>
@@ -14985,7 +15020,7 @@
         <v>Casandra/Galeria/LuzIntensidad/03</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="184" t="s">
         <v>53</v>
       </c>
@@ -15012,7 +15047,7 @@
         <v>Casandra/Galeria/LuzIntensidad/04</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="184" t="s">
         <v>53</v>
       </c>
@@ -15039,7 +15074,7 @@
         <v>Casandra/Galeria/LuzIntensidad/05</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="184" t="s">
         <v>53</v>
       </c>
@@ -15066,7 +15101,7 @@
         <v>Casandra/Galeria/LuzIntensidad/06</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="184" t="s">
         <v>53</v>
       </c>
@@ -15093,7 +15128,7 @@
         <v>Casandra/Galeria/LuzIntensidad/07</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="184" t="s">
         <v>53</v>
       </c>
@@ -15120,7 +15155,7 @@
         <v>Casandra/Galeria/LuzIntensidad/08</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="184" t="s">
         <v>53</v>
       </c>
@@ -15147,7 +15182,7 @@
         <v>Casandra/Galeria/LuzIntensidad/09</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="184" t="s">
         <v>53</v>
       </c>
@@ -15174,7 +15209,7 @@
         <v>Casandra/Galeria/LuzIntensidad/10</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="184" t="s">
         <v>53</v>
       </c>
@@ -15201,7 +15236,7 @@
         <v>Casandra/Galeria/LuzIntensidad/11</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="184" t="s">
         <v>53</v>
       </c>
@@ -15228,7 +15263,7 @@
         <v>Casandra/Galeria/LuzIntensidad/12</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="184" t="s">
         <v>53</v>
       </c>
@@ -15255,7 +15290,7 @@
         <v>Casandra/Galeria/Temperatura/01</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="184" t="s">
         <v>53</v>
       </c>
@@ -15282,7 +15317,7 @@
         <v>Casandra/Galeria/Temperatura/02</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="184" t="s">
         <v>53</v>
       </c>
@@ -15309,7 +15344,7 @@
         <v>Casandra/Galeria/Humedad/01</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="184" t="s">
         <v>53</v>
       </c>
@@ -15336,7 +15371,7 @@
         <v>Casandra/Galeria/Humedad/02</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="184" t="s">
         <v>53</v>
       </c>
@@ -15363,7 +15398,7 @@
         <v>Casandra/Galeria/SensorMov/01</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="184" t="s">
         <v>53</v>
       </c>
@@ -15390,7 +15425,7 @@
         <v>Casandra/Galeria/SensorMov/02</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="179" t="s">
         <v>53</v>
       </c>
@@ -15415,7 +15450,7 @@
         <v>Casandra/Hall/Sodios</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="184" t="s">
         <v>53</v>
       </c>
@@ -15440,7 +15475,7 @@
         <v>Casandra/Hall/Sirena</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="184" t="s">
         <v>53</v>
       </c>
@@ -15465,7 +15500,7 @@
         <v>Casandra/Hall/LuzCamino</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="184" t="s">
         <v>53</v>
       </c>
@@ -15490,7 +15525,7 @@
         <v>Casandra/Hall/LuzEntrada</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="184" t="s">
         <v>53</v>
       </c>
@@ -15515,7 +15550,7 @@
         <v>Casandra/Hall/Porton</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="187" t="s">
         <v>53</v>
       </c>
@@ -15540,7 +15575,7 @@
         <v>Casandra/Hall/Timbre</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="179" t="s">
         <v>53</v>
       </c>
@@ -15565,7 +15600,7 @@
         <v>Casandra/Caldera/LuzSolar</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="184" t="s">
         <v>53</v>
       </c>
@@ -15590,7 +15625,7 @@
         <v>Casandra/Caldera/Lluvia</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="184" t="s">
         <v>53</v>
       </c>
@@ -15615,7 +15650,7 @@
         <v>Casandra/Caldera/Temperatura</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="184" t="s">
         <v>53</v>
       </c>
@@ -15642,7 +15677,7 @@
         <v>Casandra/Caldera/LuzEstado/01</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="184" t="s">
         <v>53</v>
       </c>
@@ -15669,7 +15704,7 @@
         <v>Casandra/Caldera/LuzEstado/02</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="184" t="s">
         <v>53</v>
       </c>
@@ -15696,7 +15731,7 @@
         <v>Casandra/Caldera/LuzEstado/03</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="184" t="s">
         <v>53</v>
       </c>
@@ -15721,7 +15756,7 @@
         <v>Casandra/Caldera/Termostato</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="184" t="s">
         <v>53</v>
       </c>
@@ -15748,7 +15783,7 @@
         <v>Casandra/Caldera/SensorMov/01</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="187" t="s">
         <v>53</v>
       </c>
@@ -15773,6 +15808,156 @@
       <c r="H160" s="191" t="str">
         <f>CONCATENATE(A160,"/",B160,"/",C160,"/",D160,)</f>
         <v>Casandra/Caldera/SensorMov/02</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" s="180" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" s="180" t="s">
+        <v>343</v>
+      </c>
+      <c r="D161" s="180"/>
+      <c r="E161" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="F161" s="182" t="s">
+        <v>348</v>
+      </c>
+      <c r="G161" s="180" t="s">
+        <v>307</v>
+      </c>
+      <c r="H161" s="183" t="str">
+        <f t="shared" ref="H161:H165" si="7">CONCATENATE(A161,"/",B161,"/",C161,)</f>
+        <v>Casandra/Porton/SwAbrir</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B162" s="198" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" s="198" t="s">
+        <v>344</v>
+      </c>
+      <c r="D162" s="198"/>
+      <c r="E162" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="F162" s="199" t="s">
+        <v>348</v>
+      </c>
+      <c r="G162" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H162" s="186" t="str">
+        <f t="shared" si="7"/>
+        <v>Casandra/Porton/SwCerrar</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B163" s="198" t="s">
+        <v>321</v>
+      </c>
+      <c r="C163" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="D163" s="198"/>
+      <c r="E163" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="F163" s="199" t="s">
+        <v>347</v>
+      </c>
+      <c r="G163" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H163" s="186" t="str">
+        <f t="shared" si="7"/>
+        <v>Casandra/Porton/LuzCamino</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B164" s="198" t="s">
+        <v>321</v>
+      </c>
+      <c r="C164" s="198" t="s">
+        <v>324</v>
+      </c>
+      <c r="D164" s="185"/>
+      <c r="E164" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="F164" s="199" t="s">
+        <v>349</v>
+      </c>
+      <c r="G164" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H164" s="186" t="str">
+        <f t="shared" si="7"/>
+        <v>Casandra/Porton/Timbre</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" s="198" t="s">
+        <v>321</v>
+      </c>
+      <c r="C165" s="198" t="s">
+        <v>345</v>
+      </c>
+      <c r="D165" s="185"/>
+      <c r="E165" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="F165" s="199" t="s">
+        <v>350</v>
+      </c>
+      <c r="G165" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H165" s="186" t="str">
+        <f t="shared" si="7"/>
+        <v>Casandra/Porton/SensPuerta</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B166" s="188" t="s">
+        <v>321</v>
+      </c>
+      <c r="C166" s="188" t="s">
+        <v>346</v>
+      </c>
+      <c r="D166" s="189"/>
+      <c r="E166" s="188" t="s">
+        <v>275</v>
+      </c>
+      <c r="F166" s="190" t="s">
+        <v>351</v>
+      </c>
+      <c r="G166" s="188" t="s">
+        <v>307</v>
+      </c>
+      <c r="H166" s="191" t="str">
+        <f>CONCATENATE(A166,"/",B166,"/",C166,)</f>
+        <v>Casandra/Porton/SensPorton</v>
       </c>
     </row>
   </sheetData>

--- a/Soft/Dimer.xlsx
+++ b/Soft/Dimer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.Datos\Electronica\Proyectos\Microchip\Git\Casandra\Soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1EB585-E1D8-4A3E-A7C3-45FAA059C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14388E68-C546-4DB3-A99A-B89AC55C003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sensor de Luz 2" sheetId="8" r:id="rId6"/>
     <sheet name="Sensor Luz v3" sheetId="9" r:id="rId7"/>
     <sheet name="Red MQTT" sheetId="10" r:id="rId8"/>
+    <sheet name="MapeoIR" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Comandos!#REF!</definedName>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="417">
   <si>
     <t>Valor</t>
   </si>
@@ -1347,12 +1348,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>SwAbrir</t>
-  </si>
-  <si>
-    <t>SwCerrar</t>
-  </si>
-  <si>
     <t>SensPuerta</t>
   </si>
   <si>
@@ -1372,6 +1367,207 @@
   </si>
   <si>
     <t>Sensor de porton</t>
+  </si>
+  <si>
+    <t>Estar</t>
+  </si>
+  <si>
+    <t>byte1,byte2,byte3</t>
+  </si>
+  <si>
+    <t>Colores de 0 a 255 secuencia R-G-B</t>
+  </si>
+  <si>
+    <t>LuzRGB</t>
+  </si>
+  <si>
+    <t>Boton de encendido de TV</t>
+  </si>
+  <si>
+    <t>DecoBtn0</t>
+  </si>
+  <si>
+    <t>DecoBtn1</t>
+  </si>
+  <si>
+    <t>DecoBtn2</t>
+  </si>
+  <si>
+    <t>DecoBtn3</t>
+  </si>
+  <si>
+    <t>DecoBtn4</t>
+  </si>
+  <si>
+    <t>DecoBtn5</t>
+  </si>
+  <si>
+    <t>DecoBtn6</t>
+  </si>
+  <si>
+    <t>DecoBtn7</t>
+  </si>
+  <si>
+    <t>DecoBtn8</t>
+  </si>
+  <si>
+    <t>DecoBtn9</t>
+  </si>
+  <si>
+    <t>Boton 0 deco Express</t>
+  </si>
+  <si>
+    <t>Boton 1 deco Express</t>
+  </si>
+  <si>
+    <t>Boton 2 deco Express</t>
+  </si>
+  <si>
+    <t>Boton 3 deco Express</t>
+  </si>
+  <si>
+    <t>Boton 4 deco Express</t>
+  </si>
+  <si>
+    <t>Boton 5 deco Express</t>
+  </si>
+  <si>
+    <t>Boton 6 deco Express</t>
+  </si>
+  <si>
+    <t>Boton 7 deco Express</t>
+  </si>
+  <si>
+    <t>Boton 8 deco Express</t>
+  </si>
+  <si>
+    <t>Boton 9 deco Express</t>
+  </si>
+  <si>
+    <t>"PRESS"</t>
+  </si>
+  <si>
+    <t>BtnAbrir</t>
+  </si>
+  <si>
+    <t>BtnCerrar</t>
+  </si>
+  <si>
+    <t>BtnOnTV</t>
+  </si>
+  <si>
+    <t>BtnOnDeco</t>
+  </si>
+  <si>
+    <t>BtnCanalUpDeco</t>
+  </si>
+  <si>
+    <t>BtnCanalDoDeco</t>
+  </si>
+  <si>
+    <t>BtnVolDoDeco</t>
+  </si>
+  <si>
+    <t>BtnVolUpDeco</t>
+  </si>
+  <si>
+    <t>Boton de encendido de Deco</t>
+  </si>
+  <si>
+    <t>Subir canal Deco</t>
+  </si>
+  <si>
+    <t>Bajar canal Deco</t>
+  </si>
+  <si>
+    <t>Subir volumen Deco</t>
+  </si>
+  <si>
+    <t>Bajar volumen Deco</t>
+  </si>
+  <si>
+    <t>CRemoto</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Modo</t>
+  </si>
+  <si>
+    <t>[“auto”, “low”, “medium”, “high”]</t>
+  </si>
+  <si>
+    <t>[“auto”, “off”, “cool”, “heat”, “dry”, “fan_only”]</t>
+  </si>
+  <si>
+    <t>Swing</t>
+  </si>
+  <si>
+    <t>[“on”, “off”]</t>
+  </si>
+  <si>
+    <t>TempObj</t>
+  </si>
+  <si>
+    <t>16 a 30</t>
+  </si>
+  <si>
+    <t>Temperatura objetivo del aire</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>0x20DF10EF</t>
+  </si>
+  <si>
+    <t>0x10110EF</t>
+  </si>
+  <si>
+    <t>0x101926D</t>
+  </si>
+  <si>
+    <t>0x10112ED</t>
+  </si>
+  <si>
+    <t>0x101906F</t>
+  </si>
+  <si>
+    <t>0x10150AF</t>
+  </si>
+  <si>
+    <t>0x1017887</t>
+  </si>
+  <si>
+    <t>0x101C03F</t>
+  </si>
+  <si>
+    <t>0x101C837</t>
+  </si>
+  <si>
+    <t>0x101D827</t>
+  </si>
+  <si>
+    <t>0x10120DF</t>
+  </si>
+  <si>
+    <t>0x10128D7</t>
+  </si>
+  <si>
+    <t>0x10138C7</t>
+  </si>
+  <si>
+    <t>0x101A05F</t>
+  </si>
+  <si>
+    <t>0x101A857</t>
+  </si>
+  <si>
+    <t>0x101B847</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1577,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1616,8 +1812,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1784,8 +1986,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2426,6 +2634,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2434,7 +2653,7 @@
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3017,6 +3236,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4734,7 +4959,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H166" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H192" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{37A22C23-BC30-49AA-B326-A1A665DE0E10}" name="N0" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{A945BC43-56EA-42D1-88E7-9CC1375157D6}" name="N1" dataDxfId="6"/>
@@ -5076,9 +5301,9 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>116</v>
       </c>
@@ -5086,7 +5311,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>0.1</v>
       </c>
@@ -5100,7 +5325,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>0.2</v>
       </c>
@@ -5114,7 +5339,7 @@
       </c>
       <c r="H5" s="129"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>0.3</v>
       </c>
@@ -5130,7 +5355,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>0.4</v>
       </c>
@@ -5144,7 +5369,7 @@
       </c>
       <c r="H7" s="130"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>0.5</v>
       </c>
@@ -5158,7 +5383,7 @@
       </c>
       <c r="H8" s="130"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>0.6</v>
       </c>
@@ -5174,7 +5399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>0.7</v>
       </c>
@@ -5188,7 +5413,7 @@
       </c>
       <c r="H10" s="130"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>0.8</v>
       </c>
@@ -5202,7 +5427,7 @@
       </c>
       <c r="H11" s="130"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>0.9</v>
       </c>
@@ -5218,7 +5443,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>1</v>
       </c>
@@ -5232,7 +5457,7 @@
       </c>
       <c r="H13" s="130"/>
     </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>0</v>
       </c>
@@ -5247,14 +5472,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F15" s="123"/>
       <c r="G15" s="127">
         <v>39</v>
       </c>
       <c r="H15" s="129"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F16" s="123"/>
       <c r="G16" s="125">
         <v>43</v>
@@ -5263,21 +5488,21 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F17" s="123"/>
       <c r="G17" s="125">
         <v>47</v>
       </c>
       <c r="H17" s="130"/>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18" s="123"/>
       <c r="G18" s="125">
         <v>51</v>
       </c>
       <c r="H18" s="130"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F19" s="123"/>
       <c r="G19" s="125">
         <v>55</v>
@@ -5286,21 +5511,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F20" s="123"/>
       <c r="G20" s="125">
         <v>59</v>
       </c>
       <c r="H20" s="130"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F21" s="123"/>
       <c r="G21" s="125">
         <v>63</v>
       </c>
       <c r="H21" s="130"/>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F22" s="123"/>
       <c r="G22" s="125">
         <v>67</v>
@@ -5309,14 +5534,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F23" s="123"/>
       <c r="G23" s="125">
         <v>71</v>
       </c>
       <c r="H23" s="130"/>
     </row>
-    <row r="24" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F24" s="123"/>
       <c r="G24" s="126">
         <v>75</v>
@@ -5340,22 +5565,22 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="25"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="25"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
+    <col min="13" max="13" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="200" t="s">
         <v>180</v>
       </c>
@@ -5373,7 +5598,7 @@
       <c r="N2" s="205"/>
       <c r="O2" s="206"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
@@ -5404,7 +5629,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="57">
         <v>30</v>
       </c>
@@ -5433,7 +5658,7 @@
       </c>
       <c r="O4" s="212"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5476,7 +5701,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5515,7 +5740,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5554,7 +5779,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5593,7 +5818,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5632,7 +5857,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5671,7 +5896,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -5710,7 +5935,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -5749,7 +5974,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -5788,7 +6013,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10</v>
       </c>
@@ -5827,7 +6052,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>11</v>
       </c>
@@ -5866,7 +6091,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -5887,7 +6112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -5915,7 +6140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -5939,7 +6164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -5963,7 +6188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -5984,7 +6209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -6005,7 +6230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -6026,7 +6251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -6047,7 +6272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -6068,7 +6293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -6089,7 +6314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -6110,7 +6335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -6131,7 +6356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -6152,7 +6377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -6177,7 +6402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -6198,7 +6423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>27</v>
       </c>
@@ -6219,7 +6444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -6234,7 +6459,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>29</v>
       </c>
@@ -6249,7 +6474,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30</v>
       </c>
@@ -6270,7 +6495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>31</v>
       </c>
@@ -6291,7 +6516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -6312,7 +6537,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
@@ -6333,7 +6558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>34</v>
       </c>
@@ -6354,7 +6579,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -6375,7 +6600,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
@@ -6396,7 +6621,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>37</v>
       </c>
@@ -6421,7 +6646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
@@ -6436,7 +6661,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>
@@ -6451,7 +6676,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40</v>
       </c>
@@ -6466,7 +6691,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41</v>
       </c>
@@ -6481,7 +6706,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>42</v>
       </c>
@@ -6496,7 +6721,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>43</v>
       </c>
@@ -6511,7 +6736,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>44</v>
       </c>
@@ -6526,7 +6751,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>45</v>
       </c>
@@ -6541,7 +6766,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>46</v>
       </c>
@@ -6556,7 +6781,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>47</v>
       </c>
@@ -6571,7 +6796,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>48</v>
       </c>
@@ -6586,7 +6811,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>49</v>
       </c>
@@ -6605,7 +6830,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>50</v>
       </c>
@@ -6620,7 +6845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>51</v>
       </c>
@@ -6635,7 +6860,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>52</v>
       </c>
@@ -6650,7 +6875,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>53</v>
       </c>
@@ -6665,7 +6890,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>54</v>
       </c>
@@ -6680,7 +6905,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>55</v>
       </c>
@@ -6695,7 +6920,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>56</v>
       </c>
@@ -6710,7 +6935,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>57</v>
       </c>
@@ -6725,7 +6950,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>58</v>
       </c>
@@ -6740,7 +6965,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>59</v>
       </c>
@@ -6755,7 +6980,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>60</v>
       </c>
@@ -6770,7 +6995,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" s="70">
         <v>93</v>
       </c>
@@ -6782,7 +7007,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C66" s="21">
         <v>100</v>
       </c>
@@ -6790,8 +7015,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="38">
         <v>150</v>
       </c>
@@ -6805,7 +7030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E69" s="42">
         <v>90</v>
       </c>
@@ -6813,7 +7038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C70" s="38">
         <v>151</v>
       </c>
@@ -6827,7 +7052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E71" s="42">
         <v>90</v>
       </c>
@@ -6835,8 +7060,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C73" s="45">
         <v>155</v>
       </c>
@@ -6853,7 +7078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E74"/>
       <c r="F74" s="14">
         <v>0</v>
@@ -6862,10 +7087,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D75" s="25"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" s="40">
         <v>160</v>
       </c>
@@ -6876,7 +7101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77" s="19">
         <v>165</v>
       </c>
@@ -6887,7 +7112,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78" s="19">
         <v>163</v>
       </c>
@@ -6901,7 +7126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C79" s="78">
         <v>164</v>
       </c>
@@ -6935,22 +7160,22 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="5" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="47" t="s">
         <v>64</v>
@@ -6975,7 +7200,7 @@
       </c>
       <c r="L1" s="213"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="30">
         <v>200</v>
       </c>
@@ -7004,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>220</v>
       </c>
@@ -7033,7 +7258,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>280</v>
       </c>
@@ -7056,7 +7281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>380</v>
       </c>
@@ -7079,7 +7304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>680</v>
       </c>
@@ -7102,7 +7327,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H7" s="33">
         <v>236</v>
       </c>
@@ -7110,7 +7335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H8" s="30">
         <v>247</v>
       </c>
@@ -7136,22 +7361,22 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -7177,7 +7402,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="36">
         <v>0</v>
       </c>
@@ -7203,7 +7428,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="36" t="s">
         <v>26</v>
       </c>
@@ -7229,7 +7454,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -7255,7 +7480,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -7281,7 +7506,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -7307,7 +7532,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -7333,7 +7558,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -7351,7 +7576,7 @@
       </c>
       <c r="I9" s="29"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>6</v>
       </c>
@@ -7369,7 +7594,7 @@
       </c>
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="35">
         <v>21</v>
       </c>
@@ -7381,7 +7606,7 @@
       <c r="G11" s="105"/>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="35">
         <v>22</v>
       </c>
@@ -7392,7 +7617,7 @@
       <c r="F12" s="29"/>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="35">
         <v>23</v>
       </c>
@@ -7411,7 +7636,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="34">
         <v>31</v>
       </c>
@@ -7430,7 +7655,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="34">
         <v>32</v>
       </c>
@@ -7449,7 +7674,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="34">
         <v>33</v>
       </c>
@@ -7468,7 +7693,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="35">
         <v>41</v>
       </c>
@@ -7487,7 +7712,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="35">
         <v>42</v>
       </c>
@@ -7506,7 +7731,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="35">
         <v>43</v>
       </c>
@@ -7525,7 +7750,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="35">
         <v>44</v>
       </c>
@@ -7544,7 +7769,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="34">
         <v>51</v>
       </c>
@@ -7563,7 +7788,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="34">
         <v>52</v>
       </c>
@@ -7571,7 +7796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="34">
         <v>53</v>
       </c>
@@ -7579,7 +7804,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="35">
         <v>61</v>
       </c>
@@ -7587,7 +7812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="35">
         <v>62</v>
       </c>
@@ -7595,7 +7820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="35">
         <v>63</v>
       </c>
@@ -7603,7 +7828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="35">
         <v>64</v>
       </c>
@@ -7621,23 +7846,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="25"/>
+    <col min="6" max="6" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="146" t="s">
         <v>239</v>
       </c>
@@ -7654,7 +7879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="149">
         <v>1</v>
       </c>
@@ -7668,7 +7893,7 @@
       <c r="F3" s="159"/>
       <c r="G3" s="81"/>
     </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="150">
         <v>2</v>
       </c>
@@ -7686,7 +7911,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="150">
         <v>3</v>
       </c>
@@ -7704,7 +7929,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="150">
         <v>4</v>
       </c>
@@ -7722,7 +7947,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="150">
         <v>5</v>
       </c>
@@ -7736,7 +7961,7 @@
       <c r="F7" s="159"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="150">
         <v>6</v>
       </c>
@@ -7754,7 +7979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="150">
         <v>7</v>
       </c>
@@ -7772,7 +7997,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="150">
         <v>8</v>
       </c>
@@ -7790,7 +8015,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="150">
         <v>9</v>
       </c>
@@ -7808,7 +8033,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="150">
         <v>10</v>
       </c>
@@ -7826,7 +8051,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="150">
         <v>11</v>
       </c>
@@ -7844,7 +8069,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="150">
         <v>12</v>
       </c>
@@ -7862,7 +8087,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="150">
         <v>13</v>
       </c>
@@ -7880,7 +8105,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="150">
         <v>14</v>
       </c>
@@ -7898,7 +8123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="150">
         <v>15</v>
       </c>
@@ -7916,7 +8141,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="150">
         <v>16</v>
       </c>
@@ -7934,7 +8159,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="150">
         <v>17</v>
       </c>
@@ -7952,7 +8177,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="150">
         <v>18</v>
       </c>
@@ -7966,7 +8191,7 @@
       <c r="F20" s="159"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="150">
         <v>19</v>
       </c>
@@ -7984,7 +8209,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="150">
         <v>20</v>
       </c>
@@ -8002,7 +8227,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="150">
         <v>21</v>
       </c>
@@ -8020,7 +8245,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="150">
         <v>22</v>
       </c>
@@ -8034,7 +8259,7 @@
       <c r="F24" s="159"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="150">
         <v>23</v>
       </c>
@@ -8048,7 +8273,7 @@
       <c r="F25" s="159"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="166">
         <v>24</v>
       </c>
@@ -8066,7 +8291,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="153">
         <v>1</v>
       </c>
@@ -8082,7 +8307,7 @@
       <c r="F27" s="159"/>
       <c r="G27" s="81"/>
     </row>
-    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="154">
         <v>2</v>
       </c>
@@ -8105,7 +8330,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="154">
         <v>3</v>
       </c>
@@ -8124,7 +8349,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="154">
         <v>4</v>
       </c>
@@ -8143,7 +8368,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="154">
         <v>5</v>
       </c>
@@ -8162,7 +8387,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="154">
         <v>6</v>
       </c>
@@ -8181,7 +8406,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="154">
         <v>7</v>
       </c>
@@ -8204,7 +8429,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="154">
         <v>8</v>
       </c>
@@ -8227,7 +8452,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="154">
         <v>9</v>
       </c>
@@ -8250,7 +8475,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="154">
         <v>10</v>
       </c>
@@ -8264,7 +8489,7 @@
       <c r="F36" s="159"/>
       <c r="G36" s="72"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="154">
         <v>11</v>
       </c>
@@ -8278,7 +8503,7 @@
       <c r="F37" s="159"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="154">
         <v>12</v>
       </c>
@@ -8301,7 +8526,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="154">
         <v>13</v>
       </c>
@@ -8315,7 +8540,7 @@
       <c r="F39" s="159"/>
       <c r="G39" s="82"/>
     </row>
-    <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="154">
         <v>14</v>
       </c>
@@ -8338,7 +8563,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="154">
         <v>15</v>
       </c>
@@ -8352,7 +8577,7 @@
       <c r="F41" s="159"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="154">
         <v>16</v>
       </c>
@@ -8368,7 +8593,7 @@
       <c r="F42" s="159"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="154">
         <v>17</v>
       </c>
@@ -8393,7 +8618,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="154">
         <v>18</v>
       </c>
@@ -8418,7 +8643,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="154">
         <v>19</v>
       </c>
@@ -8445,7 +8670,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="154">
         <v>20</v>
       </c>
@@ -8474,7 +8699,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="154">
         <v>21</v>
       </c>
@@ -8503,7 +8728,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="154">
         <v>22</v>
       </c>
@@ -8523,7 +8748,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="154">
         <v>23</v>
       </c>
@@ -8543,7 +8768,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="155">
         <v>24</v>
       </c>
@@ -8561,8 +8786,14 @@
       <c r="H50" s="25" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J50" s="33">
+        <v>146</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="151">
         <v>1</v>
       </c>
@@ -8580,7 +8811,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="152">
         <v>2</v>
       </c>
@@ -8598,7 +8829,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="152">
         <v>3</v>
       </c>
@@ -8616,7 +8847,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="152">
         <v>4</v>
       </c>
@@ -8634,7 +8865,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="152">
         <v>5</v>
       </c>
@@ -8652,7 +8883,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="152">
         <v>6</v>
       </c>
@@ -8668,7 +8899,7 @@
       <c r="F56" s="159"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="152">
         <v>7</v>
       </c>
@@ -8682,7 +8913,7 @@
       <c r="F57" s="159"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="152">
         <v>8</v>
       </c>
@@ -8698,7 +8929,7 @@
       <c r="F58" s="159"/>
       <c r="G58" s="72"/>
     </row>
-    <row r="59" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="152">
         <v>9</v>
       </c>
@@ -8712,7 +8943,7 @@
       <c r="F59" s="159"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="152">
         <v>10</v>
       </c>
@@ -8726,7 +8957,7 @@
       <c r="F60" s="159"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="152">
         <v>11</v>
       </c>
@@ -8742,7 +8973,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="158">
         <v>12</v>
       </c>
@@ -8758,7 +8989,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="156">
         <v>1</v>
       </c>
@@ -8787,14 +9018,14 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="120" t="s">
         <v>234</v>
       </c>
@@ -8805,7 +9036,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C3" s="118" t="s">
         <v>230</v>
       </c>
@@ -8832,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C4" s="114" t="s">
         <v>231</v>
       </c>
@@ -8859,7 +9090,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" s="114" t="s">
         <v>233</v>
       </c>
@@ -8875,7 +9106,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="115" t="s">
         <v>232</v>
       </c>
@@ -8890,10 +9121,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="29"/>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="29"/>
     </row>
   </sheetData>
@@ -8911,9 +9142,9 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
         <v>333</v>
       </c>
@@ -8939,7 +9170,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="29">
         <v>0</v>
       </c>
@@ -8978,7 +9209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="29">
         <v>10</v>
       </c>
@@ -9017,7 +9248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="29">
         <v>20</v>
       </c>
@@ -9051,7 +9282,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="29">
         <v>30</v>
       </c>
@@ -9096,7 +9327,7 @@
         <v>0.10989010989010989</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="29">
         <v>40</v>
       </c>
@@ -9120,7 +9351,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="29">
         <v>50</v>
       </c>
@@ -9144,7 +9375,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="29">
         <v>60</v>
       </c>
@@ -9168,7 +9399,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="29">
         <v>70</v>
       </c>
@@ -9192,7 +9423,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="29">
         <v>80</v>
       </c>
@@ -9216,7 +9447,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="29">
         <v>90</v>
       </c>
@@ -9240,7 +9471,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="29">
         <v>100</v>
       </c>
@@ -9264,7 +9495,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="29">
         <v>110</v>
       </c>
@@ -9288,7 +9519,7 @@
         <v>33.450000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="29">
         <v>120</v>
       </c>
@@ -9312,7 +9543,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="29">
         <v>130</v>
       </c>
@@ -9336,7 +9567,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="29">
         <v>140</v>
       </c>
@@ -9360,7 +9591,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="29">
         <v>150</v>
       </c>
@@ -9384,7 +9615,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="29">
         <v>160</v>
       </c>
@@ -9408,7 +9639,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="29">
         <v>170</v>
       </c>
@@ -9432,7 +9663,7 @@
         <v>39.15</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="29">
         <v>180</v>
       </c>
@@ -9456,7 +9687,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="29">
         <v>190</v>
       </c>
@@ -9480,7 +9711,7 @@
         <v>41.05</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="29">
         <v>200</v>
       </c>
@@ -9504,7 +9735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="29">
         <v>210</v>
       </c>
@@ -9528,7 +9759,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="29">
         <v>220</v>
       </c>
@@ -9552,7 +9783,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="29">
         <v>230</v>
       </c>
@@ -9576,7 +9807,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="29">
         <v>240</v>
       </c>
@@ -9601,7 +9832,7 @@
       </c>
       <c r="O31" s="29"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="29">
         <v>250</v>
       </c>
@@ -9625,7 +9856,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="29">
         <v>260</v>
       </c>
@@ -9649,7 +9880,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="29">
         <v>270</v>
       </c>
@@ -9673,7 +9904,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="29">
         <v>280</v>
       </c>
@@ -9697,7 +9928,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="29">
         <v>290</v>
       </c>
@@ -9721,7 +9952,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="29">
         <v>300</v>
       </c>
@@ -9745,7 +9976,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="29">
         <v>310</v>
       </c>
@@ -9775,7 +10006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="29">
         <v>320</v>
       </c>
@@ -9805,7 +10036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="29">
         <v>330</v>
       </c>
@@ -9829,7 +10060,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="29">
         <v>340</v>
       </c>
@@ -9853,7 +10084,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="29">
         <v>350</v>
       </c>
@@ -9877,7 +10108,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="29">
         <v>360</v>
       </c>
@@ -9901,7 +10132,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="29">
         <v>370</v>
       </c>
@@ -9925,7 +10156,7 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="29">
         <v>380</v>
       </c>
@@ -9949,7 +10180,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="29">
         <v>390</v>
       </c>
@@ -9973,7 +10204,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="29">
         <v>400</v>
       </c>
@@ -9997,7 +10228,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="29">
         <v>410</v>
       </c>
@@ -10021,7 +10252,7 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="29">
         <v>420</v>
       </c>
@@ -10045,7 +10276,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="29">
         <v>430</v>
       </c>
@@ -10069,7 +10300,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="29">
         <v>440</v>
       </c>
@@ -10093,7 +10324,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="29">
         <v>450</v>
       </c>
@@ -10117,7 +10348,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="29">
         <v>460</v>
       </c>
@@ -10141,7 +10372,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="29">
         <v>470</v>
       </c>
@@ -10165,7 +10396,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="29">
         <v>480</v>
       </c>
@@ -10189,7 +10420,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="29">
         <v>490</v>
       </c>
@@ -10213,7 +10444,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="29">
         <v>500</v>
       </c>
@@ -10237,7 +10468,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="29">
         <v>510</v>
       </c>
@@ -10261,7 +10492,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="29">
         <v>520</v>
       </c>
@@ -10285,7 +10516,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="29">
         <v>530</v>
       </c>
@@ -10309,7 +10540,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="29">
         <v>540</v>
       </c>
@@ -10333,7 +10564,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="29">
         <v>550</v>
       </c>
@@ -10357,7 +10588,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="29">
         <v>560</v>
       </c>
@@ -10381,7 +10612,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="29">
         <v>570</v>
       </c>
@@ -10405,7 +10636,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="29">
         <v>580</v>
       </c>
@@ -10429,7 +10660,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="29">
         <v>590</v>
       </c>
@@ -10453,7 +10684,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="29">
         <v>600</v>
       </c>
@@ -10477,7 +10708,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="29">
         <v>610</v>
       </c>
@@ -10501,7 +10732,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="29">
         <v>620</v>
       </c>
@@ -10525,7 +10756,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="29">
         <v>630</v>
       </c>
@@ -10549,7 +10780,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="29">
         <v>640</v>
       </c>
@@ -10573,7 +10804,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="29">
         <v>650</v>
       </c>
@@ -10597,7 +10828,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="29">
         <v>660</v>
       </c>
@@ -10621,7 +10852,7 @@
         <v>83.72</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="29">
         <v>670</v>
       </c>
@@ -10645,7 +10876,7 @@
         <v>84.64</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="29">
         <v>680</v>
       </c>
@@ -10669,7 +10900,7 @@
         <v>85.56</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="29">
         <v>690</v>
       </c>
@@ -10693,7 +10924,7 @@
         <v>86.47999999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="29">
         <v>700</v>
       </c>
@@ -10717,7 +10948,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="29">
         <v>710</v>
       </c>
@@ -10741,7 +10972,7 @@
         <v>88.32</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="29">
         <v>720</v>
       </c>
@@ -10765,7 +10996,7 @@
         <v>89.24</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="29">
         <v>730</v>
       </c>
@@ -10789,7 +11020,7 @@
         <v>90.16</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="29">
         <v>740</v>
       </c>
@@ -10813,7 +11044,7 @@
         <v>91.08</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="29">
         <v>750</v>
       </c>
@@ -10837,7 +11068,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="29">
         <v>760</v>
       </c>
@@ -10861,7 +11092,7 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="29">
         <v>770</v>
       </c>
@@ -10885,7 +11116,7 @@
         <v>93.84</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="29">
         <v>780</v>
       </c>
@@ -10909,7 +11140,7 @@
         <v>94.76</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="29">
         <v>790</v>
       </c>
@@ -10933,7 +11164,7 @@
         <v>95.679999999999993</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="29">
         <v>800</v>
       </c>
@@ -10957,7 +11188,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="29">
         <v>810</v>
       </c>
@@ -10981,7 +11212,7 @@
         <v>97.52</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="29">
         <v>820</v>
       </c>
@@ -11005,7 +11236,7 @@
         <v>98.44</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="29">
         <v>830</v>
       </c>
@@ -11029,7 +11260,7 @@
         <v>99.36</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="29">
         <v>840</v>
       </c>
@@ -11053,7 +11284,7 @@
         <v>100.28</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="194">
         <v>850</v>
       </c>
@@ -11077,7 +11308,7 @@
         <v>101.2</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="29">
         <v>860</v>
       </c>
@@ -11101,7 +11332,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="29">
         <v>870</v>
       </c>
@@ -11125,7 +11356,7 @@
         <v>105.65</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="29">
         <v>880</v>
       </c>
@@ -11149,7 +11380,7 @@
         <v>106.6</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="29">
         <v>890</v>
       </c>
@@ -11173,7 +11404,7 @@
         <v>107.55</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" s="29">
         <v>900</v>
       </c>
@@ -11197,7 +11428,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="29">
         <v>910</v>
       </c>
@@ -11221,7 +11452,7 @@
         <v>109.45</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="29">
         <v>920</v>
       </c>
@@ -11245,7 +11476,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="29">
         <v>930</v>
       </c>
@@ -11269,7 +11500,7 @@
         <v>111.35</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="29">
         <v>940</v>
       </c>
@@ -11293,7 +11524,7 @@
         <v>112.3</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="29">
         <v>950</v>
       </c>
@@ -11317,7 +11548,7 @@
         <v>113.25</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="29">
         <v>960</v>
       </c>
@@ -11341,7 +11572,7 @@
         <v>114.2</v>
       </c>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="29">
         <v>970</v>
       </c>
@@ -11365,7 +11596,7 @@
         <v>115.15</v>
       </c>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="29">
         <v>980</v>
       </c>
@@ -11389,7 +11620,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="29">
         <v>990</v>
       </c>
@@ -11413,7 +11644,7 @@
         <v>117.05</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="29">
         <v>1000</v>
       </c>
@@ -11437,7 +11668,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="29">
         <v>1010</v>
       </c>
@@ -11461,7 +11692,7 @@
         <v>118.95</v>
       </c>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="29">
         <v>1020</v>
       </c>
@@ -11494,24 +11725,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125AF8B-2E62-4DF1-9548-A1621FB537F6}">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="178" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="178" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="175" t="s">
         <v>266</v>
       </c>
@@ -11537,7 +11767,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="179" t="s">
         <v>53</v>
       </c>
@@ -11564,7 +11794,7 @@
         <v>Casandra/Cuartos/LuzEstado/01</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="184" t="s">
         <v>53</v>
       </c>
@@ -11591,7 +11821,7 @@
         <v>Casandra/Cuartos/LuzEstado/02</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="184" t="s">
         <v>53</v>
       </c>
@@ -11618,7 +11848,7 @@
         <v>Casandra/Cuartos/LuzEstado/03</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="184" t="s">
         <v>53</v>
       </c>
@@ -11645,7 +11875,7 @@
         <v>Casandra/Cuartos/LuzEstado/04</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="184" t="s">
         <v>53</v>
       </c>
@@ -11672,7 +11902,7 @@
         <v>Casandra/Cuartos/LuzEstado/05</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="184" t="s">
         <v>53</v>
       </c>
@@ -11699,7 +11929,7 @@
         <v>Casandra/Cuartos/LuzEstado/06</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="184" t="s">
         <v>53</v>
       </c>
@@ -11726,7 +11956,7 @@
         <v>Casandra/Cuartos/LuzEstado/07</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="184" t="s">
         <v>53</v>
       </c>
@@ -11753,7 +11983,7 @@
         <v>Casandra/Cuartos/LuzEstado/08</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="184" t="s">
         <v>53</v>
       </c>
@@ -11780,7 +12010,7 @@
         <v>Casandra/Cuartos/LuzEstado/09</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="184" t="s">
         <v>53</v>
       </c>
@@ -11807,7 +12037,7 @@
         <v>Casandra/Cuartos/LuzEstado/10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="184" t="s">
         <v>53</v>
       </c>
@@ -11834,7 +12064,7 @@
         <v>Casandra/Cuartos/LuzEstado/11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="184" t="s">
         <v>53</v>
       </c>
@@ -11861,7 +12091,7 @@
         <v>Casandra/Cuartos/LuzEstado/12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="184" t="s">
         <v>53</v>
       </c>
@@ -11888,7 +12118,7 @@
         <v>Casandra/Cuartos/LuzEstado/13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="184" t="s">
         <v>53</v>
       </c>
@@ -11915,7 +12145,7 @@
         <v>Casandra/Cuartos/LuzEstado/14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="184" t="s">
         <v>53</v>
       </c>
@@ -11942,7 +12172,7 @@
         <v>Casandra/Cuartos/LuzEstado/15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="184" t="s">
         <v>53</v>
       </c>
@@ -11969,7 +12199,7 @@
         <v>Casandra/Cuartos/LuzEstado/16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="184" t="s">
         <v>53</v>
       </c>
@@ -11996,7 +12226,7 @@
         <v>Casandra/Cuartos/LuzEstado/17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="184" t="s">
         <v>53</v>
       </c>
@@ -12023,7 +12253,7 @@
         <v>Casandra/Cuartos/LuzEstado/18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="184" t="s">
         <v>53</v>
       </c>
@@ -12050,7 +12280,7 @@
         <v>Casandra/Cuartos/LuzEstado/19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="184" t="s">
         <v>53</v>
       </c>
@@ -12077,7 +12307,7 @@
         <v>Casandra/Cuartos/LuzEstado/20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="184" t="s">
         <v>53</v>
       </c>
@@ -12104,7 +12334,7 @@
         <v>Casandra/Cuartos/LuzEstado/21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="184" t="s">
         <v>53</v>
       </c>
@@ -12131,7 +12361,7 @@
         <v>Casandra/Cuartos/LuzEstado/22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="184" t="s">
         <v>53</v>
       </c>
@@ -12158,7 +12388,7 @@
         <v>Casandra/Cuartos/LuzEstado/23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="184" t="s">
         <v>53</v>
       </c>
@@ -12185,7 +12415,7 @@
         <v>Casandra/Cuartos/LuzEstado/24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="184" t="s">
         <v>53</v>
       </c>
@@ -12212,7 +12442,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/01</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="184" t="s">
         <v>53</v>
       </c>
@@ -12239,7 +12469,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/02</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="184" t="s">
         <v>53</v>
       </c>
@@ -12266,7 +12496,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/03</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="184" t="s">
         <v>53</v>
       </c>
@@ -12293,7 +12523,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/04</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="184" t="s">
         <v>53</v>
       </c>
@@ -12320,7 +12550,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/05</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="184" t="s">
         <v>53</v>
       </c>
@@ -12347,7 +12577,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/06</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="184" t="s">
         <v>53</v>
       </c>
@@ -12374,7 +12604,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/07</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="184" t="s">
         <v>53</v>
       </c>
@@ -12401,7 +12631,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/08</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="184" t="s">
         <v>53</v>
       </c>
@@ -12428,7 +12658,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/09</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="184" t="s">
         <v>53</v>
       </c>
@@ -12455,7 +12685,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="184" t="s">
         <v>53</v>
       </c>
@@ -12482,7 +12712,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="184" t="s">
         <v>53</v>
       </c>
@@ -12509,7 +12739,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="184" t="s">
         <v>53</v>
       </c>
@@ -12536,7 +12766,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="184" t="s">
         <v>53</v>
       </c>
@@ -12563,7 +12793,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="184" t="s">
         <v>53</v>
       </c>
@@ -12590,7 +12820,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="184" t="s">
         <v>53</v>
       </c>
@@ -12617,7 +12847,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/16</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="184" t="s">
         <v>53</v>
       </c>
@@ -12644,7 +12874,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/17</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="184" t="s">
         <v>53</v>
       </c>
@@ -12671,7 +12901,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/18</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="184" t="s">
         <v>53</v>
       </c>
@@ -12698,7 +12928,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/19</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="184" t="s">
         <v>53</v>
       </c>
@@ -12725,7 +12955,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/20</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="184" t="s">
         <v>53</v>
       </c>
@@ -12752,7 +12982,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/21</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="184" t="s">
         <v>53</v>
       </c>
@@ -12779,7 +13009,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/22</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="184" t="s">
         <v>53</v>
       </c>
@@ -12806,7 +13036,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/23</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="184" t="s">
         <v>53</v>
       </c>
@@ -12833,7 +13063,7 @@
         <v>Casandra/Cuartos/LuzIntensidad/24</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="184" t="s">
         <v>53</v>
       </c>
@@ -12860,7 +13090,7 @@
         <v>Casandra/Cuartos/Temperatura/01</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="184" t="s">
         <v>53</v>
       </c>
@@ -12887,7 +13117,7 @@
         <v>Casandra/Cuartos/Temperatura/02</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="184" t="s">
         <v>53</v>
       </c>
@@ -12914,7 +13144,7 @@
         <v>Casandra/Cuartos/Humedad/01</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="184" t="s">
         <v>53</v>
       </c>
@@ -12941,7 +13171,7 @@
         <v>Casandra/Cuartos/Humedad/02</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="184" t="s">
         <v>53</v>
       </c>
@@ -12968,7 +13198,7 @@
         <v>Casandra/Cuartos/SensorMov/01</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="187" t="s">
         <v>53</v>
       </c>
@@ -12995,7 +13225,7 @@
         <v>Casandra/Cuartos/SensorMov/02</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="179" t="s">
         <v>53</v>
       </c>
@@ -13022,7 +13252,7 @@
         <v>Casandra/Cocina/LuzEstado/01</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="184" t="s">
         <v>53</v>
       </c>
@@ -13049,7 +13279,7 @@
         <v>Casandra/Cocina/LuzEstado/02</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="184" t="s">
         <v>53</v>
       </c>
@@ -13076,7 +13306,7 @@
         <v>Casandra/Cocina/LuzEstado/03</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="184" t="s">
         <v>53</v>
       </c>
@@ -13103,7 +13333,7 @@
         <v>Casandra/Cocina/LuzEstado/04</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="184" t="s">
         <v>53</v>
       </c>
@@ -13130,7 +13360,7 @@
         <v>Casandra/Cocina/LuzEstado/05</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="184" t="s">
         <v>53</v>
       </c>
@@ -13157,7 +13387,7 @@
         <v>Casandra/Cocina/LuzEstado/06</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="184" t="s">
         <v>53</v>
       </c>
@@ -13184,7 +13414,7 @@
         <v>Casandra/Cocina/LuzEstado/07</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="184" t="s">
         <v>53</v>
       </c>
@@ -13211,7 +13441,7 @@
         <v>Casandra/Cocina/LuzEstado/08</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="184" t="s">
         <v>53</v>
       </c>
@@ -13238,7 +13468,7 @@
         <v>Casandra/Cocina/LuzEstado/09</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="184" t="s">
         <v>53</v>
       </c>
@@ -13265,7 +13495,7 @@
         <v>Casandra/Cocina/LuzEstado/10</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="184" t="s">
         <v>53</v>
       </c>
@@ -13292,7 +13522,7 @@
         <v>Casandra/Cocina/LuzEstado/11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="184" t="s">
         <v>53</v>
       </c>
@@ -13319,7 +13549,7 @@
         <v>Casandra/Cocina/LuzEstado/12</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="184" t="s">
         <v>53</v>
       </c>
@@ -13346,7 +13576,7 @@
         <v>Casandra/Cocina/LuzEstado/13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="184" t="s">
         <v>53</v>
       </c>
@@ -13373,7 +13603,7 @@
         <v>Casandra/Cocina/LuzEstado/14</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="184" t="s">
         <v>53</v>
       </c>
@@ -13400,7 +13630,7 @@
         <v>Casandra/Cocina/LuzEstado/15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="184" t="s">
         <v>53</v>
       </c>
@@ -13427,7 +13657,7 @@
         <v>Casandra/Cocina/LuzEstado/16</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="184" t="s">
         <v>53</v>
       </c>
@@ -13454,7 +13684,7 @@
         <v>Casandra/Cocina/LuzEstado/17</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="184" t="s">
         <v>53</v>
       </c>
@@ -13481,7 +13711,7 @@
         <v>Casandra/Cocina/LuzEstado/18</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="184" t="s">
         <v>53</v>
       </c>
@@ -13508,7 +13738,7 @@
         <v>Casandra/Cocina/LuzEstado/19</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="184" t="s">
         <v>53</v>
       </c>
@@ -13535,7 +13765,7 @@
         <v>Casandra/Cocina/LuzEstado/20</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="184" t="s">
         <v>53</v>
       </c>
@@ -13562,7 +13792,7 @@
         <v>Casandra/Cocina/LuzEstado/21</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="184" t="s">
         <v>53</v>
       </c>
@@ -13589,7 +13819,7 @@
         <v>Casandra/Cocina/LuzEstado/22</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="184" t="s">
         <v>53</v>
       </c>
@@ -13616,7 +13846,7 @@
         <v>Casandra/Cocina/LuzEstado/23</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="184" t="s">
         <v>53</v>
       </c>
@@ -13643,7 +13873,7 @@
         <v>Casandra/Cocina/LuzEstado/24</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="184" t="s">
         <v>53</v>
       </c>
@@ -13670,7 +13900,7 @@
         <v>Casandra/Cocina/LuzEstado/25</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="184" t="s">
         <v>53</v>
       </c>
@@ -13697,7 +13927,7 @@
         <v>Casandra/Cocina/LuzEstado/26</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="184" t="s">
         <v>53</v>
       </c>
@@ -13724,7 +13954,7 @@
         <v>Casandra/Cocina/LuzIntensidad/01</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="184" t="s">
         <v>53</v>
       </c>
@@ -13751,7 +13981,7 @@
         <v>Casandra/Cocina/LuzIntensidad/02</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="184" t="s">
         <v>53</v>
       </c>
@@ -13778,7 +14008,7 @@
         <v>Casandra/Cocina/LuzIntensidad/03</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="184" t="s">
         <v>53</v>
       </c>
@@ -13805,7 +14035,7 @@
         <v>Casandra/Cocina/LuzIntensidad/04</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="184" t="s">
         <v>53</v>
       </c>
@@ -13832,7 +14062,7 @@
         <v>Casandra/Cocina/LuzIntensidad/05</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="184" t="s">
         <v>53</v>
       </c>
@@ -13859,7 +14089,7 @@
         <v>Casandra/Cocina/LuzIntensidad/06</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="184" t="s">
         <v>53</v>
       </c>
@@ -13886,7 +14116,7 @@
         <v>Casandra/Cocina/LuzIntensidad/07</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="184" t="s">
         <v>53</v>
       </c>
@@ -13913,7 +14143,7 @@
         <v>Casandra/Cocina/LuzIntensidad/08</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="184" t="s">
         <v>53</v>
       </c>
@@ -13940,7 +14170,7 @@
         <v>Casandra/Cocina/LuzIntensidad/09</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="184" t="s">
         <v>53</v>
       </c>
@@ -13967,7 +14197,7 @@
         <v>Casandra/Cocina/LuzIntensidad/10</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="184" t="s">
         <v>53</v>
       </c>
@@ -13994,7 +14224,7 @@
         <v>Casandra/Cocina/LuzIntensidad/11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="184" t="s">
         <v>53</v>
       </c>
@@ -14021,7 +14251,7 @@
         <v>Casandra/Cocina/LuzIntensidad/12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="184" t="s">
         <v>53</v>
       </c>
@@ -14048,7 +14278,7 @@
         <v>Casandra/Cocina/LuzIntensidad/13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="184" t="s">
         <v>53</v>
       </c>
@@ -14075,7 +14305,7 @@
         <v>Casandra/Cocina/LuzIntensidad/14</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="184" t="s">
         <v>53</v>
       </c>
@@ -14102,7 +14332,7 @@
         <v>Casandra/Cocina/LuzIntensidad/15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="184" t="s">
         <v>53</v>
       </c>
@@ -14129,7 +14359,7 @@
         <v>Casandra/Cocina/LuzIntensidad/16</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="184" t="s">
         <v>53</v>
       </c>
@@ -14156,7 +14386,7 @@
         <v>Casandra/Cocina/LuzIntensidad/17</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="184" t="s">
         <v>53</v>
       </c>
@@ -14183,7 +14413,7 @@
         <v>Casandra/Cocina/LuzIntensidad/18</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="184" t="s">
         <v>53</v>
       </c>
@@ -14210,7 +14440,7 @@
         <v>Casandra/Cocina/LuzIntensidad/19</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="184" t="s">
         <v>53</v>
       </c>
@@ -14237,7 +14467,7 @@
         <v>Casandra/Cocina/LuzIntensidad/20</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="184" t="s">
         <v>53</v>
       </c>
@@ -14264,7 +14494,7 @@
         <v>Casandra/Cocina/LuzIntensidad/21</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="184" t="s">
         <v>53</v>
       </c>
@@ -14291,7 +14521,7 @@
         <v>Casandra/Cocina/LuzIntensidad/22</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="184" t="s">
         <v>53</v>
       </c>
@@ -14318,7 +14548,7 @@
         <v>Casandra/Cocina/LuzIntensidad/23</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="184" t="s">
         <v>53</v>
       </c>
@@ -14345,7 +14575,7 @@
         <v>Casandra/Cocina/LuzIntensidad/24</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="184" t="s">
         <v>53</v>
       </c>
@@ -14372,7 +14602,7 @@
         <v>Casandra/Cocina/Temperatura/01</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="184" t="s">
         <v>53</v>
       </c>
@@ -14399,7 +14629,7 @@
         <v>Casandra/Cocina/Temperatura/02</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="184" t="s">
         <v>53</v>
       </c>
@@ -14426,7 +14656,7 @@
         <v>Casandra/Cocina/Humedad/01</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="184" t="s">
         <v>53</v>
       </c>
@@ -14453,7 +14683,7 @@
         <v>Casandra/Cocina/Humedad/02</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="184" t="s">
         <v>53</v>
       </c>
@@ -14480,7 +14710,7 @@
         <v>Casandra/Cocina/SensorMov/01</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="184" t="s">
         <v>53</v>
       </c>
@@ -14507,7 +14737,7 @@
         <v>Casandra/Cocina/SensorMov/02</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="184" t="s">
         <v>53</v>
       </c>
@@ -14534,7 +14764,7 @@
         <v>Casandra/Cocina/SensorMov/03</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="184" t="s">
         <v>53</v>
       </c>
@@ -14561,7 +14791,7 @@
         <v>Casandra/Cocina/SensorMov/04</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="184" t="s">
         <v>53</v>
       </c>
@@ -14588,7 +14818,7 @@
         <v>Casandra/Cocina/SensorMov/05</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="187" t="s">
         <v>53</v>
       </c>
@@ -14615,7 +14845,7 @@
         <v>Casandra/Cocina/SensorMov/06</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="179" t="s">
         <v>53</v>
       </c>
@@ -14642,7 +14872,7 @@
         <v>Casandra/Galeria/LuzEstado/01</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="184" t="s">
         <v>53</v>
       </c>
@@ -14669,7 +14899,7 @@
         <v>Casandra/Galeria/LuzEstado/02</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="184" t="s">
         <v>53</v>
       </c>
@@ -14696,7 +14926,7 @@
         <v>Casandra/Galeria/LuzEstado/03</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="184" t="s">
         <v>53</v>
       </c>
@@ -14723,7 +14953,7 @@
         <v>Casandra/Galeria/LuzEstado/04</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="184" t="s">
         <v>53</v>
       </c>
@@ -14750,7 +14980,7 @@
         <v>Casandra/Galeria/LuzEstado/05</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="184" t="s">
         <v>53</v>
       </c>
@@ -14777,7 +15007,7 @@
         <v>Casandra/Galeria/LuzEstado/06</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="184" t="s">
         <v>53</v>
       </c>
@@ -14804,7 +15034,7 @@
         <v>Casandra/Galeria/LuzEstado/07</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="184" t="s">
         <v>53</v>
       </c>
@@ -14831,7 +15061,7 @@
         <v>Casandra/Galeria/LuzEstado/08</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="184" t="s">
         <v>53</v>
       </c>
@@ -14858,7 +15088,7 @@
         <v>Casandra/Galeria/LuzEstado/09</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="184" t="s">
         <v>53</v>
       </c>
@@ -14885,7 +15115,7 @@
         <v>Casandra/Galeria/LuzEstado/10</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="184" t="s">
         <v>53</v>
       </c>
@@ -14912,7 +15142,7 @@
         <v>Casandra/Galeria/LuzEstado/11</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="184" t="s">
         <v>53</v>
       </c>
@@ -14939,7 +15169,7 @@
         <v>Casandra/Galeria/LuzEstado/12</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="184" t="s">
         <v>53</v>
       </c>
@@ -14966,7 +15196,7 @@
         <v>Casandra/Galeria/LuzIntensidad/01</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="184" t="s">
         <v>53</v>
       </c>
@@ -14993,7 +15223,7 @@
         <v>Casandra/Galeria/LuzIntensidad/02</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="184" t="s">
         <v>53</v>
       </c>
@@ -15020,7 +15250,7 @@
         <v>Casandra/Galeria/LuzIntensidad/03</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="184" t="s">
         <v>53</v>
       </c>
@@ -15047,7 +15277,7 @@
         <v>Casandra/Galeria/LuzIntensidad/04</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="184" t="s">
         <v>53</v>
       </c>
@@ -15074,7 +15304,7 @@
         <v>Casandra/Galeria/LuzIntensidad/05</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="184" t="s">
         <v>53</v>
       </c>
@@ -15101,7 +15331,7 @@
         <v>Casandra/Galeria/LuzIntensidad/06</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="184" t="s">
         <v>53</v>
       </c>
@@ -15128,7 +15358,7 @@
         <v>Casandra/Galeria/LuzIntensidad/07</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="184" t="s">
         <v>53</v>
       </c>
@@ -15155,7 +15385,7 @@
         <v>Casandra/Galeria/LuzIntensidad/08</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="184" t="s">
         <v>53</v>
       </c>
@@ -15182,7 +15412,7 @@
         <v>Casandra/Galeria/LuzIntensidad/09</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="184" t="s">
         <v>53</v>
       </c>
@@ -15209,7 +15439,7 @@
         <v>Casandra/Galeria/LuzIntensidad/10</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="184" t="s">
         <v>53</v>
       </c>
@@ -15236,7 +15466,7 @@
         <v>Casandra/Galeria/LuzIntensidad/11</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="184" t="s">
         <v>53</v>
       </c>
@@ -15263,7 +15493,7 @@
         <v>Casandra/Galeria/LuzIntensidad/12</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="184" t="s">
         <v>53</v>
       </c>
@@ -15290,7 +15520,7 @@
         <v>Casandra/Galeria/Temperatura/01</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="184" t="s">
         <v>53</v>
       </c>
@@ -15317,7 +15547,7 @@
         <v>Casandra/Galeria/Temperatura/02</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="184" t="s">
         <v>53</v>
       </c>
@@ -15344,7 +15574,7 @@
         <v>Casandra/Galeria/Humedad/01</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="184" t="s">
         <v>53</v>
       </c>
@@ -15371,7 +15601,7 @@
         <v>Casandra/Galeria/Humedad/02</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="184" t="s">
         <v>53</v>
       </c>
@@ -15398,7 +15628,7 @@
         <v>Casandra/Galeria/SensorMov/01</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="184" t="s">
         <v>53</v>
       </c>
@@ -15425,7 +15655,7 @@
         <v>Casandra/Galeria/SensorMov/02</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="179" t="s">
         <v>53</v>
       </c>
@@ -15450,7 +15680,7 @@
         <v>Casandra/Hall/Sodios</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="184" t="s">
         <v>53</v>
       </c>
@@ -15475,7 +15705,7 @@
         <v>Casandra/Hall/Sirena</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="184" t="s">
         <v>53</v>
       </c>
@@ -15500,7 +15730,7 @@
         <v>Casandra/Hall/LuzCamino</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="184" t="s">
         <v>53</v>
       </c>
@@ -15525,7 +15755,7 @@
         <v>Casandra/Hall/LuzEntrada</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="184" t="s">
         <v>53</v>
       </c>
@@ -15550,7 +15780,7 @@
         <v>Casandra/Hall/Porton</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="187" t="s">
         <v>53</v>
       </c>
@@ -15575,7 +15805,7 @@
         <v>Casandra/Hall/Timbre</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="179" t="s">
         <v>53</v>
       </c>
@@ -15600,7 +15830,7 @@
         <v>Casandra/Caldera/LuzSolar</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="184" t="s">
         <v>53</v>
       </c>
@@ -15625,7 +15855,7 @@
         <v>Casandra/Caldera/Lluvia</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="184" t="s">
         <v>53</v>
       </c>
@@ -15650,7 +15880,7 @@
         <v>Casandra/Caldera/Temperatura</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="184" t="s">
         <v>53</v>
       </c>
@@ -15677,7 +15907,7 @@
         <v>Casandra/Caldera/LuzEstado/01</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="184" t="s">
         <v>53</v>
       </c>
@@ -15704,7 +15934,7 @@
         <v>Casandra/Caldera/LuzEstado/02</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="184" t="s">
         <v>53</v>
       </c>
@@ -15731,7 +15961,7 @@
         <v>Casandra/Caldera/LuzEstado/03</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="184" t="s">
         <v>53</v>
       </c>
@@ -15756,7 +15986,7 @@
         <v>Casandra/Caldera/Termostato</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="184" t="s">
         <v>53</v>
       </c>
@@ -15783,7 +16013,7 @@
         <v>Casandra/Caldera/SensorMov/01</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="187" t="s">
         <v>53</v>
       </c>
@@ -15810,7 +16040,7 @@
         <v>Casandra/Caldera/SensorMov/02</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="179" t="s">
         <v>53</v>
       </c>
@@ -15818,24 +16048,24 @@
         <v>321</v>
       </c>
       <c r="C161" s="180" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="D161" s="180"/>
       <c r="E161" s="198" t="s">
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="F161" s="182" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G161" s="180" t="s">
         <v>307</v>
       </c>
       <c r="H161" s="183" t="str">
         <f t="shared" ref="H161:H165" si="7">CONCATENATE(A161,"/",B161,"/",C161,)</f>
-        <v>Casandra/Porton/SwAbrir</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>Casandra/Porton/BtnAbrir</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="184" t="s">
         <v>53</v>
       </c>
@@ -15843,24 +16073,24 @@
         <v>321</v>
       </c>
       <c r="C162" s="198" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="D162" s="198"/>
       <c r="E162" s="198" t="s">
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="F162" s="199" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G162" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H162" s="186" t="str">
         <f t="shared" si="7"/>
-        <v>Casandra/Porton/SwCerrar</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>Casandra/Porton/BtnCerrar</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="184" t="s">
         <v>53</v>
       </c>
@@ -15875,7 +16105,7 @@
         <v>275</v>
       </c>
       <c r="F163" s="199" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G163" s="198" t="s">
         <v>307</v>
@@ -15885,7 +16115,7 @@
         <v>Casandra/Porton/LuzCamino</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="184" t="s">
         <v>53</v>
       </c>
@@ -15900,7 +16130,7 @@
         <v>275</v>
       </c>
       <c r="F164" s="199" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G164" s="198" t="s">
         <v>307</v>
@@ -15910,7 +16140,7 @@
         <v>Casandra/Porton/Timbre</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="184" t="s">
         <v>53</v>
       </c>
@@ -15918,14 +16148,14 @@
         <v>321</v>
       </c>
       <c r="C165" s="198" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D165" s="185"/>
       <c r="E165" s="198" t="s">
         <v>275</v>
       </c>
       <c r="F165" s="199" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G165" s="198" t="s">
         <v>307</v>
@@ -15935,7 +16165,7 @@
         <v>Casandra/Porton/SensPuerta</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="187" t="s">
         <v>53</v>
       </c>
@@ -15943,14 +16173,14 @@
         <v>321</v>
       </c>
       <c r="C166" s="188" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D166" s="189"/>
       <c r="E166" s="188" t="s">
         <v>275</v>
       </c>
       <c r="F166" s="190" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G166" s="188" t="s">
         <v>307</v>
@@ -15960,11 +16190,849 @@
         <v>Casandra/Porton/SensPorton</v>
       </c>
     </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B167" s="180" t="s">
+        <v>350</v>
+      </c>
+      <c r="C167" s="180" t="s">
+        <v>353</v>
+      </c>
+      <c r="D167" s="180"/>
+      <c r="E167" s="180" t="s">
+        <v>351</v>
+      </c>
+      <c r="F167" s="182" t="s">
+        <v>352</v>
+      </c>
+      <c r="G167" s="180" t="s">
+        <v>307</v>
+      </c>
+      <c r="H167" s="183" t="str">
+        <f t="shared" ref="H167:H171" si="8">CONCATENATE(A167,"/",B167,"/",C167,)</f>
+        <v>Casandra/Estar/LuzRGB</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B168" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C168" s="198" t="s">
+        <v>273</v>
+      </c>
+      <c r="D168" s="198"/>
+      <c r="E168" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="F168" s="199" t="s">
+        <v>276</v>
+      </c>
+      <c r="G168" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H168" s="186" t="str">
+        <f t="shared" si="8"/>
+        <v>Casandra/Estar/LuzEstado</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B169" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C169" s="198" t="s">
+        <v>301</v>
+      </c>
+      <c r="D169" s="198"/>
+      <c r="E169" s="198" t="s">
+        <v>302</v>
+      </c>
+      <c r="F169" s="199" t="s">
+        <v>303</v>
+      </c>
+      <c r="G169" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H169" s="186" t="str">
+        <f t="shared" si="8"/>
+        <v>Casandra/Estar/LuzIntensidad</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B170" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C170" s="198" t="s">
+        <v>304</v>
+      </c>
+      <c r="D170" s="185"/>
+      <c r="E170" s="198" t="s">
+        <v>305</v>
+      </c>
+      <c r="F170" s="199" t="s">
+        <v>306</v>
+      </c>
+      <c r="G170" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H170" s="186" t="str">
+        <f t="shared" si="8"/>
+        <v>Casandra/Estar/Temperatura</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B171" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" s="198" t="s">
+        <v>308</v>
+      </c>
+      <c r="D171" s="185"/>
+      <c r="E171" s="198" t="s">
+        <v>305</v>
+      </c>
+      <c r="F171" s="199" t="s">
+        <v>309</v>
+      </c>
+      <c r="G171" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H171" s="186" t="str">
+        <f t="shared" si="8"/>
+        <v>Casandra/Estar/Humedad</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B172" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" s="198" t="s">
+        <v>331</v>
+      </c>
+      <c r="D172" s="185"/>
+      <c r="E172" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="F172" s="199" t="s">
+        <v>332</v>
+      </c>
+      <c r="G172" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H172" s="186" t="str">
+        <f>CONCATENATE(A172,"/",B172,"/",C172,)</f>
+        <v>Casandra/Estar/Termostato</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B173" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C173" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D173" s="198" t="s">
+        <v>378</v>
+      </c>
+      <c r="E173" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F173" s="199" t="s">
+        <v>354</v>
+      </c>
+      <c r="G173" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H173" s="186" t="str">
+        <f>CONCATENATE(A173,"/",B173,"/",C173,"/",D173,)</f>
+        <v>Casandra/Estar/CRemoto/BtnOnTV</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B174" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D174" s="198" t="s">
+        <v>379</v>
+      </c>
+      <c r="E174" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F174" s="199" t="s">
+        <v>384</v>
+      </c>
+      <c r="G174" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H174" s="186" t="str">
+        <f t="shared" ref="H174:H188" si="9">CONCATENATE(A174,"/",B174,"/",C174,"/",D174,)</f>
+        <v>Casandra/Estar/CRemoto/BtnOnDeco</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B175" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D175" s="198" t="s">
+        <v>380</v>
+      </c>
+      <c r="E175" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F175" s="199" t="s">
+        <v>385</v>
+      </c>
+      <c r="G175" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H175" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/BtnCanalUpDeco</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B176" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D176" s="198" t="s">
+        <v>381</v>
+      </c>
+      <c r="E176" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F176" s="199" t="s">
+        <v>386</v>
+      </c>
+      <c r="G176" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H176" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/BtnCanalDoDeco</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B177" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D177" s="198" t="s">
+        <v>383</v>
+      </c>
+      <c r="E177" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F177" s="199" t="s">
+        <v>387</v>
+      </c>
+      <c r="G177" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H177" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/BtnVolUpDeco</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B178" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C178" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D178" s="198" t="s">
+        <v>382</v>
+      </c>
+      <c r="E178" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F178" s="199" t="s">
+        <v>388</v>
+      </c>
+      <c r="G178" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H178" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/BtnVolDoDeco</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B179" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C179" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D179" s="198" t="s">
+        <v>355</v>
+      </c>
+      <c r="E179" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F179" s="199" t="s">
+        <v>365</v>
+      </c>
+      <c r="G179" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H179" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B180" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C180" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D180" s="198" t="s">
+        <v>356</v>
+      </c>
+      <c r="E180" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F180" s="199" t="s">
+        <v>366</v>
+      </c>
+      <c r="G180" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H180" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B181" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C181" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D181" s="198" t="s">
+        <v>357</v>
+      </c>
+      <c r="E181" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F181" s="199" t="s">
+        <v>367</v>
+      </c>
+      <c r="G181" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H181" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B182" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C182" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D182" s="198" t="s">
+        <v>358</v>
+      </c>
+      <c r="E182" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F182" s="199" t="s">
+        <v>368</v>
+      </c>
+      <c r="G182" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H182" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B183" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C183" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D183" s="198" t="s">
+        <v>359</v>
+      </c>
+      <c r="E183" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F183" s="199" t="s">
+        <v>369</v>
+      </c>
+      <c r="G183" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H183" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B184" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C184" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D184" s="198" t="s">
+        <v>360</v>
+      </c>
+      <c r="E184" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F184" s="199" t="s">
+        <v>370</v>
+      </c>
+      <c r="G184" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H184" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B185" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C185" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D185" s="198" t="s">
+        <v>361</v>
+      </c>
+      <c r="E185" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F185" s="199" t="s">
+        <v>371</v>
+      </c>
+      <c r="G185" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H185" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B186" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C186" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D186" s="198" t="s">
+        <v>362</v>
+      </c>
+      <c r="E186" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F186" s="199" t="s">
+        <v>372</v>
+      </c>
+      <c r="G186" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H186" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B187" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C187" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D187" s="198" t="s">
+        <v>363</v>
+      </c>
+      <c r="E187" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F187" s="199" t="s">
+        <v>373</v>
+      </c>
+      <c r="G187" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H187" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B188" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C188" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D188" s="198" t="s">
+        <v>364</v>
+      </c>
+      <c r="E188" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="F188" s="199" t="s">
+        <v>374</v>
+      </c>
+      <c r="G188" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H188" s="186" t="str">
+        <f t="shared" si="9"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B189" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C189" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="D189" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="E189" s="198" t="s">
+        <v>400</v>
+      </c>
+      <c r="F189" s="199" t="s">
+        <v>393</v>
+      </c>
+      <c r="G189" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H189" s="186" t="str">
+        <f t="shared" ref="H189:H190" si="10">CONCATENATE(A189,"/",B189,"/",C189,"/",D189,)</f>
+        <v>Casandra/Estar/AA/Fan</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B190" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C190" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="D190" s="198" t="s">
+        <v>392</v>
+      </c>
+      <c r="E190" s="198" t="s">
+        <v>400</v>
+      </c>
+      <c r="F190" s="199" t="s">
+        <v>394</v>
+      </c>
+      <c r="G190" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H190" s="186" t="str">
+        <f t="shared" si="10"/>
+        <v>Casandra/Estar/AA/Modo</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B191" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C191" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="D191" s="198" t="s">
+        <v>395</v>
+      </c>
+      <c r="E191" s="198" t="s">
+        <v>400</v>
+      </c>
+      <c r="F191" s="199" t="s">
+        <v>396</v>
+      </c>
+      <c r="G191" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H191" s="186" t="str">
+        <f t="shared" ref="H191" si="11">CONCATENATE(A191,"/",B191,"/",C191,"/",D191,)</f>
+        <v>Casandra/Estar/AA/Swing</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B192" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C192" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="D192" s="198" t="s">
+        <v>397</v>
+      </c>
+      <c r="E192" s="198" t="s">
+        <v>398</v>
+      </c>
+      <c r="F192" s="199" t="s">
+        <v>399</v>
+      </c>
+      <c r="G192" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H192" s="186" t="str">
+        <f t="shared" ref="H192" si="12">CONCATENATE(A192,"/",B192,"/",C192,"/",D192,)</f>
+        <v>Casandra/Estar/AA/TempObj</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5386A27A-B822-47B7-95F2-B520916D5573}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="214" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="215" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="214" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="215" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="214" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="215" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="214" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="215" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="214" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="215" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="214" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="215" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="214" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="215" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="214" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="215" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Soft/Dimer.xlsx
+++ b/Soft/Dimer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.Datos\Electronica\Proyectos\Microchip\Git\Casandra\Soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC0D2F6-FB1E-491A-A380-447353F65A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8507263F-F3BC-4116-9B37-C15532FB4809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comandos" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="419">
   <si>
     <t>Valor</t>
   </si>
@@ -1569,13 +1569,20 @@
   <si>
     <t>0x101B847</t>
   </si>
+  <si>
+    <t>Valor Raw</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2653,7 +2660,7 @@
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3242,6 +3249,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3314,8 +3348,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF00"/>
       <color rgb="FFC0C0C0"/>
-      <color rgb="FFFFFF00"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFFFFBD"/>
       <color rgb="FFEAEAEA"/>
@@ -4501,16 +4535,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>168160</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76254</xdr:rowOff>
+      <xdr:rowOff>106734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4533,7 +4567,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3680460" y="0"/>
+          <a:off x="2933700" y="30480"/>
           <a:ext cx="5997460" cy="624894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8108,7 +8142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125AF8B-2E62-4DF1-9548-A1621FB537F6}">
   <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+    <sheetView topLeftCell="A172" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -13273,17 +13307,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111E22BF-FED0-41F6-808D-61809D43BC66}">
-  <dimension ref="B6:Q109"/>
+  <dimension ref="B6:Z110"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>334</v>
@@ -13291,6 +13325,9 @@
       <c r="D6" s="29" t="s">
         <v>335</v>
       </c>
+      <c r="E6" s="29" t="s">
+        <v>418</v>
+      </c>
       <c r="K6" s="29" t="s">
         <v>333</v>
       </c>
@@ -13300,25 +13337,31 @@
       <c r="M6" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="T6" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y6" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Z6" s="29" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="C7" s="29">
-        <f xml:space="preserve"> ((B7 * 0.294) - 200)</f>
-        <v>-200</v>
-      </c>
-      <c r="D7" s="193">
-        <f xml:space="preserve"> (B7 * 0.059)</f>
+      <c r="C7" s="217">
+        <f>B7/3</f>
         <v>0</v>
       </c>
+      <c r="D7" s="218"/>
       <c r="G7" s="29" t="s">
         <v>336</v>
       </c>
@@ -13328,2529 +13371,3401 @@
       <c r="K7" s="29">
         <v>0</v>
       </c>
-      <c r="L7" s="192">
-        <f>K7*0.25</f>
+      <c r="L7" s="29">
+        <f xml:space="preserve"> ((K7 * 0.294) - 200)</f>
+        <v>-200</v>
+      </c>
+      <c r="M7" s="193">
+        <f xml:space="preserve"> (K7 * 0.059)</f>
         <v>0</v>
       </c>
-      <c r="M7">
-        <f>(K7*0.095) + 23</f>
+      <c r="P7" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="T7" s="29">
+        <v>0</v>
+      </c>
+      <c r="U7" s="192">
+        <f>T7*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>(T7*0.095) + 23</f>
         <v>23</v>
       </c>
-      <c r="O7" t="s">
+      <c r="X7" t="s">
         <v>338</v>
       </c>
-      <c r="P7">
+      <c r="Y7">
         <v>200</v>
       </c>
-      <c r="Q7">
+      <c r="Z7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B8" s="29">
         <v>10</v>
       </c>
-      <c r="C8" s="29">
-        <f t="shared" ref="C8:C71" si="0" xml:space="preserve"> ((B8 * 0.294) - 200)</f>
-        <v>-197.06</v>
-      </c>
-      <c r="D8" s="193">
-        <f t="shared" ref="D8:D71" si="1" xml:space="preserve"> (B8 * 0.059)</f>
-        <v>0.59</v>
-      </c>
+      <c r="C8" s="217">
+        <f t="shared" ref="C8:C16" si="0">B8/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D8" s="218"/>
       <c r="G8" s="29">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H8" s="29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K8" s="29">
         <v>10</v>
       </c>
-      <c r="L8" s="192">
-        <f t="shared" ref="L8:L27" si="2">K8*0.25</f>
+      <c r="L8" s="29">
+        <f t="shared" ref="L8:L71" si="1" xml:space="preserve"> ((K8 * 0.294) - 200)</f>
+        <v>-197.06</v>
+      </c>
+      <c r="M8" s="193">
+        <f t="shared" ref="M8:M71" si="2" xml:space="preserve"> (K8 * 0.059)</f>
+        <v>0.59</v>
+      </c>
+      <c r="P8" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>0</v>
+      </c>
+      <c r="T8" s="29">
+        <v>10</v>
+      </c>
+      <c r="U8" s="192">
+        <f t="shared" ref="U8:U27" si="3">T8*0.25</f>
         <v>2.5</v>
       </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M26" si="3">(K8*0.095) + 23</f>
+      <c r="V8">
+        <f t="shared" ref="V8:V26" si="4">(T8*0.095) + 23</f>
         <v>23.95</v>
       </c>
-      <c r="O8" t="s">
+      <c r="X8" t="s">
         <v>339</v>
       </c>
-      <c r="P8">
+      <c r="Y8">
         <v>655</v>
       </c>
-      <c r="Q8">
+      <c r="Z8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B9" s="29">
         <v>20</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="217">
         <f t="shared" si="0"/>
-        <v>-194.12</v>
-      </c>
-      <c r="D9" s="193">
-        <f t="shared" si="1"/>
-        <v>1.18</v>
-      </c>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D9" s="218"/>
       <c r="G9" s="29">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="H9" s="29">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <f>H9/G9</f>
-        <v>0.16666666666666666</v>
+        <v>0.30909090909090908</v>
       </c>
       <c r="K9" s="29">
         <v>20</v>
       </c>
-      <c r="L9" s="192">
+      <c r="L9" s="29">
+        <f t="shared" si="1"/>
+        <v>-194.12</v>
+      </c>
+      <c r="M9" s="193">
         <f t="shared" si="2"/>
+        <v>1.18</v>
+      </c>
+      <c r="P9" s="29">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>50</v>
+      </c>
+      <c r="R9">
+        <f>Q9/P9</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T9" s="29">
+        <v>20</v>
+      </c>
+      <c r="U9" s="192">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
+      <c r="V9">
+        <f t="shared" si="4"/>
         <v>24.9</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="29">
         <v>30</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="217">
         <f t="shared" si="0"/>
-        <v>-191.18</v>
-      </c>
-      <c r="D10" s="193">
-        <f t="shared" si="1"/>
-        <v>1.77</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D10" s="218"/>
       <c r="F10">
         <f>G10-G9</f>
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="G10" s="29">
-        <v>860</v>
+        <v>690</v>
       </c>
       <c r="H10" s="29">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="I10">
         <f>H10/F10</f>
-        <v>0.17857142857142858</v>
+        <v>8.4482758620689657E-2</v>
+      </c>
+      <c r="J10">
+        <f>H10-H9</f>
+        <v>15</v>
       </c>
       <c r="K10" s="29">
         <v>30</v>
       </c>
-      <c r="L10" s="192">
+      <c r="L10" s="29">
+        <f t="shared" si="1"/>
+        <v>-191.18</v>
+      </c>
+      <c r="M10" s="193">
         <f t="shared" si="2"/>
+        <v>1.77</v>
+      </c>
+      <c r="O10">
+        <f>P10-P9</f>
+        <v>560</v>
+      </c>
+      <c r="P10" s="29">
+        <v>860</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <f>Q10/O10</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="T10" s="29">
+        <v>30</v>
+      </c>
+      <c r="U10" s="192">
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
+      <c r="V10">
+        <f t="shared" si="4"/>
         <v>25.85</v>
       </c>
-      <c r="O10" t="s">
+      <c r="X10" t="s">
         <v>342</v>
       </c>
-      <c r="P10">
-        <f>(Q8-Q7)/(P8-P7)</f>
+      <c r="Y10">
+        <f>(Z8-Z7)/(Y8-Y7)</f>
         <v>0.10989010989010989</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="29">
         <v>40</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="217">
         <f t="shared" si="0"/>
-        <v>-188.24</v>
-      </c>
-      <c r="D11" s="193">
-        <f t="shared" si="1"/>
-        <v>2.36</v>
-      </c>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="D11" s="218"/>
       <c r="K11" s="29">
         <v>40</v>
       </c>
-      <c r="L11" s="192">
+      <c r="L11" s="29">
+        <f t="shared" si="1"/>
+        <v>-188.24</v>
+      </c>
+      <c r="M11" s="193">
         <f t="shared" si="2"/>
+        <v>2.36</v>
+      </c>
+      <c r="T11" s="29">
+        <v>40</v>
+      </c>
+      <c r="U11" s="192">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
+      <c r="V11">
+        <f t="shared" si="4"/>
         <v>26.8</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12" s="29">
         <v>50</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="217">
         <f t="shared" si="0"/>
-        <v>-185.3</v>
-      </c>
-      <c r="D12" s="193">
-        <f t="shared" si="1"/>
-        <v>2.9499999999999997</v>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D12" s="218"/>
+      <c r="F12">
+        <f>J10/F10</f>
+        <v>2.5862068965517241E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.5862068965517241E-2</v>
       </c>
       <c r="K12" s="29">
         <v>50</v>
       </c>
-      <c r="L12" s="192">
+      <c r="L12" s="29">
+        <f t="shared" si="1"/>
+        <v>-185.3</v>
+      </c>
+      <c r="M12" s="193">
         <f t="shared" si="2"/>
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="T12" s="29">
+        <v>50</v>
+      </c>
+      <c r="U12" s="192">
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
+      <c r="V12">
+        <f t="shared" si="4"/>
         <v>27.75</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B13" s="29">
         <v>60</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="217">
         <f t="shared" si="0"/>
-        <v>-182.36</v>
-      </c>
-      <c r="D13" s="193">
-        <f t="shared" si="1"/>
-        <v>3.54</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D13" s="218"/>
       <c r="K13" s="29">
         <v>60</v>
       </c>
-      <c r="L13" s="192">
+      <c r="L13" s="29">
+        <f t="shared" si="1"/>
+        <v>-182.36</v>
+      </c>
+      <c r="M13" s="193">
         <f t="shared" si="2"/>
+        <v>3.54</v>
+      </c>
+      <c r="T13" s="29">
+        <v>60</v>
+      </c>
+      <c r="U13" s="192">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
+      <c r="V13">
+        <f t="shared" si="4"/>
         <v>28.7</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="29">
         <v>70</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="217">
         <f t="shared" si="0"/>
-        <v>-179.42000000000002</v>
-      </c>
-      <c r="D14" s="193">
-        <f t="shared" si="1"/>
-        <v>4.13</v>
-      </c>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="D14" s="218"/>
       <c r="K14" s="29">
         <v>70</v>
       </c>
-      <c r="L14" s="192">
+      <c r="L14" s="29">
+        <f t="shared" si="1"/>
+        <v>-179.42000000000002</v>
+      </c>
+      <c r="M14" s="193">
         <f t="shared" si="2"/>
+        <v>4.13</v>
+      </c>
+      <c r="T14" s="29">
+        <v>70</v>
+      </c>
+      <c r="U14" s="192">
+        <f t="shared" si="3"/>
         <v>17.5</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
+      <c r="V14">
+        <f t="shared" si="4"/>
         <v>29.65</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15" s="29">
         <v>80</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="217">
         <f t="shared" si="0"/>
-        <v>-176.48</v>
-      </c>
-      <c r="D15" s="193">
-        <f t="shared" si="1"/>
-        <v>4.72</v>
-      </c>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="D15" s="218"/>
       <c r="K15" s="29">
         <v>80</v>
       </c>
-      <c r="L15" s="192">
+      <c r="L15" s="29">
+        <f t="shared" si="1"/>
+        <v>-176.48</v>
+      </c>
+      <c r="M15" s="193">
         <f t="shared" si="2"/>
+        <v>4.72</v>
+      </c>
+      <c r="T15" s="29">
+        <v>80</v>
+      </c>
+      <c r="U15" s="192">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
+      <c r="V15">
+        <f t="shared" si="4"/>
         <v>30.6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="29">
         <v>90</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="217">
         <f t="shared" si="0"/>
-        <v>-173.54</v>
-      </c>
-      <c r="D16" s="193">
-        <f t="shared" si="1"/>
-        <v>5.31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D16" s="218"/>
       <c r="K16" s="29">
         <v>90</v>
       </c>
-      <c r="L16" s="192">
+      <c r="L16" s="29">
+        <f t="shared" si="1"/>
+        <v>-173.54</v>
+      </c>
+      <c r="M16" s="193">
         <f t="shared" si="2"/>
+        <v>5.31</v>
+      </c>
+      <c r="T16" s="29">
+        <v>90</v>
+      </c>
+      <c r="U16" s="192">
+        <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
+      <c r="V16">
+        <f t="shared" si="4"/>
         <v>31.55</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="29">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B17" s="220">
         <v>100</v>
       </c>
-      <c r="C17" s="29">
-        <f t="shared" si="0"/>
-        <v>-170.6</v>
-      </c>
-      <c r="D17" s="193">
-        <f t="shared" si="1"/>
-        <v>5.8999999999999995</v>
-      </c>
+      <c r="C17" s="222">
+        <f>B17/3</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D17" s="219"/>
       <c r="K17" s="29">
         <v>100</v>
       </c>
-      <c r="L17" s="192">
+      <c r="L17" s="29">
+        <f t="shared" si="1"/>
+        <v>-170.6</v>
+      </c>
+      <c r="M17" s="193">
         <f t="shared" si="2"/>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="T17" s="29">
+        <v>100</v>
+      </c>
+      <c r="U17" s="192">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="M17">
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B18" s="29">
+        <v>110</v>
+      </c>
+      <c r="C18" s="216"/>
+      <c r="D18" s="223">
+        <f>(B18*0.026)+31</f>
+        <v>33.86</v>
+      </c>
+      <c r="K18" s="29">
+        <v>110</v>
+      </c>
+      <c r="L18" s="29">
+        <f t="shared" si="1"/>
+        <v>-167.66</v>
+      </c>
+      <c r="M18" s="193">
+        <f t="shared" si="2"/>
+        <v>6.4899999999999993</v>
+      </c>
+      <c r="T18" s="29">
+        <v>110</v>
+      </c>
+      <c r="U18" s="192">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="4"/>
+        <v>33.450000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B19" s="29">
+        <v>120</v>
+      </c>
+      <c r="C19" s="216"/>
+      <c r="D19" s="224">
+        <f t="shared" ref="D19:D76" si="5">(B19*0.026)+31</f>
+        <v>34.119999999999997</v>
+      </c>
+      <c r="K19" s="29">
+        <v>120</v>
+      </c>
+      <c r="L19" s="29">
+        <f t="shared" si="1"/>
+        <v>-164.72</v>
+      </c>
+      <c r="M19" s="193">
+        <f t="shared" si="2"/>
+        <v>7.08</v>
+      </c>
+      <c r="T19" s="29">
+        <v>120</v>
+      </c>
+      <c r="U19" s="192">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="4"/>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B20" s="29">
+        <v>130</v>
+      </c>
+      <c r="C20" s="216"/>
+      <c r="D20" s="224">
+        <f t="shared" si="5"/>
+        <v>34.380000000000003</v>
+      </c>
+      <c r="K20" s="29">
+        <v>130</v>
+      </c>
+      <c r="L20" s="29">
+        <f t="shared" si="1"/>
+        <v>-161.78</v>
+      </c>
+      <c r="M20" s="193">
+        <f t="shared" si="2"/>
+        <v>7.67</v>
+      </c>
+      <c r="T20" s="29">
+        <v>130</v>
+      </c>
+      <c r="U20" s="192">
         <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="29">
-        <v>110</v>
-      </c>
-      <c r="C18" s="29">
-        <f t="shared" si="0"/>
-        <v>-167.66</v>
-      </c>
-      <c r="D18" s="193">
-        <f t="shared" si="1"/>
-        <v>6.4899999999999993</v>
-      </c>
-      <c r="K18" s="29">
-        <v>110</v>
-      </c>
-      <c r="L18" s="192">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>33.450000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="29">
-        <v>120</v>
-      </c>
-      <c r="C19" s="29">
-        <f t="shared" si="0"/>
-        <v>-164.72</v>
-      </c>
-      <c r="D19" s="193">
-        <f t="shared" si="1"/>
-        <v>7.08</v>
-      </c>
-      <c r="K19" s="29">
-        <v>120</v>
-      </c>
-      <c r="L19" s="192">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="29">
-        <v>130</v>
-      </c>
-      <c r="C20" s="29">
-        <f t="shared" si="0"/>
-        <v>-161.78</v>
-      </c>
-      <c r="D20" s="193">
-        <f t="shared" si="1"/>
-        <v>7.67</v>
-      </c>
-      <c r="K20" s="29">
-        <v>130</v>
-      </c>
-      <c r="L20" s="192">
-        <f t="shared" si="2"/>
-        <v>32.5</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
+      <c r="V20">
+        <f t="shared" si="4"/>
         <v>35.35</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="29">
         <v>140</v>
       </c>
-      <c r="C21" s="29">
-        <f t="shared" si="0"/>
-        <v>-158.84</v>
-      </c>
-      <c r="D21" s="193">
-        <f t="shared" si="1"/>
-        <v>8.26</v>
+      <c r="C21" s="216"/>
+      <c r="D21" s="224">
+        <f t="shared" si="5"/>
+        <v>34.64</v>
       </c>
       <c r="K21" s="29">
         <v>140</v>
       </c>
-      <c r="L21" s="192">
+      <c r="L21" s="29">
+        <f t="shared" si="1"/>
+        <v>-158.84</v>
+      </c>
+      <c r="M21" s="193">
         <f t="shared" si="2"/>
+        <v>8.26</v>
+      </c>
+      <c r="T21" s="29">
+        <v>140</v>
+      </c>
+      <c r="U21" s="192">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="3"/>
+      <c r="V21">
+        <f t="shared" si="4"/>
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="29">
         <v>150</v>
       </c>
-      <c r="C22" s="29">
-        <f t="shared" si="0"/>
-        <v>-155.9</v>
-      </c>
-      <c r="D22" s="193">
-        <f t="shared" si="1"/>
-        <v>8.85</v>
+      <c r="C22" s="216"/>
+      <c r="D22" s="224">
+        <f t="shared" si="5"/>
+        <v>34.9</v>
       </c>
       <c r="K22" s="29">
         <v>150</v>
       </c>
-      <c r="L22" s="192">
+      <c r="L22" s="29">
+        <f t="shared" si="1"/>
+        <v>-155.9</v>
+      </c>
+      <c r="M22" s="193">
         <f t="shared" si="2"/>
+        <v>8.85</v>
+      </c>
+      <c r="T22" s="29">
+        <v>150</v>
+      </c>
+      <c r="U22" s="192">
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="3"/>
+      <c r="V22">
+        <f t="shared" si="4"/>
         <v>37.25</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="29">
         <v>160</v>
       </c>
-      <c r="C23" s="29">
-        <f t="shared" si="0"/>
-        <v>-152.96</v>
-      </c>
-      <c r="D23" s="193">
-        <f t="shared" si="1"/>
-        <v>9.44</v>
+      <c r="C23" s="216"/>
+      <c r="D23" s="224">
+        <f t="shared" si="5"/>
+        <v>35.159999999999997</v>
       </c>
       <c r="K23" s="29">
         <v>160</v>
       </c>
-      <c r="L23" s="192">
+      <c r="L23" s="29">
+        <f t="shared" si="1"/>
+        <v>-152.96</v>
+      </c>
+      <c r="M23" s="193">
         <f t="shared" si="2"/>
+        <v>9.44</v>
+      </c>
+      <c r="T23" s="29">
+        <v>160</v>
+      </c>
+      <c r="U23" s="192">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="3"/>
+      <c r="V23">
+        <f t="shared" si="4"/>
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B24" s="29">
         <v>170</v>
       </c>
-      <c r="C24" s="29">
-        <f t="shared" si="0"/>
-        <v>-150.02000000000001</v>
-      </c>
-      <c r="D24" s="193">
-        <f t="shared" si="1"/>
-        <v>10.029999999999999</v>
+      <c r="C24" s="216"/>
+      <c r="D24" s="224">
+        <f t="shared" si="5"/>
+        <v>35.42</v>
       </c>
       <c r="K24" s="29">
         <v>170</v>
       </c>
-      <c r="L24" s="192">
+      <c r="L24" s="29">
+        <f t="shared" si="1"/>
+        <v>-150.02000000000001</v>
+      </c>
+      <c r="M24" s="193">
         <f t="shared" si="2"/>
+        <v>10.029999999999999</v>
+      </c>
+      <c r="T24" s="29">
+        <v>170</v>
+      </c>
+      <c r="U24" s="192">
+        <f t="shared" si="3"/>
         <v>42.5</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="3"/>
+      <c r="V24">
+        <f t="shared" si="4"/>
         <v>39.15</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="29">
         <v>180</v>
       </c>
-      <c r="C25" s="29">
-        <f t="shared" si="0"/>
-        <v>-147.08000000000001</v>
-      </c>
-      <c r="D25" s="193">
-        <f t="shared" si="1"/>
-        <v>10.62</v>
+      <c r="C25" s="216"/>
+      <c r="D25" s="224">
+        <f t="shared" si="5"/>
+        <v>35.68</v>
       </c>
       <c r="K25" s="29">
         <v>180</v>
       </c>
-      <c r="L25" s="192">
+      <c r="L25" s="29">
+        <f t="shared" si="1"/>
+        <v>-147.08000000000001</v>
+      </c>
+      <c r="M25" s="193">
         <f t="shared" si="2"/>
+        <v>10.62</v>
+      </c>
+      <c r="T25" s="29">
+        <v>180</v>
+      </c>
+      <c r="U25" s="192">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="3"/>
+      <c r="V25">
+        <f t="shared" si="4"/>
         <v>40.1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="29">
         <v>190</v>
       </c>
-      <c r="C26" s="29">
-        <f t="shared" si="0"/>
-        <v>-144.13999999999999</v>
-      </c>
-      <c r="D26" s="193">
-        <f t="shared" si="1"/>
-        <v>11.209999999999999</v>
+      <c r="C26" s="216"/>
+      <c r="D26" s="224">
+        <f t="shared" si="5"/>
+        <v>35.94</v>
       </c>
       <c r="K26" s="29">
         <v>190</v>
       </c>
-      <c r="L26" s="192">
+      <c r="L26" s="29">
+        <f t="shared" si="1"/>
+        <v>-144.13999999999999</v>
+      </c>
+      <c r="M26" s="193">
         <f t="shared" si="2"/>
+        <v>11.209999999999999</v>
+      </c>
+      <c r="T26" s="29">
+        <v>190</v>
+      </c>
+      <c r="U26" s="192">
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="3"/>
+      <c r="V26">
+        <f t="shared" si="4"/>
         <v>41.05</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="29">
         <v>200</v>
       </c>
-      <c r="C27" s="29">
-        <f t="shared" si="0"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="224">
+        <f t="shared" si="5"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="K27" s="29">
+        <v>200</v>
+      </c>
+      <c r="L27" s="29">
+        <f t="shared" si="1"/>
         <v>-141.19999999999999</v>
       </c>
-      <c r="D27" s="193">
-        <f t="shared" si="1"/>
+      <c r="M27" s="193">
+        <f t="shared" si="2"/>
         <v>11.799999999999999</v>
       </c>
-      <c r="K27" s="194">
+      <c r="T27" s="194">
         <v>200</v>
       </c>
-      <c r="L27" s="192">
-        <f t="shared" si="2"/>
+      <c r="U27" s="192">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M27" s="192">
-        <f>(K27*0.11) + 28</f>
+      <c r="V27" s="192">
+        <f>(T27*0.11) + 28</f>
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="29">
         <v>210</v>
       </c>
-      <c r="C28" s="29">
-        <f t="shared" si="0"/>
-        <v>-138.26</v>
-      </c>
-      <c r="D28" s="193">
-        <f t="shared" si="1"/>
-        <v>12.389999999999999</v>
+      <c r="C28" s="216"/>
+      <c r="D28" s="224">
+        <f t="shared" si="5"/>
+        <v>36.46</v>
       </c>
       <c r="K28" s="29">
         <v>210</v>
       </c>
       <c r="L28" s="29">
-        <f t="shared" ref="L28:L71" si="4">K28*0.167</f>
+        <f t="shared" si="1"/>
+        <v>-138.26</v>
+      </c>
+      <c r="M28" s="193">
+        <f t="shared" si="2"/>
+        <v>12.389999999999999</v>
+      </c>
+      <c r="T28" s="29">
+        <v>210</v>
+      </c>
+      <c r="U28" s="29">
+        <f t="shared" ref="U28:U71" si="6">T28*0.167</f>
         <v>35.07</v>
       </c>
-      <c r="M28" s="192">
-        <f t="shared" ref="M28:M72" si="5">(K28*0.11) + 28</f>
+      <c r="V28" s="192">
+        <f t="shared" ref="V28:V72" si="7">(T28*0.11) + 28</f>
         <v>51.1</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="29">
         <v>220</v>
       </c>
-      <c r="C29" s="29">
-        <f t="shared" si="0"/>
-        <v>-135.32</v>
-      </c>
-      <c r="D29" s="193">
-        <f t="shared" si="1"/>
-        <v>12.979999999999999</v>
+      <c r="C29" s="216"/>
+      <c r="D29" s="224">
+        <f t="shared" si="5"/>
+        <v>36.72</v>
       </c>
       <c r="K29" s="29">
         <v>220</v>
       </c>
       <c r="L29" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>-135.32</v>
+      </c>
+      <c r="M29" s="193">
+        <f t="shared" si="2"/>
+        <v>12.979999999999999</v>
+      </c>
+      <c r="T29" s="29">
+        <v>220</v>
+      </c>
+      <c r="U29" s="29">
+        <f t="shared" si="6"/>
         <v>36.74</v>
       </c>
-      <c r="M29" s="192">
-        <f t="shared" si="5"/>
+      <c r="V29" s="192">
+        <f t="shared" si="7"/>
         <v>52.2</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="29">
         <v>230</v>
       </c>
-      <c r="C30" s="29">
-        <f t="shared" si="0"/>
-        <v>-132.38</v>
-      </c>
-      <c r="D30" s="193">
-        <f t="shared" si="1"/>
-        <v>13.569999999999999</v>
+      <c r="C30" s="216"/>
+      <c r="D30" s="224">
+        <f t="shared" si="5"/>
+        <v>36.979999999999997</v>
       </c>
       <c r="K30" s="29">
         <v>230</v>
       </c>
       <c r="L30" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>-132.38</v>
+      </c>
+      <c r="M30" s="193">
+        <f t="shared" si="2"/>
+        <v>13.569999999999999</v>
+      </c>
+      <c r="T30" s="29">
+        <v>230</v>
+      </c>
+      <c r="U30" s="29">
+        <f t="shared" si="6"/>
         <v>38.410000000000004</v>
       </c>
-      <c r="M30" s="192">
-        <f t="shared" si="5"/>
+      <c r="V30" s="192">
+        <f t="shared" si="7"/>
         <v>53.3</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="29">
         <v>240</v>
       </c>
-      <c r="C31" s="29">
-        <f t="shared" si="0"/>
-        <v>-129.44</v>
-      </c>
-      <c r="D31" s="193">
-        <f t="shared" si="1"/>
-        <v>14.16</v>
+      <c r="C31" s="216"/>
+      <c r="D31" s="224">
+        <f t="shared" si="5"/>
+        <v>37.24</v>
       </c>
       <c r="K31" s="29">
         <v>240</v>
       </c>
       <c r="L31" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>-129.44</v>
+      </c>
+      <c r="M31" s="193">
+        <f t="shared" si="2"/>
+        <v>14.16</v>
+      </c>
+      <c r="T31" s="29">
+        <v>240</v>
+      </c>
+      <c r="U31" s="29">
+        <f t="shared" si="6"/>
         <v>40.080000000000005</v>
       </c>
-      <c r="M31" s="192">
-        <f t="shared" si="5"/>
+      <c r="V31" s="192">
+        <f t="shared" si="7"/>
         <v>54.4</v>
       </c>
-      <c r="O31" s="29"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="X31" s="29"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="29">
         <v>250</v>
       </c>
-      <c r="C32" s="29">
-        <f t="shared" si="0"/>
-        <v>-126.5</v>
-      </c>
-      <c r="D32" s="193">
-        <f t="shared" si="1"/>
-        <v>14.75</v>
+      <c r="C32" s="216"/>
+      <c r="D32" s="224">
+        <f t="shared" si="5"/>
+        <v>37.5</v>
       </c>
       <c r="K32" s="29">
         <v>250</v>
       </c>
       <c r="L32" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>-126.5</v>
+      </c>
+      <c r="M32" s="193">
+        <f t="shared" si="2"/>
+        <v>14.75</v>
+      </c>
+      <c r="T32" s="29">
+        <v>250</v>
+      </c>
+      <c r="U32" s="29">
+        <f t="shared" si="6"/>
         <v>41.75</v>
       </c>
-      <c r="M32" s="192">
-        <f t="shared" si="5"/>
+      <c r="V32" s="192">
+        <f t="shared" si="7"/>
         <v>55.5</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B33" s="29">
         <v>260</v>
       </c>
-      <c r="C33" s="29">
-        <f t="shared" si="0"/>
-        <v>-123.56</v>
-      </c>
-      <c r="D33" s="193">
-        <f t="shared" si="1"/>
-        <v>15.34</v>
+      <c r="C33" s="216"/>
+      <c r="D33" s="224">
+        <f t="shared" si="5"/>
+        <v>37.76</v>
       </c>
       <c r="K33" s="29">
         <v>260</v>
       </c>
       <c r="L33" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>-123.56</v>
+      </c>
+      <c r="M33" s="193">
+        <f t="shared" si="2"/>
+        <v>15.34</v>
+      </c>
+      <c r="T33" s="29">
+        <v>260</v>
+      </c>
+      <c r="U33" s="29">
+        <f t="shared" si="6"/>
         <v>43.42</v>
       </c>
-      <c r="M33" s="192">
-        <f t="shared" si="5"/>
+      <c r="V33" s="192">
+        <f t="shared" si="7"/>
         <v>56.6</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B34" s="29">
         <v>270</v>
       </c>
-      <c r="C34" s="29">
-        <f t="shared" si="0"/>
-        <v>-120.62</v>
-      </c>
-      <c r="D34" s="193">
-        <f t="shared" si="1"/>
-        <v>15.93</v>
+      <c r="C34" s="216"/>
+      <c r="D34" s="224">
+        <f t="shared" si="5"/>
+        <v>38.019999999999996</v>
       </c>
       <c r="K34" s="29">
         <v>270</v>
       </c>
       <c r="L34" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>-120.62</v>
+      </c>
+      <c r="M34" s="193">
+        <f t="shared" si="2"/>
+        <v>15.93</v>
+      </c>
+      <c r="T34" s="29">
+        <v>270</v>
+      </c>
+      <c r="U34" s="29">
+        <f t="shared" si="6"/>
         <v>45.09</v>
       </c>
-      <c r="M34" s="192">
-        <f t="shared" si="5"/>
+      <c r="V34" s="192">
+        <f t="shared" si="7"/>
         <v>57.7</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="29">
         <v>280</v>
       </c>
-      <c r="C35" s="29">
-        <f t="shared" si="0"/>
-        <v>-117.68</v>
-      </c>
-      <c r="D35" s="193">
-        <f t="shared" si="1"/>
-        <v>16.52</v>
+      <c r="C35" s="216"/>
+      <c r="D35" s="224">
+        <f t="shared" si="5"/>
+        <v>38.28</v>
       </c>
       <c r="K35" s="29">
         <v>280</v>
       </c>
       <c r="L35" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>-117.68</v>
+      </c>
+      <c r="M35" s="193">
+        <f t="shared" si="2"/>
+        <v>16.52</v>
+      </c>
+      <c r="T35" s="29">
+        <v>280</v>
+      </c>
+      <c r="U35" s="29">
+        <f t="shared" si="6"/>
         <v>46.760000000000005</v>
       </c>
-      <c r="M35" s="192">
-        <f t="shared" si="5"/>
+      <c r="V35" s="192">
+        <f t="shared" si="7"/>
         <v>58.8</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B36" s="29">
         <v>290</v>
       </c>
-      <c r="C36" s="29">
-        <f t="shared" si="0"/>
-        <v>-114.74000000000001</v>
-      </c>
-      <c r="D36" s="193">
-        <f t="shared" si="1"/>
-        <v>17.11</v>
+      <c r="C36" s="216"/>
+      <c r="D36" s="224">
+        <f t="shared" si="5"/>
+        <v>38.54</v>
       </c>
       <c r="K36" s="29">
         <v>290</v>
       </c>
       <c r="L36" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>-114.74000000000001</v>
+      </c>
+      <c r="M36" s="193">
+        <f t="shared" si="2"/>
+        <v>17.11</v>
+      </c>
+      <c r="T36" s="29">
+        <v>290</v>
+      </c>
+      <c r="U36" s="29">
+        <f t="shared" si="6"/>
         <v>48.43</v>
       </c>
-      <c r="M36" s="192">
-        <f t="shared" si="5"/>
+      <c r="V36" s="192">
+        <f t="shared" si="7"/>
         <v>59.9</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B37" s="29">
         <v>300</v>
       </c>
-      <c r="C37" s="29">
-        <f t="shared" si="0"/>
-        <v>-111.80000000000001</v>
-      </c>
-      <c r="D37" s="193">
-        <f t="shared" si="1"/>
-        <v>17.7</v>
+      <c r="C37" s="216"/>
+      <c r="D37" s="224">
+        <f t="shared" si="5"/>
+        <v>38.799999999999997</v>
       </c>
       <c r="K37" s="29">
         <v>300</v>
       </c>
       <c r="L37" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>-111.80000000000001</v>
+      </c>
+      <c r="M37" s="193">
+        <f t="shared" si="2"/>
+        <v>17.7</v>
+      </c>
+      <c r="T37" s="29">
+        <v>300</v>
+      </c>
+      <c r="U37" s="29">
+        <f t="shared" si="6"/>
         <v>50.1</v>
       </c>
-      <c r="M37" s="192">
-        <f t="shared" si="5"/>
+      <c r="V37" s="192">
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B38" s="29">
         <v>310</v>
       </c>
-      <c r="C38" s="29">
-        <f t="shared" si="0"/>
-        <v>-108.86</v>
-      </c>
-      <c r="D38" s="193">
-        <f t="shared" si="1"/>
-        <v>18.29</v>
+      <c r="C38" s="216"/>
+      <c r="D38" s="224">
+        <f t="shared" si="5"/>
+        <v>39.06</v>
       </c>
       <c r="K38" s="29">
         <v>310</v>
       </c>
-      <c r="L38" s="195">
-        <f t="shared" si="4"/>
+      <c r="L38" s="29">
+        <f t="shared" si="1"/>
+        <v>-108.86</v>
+      </c>
+      <c r="M38" s="193">
+        <f t="shared" si="2"/>
+        <v>18.29</v>
+      </c>
+      <c r="T38" s="29">
+        <v>310</v>
+      </c>
+      <c r="U38" s="195">
+        <f t="shared" si="6"/>
         <v>51.77</v>
       </c>
-      <c r="M38" s="192">
-        <f t="shared" si="5"/>
+      <c r="V38" s="192">
+        <f t="shared" si="7"/>
         <v>62.1</v>
       </c>
-      <c r="P38">
+      <c r="Y38">
         <v>200</v>
       </c>
-      <c r="Q38">
+      <c r="Z38">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B39" s="29">
         <v>320</v>
       </c>
-      <c r="C39" s="29">
-        <f t="shared" si="0"/>
-        <v>-105.92</v>
-      </c>
-      <c r="D39" s="193">
-        <f t="shared" si="1"/>
-        <v>18.88</v>
+      <c r="C39" s="216"/>
+      <c r="D39" s="224">
+        <f t="shared" si="5"/>
+        <v>39.32</v>
       </c>
       <c r="K39" s="29">
         <v>320</v>
       </c>
-      <c r="L39" s="195">
-        <f t="shared" si="4"/>
+      <c r="L39" s="29">
+        <f t="shared" si="1"/>
+        <v>-105.92</v>
+      </c>
+      <c r="M39" s="193">
+        <f t="shared" si="2"/>
+        <v>18.88</v>
+      </c>
+      <c r="T39" s="29">
+        <v>320</v>
+      </c>
+      <c r="U39" s="195">
+        <f t="shared" si="6"/>
         <v>53.440000000000005</v>
       </c>
-      <c r="M39" s="192">
-        <f t="shared" si="5"/>
+      <c r="V39" s="192">
+        <f t="shared" si="7"/>
         <v>63.2</v>
       </c>
-      <c r="P39">
+      <c r="Y39">
         <v>655</v>
       </c>
-      <c r="Q39">
+      <c r="Z39">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B40" s="29">
         <v>330</v>
       </c>
-      <c r="C40" s="29">
-        <f t="shared" si="0"/>
-        <v>-102.98</v>
-      </c>
-      <c r="D40" s="193">
-        <f t="shared" si="1"/>
-        <v>19.47</v>
+      <c r="C40" s="216"/>
+      <c r="D40" s="224">
+        <f t="shared" si="5"/>
+        <v>39.58</v>
       </c>
       <c r="K40" s="29">
         <v>330</v>
       </c>
-      <c r="L40" s="195">
-        <f t="shared" si="4"/>
+      <c r="L40" s="29">
+        <f t="shared" si="1"/>
+        <v>-102.98</v>
+      </c>
+      <c r="M40" s="193">
+        <f t="shared" si="2"/>
+        <v>19.47</v>
+      </c>
+      <c r="T40" s="29">
+        <v>330</v>
+      </c>
+      <c r="U40" s="195">
+        <f t="shared" si="6"/>
         <v>55.110000000000007</v>
       </c>
-      <c r="M40" s="192">
-        <f t="shared" si="5"/>
+      <c r="V40" s="192">
+        <f t="shared" si="7"/>
         <v>64.3</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B41" s="29">
         <v>340</v>
       </c>
-      <c r="C41" s="29">
-        <f t="shared" si="0"/>
-        <v>-100.04</v>
-      </c>
-      <c r="D41" s="193">
-        <f t="shared" si="1"/>
-        <v>20.059999999999999</v>
+      <c r="C41" s="216"/>
+      <c r="D41" s="224">
+        <f t="shared" si="5"/>
+        <v>39.840000000000003</v>
       </c>
       <c r="K41" s="29">
         <v>340</v>
       </c>
-      <c r="L41" s="195">
-        <f t="shared" si="4"/>
+      <c r="L41" s="29">
+        <f t="shared" si="1"/>
+        <v>-100.04</v>
+      </c>
+      <c r="M41" s="193">
+        <f t="shared" si="2"/>
+        <v>20.059999999999999</v>
+      </c>
+      <c r="T41" s="29">
+        <v>340</v>
+      </c>
+      <c r="U41" s="195">
+        <f t="shared" si="6"/>
         <v>56.78</v>
       </c>
-      <c r="M41" s="192">
-        <f t="shared" si="5"/>
+      <c r="V41" s="192">
+        <f t="shared" si="7"/>
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B42" s="29">
         <v>350</v>
       </c>
-      <c r="C42" s="29">
-        <f t="shared" si="0"/>
-        <v>-97.100000000000009</v>
-      </c>
-      <c r="D42" s="193">
-        <f t="shared" si="1"/>
-        <v>20.65</v>
+      <c r="C42" s="216"/>
+      <c r="D42" s="224">
+        <f t="shared" si="5"/>
+        <v>40.1</v>
       </c>
       <c r="K42" s="29">
         <v>350</v>
       </c>
-      <c r="L42" s="195">
-        <f t="shared" si="4"/>
+      <c r="L42" s="29">
+        <f t="shared" si="1"/>
+        <v>-97.100000000000009</v>
+      </c>
+      <c r="M42" s="193">
+        <f t="shared" si="2"/>
+        <v>20.65</v>
+      </c>
+      <c r="T42" s="29">
+        <v>350</v>
+      </c>
+      <c r="U42" s="195">
+        <f t="shared" si="6"/>
         <v>58.45</v>
       </c>
-      <c r="M42" s="192">
-        <f t="shared" si="5"/>
+      <c r="V42" s="192">
+        <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B43" s="29">
         <v>360</v>
       </c>
-      <c r="C43" s="29">
-        <f t="shared" si="0"/>
-        <v>-94.160000000000011</v>
-      </c>
-      <c r="D43" s="193">
-        <f t="shared" si="1"/>
-        <v>21.24</v>
+      <c r="C43" s="216"/>
+      <c r="D43" s="224">
+        <f t="shared" si="5"/>
+        <v>40.36</v>
       </c>
       <c r="K43" s="29">
         <v>360</v>
       </c>
-      <c r="L43" s="195">
-        <f t="shared" si="4"/>
+      <c r="L43" s="29">
+        <f t="shared" si="1"/>
+        <v>-94.160000000000011</v>
+      </c>
+      <c r="M43" s="193">
+        <f t="shared" si="2"/>
+        <v>21.24</v>
+      </c>
+      <c r="T43" s="29">
+        <v>360</v>
+      </c>
+      <c r="U43" s="195">
+        <f t="shared" si="6"/>
         <v>60.120000000000005</v>
       </c>
-      <c r="M43" s="192">
-        <f t="shared" si="5"/>
+      <c r="V43" s="192">
+        <f t="shared" si="7"/>
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B44" s="29">
         <v>370</v>
       </c>
-      <c r="C44" s="29">
-        <f t="shared" si="0"/>
-        <v>-91.220000000000013</v>
-      </c>
-      <c r="D44" s="193">
-        <f t="shared" si="1"/>
-        <v>21.83</v>
+      <c r="C44" s="216"/>
+      <c r="D44" s="224">
+        <f t="shared" si="5"/>
+        <v>40.619999999999997</v>
       </c>
       <c r="K44" s="29">
         <v>370</v>
       </c>
-      <c r="L44" s="195">
-        <f t="shared" si="4"/>
+      <c r="L44" s="29">
+        <f t="shared" si="1"/>
+        <v>-91.220000000000013</v>
+      </c>
+      <c r="M44" s="193">
+        <f t="shared" si="2"/>
+        <v>21.83</v>
+      </c>
+      <c r="T44" s="29">
+        <v>370</v>
+      </c>
+      <c r="U44" s="195">
+        <f t="shared" si="6"/>
         <v>61.790000000000006</v>
       </c>
-      <c r="M44" s="192">
-        <f t="shared" si="5"/>
+      <c r="V44" s="192">
+        <f t="shared" si="7"/>
         <v>68.7</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B45" s="29">
         <v>380</v>
       </c>
-      <c r="C45" s="29">
-        <f t="shared" si="0"/>
-        <v>-88.28</v>
-      </c>
-      <c r="D45" s="193">
-        <f t="shared" si="1"/>
-        <v>22.419999999999998</v>
+      <c r="C45" s="216"/>
+      <c r="D45" s="224">
+        <f t="shared" si="5"/>
+        <v>40.879999999999995</v>
       </c>
       <c r="K45" s="29">
         <v>380</v>
       </c>
-      <c r="L45" s="195">
-        <f t="shared" si="4"/>
+      <c r="L45" s="29">
+        <f t="shared" si="1"/>
+        <v>-88.28</v>
+      </c>
+      <c r="M45" s="193">
+        <f t="shared" si="2"/>
+        <v>22.419999999999998</v>
+      </c>
+      <c r="T45" s="29">
+        <v>380</v>
+      </c>
+      <c r="U45" s="195">
+        <f t="shared" si="6"/>
         <v>63.46</v>
       </c>
-      <c r="M45" s="192">
-        <f t="shared" si="5"/>
+      <c r="V45" s="192">
+        <f t="shared" si="7"/>
         <v>69.8</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B46" s="29">
         <v>390</v>
       </c>
-      <c r="C46" s="29">
-        <f t="shared" si="0"/>
-        <v>-85.34</v>
-      </c>
-      <c r="D46" s="193">
-        <f t="shared" si="1"/>
-        <v>23.009999999999998</v>
+      <c r="C46" s="216"/>
+      <c r="D46" s="224">
+        <f t="shared" si="5"/>
+        <v>41.14</v>
       </c>
       <c r="K46" s="29">
         <v>390</v>
       </c>
-      <c r="L46" s="195">
-        <f t="shared" si="4"/>
+      <c r="L46" s="29">
+        <f t="shared" si="1"/>
+        <v>-85.34</v>
+      </c>
+      <c r="M46" s="193">
+        <f t="shared" si="2"/>
+        <v>23.009999999999998</v>
+      </c>
+      <c r="T46" s="29">
+        <v>390</v>
+      </c>
+      <c r="U46" s="195">
+        <f t="shared" si="6"/>
         <v>65.13000000000001</v>
       </c>
-      <c r="M46" s="192">
-        <f t="shared" si="5"/>
+      <c r="V46" s="192">
+        <f t="shared" si="7"/>
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B47" s="29">
         <v>400</v>
       </c>
-      <c r="C47" s="29">
-        <f t="shared" si="0"/>
-        <v>-82.4</v>
-      </c>
-      <c r="D47" s="193">
-        <f t="shared" si="1"/>
-        <v>23.599999999999998</v>
+      <c r="C47" s="216"/>
+      <c r="D47" s="224">
+        <f t="shared" si="5"/>
+        <v>41.4</v>
       </c>
       <c r="K47" s="29">
         <v>400</v>
       </c>
-      <c r="L47" s="195">
-        <f t="shared" si="4"/>
+      <c r="L47" s="29">
+        <f t="shared" si="1"/>
+        <v>-82.4</v>
+      </c>
+      <c r="M47" s="193">
+        <f t="shared" si="2"/>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="T47" s="29">
+        <v>400</v>
+      </c>
+      <c r="U47" s="195">
+        <f t="shared" si="6"/>
         <v>66.8</v>
       </c>
-      <c r="M47" s="192">
-        <f t="shared" si="5"/>
+      <c r="V47" s="192">
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B48" s="29">
         <v>410</v>
       </c>
-      <c r="C48" s="29">
-        <f t="shared" si="0"/>
-        <v>-79.460000000000008</v>
-      </c>
-      <c r="D48" s="193">
-        <f t="shared" si="1"/>
-        <v>24.189999999999998</v>
+      <c r="C48" s="216"/>
+      <c r="D48" s="224">
+        <f t="shared" si="5"/>
+        <v>41.66</v>
       </c>
       <c r="K48" s="29">
         <v>410</v>
       </c>
-      <c r="L48" s="195">
-        <f t="shared" si="4"/>
+      <c r="L48" s="29">
+        <f t="shared" si="1"/>
+        <v>-79.460000000000008</v>
+      </c>
+      <c r="M48" s="193">
+        <f t="shared" si="2"/>
+        <v>24.189999999999998</v>
+      </c>
+      <c r="T48" s="29">
+        <v>410</v>
+      </c>
+      <c r="U48" s="195">
+        <f t="shared" si="6"/>
         <v>68.47</v>
       </c>
-      <c r="M48" s="192">
-        <f t="shared" si="5"/>
+      <c r="V48" s="192">
+        <f t="shared" si="7"/>
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="29">
         <v>420</v>
       </c>
-      <c r="C49" s="29">
-        <f t="shared" si="0"/>
-        <v>-76.52000000000001</v>
-      </c>
-      <c r="D49" s="193">
-        <f t="shared" si="1"/>
-        <v>24.779999999999998</v>
+      <c r="C49" s="216"/>
+      <c r="D49" s="224">
+        <f t="shared" si="5"/>
+        <v>41.92</v>
       </c>
       <c r="K49" s="29">
         <v>420</v>
       </c>
-      <c r="L49" s="195">
-        <f t="shared" si="4"/>
+      <c r="L49" s="29">
+        <f t="shared" si="1"/>
+        <v>-76.52000000000001</v>
+      </c>
+      <c r="M49" s="193">
+        <f t="shared" si="2"/>
+        <v>24.779999999999998</v>
+      </c>
+      <c r="T49" s="29">
+        <v>420</v>
+      </c>
+      <c r="U49" s="195">
+        <f t="shared" si="6"/>
         <v>70.14</v>
       </c>
-      <c r="M49" s="192">
-        <f t="shared" si="5"/>
+      <c r="V49" s="192">
+        <f t="shared" si="7"/>
         <v>74.2</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="29">
         <v>430</v>
       </c>
-      <c r="C50" s="29">
-        <f t="shared" si="0"/>
-        <v>-73.580000000000013</v>
-      </c>
-      <c r="D50" s="193">
-        <f t="shared" si="1"/>
-        <v>25.369999999999997</v>
+      <c r="C50" s="216"/>
+      <c r="D50" s="224">
+        <f t="shared" si="5"/>
+        <v>42.18</v>
       </c>
       <c r="K50" s="29">
         <v>430</v>
       </c>
-      <c r="L50" s="195">
-        <f t="shared" si="4"/>
+      <c r="L50" s="29">
+        <f t="shared" si="1"/>
+        <v>-73.580000000000013</v>
+      </c>
+      <c r="M50" s="193">
+        <f t="shared" si="2"/>
+        <v>25.369999999999997</v>
+      </c>
+      <c r="T50" s="29">
+        <v>430</v>
+      </c>
+      <c r="U50" s="195">
+        <f t="shared" si="6"/>
         <v>71.81</v>
       </c>
-      <c r="M50" s="192">
-        <f t="shared" si="5"/>
+      <c r="V50" s="192">
+        <f t="shared" si="7"/>
         <v>75.3</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="29">
         <v>440</v>
       </c>
-      <c r="C51" s="29">
-        <f t="shared" si="0"/>
-        <v>-70.640000000000015</v>
-      </c>
-      <c r="D51" s="193">
-        <f t="shared" si="1"/>
-        <v>25.959999999999997</v>
+      <c r="C51" s="216"/>
+      <c r="D51" s="224">
+        <f t="shared" si="5"/>
+        <v>42.44</v>
       </c>
       <c r="K51" s="29">
         <v>440</v>
       </c>
-      <c r="L51" s="195">
-        <f t="shared" si="4"/>
+      <c r="L51" s="29">
+        <f t="shared" si="1"/>
+        <v>-70.640000000000015</v>
+      </c>
+      <c r="M51" s="193">
+        <f t="shared" si="2"/>
+        <v>25.959999999999997</v>
+      </c>
+      <c r="T51" s="29">
+        <v>440</v>
+      </c>
+      <c r="U51" s="195">
+        <f t="shared" si="6"/>
         <v>73.48</v>
       </c>
-      <c r="M51" s="192">
-        <f t="shared" si="5"/>
+      <c r="V51" s="192">
+        <f t="shared" si="7"/>
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="29">
         <v>450</v>
       </c>
-      <c r="C52" s="29">
-        <f t="shared" si="0"/>
-        <v>-67.700000000000017</v>
-      </c>
-      <c r="D52" s="193">
-        <f t="shared" si="1"/>
-        <v>26.549999999999997</v>
+      <c r="C52" s="216"/>
+      <c r="D52" s="224">
+        <f t="shared" si="5"/>
+        <v>42.7</v>
       </c>
       <c r="K52" s="29">
         <v>450</v>
       </c>
-      <c r="L52" s="195">
-        <f t="shared" si="4"/>
+      <c r="L52" s="29">
+        <f t="shared" si="1"/>
+        <v>-67.700000000000017</v>
+      </c>
+      <c r="M52" s="193">
+        <f t="shared" si="2"/>
+        <v>26.549999999999997</v>
+      </c>
+      <c r="T52" s="29">
+        <v>450</v>
+      </c>
+      <c r="U52" s="195">
+        <f t="shared" si="6"/>
         <v>75.150000000000006</v>
       </c>
-      <c r="M52" s="192">
-        <f t="shared" si="5"/>
+      <c r="V52" s="192">
+        <f t="shared" si="7"/>
         <v>77.5</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="29">
         <v>460</v>
       </c>
-      <c r="C53" s="29">
-        <f t="shared" si="0"/>
-        <v>-64.760000000000019</v>
-      </c>
-      <c r="D53" s="193">
-        <f t="shared" si="1"/>
-        <v>27.139999999999997</v>
+      <c r="C53" s="216"/>
+      <c r="D53" s="224">
+        <f t="shared" si="5"/>
+        <v>42.96</v>
       </c>
       <c r="K53" s="29">
         <v>460</v>
       </c>
-      <c r="L53" s="195">
-        <f t="shared" si="4"/>
+      <c r="L53" s="29">
+        <f t="shared" si="1"/>
+        <v>-64.760000000000019</v>
+      </c>
+      <c r="M53" s="193">
+        <f t="shared" si="2"/>
+        <v>27.139999999999997</v>
+      </c>
+      <c r="T53" s="29">
+        <v>460</v>
+      </c>
+      <c r="U53" s="195">
+        <f t="shared" si="6"/>
         <v>76.820000000000007</v>
       </c>
-      <c r="M53" s="192">
-        <f t="shared" si="5"/>
+      <c r="V53" s="192">
+        <f t="shared" si="7"/>
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="29">
         <v>470</v>
       </c>
-      <c r="C54" s="29">
-        <f t="shared" si="0"/>
-        <v>-61.820000000000022</v>
-      </c>
-      <c r="D54" s="193">
-        <f t="shared" si="1"/>
-        <v>27.729999999999997</v>
+      <c r="C54" s="216"/>
+      <c r="D54" s="224">
+        <f t="shared" si="5"/>
+        <v>43.22</v>
       </c>
       <c r="K54" s="29">
         <v>470</v>
       </c>
-      <c r="L54" s="195">
-        <f t="shared" si="4"/>
+      <c r="L54" s="29">
+        <f t="shared" si="1"/>
+        <v>-61.820000000000022</v>
+      </c>
+      <c r="M54" s="193">
+        <f t="shared" si="2"/>
+        <v>27.729999999999997</v>
+      </c>
+      <c r="T54" s="29">
+        <v>470</v>
+      </c>
+      <c r="U54" s="195">
+        <f t="shared" si="6"/>
         <v>78.490000000000009</v>
       </c>
-      <c r="M54" s="192">
-        <f t="shared" si="5"/>
+      <c r="V54" s="192">
+        <f t="shared" si="7"/>
         <v>79.7</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="29">
         <v>480</v>
       </c>
-      <c r="C55" s="29">
-        <f t="shared" si="0"/>
-        <v>-58.879999999999995</v>
-      </c>
-      <c r="D55" s="193">
-        <f t="shared" si="1"/>
-        <v>28.32</v>
+      <c r="C55" s="216"/>
+      <c r="D55" s="224">
+        <f t="shared" si="5"/>
+        <v>43.48</v>
       </c>
       <c r="K55" s="29">
         <v>480</v>
       </c>
-      <c r="L55" s="195">
-        <f t="shared" si="4"/>
+      <c r="L55" s="29">
+        <f t="shared" si="1"/>
+        <v>-58.879999999999995</v>
+      </c>
+      <c r="M55" s="193">
+        <f t="shared" si="2"/>
+        <v>28.32</v>
+      </c>
+      <c r="T55" s="29">
+        <v>480</v>
+      </c>
+      <c r="U55" s="195">
+        <f t="shared" si="6"/>
         <v>80.160000000000011</v>
       </c>
-      <c r="M55" s="192">
-        <f t="shared" si="5"/>
+      <c r="V55" s="192">
+        <f t="shared" si="7"/>
         <v>80.8</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="29">
         <v>490</v>
       </c>
-      <c r="C56" s="29">
-        <f t="shared" si="0"/>
-        <v>-55.94</v>
-      </c>
-      <c r="D56" s="193">
-        <f t="shared" si="1"/>
-        <v>28.91</v>
+      <c r="C56" s="216"/>
+      <c r="D56" s="224">
+        <f t="shared" si="5"/>
+        <v>43.74</v>
       </c>
       <c r="K56" s="29">
         <v>490</v>
       </c>
-      <c r="L56" s="195">
-        <f t="shared" si="4"/>
+      <c r="L56" s="29">
+        <f t="shared" si="1"/>
+        <v>-55.94</v>
+      </c>
+      <c r="M56" s="193">
+        <f t="shared" si="2"/>
+        <v>28.91</v>
+      </c>
+      <c r="T56" s="29">
+        <v>490</v>
+      </c>
+      <c r="U56" s="195">
+        <f t="shared" si="6"/>
         <v>81.83</v>
       </c>
-      <c r="M56" s="192">
-        <f t="shared" si="5"/>
+      <c r="V56" s="192">
+        <f t="shared" si="7"/>
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="29">
         <v>500</v>
       </c>
-      <c r="C57" s="29">
-        <f t="shared" si="0"/>
-        <v>-53</v>
-      </c>
-      <c r="D57" s="193">
-        <f t="shared" si="1"/>
-        <v>29.5</v>
+      <c r="C57" s="216"/>
+      <c r="D57" s="224">
+        <f t="shared" si="5"/>
+        <v>44</v>
       </c>
       <c r="K57" s="29">
         <v>500</v>
       </c>
-      <c r="L57" s="195">
-        <f t="shared" si="4"/>
+      <c r="L57" s="29">
+        <f t="shared" si="1"/>
+        <v>-53</v>
+      </c>
+      <c r="M57" s="193">
+        <f t="shared" si="2"/>
+        <v>29.5</v>
+      </c>
+      <c r="T57" s="29">
+        <v>500</v>
+      </c>
+      <c r="U57" s="195">
+        <f t="shared" si="6"/>
         <v>83.5</v>
       </c>
-      <c r="M57" s="192">
-        <f t="shared" si="5"/>
+      <c r="V57" s="192">
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="29">
         <v>510</v>
       </c>
-      <c r="C58" s="29">
-        <f t="shared" si="0"/>
-        <v>-50.06</v>
-      </c>
-      <c r="D58" s="193">
-        <f t="shared" si="1"/>
-        <v>30.09</v>
+      <c r="C58" s="216"/>
+      <c r="D58" s="224">
+        <f t="shared" si="5"/>
+        <v>44.26</v>
       </c>
       <c r="K58" s="29">
         <v>510</v>
       </c>
-      <c r="L58" s="195">
-        <f t="shared" si="4"/>
+      <c r="L58" s="29">
+        <f t="shared" si="1"/>
+        <v>-50.06</v>
+      </c>
+      <c r="M58" s="193">
+        <f t="shared" si="2"/>
+        <v>30.09</v>
+      </c>
+      <c r="T58" s="29">
+        <v>510</v>
+      </c>
+      <c r="U58" s="195">
+        <f t="shared" si="6"/>
         <v>85.17</v>
       </c>
-      <c r="M58" s="192">
-        <f t="shared" si="5"/>
+      <c r="V58" s="192">
+        <f t="shared" si="7"/>
         <v>84.1</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="29">
         <v>520</v>
       </c>
-      <c r="C59" s="29">
-        <f t="shared" si="0"/>
-        <v>-47.120000000000005</v>
-      </c>
-      <c r="D59" s="193">
-        <f t="shared" si="1"/>
-        <v>30.68</v>
+      <c r="C59" s="216"/>
+      <c r="D59" s="224">
+        <f t="shared" si="5"/>
+        <v>44.519999999999996</v>
       </c>
       <c r="K59" s="29">
         <v>520</v>
       </c>
-      <c r="L59" s="195">
-        <f t="shared" si="4"/>
+      <c r="L59" s="29">
+        <f t="shared" si="1"/>
+        <v>-47.120000000000005</v>
+      </c>
+      <c r="M59" s="193">
+        <f t="shared" si="2"/>
+        <v>30.68</v>
+      </c>
+      <c r="T59" s="29">
+        <v>520</v>
+      </c>
+      <c r="U59" s="195">
+        <f t="shared" si="6"/>
         <v>86.84</v>
       </c>
-      <c r="M59" s="192">
-        <f t="shared" si="5"/>
+      <c r="V59" s="192">
+        <f t="shared" si="7"/>
         <v>85.2</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="29">
         <v>530</v>
       </c>
-      <c r="C60" s="29">
-        <f t="shared" si="0"/>
-        <v>-44.180000000000007</v>
-      </c>
-      <c r="D60" s="193">
-        <f t="shared" si="1"/>
-        <v>31.27</v>
+      <c r="C60" s="216"/>
+      <c r="D60" s="224">
+        <f t="shared" si="5"/>
+        <v>44.78</v>
       </c>
       <c r="K60" s="29">
         <v>530</v>
       </c>
-      <c r="L60" s="195">
-        <f t="shared" si="4"/>
+      <c r="L60" s="29">
+        <f t="shared" si="1"/>
+        <v>-44.180000000000007</v>
+      </c>
+      <c r="M60" s="193">
+        <f t="shared" si="2"/>
+        <v>31.27</v>
+      </c>
+      <c r="T60" s="29">
+        <v>530</v>
+      </c>
+      <c r="U60" s="195">
+        <f t="shared" si="6"/>
         <v>88.51</v>
       </c>
-      <c r="M60" s="192">
-        <f t="shared" si="5"/>
+      <c r="V60" s="192">
+        <f t="shared" si="7"/>
         <v>86.3</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="29">
         <v>540</v>
       </c>
-      <c r="C61" s="29">
-        <f t="shared" si="0"/>
-        <v>-41.240000000000009</v>
-      </c>
-      <c r="D61" s="193">
-        <f t="shared" si="1"/>
-        <v>31.86</v>
+      <c r="C61" s="216"/>
+      <c r="D61" s="224">
+        <f t="shared" si="5"/>
+        <v>45.04</v>
       </c>
       <c r="K61" s="29">
         <v>540</v>
       </c>
-      <c r="L61" s="195">
-        <f t="shared" si="4"/>
+      <c r="L61" s="29">
+        <f t="shared" si="1"/>
+        <v>-41.240000000000009</v>
+      </c>
+      <c r="M61" s="193">
+        <f t="shared" si="2"/>
+        <v>31.86</v>
+      </c>
+      <c r="T61" s="29">
+        <v>540</v>
+      </c>
+      <c r="U61" s="195">
+        <f t="shared" si="6"/>
         <v>90.18</v>
       </c>
-      <c r="M61" s="192">
-        <f t="shared" si="5"/>
+      <c r="V61" s="192">
+        <f t="shared" si="7"/>
         <v>87.4</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="29">
         <v>550</v>
       </c>
-      <c r="C62" s="29">
-        <f t="shared" si="0"/>
-        <v>-38.300000000000011</v>
-      </c>
-      <c r="D62" s="193">
-        <f t="shared" si="1"/>
-        <v>32.449999999999996</v>
+      <c r="C62" s="216"/>
+      <c r="D62" s="224">
+        <f t="shared" si="5"/>
+        <v>45.3</v>
       </c>
       <c r="K62" s="29">
         <v>550</v>
       </c>
-      <c r="L62" s="195">
-        <f t="shared" si="4"/>
+      <c r="L62" s="29">
+        <f t="shared" si="1"/>
+        <v>-38.300000000000011</v>
+      </c>
+      <c r="M62" s="193">
+        <f t="shared" si="2"/>
+        <v>32.449999999999996</v>
+      </c>
+      <c r="T62" s="29">
+        <v>550</v>
+      </c>
+      <c r="U62" s="195">
+        <f t="shared" si="6"/>
         <v>91.850000000000009</v>
       </c>
-      <c r="M62" s="192">
-        <f t="shared" si="5"/>
+      <c r="V62" s="192">
+        <f t="shared" si="7"/>
         <v>88.5</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="29">
         <v>560</v>
       </c>
-      <c r="C63" s="29">
-        <f t="shared" si="0"/>
-        <v>-35.360000000000014</v>
-      </c>
-      <c r="D63" s="193">
-        <f t="shared" si="1"/>
-        <v>33.04</v>
+      <c r="C63" s="216"/>
+      <c r="D63" s="224">
+        <f t="shared" si="5"/>
+        <v>45.56</v>
       </c>
       <c r="K63" s="29">
         <v>560</v>
       </c>
-      <c r="L63" s="195">
-        <f t="shared" si="4"/>
+      <c r="L63" s="29">
+        <f t="shared" si="1"/>
+        <v>-35.360000000000014</v>
+      </c>
+      <c r="M63" s="193">
+        <f t="shared" si="2"/>
+        <v>33.04</v>
+      </c>
+      <c r="T63" s="29">
+        <v>560</v>
+      </c>
+      <c r="U63" s="195">
+        <f t="shared" si="6"/>
         <v>93.52000000000001</v>
       </c>
-      <c r="M63" s="192">
-        <f t="shared" si="5"/>
+      <c r="V63" s="192">
+        <f t="shared" si="7"/>
         <v>89.6</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="29">
         <v>570</v>
       </c>
-      <c r="C64" s="29">
-        <f t="shared" si="0"/>
-        <v>-32.420000000000016</v>
-      </c>
-      <c r="D64" s="193">
-        <f t="shared" si="1"/>
-        <v>33.629999999999995</v>
+      <c r="C64" s="216"/>
+      <c r="D64" s="224">
+        <f t="shared" si="5"/>
+        <v>45.82</v>
       </c>
       <c r="K64" s="29">
         <v>570</v>
       </c>
-      <c r="L64" s="195">
-        <f t="shared" si="4"/>
+      <c r="L64" s="29">
+        <f t="shared" si="1"/>
+        <v>-32.420000000000016</v>
+      </c>
+      <c r="M64" s="193">
+        <f t="shared" si="2"/>
+        <v>33.629999999999995</v>
+      </c>
+      <c r="T64" s="29">
+        <v>570</v>
+      </c>
+      <c r="U64" s="195">
+        <f t="shared" si="6"/>
         <v>95.190000000000012</v>
       </c>
-      <c r="M64" s="192">
-        <f t="shared" si="5"/>
+      <c r="V64" s="192">
+        <f t="shared" si="7"/>
         <v>90.7</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" s="29">
         <v>580</v>
       </c>
-      <c r="C65" s="29">
-        <f t="shared" si="0"/>
-        <v>-29.480000000000018</v>
-      </c>
-      <c r="D65" s="193">
-        <f t="shared" si="1"/>
-        <v>34.22</v>
+      <c r="C65" s="216"/>
+      <c r="D65" s="224">
+        <f t="shared" si="5"/>
+        <v>46.08</v>
       </c>
       <c r="K65" s="29">
         <v>580</v>
       </c>
-      <c r="L65" s="195">
-        <f t="shared" si="4"/>
+      <c r="L65" s="29">
+        <f t="shared" si="1"/>
+        <v>-29.480000000000018</v>
+      </c>
+      <c r="M65" s="193">
+        <f t="shared" si="2"/>
+        <v>34.22</v>
+      </c>
+      <c r="T65" s="29">
+        <v>580</v>
+      </c>
+      <c r="U65" s="195">
+        <f t="shared" si="6"/>
         <v>96.86</v>
       </c>
-      <c r="M65" s="192">
-        <f t="shared" si="5"/>
+      <c r="V65" s="192">
+        <f t="shared" si="7"/>
         <v>91.8</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" s="29">
         <v>590</v>
       </c>
-      <c r="C66" s="29">
-        <f t="shared" si="0"/>
-        <v>-26.54000000000002</v>
-      </c>
-      <c r="D66" s="193">
-        <f t="shared" si="1"/>
-        <v>34.809999999999995</v>
+      <c r="C66" s="216"/>
+      <c r="D66" s="224">
+        <f t="shared" si="5"/>
+        <v>46.34</v>
       </c>
       <c r="K66" s="29">
         <v>590</v>
       </c>
-      <c r="L66" s="195">
-        <f t="shared" si="4"/>
+      <c r="L66" s="29">
+        <f t="shared" si="1"/>
+        <v>-26.54000000000002</v>
+      </c>
+      <c r="M66" s="193">
+        <f t="shared" si="2"/>
+        <v>34.809999999999995</v>
+      </c>
+      <c r="T66" s="29">
+        <v>590</v>
+      </c>
+      <c r="U66" s="195">
+        <f t="shared" si="6"/>
         <v>98.53</v>
       </c>
-      <c r="M66" s="192">
-        <f t="shared" si="5"/>
+      <c r="V66" s="192">
+        <f t="shared" si="7"/>
         <v>92.9</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="29">
         <v>600</v>
       </c>
-      <c r="C67" s="29">
-        <f t="shared" si="0"/>
-        <v>-23.600000000000023</v>
-      </c>
-      <c r="D67" s="193">
-        <f t="shared" si="1"/>
-        <v>35.4</v>
+      <c r="C67" s="216"/>
+      <c r="D67" s="224">
+        <f t="shared" si="5"/>
+        <v>46.6</v>
       </c>
       <c r="K67" s="29">
         <v>600</v>
       </c>
-      <c r="L67" s="195">
-        <f t="shared" si="4"/>
+      <c r="L67" s="29">
+        <f t="shared" si="1"/>
+        <v>-23.600000000000023</v>
+      </c>
+      <c r="M67" s="193">
+        <f t="shared" si="2"/>
+        <v>35.4</v>
+      </c>
+      <c r="T67" s="29">
+        <v>600</v>
+      </c>
+      <c r="U67" s="195">
+        <f t="shared" si="6"/>
         <v>100.2</v>
       </c>
-      <c r="M67" s="192">
-        <f t="shared" si="5"/>
+      <c r="V67" s="192">
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" s="29">
         <v>610</v>
       </c>
-      <c r="C68" s="29">
-        <f t="shared" si="0"/>
-        <v>-20.659999999999997</v>
-      </c>
-      <c r="D68" s="193">
-        <f t="shared" si="1"/>
-        <v>35.989999999999995</v>
+      <c r="C68" s="216"/>
+      <c r="D68" s="224">
+        <f t="shared" si="5"/>
+        <v>46.86</v>
       </c>
       <c r="K68" s="29">
         <v>610</v>
       </c>
-      <c r="L68" s="195">
-        <f t="shared" si="4"/>
+      <c r="L68" s="29">
+        <f t="shared" si="1"/>
+        <v>-20.659999999999997</v>
+      </c>
+      <c r="M68" s="193">
+        <f t="shared" si="2"/>
+        <v>35.989999999999995</v>
+      </c>
+      <c r="T68" s="29">
+        <v>610</v>
+      </c>
+      <c r="U68" s="195">
+        <f t="shared" si="6"/>
         <v>101.87</v>
       </c>
-      <c r="M68" s="192">
-        <f t="shared" si="5"/>
+      <c r="V68" s="192">
+        <f t="shared" si="7"/>
         <v>95.1</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" s="29">
         <v>620</v>
       </c>
-      <c r="C69" s="29">
-        <f t="shared" si="0"/>
-        <v>-17.72</v>
-      </c>
-      <c r="D69" s="193">
-        <f t="shared" si="1"/>
-        <v>36.58</v>
+      <c r="C69" s="216"/>
+      <c r="D69" s="224">
+        <f t="shared" si="5"/>
+        <v>47.120000000000005</v>
       </c>
       <c r="K69" s="29">
         <v>620</v>
       </c>
-      <c r="L69" s="195">
-        <f t="shared" si="4"/>
+      <c r="L69" s="29">
+        <f t="shared" si="1"/>
+        <v>-17.72</v>
+      </c>
+      <c r="M69" s="193">
+        <f t="shared" si="2"/>
+        <v>36.58</v>
+      </c>
+      <c r="T69" s="29">
+        <v>620</v>
+      </c>
+      <c r="U69" s="195">
+        <f t="shared" si="6"/>
         <v>103.54</v>
       </c>
-      <c r="M69" s="192">
-        <f t="shared" si="5"/>
+      <c r="V69" s="192">
+        <f t="shared" si="7"/>
         <v>96.2</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" s="29">
         <v>630</v>
       </c>
-      <c r="C70" s="29">
-        <f t="shared" si="0"/>
-        <v>-14.780000000000001</v>
-      </c>
-      <c r="D70" s="193">
-        <f t="shared" si="1"/>
-        <v>37.169999999999995</v>
+      <c r="C70" s="216"/>
+      <c r="D70" s="224">
+        <f t="shared" si="5"/>
+        <v>47.379999999999995</v>
       </c>
       <c r="K70" s="29">
         <v>630</v>
       </c>
-      <c r="L70" s="195">
-        <f t="shared" si="4"/>
+      <c r="L70" s="29">
+        <f t="shared" si="1"/>
+        <v>-14.780000000000001</v>
+      </c>
+      <c r="M70" s="193">
+        <f t="shared" si="2"/>
+        <v>37.169999999999995</v>
+      </c>
+      <c r="T70" s="29">
+        <v>630</v>
+      </c>
+      <c r="U70" s="195">
+        <f t="shared" si="6"/>
         <v>105.21000000000001</v>
       </c>
-      <c r="M70" s="192">
-        <f t="shared" si="5"/>
+      <c r="V70" s="192">
+        <f t="shared" si="7"/>
         <v>97.3</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" s="29">
         <v>640</v>
       </c>
-      <c r="C71" s="29">
-        <f t="shared" si="0"/>
-        <v>-11.840000000000003</v>
-      </c>
-      <c r="D71" s="193">
-        <f t="shared" si="1"/>
-        <v>37.76</v>
+      <c r="C71" s="216"/>
+      <c r="D71" s="224">
+        <f t="shared" si="5"/>
+        <v>47.64</v>
       </c>
       <c r="K71" s="29">
         <v>640</v>
       </c>
-      <c r="L71" s="195">
-        <f t="shared" si="4"/>
+      <c r="L71" s="29">
+        <f t="shared" si="1"/>
+        <v>-11.840000000000003</v>
+      </c>
+      <c r="M71" s="193">
+        <f t="shared" si="2"/>
+        <v>37.76</v>
+      </c>
+      <c r="T71" s="29">
+        <v>640</v>
+      </c>
+      <c r="U71" s="195">
+        <f t="shared" si="6"/>
         <v>106.88000000000001</v>
       </c>
-      <c r="M71" s="192">
-        <f t="shared" si="5"/>
+      <c r="V71" s="192">
+        <f t="shared" si="7"/>
         <v>98.4</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" s="29">
         <v>650</v>
       </c>
-      <c r="C72" s="29">
-        <f t="shared" ref="C72:C109" si="6" xml:space="preserve"> ((B72 * 0.294) - 200)</f>
+      <c r="C72" s="216"/>
+      <c r="D72" s="224">
+        <f t="shared" si="5"/>
+        <v>47.9</v>
+      </c>
+      <c r="K72" s="29">
+        <v>650</v>
+      </c>
+      <c r="L72" s="29">
+        <f t="shared" ref="L72:L105" si="8" xml:space="preserve"> ((K72 * 0.294) - 200)</f>
         <v>-8.9000000000000057</v>
       </c>
-      <c r="D72" s="193">
-        <f t="shared" ref="D72:D109" si="7" xml:space="preserve"> (B72 * 0.059)</f>
+      <c r="M72" s="193">
+        <f t="shared" ref="M72:M105" si="9" xml:space="preserve"> (K72 * 0.059)</f>
         <v>38.35</v>
       </c>
-      <c r="K72" s="194">
+      <c r="T72" s="194">
         <v>650</v>
       </c>
-      <c r="L72" s="195">
-        <f t="shared" ref="L72:L109" si="8">K72*0.167</f>
+      <c r="U72" s="195">
+        <f t="shared" ref="L72:U109" si="10">T72*0.167</f>
         <v>108.55000000000001</v>
       </c>
-      <c r="M72" s="192">
-        <f t="shared" si="5"/>
+      <c r="V72" s="192">
+        <f t="shared" si="7"/>
         <v>99.5</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73" s="29">
         <v>660</v>
       </c>
-      <c r="C73" s="29">
-        <f t="shared" si="6"/>
-        <v>-5.960000000000008</v>
-      </c>
-      <c r="D73" s="193">
-        <f t="shared" si="7"/>
-        <v>38.94</v>
+      <c r="C73" s="216"/>
+      <c r="D73" s="224">
+        <f t="shared" si="5"/>
+        <v>48.16</v>
       </c>
       <c r="K73" s="29">
         <v>660</v>
       </c>
-      <c r="L73" s="195">
+      <c r="L73" s="29">
         <f t="shared" si="8"/>
+        <v>-5.960000000000008</v>
+      </c>
+      <c r="M73" s="193">
+        <f t="shared" si="9"/>
+        <v>38.94</v>
+      </c>
+      <c r="T73" s="29">
+        <v>660</v>
+      </c>
+      <c r="U73" s="195">
+        <f t="shared" si="10"/>
         <v>110.22000000000001</v>
       </c>
-      <c r="M73" s="196">
-        <f t="shared" ref="M73:M92" si="9">(K73*0.092) + 23</f>
+      <c r="V73" s="196">
+        <f t="shared" ref="V73:V92" si="11">(T73*0.092) + 23</f>
         <v>83.72</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74" s="29">
         <v>670</v>
       </c>
-      <c r="C74" s="29">
-        <f t="shared" si="6"/>
-        <v>-3.0200000000000102</v>
-      </c>
-      <c r="D74" s="193">
-        <f t="shared" si="7"/>
-        <v>39.53</v>
+      <c r="C74" s="216"/>
+      <c r="D74" s="224">
+        <f t="shared" si="5"/>
+        <v>48.42</v>
       </c>
       <c r="K74" s="29">
         <v>670</v>
       </c>
-      <c r="L74" s="195">
+      <c r="L74" s="29">
         <f t="shared" si="8"/>
+        <v>-3.0200000000000102</v>
+      </c>
+      <c r="M74" s="193">
+        <f t="shared" si="9"/>
+        <v>39.53</v>
+      </c>
+      <c r="T74" s="29">
+        <v>670</v>
+      </c>
+      <c r="U74" s="195">
+        <f t="shared" si="10"/>
         <v>111.89</v>
       </c>
-      <c r="M74" s="196">
-        <f t="shared" si="9"/>
+      <c r="V74" s="196">
+        <f t="shared" si="11"/>
         <v>84.64</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75" s="29">
         <v>680</v>
       </c>
-      <c r="C75" s="29">
-        <f t="shared" si="6"/>
-        <v>-8.0000000000012506E-2</v>
-      </c>
-      <c r="D75" s="193">
-        <f t="shared" si="7"/>
-        <v>40.119999999999997</v>
+      <c r="C75" s="216"/>
+      <c r="D75" s="224">
+        <f t="shared" si="5"/>
+        <v>48.68</v>
       </c>
       <c r="K75" s="29">
         <v>680</v>
       </c>
-      <c r="L75" s="195">
+      <c r="L75" s="29">
         <f t="shared" si="8"/>
+        <v>-8.0000000000012506E-2</v>
+      </c>
+      <c r="M75" s="193">
+        <f t="shared" si="9"/>
+        <v>40.119999999999997</v>
+      </c>
+      <c r="T75" s="29">
+        <v>680</v>
+      </c>
+      <c r="U75" s="195">
+        <f t="shared" si="10"/>
         <v>113.56</v>
       </c>
-      <c r="M75" s="196">
-        <f t="shared" si="9"/>
+      <c r="V75" s="196">
+        <f t="shared" si="11"/>
         <v>85.56</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76" s="29">
         <v>690</v>
       </c>
-      <c r="C76" s="29">
-        <f t="shared" si="6"/>
-        <v>2.8599999999999852</v>
-      </c>
-      <c r="D76" s="193">
-        <f t="shared" si="7"/>
-        <v>40.71</v>
+      <c r="C76" s="216"/>
+      <c r="D76" s="223">
+        <f t="shared" si="5"/>
+        <v>48.94</v>
       </c>
       <c r="K76" s="29">
         <v>690</v>
       </c>
-      <c r="L76" s="195">
+      <c r="L76" s="29">
         <f t="shared" si="8"/>
+        <v>2.8599999999999852</v>
+      </c>
+      <c r="M76" s="193">
+        <f t="shared" si="9"/>
+        <v>40.71</v>
+      </c>
+      <c r="T76" s="29">
+        <v>690</v>
+      </c>
+      <c r="U76" s="195">
+        <f t="shared" si="10"/>
         <v>115.23</v>
       </c>
-      <c r="M76" s="196">
-        <f t="shared" si="9"/>
+      <c r="V76" s="196">
+        <f t="shared" si="11"/>
         <v>86.47999999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="29">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B77" s="220">
         <v>700</v>
       </c>
-      <c r="C77" s="29">
-        <f t="shared" si="6"/>
-        <v>5.7999999999999829</v>
-      </c>
-      <c r="D77" s="193">
-        <f t="shared" si="7"/>
-        <v>41.3</v>
+      <c r="C77" s="221"/>
+      <c r="D77" s="219"/>
+      <c r="E77" s="223">
+        <f>(B77*0.157)-60</f>
+        <v>49.900000000000006</v>
       </c>
       <c r="K77" s="29">
         <v>700</v>
       </c>
-      <c r="L77" s="195">
+      <c r="L77" s="29">
         <f t="shared" si="8"/>
+        <v>5.7999999999999829</v>
+      </c>
+      <c r="M77" s="193">
+        <f t="shared" si="9"/>
+        <v>41.3</v>
+      </c>
+      <c r="T77" s="29">
+        <v>700</v>
+      </c>
+      <c r="U77" s="195">
+        <f t="shared" si="10"/>
         <v>116.9</v>
       </c>
-      <c r="M77" s="196">
-        <f t="shared" si="9"/>
+      <c r="V77" s="196">
+        <f t="shared" si="11"/>
         <v>87.4</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B78" s="29">
         <v>710</v>
       </c>
-      <c r="C78" s="29">
-        <f t="shared" si="6"/>
-        <v>8.7399999999999807</v>
-      </c>
-      <c r="D78" s="193">
-        <f t="shared" si="7"/>
-        <v>41.89</v>
+      <c r="C78" s="216"/>
+      <c r="D78" s="218"/>
+      <c r="E78" s="224">
+        <f>(B78*0.157)-60</f>
+        <v>51.47</v>
       </c>
       <c r="K78" s="29">
         <v>710</v>
       </c>
-      <c r="L78" s="195">
+      <c r="L78" s="29">
         <f t="shared" si="8"/>
+        <v>8.7399999999999807</v>
+      </c>
+      <c r="M78" s="193">
+        <f t="shared" si="9"/>
+        <v>41.89</v>
+      </c>
+      <c r="T78" s="29">
+        <v>710</v>
+      </c>
+      <c r="U78" s="195">
+        <f t="shared" si="10"/>
         <v>118.57000000000001</v>
       </c>
-      <c r="M78" s="196">
-        <f t="shared" si="9"/>
+      <c r="V78" s="196">
+        <f t="shared" si="11"/>
         <v>88.32</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B79" s="29">
         <v>720</v>
       </c>
-      <c r="C79" s="29">
-        <f t="shared" si="6"/>
-        <v>11.679999999999978</v>
-      </c>
-      <c r="D79" s="193">
-        <f t="shared" si="7"/>
-        <v>42.48</v>
+      <c r="C79" s="216"/>
+      <c r="D79" s="218"/>
+      <c r="E79" s="224">
+        <f t="shared" ref="E79:E110" si="12">(B79*0.157)-60</f>
+        <v>53.040000000000006</v>
       </c>
       <c r="K79" s="29">
         <v>720</v>
       </c>
-      <c r="L79" s="195">
+      <c r="L79" s="29">
         <f t="shared" si="8"/>
+        <v>11.679999999999978</v>
+      </c>
+      <c r="M79" s="193">
+        <f t="shared" si="9"/>
+        <v>42.48</v>
+      </c>
+      <c r="T79" s="29">
+        <v>720</v>
+      </c>
+      <c r="U79" s="195">
+        <f t="shared" si="10"/>
         <v>120.24000000000001</v>
       </c>
-      <c r="M79" s="196">
-        <f t="shared" si="9"/>
+      <c r="V79" s="196">
+        <f t="shared" si="11"/>
         <v>89.24</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80" s="29">
         <v>730</v>
       </c>
-      <c r="C80" s="29">
-        <f t="shared" si="6"/>
-        <v>14.619999999999976</v>
-      </c>
-      <c r="D80" s="193">
-        <f t="shared" si="7"/>
-        <v>43.07</v>
+      <c r="C80" s="216"/>
+      <c r="D80" s="218"/>
+      <c r="E80" s="224">
+        <f t="shared" si="12"/>
+        <v>54.61</v>
       </c>
       <c r="K80" s="29">
         <v>730</v>
       </c>
-      <c r="L80" s="195">
+      <c r="L80" s="29">
         <f t="shared" si="8"/>
+        <v>14.619999999999976</v>
+      </c>
+      <c r="M80" s="193">
+        <f t="shared" si="9"/>
+        <v>43.07</v>
+      </c>
+      <c r="T80" s="29">
+        <v>730</v>
+      </c>
+      <c r="U80" s="195">
+        <f t="shared" si="10"/>
         <v>121.91000000000001</v>
       </c>
-      <c r="M80" s="196">
-        <f t="shared" si="9"/>
+      <c r="V80" s="196">
+        <f t="shared" si="11"/>
         <v>90.16</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B81" s="29">
         <v>740</v>
       </c>
-      <c r="C81" s="29">
-        <f t="shared" si="6"/>
-        <v>17.559999999999974</v>
-      </c>
-      <c r="D81" s="193">
-        <f t="shared" si="7"/>
-        <v>43.66</v>
+      <c r="C81" s="216"/>
+      <c r="D81" s="218"/>
+      <c r="E81" s="224">
+        <f t="shared" si="12"/>
+        <v>56.180000000000007</v>
       </c>
       <c r="K81" s="29">
         <v>740</v>
       </c>
-      <c r="L81" s="195">
+      <c r="L81" s="29">
         <f t="shared" si="8"/>
+        <v>17.559999999999974</v>
+      </c>
+      <c r="M81" s="193">
+        <f t="shared" si="9"/>
+        <v>43.66</v>
+      </c>
+      <c r="T81" s="29">
+        <v>740</v>
+      </c>
+      <c r="U81" s="195">
+        <f t="shared" si="10"/>
         <v>123.58000000000001</v>
       </c>
-      <c r="M81" s="196">
-        <f t="shared" si="9"/>
+      <c r="V81" s="196">
+        <f t="shared" si="11"/>
         <v>91.08</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B82" s="29">
         <v>750</v>
       </c>
-      <c r="C82" s="29">
-        <f t="shared" si="6"/>
-        <v>20.5</v>
-      </c>
-      <c r="D82" s="193">
-        <f t="shared" si="7"/>
-        <v>44.25</v>
+      <c r="C82" s="216"/>
+      <c r="D82" s="218"/>
+      <c r="E82" s="224">
+        <f t="shared" si="12"/>
+        <v>57.75</v>
       </c>
       <c r="K82" s="29">
         <v>750</v>
       </c>
-      <c r="L82" s="195">
+      <c r="L82" s="29">
         <f t="shared" si="8"/>
+        <v>20.5</v>
+      </c>
+      <c r="M82" s="193">
+        <f t="shared" si="9"/>
+        <v>44.25</v>
+      </c>
+      <c r="T82" s="29">
+        <v>750</v>
+      </c>
+      <c r="U82" s="195">
+        <f t="shared" si="10"/>
         <v>125.25000000000001</v>
       </c>
-      <c r="M82" s="196">
-        <f t="shared" si="9"/>
+      <c r="V82" s="196">
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B83" s="29">
         <v>760</v>
       </c>
-      <c r="C83" s="29">
-        <f t="shared" si="6"/>
-        <v>23.439999999999998</v>
-      </c>
-      <c r="D83" s="193">
-        <f t="shared" si="7"/>
-        <v>44.839999999999996</v>
+      <c r="C83" s="216"/>
+      <c r="D83" s="218"/>
+      <c r="E83" s="224">
+        <f t="shared" si="12"/>
+        <v>59.320000000000007</v>
       </c>
       <c r="K83" s="29">
         <v>760</v>
       </c>
-      <c r="L83" s="195">
+      <c r="L83" s="29">
         <f t="shared" si="8"/>
+        <v>23.439999999999998</v>
+      </c>
+      <c r="M83" s="193">
+        <f t="shared" si="9"/>
+        <v>44.839999999999996</v>
+      </c>
+      <c r="T83" s="29">
+        <v>760</v>
+      </c>
+      <c r="U83" s="195">
+        <f t="shared" si="10"/>
         <v>126.92</v>
       </c>
-      <c r="M83" s="196">
-        <f t="shared" si="9"/>
+      <c r="V83" s="196">
+        <f t="shared" si="11"/>
         <v>92.92</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B84" s="29">
         <v>770</v>
       </c>
-      <c r="C84" s="29">
-        <f t="shared" si="6"/>
-        <v>26.379999999999995</v>
-      </c>
-      <c r="D84" s="193">
-        <f t="shared" si="7"/>
-        <v>45.43</v>
+      <c r="C84" s="216"/>
+      <c r="D84" s="218"/>
+      <c r="E84" s="224">
+        <f t="shared" si="12"/>
+        <v>60.89</v>
       </c>
       <c r="K84" s="29">
         <v>770</v>
       </c>
-      <c r="L84" s="195">
+      <c r="L84" s="29">
         <f t="shared" si="8"/>
+        <v>26.379999999999995</v>
+      </c>
+      <c r="M84" s="193">
+        <f t="shared" si="9"/>
+        <v>45.43</v>
+      </c>
+      <c r="T84" s="29">
+        <v>770</v>
+      </c>
+      <c r="U84" s="195">
+        <f t="shared" si="10"/>
         <v>128.59</v>
       </c>
-      <c r="M84" s="196">
-        <f t="shared" si="9"/>
+      <c r="V84" s="196">
+        <f t="shared" si="11"/>
         <v>93.84</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B85" s="29">
         <v>780</v>
       </c>
-      <c r="C85" s="29">
-        <f t="shared" si="6"/>
-        <v>29.319999999999993</v>
-      </c>
-      <c r="D85" s="193">
-        <f t="shared" si="7"/>
-        <v>46.019999999999996</v>
+      <c r="C85" s="216"/>
+      <c r="D85" s="218"/>
+      <c r="E85" s="224">
+        <f t="shared" si="12"/>
+        <v>62.459999999999994</v>
       </c>
       <c r="K85" s="29">
         <v>780</v>
       </c>
-      <c r="L85" s="195">
+      <c r="L85" s="29">
         <f t="shared" si="8"/>
+        <v>29.319999999999993</v>
+      </c>
+      <c r="M85" s="193">
+        <f t="shared" si="9"/>
+        <v>46.019999999999996</v>
+      </c>
+      <c r="T85" s="29">
+        <v>780</v>
+      </c>
+      <c r="U85" s="195">
+        <f t="shared" si="10"/>
         <v>130.26000000000002</v>
       </c>
-      <c r="M85" s="196">
-        <f t="shared" si="9"/>
+      <c r="V85" s="196">
+        <f t="shared" si="11"/>
         <v>94.76</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B86" s="29">
         <v>790</v>
       </c>
-      <c r="C86" s="29">
-        <f t="shared" si="6"/>
-        <v>32.259999999999991</v>
-      </c>
-      <c r="D86" s="193">
-        <f t="shared" si="7"/>
-        <v>46.61</v>
+      <c r="C86" s="216"/>
+      <c r="D86" s="218"/>
+      <c r="E86" s="224">
+        <f t="shared" si="12"/>
+        <v>64.03</v>
       </c>
       <c r="K86" s="29">
         <v>790</v>
       </c>
-      <c r="L86" s="195">
+      <c r="L86" s="29">
         <f t="shared" si="8"/>
+        <v>32.259999999999991</v>
+      </c>
+      <c r="M86" s="193">
+        <f t="shared" si="9"/>
+        <v>46.61</v>
+      </c>
+      <c r="T86" s="29">
+        <v>790</v>
+      </c>
+      <c r="U86" s="195">
+        <f t="shared" si="10"/>
         <v>131.93</v>
       </c>
-      <c r="M86" s="196">
-        <f t="shared" si="9"/>
+      <c r="V86" s="196">
+        <f t="shared" si="11"/>
         <v>95.679999999999993</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B87" s="29">
         <v>800</v>
       </c>
-      <c r="C87" s="29">
-        <f t="shared" si="6"/>
-        <v>35.199999999999989</v>
-      </c>
-      <c r="D87" s="193">
-        <f t="shared" si="7"/>
-        <v>47.199999999999996</v>
+      <c r="C87" s="216"/>
+      <c r="D87" s="218"/>
+      <c r="E87" s="224">
+        <f t="shared" si="12"/>
+        <v>65.599999999999994</v>
       </c>
       <c r="K87" s="29">
         <v>800</v>
       </c>
-      <c r="L87" s="195">
+      <c r="L87" s="29">
         <f t="shared" si="8"/>
+        <v>35.199999999999989</v>
+      </c>
+      <c r="M87" s="193">
+        <f t="shared" si="9"/>
+        <v>47.199999999999996</v>
+      </c>
+      <c r="T87" s="29">
+        <v>800</v>
+      </c>
+      <c r="U87" s="195">
+        <f t="shared" si="10"/>
         <v>133.6</v>
       </c>
-      <c r="M87" s="196">
-        <f t="shared" si="9"/>
+      <c r="V87" s="196">
+        <f t="shared" si="11"/>
         <v>96.6</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B88" s="29">
         <v>810</v>
       </c>
-      <c r="C88" s="29">
-        <f t="shared" si="6"/>
-        <v>38.139999999999986</v>
-      </c>
-      <c r="D88" s="193">
-        <f t="shared" si="7"/>
-        <v>47.79</v>
+      <c r="C88" s="216"/>
+      <c r="D88" s="218"/>
+      <c r="E88" s="224">
+        <f t="shared" si="12"/>
+        <v>67.17</v>
       </c>
       <c r="K88" s="29">
         <v>810</v>
       </c>
-      <c r="L88" s="195">
+      <c r="L88" s="29">
         <f t="shared" si="8"/>
+        <v>38.139999999999986</v>
+      </c>
+      <c r="M88" s="193">
+        <f t="shared" si="9"/>
+        <v>47.79</v>
+      </c>
+      <c r="T88" s="29">
+        <v>810</v>
+      </c>
+      <c r="U88" s="195">
+        <f t="shared" si="10"/>
         <v>135.27000000000001</v>
       </c>
-      <c r="M88" s="196">
-        <f t="shared" si="9"/>
+      <c r="V88" s="196">
+        <f t="shared" si="11"/>
         <v>97.52</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B89" s="29">
         <v>820</v>
       </c>
-      <c r="C89" s="29">
-        <f t="shared" si="6"/>
-        <v>41.079999999999984</v>
-      </c>
-      <c r="D89" s="193">
-        <f t="shared" si="7"/>
-        <v>48.379999999999995</v>
+      <c r="C89" s="216"/>
+      <c r="D89" s="218"/>
+      <c r="E89" s="224">
+        <f t="shared" si="12"/>
+        <v>68.740000000000009</v>
       </c>
       <c r="K89" s="29">
         <v>820</v>
       </c>
-      <c r="L89" s="195">
+      <c r="L89" s="29">
         <f t="shared" si="8"/>
+        <v>41.079999999999984</v>
+      </c>
+      <c r="M89" s="193">
+        <f t="shared" si="9"/>
+        <v>48.379999999999995</v>
+      </c>
+      <c r="T89" s="29">
+        <v>820</v>
+      </c>
+      <c r="U89" s="195">
+        <f t="shared" si="10"/>
         <v>136.94</v>
       </c>
-      <c r="M89" s="196">
-        <f t="shared" si="9"/>
+      <c r="V89" s="196">
+        <f t="shared" si="11"/>
         <v>98.44</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B90" s="29">
         <v>830</v>
       </c>
-      <c r="C90" s="29">
-        <f t="shared" si="6"/>
-        <v>44.019999999999982</v>
-      </c>
-      <c r="D90" s="193">
-        <f t="shared" si="7"/>
-        <v>48.97</v>
+      <c r="C90" s="216"/>
+      <c r="D90" s="218"/>
+      <c r="E90" s="224">
+        <f t="shared" si="12"/>
+        <v>70.31</v>
       </c>
       <c r="K90" s="29">
         <v>830</v>
       </c>
-      <c r="L90" s="195">
+      <c r="L90" s="29">
         <f t="shared" si="8"/>
+        <v>44.019999999999982</v>
+      </c>
+      <c r="M90" s="193">
+        <f t="shared" si="9"/>
+        <v>48.97</v>
+      </c>
+      <c r="T90" s="29">
+        <v>830</v>
+      </c>
+      <c r="U90" s="195">
+        <f t="shared" si="10"/>
         <v>138.61000000000001</v>
       </c>
-      <c r="M90" s="196">
-        <f t="shared" si="9"/>
+      <c r="V90" s="196">
+        <f t="shared" si="11"/>
         <v>99.36</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B91" s="29">
         <v>840</v>
       </c>
-      <c r="C91" s="29">
-        <f t="shared" si="6"/>
-        <v>46.95999999999998</v>
-      </c>
-      <c r="D91" s="193">
-        <f t="shared" si="7"/>
-        <v>49.559999999999995</v>
+      <c r="C91" s="216"/>
+      <c r="D91" s="218"/>
+      <c r="E91" s="224">
+        <f t="shared" si="12"/>
+        <v>71.88</v>
       </c>
       <c r="K91" s="29">
         <v>840</v>
       </c>
-      <c r="L91" s="195">
+      <c r="L91" s="29">
         <f t="shared" si="8"/>
+        <v>46.95999999999998</v>
+      </c>
+      <c r="M91" s="193">
+        <f t="shared" si="9"/>
+        <v>49.559999999999995</v>
+      </c>
+      <c r="T91" s="29">
+        <v>840</v>
+      </c>
+      <c r="U91" s="195">
+        <f t="shared" si="10"/>
         <v>140.28</v>
       </c>
-      <c r="M91" s="196">
+      <c r="V91" s="196">
+        <f t="shared" si="11"/>
+        <v>100.28</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B92" s="29">
+        <v>850</v>
+      </c>
+      <c r="C92" s="216"/>
+      <c r="D92" s="218"/>
+      <c r="E92" s="224">
+        <f t="shared" si="12"/>
+        <v>73.449999999999989</v>
+      </c>
+      <c r="K92" s="194">
+        <v>850</v>
+      </c>
+      <c r="L92" s="194">
+        <f t="shared" si="8"/>
+        <v>49.899999999999977</v>
+      </c>
+      <c r="M92" s="194">
         <f t="shared" si="9"/>
-        <v>100.28</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="194">
+        <v>50.15</v>
+      </c>
+      <c r="T92" s="197">
         <v>850</v>
       </c>
-      <c r="C92" s="194">
-        <f t="shared" si="6"/>
-        <v>49.899999999999977</v>
-      </c>
-      <c r="D92" s="194">
-        <f t="shared" si="7"/>
-        <v>50.15</v>
-      </c>
-      <c r="K92" s="197">
-        <v>850</v>
-      </c>
-      <c r="L92" s="195">
-        <f t="shared" si="8"/>
+      <c r="U92" s="195">
+        <f t="shared" si="10"/>
         <v>141.95000000000002</v>
       </c>
-      <c r="M92" s="196">
-        <f t="shared" si="9"/>
+      <c r="V92" s="196">
+        <f t="shared" si="11"/>
         <v>101.2</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B93" s="29">
         <v>860</v>
       </c>
-      <c r="C93" s="193">
-        <f t="shared" si="6"/>
-        <v>52.839999999999975</v>
-      </c>
-      <c r="D93" s="29">
-        <f t="shared" si="7"/>
-        <v>50.739999999999995</v>
+      <c r="C93" s="216"/>
+      <c r="D93" s="218"/>
+      <c r="E93" s="224">
+        <f t="shared" si="12"/>
+        <v>75.02000000000001</v>
       </c>
       <c r="K93" s="29">
         <v>860</v>
       </c>
-      <c r="L93" s="195">
+      <c r="L93" s="193">
         <f t="shared" si="8"/>
+        <v>52.839999999999975</v>
+      </c>
+      <c r="M93" s="29">
+        <f t="shared" si="9"/>
+        <v>50.739999999999995</v>
+      </c>
+      <c r="T93" s="29">
+        <v>860</v>
+      </c>
+      <c r="U93" s="195">
+        <f t="shared" si="10"/>
         <v>143.62</v>
       </c>
-      <c r="M93">
-        <f t="shared" ref="M93:M109" si="10">(K93*0.095) + 23</f>
+      <c r="V93">
+        <f t="shared" ref="M93:V109" si="13">(T93*0.095) + 23</f>
         <v>104.7</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B94" s="29">
         <v>870</v>
       </c>
-      <c r="C94" s="193">
-        <f t="shared" si="6"/>
-        <v>55.779999999999973</v>
-      </c>
-      <c r="D94" s="29">
-        <f t="shared" si="7"/>
-        <v>51.33</v>
+      <c r="C94" s="216"/>
+      <c r="D94" s="218"/>
+      <c r="E94" s="224">
+        <f t="shared" si="12"/>
+        <v>76.59</v>
       </c>
       <c r="K94" s="29">
         <v>870</v>
       </c>
-      <c r="L94" s="195">
+      <c r="L94" s="193">
         <f t="shared" si="8"/>
+        <v>55.779999999999973</v>
+      </c>
+      <c r="M94" s="29">
+        <f t="shared" si="9"/>
+        <v>51.33</v>
+      </c>
+      <c r="T94" s="29">
+        <v>870</v>
+      </c>
+      <c r="U94" s="195">
+        <f t="shared" si="10"/>
         <v>145.29000000000002</v>
       </c>
-      <c r="M94">
-        <f t="shared" si="10"/>
+      <c r="V94">
+        <f t="shared" si="13"/>
         <v>105.65</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B95" s="29">
         <v>880</v>
       </c>
-      <c r="C95" s="193">
-        <f t="shared" si="6"/>
-        <v>58.71999999999997</v>
-      </c>
-      <c r="D95" s="29">
-        <f t="shared" si="7"/>
-        <v>51.919999999999995</v>
+      <c r="C95" s="216"/>
+      <c r="D95" s="218"/>
+      <c r="E95" s="224">
+        <f t="shared" si="12"/>
+        <v>78.16</v>
       </c>
       <c r="K95" s="29">
         <v>880</v>
       </c>
-      <c r="L95" s="195">
+      <c r="L95" s="193">
         <f t="shared" si="8"/>
+        <v>58.71999999999997</v>
+      </c>
+      <c r="M95" s="29">
+        <f t="shared" si="9"/>
+        <v>51.919999999999995</v>
+      </c>
+      <c r="T95" s="29">
+        <v>880</v>
+      </c>
+      <c r="U95" s="195">
+        <f t="shared" si="10"/>
         <v>146.96</v>
       </c>
-      <c r="M95">
-        <f t="shared" si="10"/>
+      <c r="V95">
+        <f t="shared" si="13"/>
         <v>106.6</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B96" s="29">
         <v>890</v>
       </c>
-      <c r="C96" s="193">
-        <f t="shared" si="6"/>
-        <v>61.659999999999968</v>
-      </c>
-      <c r="D96" s="29">
-        <f t="shared" si="7"/>
-        <v>52.51</v>
+      <c r="C96" s="216"/>
+      <c r="D96" s="218"/>
+      <c r="E96" s="224">
+        <f t="shared" si="12"/>
+        <v>79.72999999999999</v>
       </c>
       <c r="K96" s="29">
         <v>890</v>
       </c>
-      <c r="L96" s="195">
+      <c r="L96" s="193">
         <f t="shared" si="8"/>
+        <v>61.659999999999968</v>
+      </c>
+      <c r="M96" s="29">
+        <f t="shared" si="9"/>
+        <v>52.51</v>
+      </c>
+      <c r="T96" s="29">
+        <v>890</v>
+      </c>
+      <c r="U96" s="195">
+        <f t="shared" si="10"/>
         <v>148.63</v>
       </c>
-      <c r="M96">
-        <f t="shared" si="10"/>
+      <c r="V96">
+        <f t="shared" si="13"/>
         <v>107.55</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B97" s="29">
         <v>900</v>
       </c>
-      <c r="C97" s="193">
-        <f t="shared" si="6"/>
-        <v>64.599999999999966</v>
-      </c>
-      <c r="D97" s="29">
-        <f t="shared" si="7"/>
-        <v>53.099999999999994</v>
+      <c r="C97" s="216"/>
+      <c r="D97" s="218"/>
+      <c r="E97" s="224">
+        <f t="shared" si="12"/>
+        <v>81.300000000000011</v>
       </c>
       <c r="K97" s="29">
         <v>900</v>
       </c>
-      <c r="L97" s="195">
+      <c r="L97" s="193">
         <f t="shared" si="8"/>
+        <v>64.599999999999966</v>
+      </c>
+      <c r="M97" s="29">
+        <f t="shared" si="9"/>
+        <v>53.099999999999994</v>
+      </c>
+      <c r="T97" s="29">
+        <v>900</v>
+      </c>
+      <c r="U97" s="195">
+        <f t="shared" si="10"/>
         <v>150.30000000000001</v>
       </c>
-      <c r="M97">
-        <f t="shared" si="10"/>
+      <c r="V97">
+        <f t="shared" si="13"/>
         <v>108.5</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B98" s="29">
         <v>910</v>
       </c>
-      <c r="C98" s="193">
-        <f t="shared" si="6"/>
-        <v>67.539999999999964</v>
-      </c>
-      <c r="D98" s="29">
-        <f t="shared" si="7"/>
-        <v>53.69</v>
+      <c r="C98" s="216"/>
+      <c r="D98" s="218"/>
+      <c r="E98" s="224">
+        <f t="shared" si="12"/>
+        <v>82.87</v>
       </c>
       <c r="K98" s="29">
         <v>910</v>
       </c>
-      <c r="L98" s="195">
+      <c r="L98" s="193">
         <f t="shared" si="8"/>
+        <v>67.539999999999964</v>
+      </c>
+      <c r="M98" s="29">
+        <f t="shared" si="9"/>
+        <v>53.69</v>
+      </c>
+      <c r="T98" s="29">
+        <v>910</v>
+      </c>
+      <c r="U98" s="195">
+        <f t="shared" si="10"/>
         <v>151.97</v>
       </c>
-      <c r="M98">
-        <f t="shared" si="10"/>
+      <c r="V98">
+        <f t="shared" si="13"/>
         <v>109.45</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B99" s="29">
         <v>920</v>
       </c>
-      <c r="C99" s="193">
-        <f t="shared" si="6"/>
-        <v>70.479999999999961</v>
-      </c>
-      <c r="D99" s="29">
-        <f t="shared" si="7"/>
-        <v>54.279999999999994</v>
+      <c r="C99" s="216"/>
+      <c r="D99" s="218"/>
+      <c r="E99" s="224">
+        <f t="shared" si="12"/>
+        <v>84.44</v>
       </c>
       <c r="K99" s="29">
         <v>920</v>
       </c>
-      <c r="L99" s="195">
+      <c r="L99" s="193">
         <f t="shared" si="8"/>
+        <v>70.479999999999961</v>
+      </c>
+      <c r="M99" s="29">
+        <f t="shared" si="9"/>
+        <v>54.279999999999994</v>
+      </c>
+      <c r="T99" s="29">
+        <v>920</v>
+      </c>
+      <c r="U99" s="195">
+        <f t="shared" si="10"/>
         <v>153.64000000000001</v>
       </c>
-      <c r="M99">
-        <f t="shared" si="10"/>
+      <c r="V99">
+        <f t="shared" si="13"/>
         <v>110.4</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B100" s="29">
         <v>930</v>
       </c>
-      <c r="C100" s="193">
-        <f t="shared" si="6"/>
-        <v>73.419999999999959</v>
-      </c>
-      <c r="D100" s="29">
-        <f t="shared" si="7"/>
-        <v>54.87</v>
+      <c r="C100" s="216"/>
+      <c r="D100" s="218"/>
+      <c r="E100" s="224">
+        <f t="shared" si="12"/>
+        <v>86.009999999999991</v>
       </c>
       <c r="K100" s="29">
         <v>930</v>
       </c>
-      <c r="L100" s="195">
+      <c r="L100" s="193">
         <f t="shared" si="8"/>
+        <v>73.419999999999959</v>
+      </c>
+      <c r="M100" s="29">
+        <f t="shared" si="9"/>
+        <v>54.87</v>
+      </c>
+      <c r="T100" s="29">
+        <v>930</v>
+      </c>
+      <c r="U100" s="195">
+        <f t="shared" si="10"/>
         <v>155.31</v>
       </c>
-      <c r="M100">
-        <f t="shared" si="10"/>
+      <c r="V100">
+        <f t="shared" si="13"/>
         <v>111.35</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B101" s="29">
         <v>940</v>
       </c>
-      <c r="C101" s="193">
-        <f t="shared" si="6"/>
-        <v>76.359999999999957</v>
-      </c>
-      <c r="D101" s="29">
-        <f t="shared" si="7"/>
-        <v>55.459999999999994</v>
+      <c r="C101" s="216"/>
+      <c r="D101" s="218"/>
+      <c r="E101" s="224">
+        <f t="shared" si="12"/>
+        <v>87.580000000000013</v>
       </c>
       <c r="K101" s="29">
         <v>940</v>
       </c>
-      <c r="L101" s="195">
+      <c r="L101" s="193">
         <f t="shared" si="8"/>
+        <v>76.359999999999957</v>
+      </c>
+      <c r="M101" s="29">
+        <f t="shared" si="9"/>
+        <v>55.459999999999994</v>
+      </c>
+      <c r="T101" s="29">
+        <v>940</v>
+      </c>
+      <c r="U101" s="195">
+        <f t="shared" si="10"/>
         <v>156.98000000000002</v>
       </c>
-      <c r="M101">
-        <f t="shared" si="10"/>
+      <c r="V101">
+        <f t="shared" si="13"/>
         <v>112.3</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B102" s="29">
         <v>950</v>
       </c>
-      <c r="C102" s="193">
-        <f t="shared" si="6"/>
-        <v>79.300000000000011</v>
-      </c>
-      <c r="D102" s="29">
-        <f t="shared" si="7"/>
-        <v>56.05</v>
+      <c r="C102" s="216"/>
+      <c r="D102" s="218"/>
+      <c r="E102" s="224">
+        <f t="shared" si="12"/>
+        <v>89.15</v>
       </c>
       <c r="K102" s="29">
         <v>950</v>
       </c>
-      <c r="L102" s="195">
+      <c r="L102" s="193">
         <f t="shared" si="8"/>
+        <v>79.300000000000011</v>
+      </c>
+      <c r="M102" s="29">
+        <f t="shared" si="9"/>
+        <v>56.05</v>
+      </c>
+      <c r="T102" s="29">
+        <v>950</v>
+      </c>
+      <c r="U102" s="195">
+        <f t="shared" si="10"/>
         <v>158.65</v>
       </c>
-      <c r="M102">
-        <f t="shared" si="10"/>
+      <c r="V102">
+        <f t="shared" si="13"/>
         <v>113.25</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B103" s="29">
         <v>960</v>
       </c>
-      <c r="C103" s="193">
-        <f t="shared" si="6"/>
-        <v>82.240000000000009</v>
-      </c>
-      <c r="D103" s="29">
-        <f t="shared" si="7"/>
-        <v>56.64</v>
+      <c r="C103" s="216"/>
+      <c r="D103" s="218"/>
+      <c r="E103" s="224">
+        <f t="shared" si="12"/>
+        <v>90.72</v>
       </c>
       <c r="K103" s="29">
         <v>960</v>
       </c>
-      <c r="L103" s="195">
+      <c r="L103" s="193">
         <f t="shared" si="8"/>
+        <v>82.240000000000009</v>
+      </c>
+      <c r="M103" s="29">
+        <f t="shared" si="9"/>
+        <v>56.64</v>
+      </c>
+      <c r="T103" s="29">
+        <v>960</v>
+      </c>
+      <c r="U103" s="195">
+        <f t="shared" si="10"/>
         <v>160.32000000000002</v>
       </c>
-      <c r="M103">
-        <f t="shared" si="10"/>
+      <c r="V103">
+        <f t="shared" si="13"/>
         <v>114.2</v>
       </c>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B104" s="29">
         <v>970</v>
       </c>
-      <c r="C104" s="193">
-        <f t="shared" si="6"/>
-        <v>85.18</v>
-      </c>
-      <c r="D104" s="29">
-        <f t="shared" si="7"/>
-        <v>57.23</v>
+      <c r="C104" s="216"/>
+      <c r="D104" s="218"/>
+      <c r="E104" s="224">
+        <f t="shared" si="12"/>
+        <v>92.289999999999992</v>
       </c>
       <c r="K104" s="29">
         <v>970</v>
       </c>
-      <c r="L104" s="195">
+      <c r="L104" s="193">
         <f t="shared" si="8"/>
+        <v>85.18</v>
+      </c>
+      <c r="M104" s="29">
+        <f t="shared" si="9"/>
+        <v>57.23</v>
+      </c>
+      <c r="T104" s="29">
+        <v>970</v>
+      </c>
+      <c r="U104" s="195">
+        <f t="shared" si="10"/>
         <v>161.99</v>
       </c>
-      <c r="M104">
-        <f t="shared" si="10"/>
+      <c r="V104">
+        <f t="shared" si="13"/>
         <v>115.15</v>
       </c>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B105" s="29">
         <v>980</v>
       </c>
-      <c r="C105" s="193">
-        <f t="shared" si="6"/>
-        <v>88.12</v>
-      </c>
-      <c r="D105" s="29">
-        <f t="shared" si="7"/>
-        <v>57.82</v>
+      <c r="C105" s="216"/>
+      <c r="D105" s="218"/>
+      <c r="E105" s="224">
+        <f t="shared" si="12"/>
+        <v>93.860000000000014</v>
       </c>
       <c r="K105" s="29">
         <v>980</v>
       </c>
-      <c r="L105" s="195">
+      <c r="L105" s="193">
         <f t="shared" si="8"/>
+        <v>88.12</v>
+      </c>
+      <c r="M105" s="29">
+        <f t="shared" si="9"/>
+        <v>57.82</v>
+      </c>
+      <c r="T105" s="29">
+        <v>980</v>
+      </c>
+      <c r="U105" s="195">
+        <f t="shared" si="10"/>
         <v>163.66</v>
       </c>
-      <c r="M105">
-        <f t="shared" si="10"/>
+      <c r="V105">
+        <f t="shared" si="13"/>
         <v>116.1</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B106" s="29">
         <v>990</v>
       </c>
-      <c r="C106" s="193">
-        <f t="shared" si="6"/>
-        <v>91.06</v>
-      </c>
-      <c r="D106" s="29">
-        <f t="shared" si="7"/>
-        <v>58.41</v>
+      <c r="C106" s="216"/>
+      <c r="D106" s="218"/>
+      <c r="E106" s="224">
+        <f t="shared" si="12"/>
+        <v>95.43</v>
       </c>
       <c r="K106" s="29">
         <v>990</v>
       </c>
       <c r="L106" s="195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>165.33</v>
       </c>
       <c r="M106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>117.05</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B107" s="29">
         <v>1000</v>
       </c>
-      <c r="C107" s="193">
-        <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="D107" s="29">
-        <f t="shared" si="7"/>
-        <v>59</v>
+      <c r="C107" s="216"/>
+      <c r="D107" s="218"/>
+      <c r="E107" s="224">
+        <f t="shared" si="12"/>
+        <v>97</v>
       </c>
       <c r="K107" s="29">
         <v>1000</v>
       </c>
       <c r="L107" s="195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>167</v>
       </c>
       <c r="M107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B108" s="29">
         <v>1010</v>
       </c>
-      <c r="C108" s="193">
-        <f t="shared" si="6"/>
-        <v>96.94</v>
-      </c>
-      <c r="D108" s="29">
-        <f t="shared" si="7"/>
-        <v>59.589999999999996</v>
+      <c r="C108" s="216"/>
+      <c r="D108" s="218"/>
+      <c r="E108" s="224">
+        <f t="shared" si="12"/>
+        <v>98.57</v>
       </c>
       <c r="K108" s="29">
         <v>1010</v>
       </c>
       <c r="L108" s="195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>168.67000000000002</v>
       </c>
       <c r="M108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>118.95</v>
       </c>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B109" s="29">
         <v>1020</v>
       </c>
-      <c r="C109" s="193">
-        <f t="shared" si="6"/>
-        <v>99.88</v>
-      </c>
-      <c r="D109" s="29">
-        <f t="shared" si="7"/>
-        <v>60.18</v>
+      <c r="C109" s="216"/>
+      <c r="D109" s="218"/>
+      <c r="E109" s="223">
+        <f t="shared" si="12"/>
+        <v>100.14000000000001</v>
       </c>
       <c r="K109" s="29">
         <v>1020</v>
       </c>
       <c r="L109" s="195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>170.34</v>
       </c>
       <c r="M109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>119.9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B110" s="29">
+        <v>1024</v>
+      </c>
+      <c r="E110" s="223">
+        <f t="shared" si="12"/>
+        <v>100.768</v>
       </c>
     </row>
   </sheetData>

--- a/Soft/Dimer.xlsx
+++ b/Soft/Dimer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.Datos\Electronica\Proyectos\Microchip\Git\Casandra\Soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8507263F-F3BC-4116-9B37-C15532FB4809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF473B2-ACDF-4895-8A08-D2EA670BDBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comandos" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="420">
   <si>
     <t>Valor</t>
   </si>
@@ -1575,6 +1575,9 @@
   <si>
     <t>F3</t>
   </si>
+  <si>
+    <t>Ventilador Ma&amp;Pa</t>
+  </si>
 </sst>
 </file>
 
@@ -1582,7 +1585,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -3209,6 +3212,33 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3249,33 +3279,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5351,22 +5354,22 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="211" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="F2" s="204" t="s">
+      <c r="D2" s="212"/>
+      <c r="F2" s="213" t="s">
         <v>179</v>
       </c>
-      <c r="G2" s="205"/>
-      <c r="J2" s="206" t="s">
+      <c r="G2" s="214"/>
+      <c r="J2" s="215" t="s">
         <v>154</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="15" t="s">
@@ -5384,18 +5387,18 @@
       <c r="G3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="211" t="s">
+      <c r="J3" s="220" t="s">
         <v>175</v>
       </c>
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="L3" s="210"/>
-      <c r="M3" s="209" t="s">
+      <c r="L3" s="219"/>
+      <c r="M3" s="218" t="s">
         <v>177</v>
       </c>
-      <c r="N3" s="210"/>
-      <c r="O3" s="213" t="s">
+      <c r="N3" s="219"/>
+      <c r="O3" s="222" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5413,7 +5416,7 @@
         <v>0.1</v>
       </c>
       <c r="I4" s="46"/>
-      <c r="J4" s="212"/>
+      <c r="J4" s="221"/>
       <c r="K4" s="101" t="s">
         <v>0</v>
       </c>
@@ -5426,7 +5429,7 @@
       <c r="N4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="214"/>
+      <c r="O4" s="223"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -6926,8 +6929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7315,7 +7318,9 @@
       <c r="D20" s="143">
         <v>18</v>
       </c>
-      <c r="E20" s="72"/>
+      <c r="E20" s="167" t="s">
+        <v>419</v>
+      </c>
       <c r="F20" s="159"/>
       <c r="G20" s="12"/>
     </row>
@@ -8133,7 +8138,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13309,7 +13314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111E22BF-FED0-41F6-808D-61809D43BC66}">
   <dimension ref="B6:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -13357,11 +13362,11 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="C7" s="217">
+      <c r="C7" s="203">
         <f>B7/3</f>
         <v>0</v>
       </c>
-      <c r="D7" s="218"/>
+      <c r="D7" s="204"/>
       <c r="G7" s="29" t="s">
         <v>336</v>
       </c>
@@ -13410,11 +13415,11 @@
       <c r="B8" s="29">
         <v>10</v>
       </c>
-      <c r="C8" s="217">
+      <c r="C8" s="203">
         <f t="shared" ref="C8:C16" si="0">B8/3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D8" s="218"/>
+      <c r="D8" s="204"/>
       <c r="G8" s="29">
         <v>700</v>
       </c>
@@ -13463,11 +13468,11 @@
       <c r="B9" s="29">
         <v>20</v>
       </c>
-      <c r="C9" s="217">
+      <c r="C9" s="203">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="D9" s="218"/>
+      <c r="D9" s="204"/>
       <c r="G9" s="29">
         <v>110</v>
       </c>
@@ -13515,11 +13520,11 @@
       <c r="B10" s="29">
         <v>30</v>
       </c>
-      <c r="C10" s="217">
+      <c r="C10" s="203">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D10" s="218"/>
+      <c r="D10" s="204"/>
       <c r="F10">
         <f>G10-G9</f>
         <v>580</v>
@@ -13586,11 +13591,11 @@
       <c r="B11" s="29">
         <v>40</v>
       </c>
-      <c r="C11" s="217">
+      <c r="C11" s="203">
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="D11" s="218"/>
+      <c r="D11" s="204"/>
       <c r="K11" s="29">
         <v>40</v>
       </c>
@@ -13618,11 +13623,11 @@
       <c r="B12" s="29">
         <v>50</v>
       </c>
-      <c r="C12" s="217">
+      <c r="C12" s="203">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="D12" s="218"/>
+      <c r="D12" s="204"/>
       <c r="F12">
         <f>J10/F10</f>
         <v>2.5862068965517241E-2</v>
@@ -13657,11 +13662,11 @@
       <c r="B13" s="29">
         <v>60</v>
       </c>
-      <c r="C13" s="217">
+      <c r="C13" s="203">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D13" s="218"/>
+      <c r="D13" s="204"/>
       <c r="K13" s="29">
         <v>60</v>
       </c>
@@ -13689,11 +13694,11 @@
       <c r="B14" s="29">
         <v>70</v>
       </c>
-      <c r="C14" s="217">
+      <c r="C14" s="203">
         <f t="shared" si="0"/>
         <v>23.333333333333332</v>
       </c>
-      <c r="D14" s="218"/>
+      <c r="D14" s="204"/>
       <c r="K14" s="29">
         <v>70</v>
       </c>
@@ -13721,11 +13726,11 @@
       <c r="B15" s="29">
         <v>80</v>
       </c>
-      <c r="C15" s="217">
+      <c r="C15" s="203">
         <f t="shared" si="0"/>
         <v>26.666666666666668</v>
       </c>
-      <c r="D15" s="218"/>
+      <c r="D15" s="204"/>
       <c r="K15" s="29">
         <v>80</v>
       </c>
@@ -13753,11 +13758,11 @@
       <c r="B16" s="29">
         <v>90</v>
       </c>
-      <c r="C16" s="217">
+      <c r="C16" s="203">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D16" s="218"/>
+      <c r="D16" s="204"/>
       <c r="K16" s="29">
         <v>90</v>
       </c>
@@ -13782,14 +13787,14 @@
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B17" s="220">
+      <c r="B17" s="206">
         <v>100</v>
       </c>
-      <c r="C17" s="222">
+      <c r="C17" s="208">
         <f>B17/3</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="D17" s="219"/>
+      <c r="D17" s="205"/>
       <c r="K17" s="29">
         <v>100</v>
       </c>
@@ -13817,8 +13822,8 @@
       <c r="B18" s="29">
         <v>110</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="223">
+      <c r="C18" s="202"/>
+      <c r="D18" s="209">
         <f>(B18*0.026)+31</f>
         <v>33.86</v>
       </c>
@@ -13849,8 +13854,8 @@
       <c r="B19" s="29">
         <v>120</v>
       </c>
-      <c r="C19" s="216"/>
-      <c r="D19" s="224">
+      <c r="C19" s="202"/>
+      <c r="D19" s="210">
         <f t="shared" ref="D19:D76" si="5">(B19*0.026)+31</f>
         <v>34.119999999999997</v>
       </c>
@@ -13881,8 +13886,8 @@
       <c r="B20" s="29">
         <v>130</v>
       </c>
-      <c r="C20" s="216"/>
-      <c r="D20" s="224">
+      <c r="C20" s="202"/>
+      <c r="D20" s="210">
         <f t="shared" si="5"/>
         <v>34.380000000000003</v>
       </c>
@@ -13913,8 +13918,8 @@
       <c r="B21" s="29">
         <v>140</v>
       </c>
-      <c r="C21" s="216"/>
-      <c r="D21" s="224">
+      <c r="C21" s="202"/>
+      <c r="D21" s="210">
         <f t="shared" si="5"/>
         <v>34.64</v>
       </c>
@@ -13945,8 +13950,8 @@
       <c r="B22" s="29">
         <v>150</v>
       </c>
-      <c r="C22" s="216"/>
-      <c r="D22" s="224">
+      <c r="C22" s="202"/>
+      <c r="D22" s="210">
         <f t="shared" si="5"/>
         <v>34.9</v>
       </c>
@@ -13977,8 +13982,8 @@
       <c r="B23" s="29">
         <v>160</v>
       </c>
-      <c r="C23" s="216"/>
-      <c r="D23" s="224">
+      <c r="C23" s="202"/>
+      <c r="D23" s="210">
         <f t="shared" si="5"/>
         <v>35.159999999999997</v>
       </c>
@@ -14009,8 +14014,8 @@
       <c r="B24" s="29">
         <v>170</v>
       </c>
-      <c r="C24" s="216"/>
-      <c r="D24" s="224">
+      <c r="C24" s="202"/>
+      <c r="D24" s="210">
         <f t="shared" si="5"/>
         <v>35.42</v>
       </c>
@@ -14041,8 +14046,8 @@
       <c r="B25" s="29">
         <v>180</v>
       </c>
-      <c r="C25" s="216"/>
-      <c r="D25" s="224">
+      <c r="C25" s="202"/>
+      <c r="D25" s="210">
         <f t="shared" si="5"/>
         <v>35.68</v>
       </c>
@@ -14073,8 +14078,8 @@
       <c r="B26" s="29">
         <v>190</v>
       </c>
-      <c r="C26" s="216"/>
-      <c r="D26" s="224">
+      <c r="C26" s="202"/>
+      <c r="D26" s="210">
         <f t="shared" si="5"/>
         <v>35.94</v>
       </c>
@@ -14105,8 +14110,8 @@
       <c r="B27" s="29">
         <v>200</v>
       </c>
-      <c r="C27" s="216"/>
-      <c r="D27" s="224">
+      <c r="C27" s="202"/>
+      <c r="D27" s="210">
         <f t="shared" si="5"/>
         <v>36.200000000000003</v>
       </c>
@@ -14137,8 +14142,8 @@
       <c r="B28" s="29">
         <v>210</v>
       </c>
-      <c r="C28" s="216"/>
-      <c r="D28" s="224">
+      <c r="C28" s="202"/>
+      <c r="D28" s="210">
         <f t="shared" si="5"/>
         <v>36.46</v>
       </c>
@@ -14169,8 +14174,8 @@
       <c r="B29" s="29">
         <v>220</v>
       </c>
-      <c r="C29" s="216"/>
-      <c r="D29" s="224">
+      <c r="C29" s="202"/>
+      <c r="D29" s="210">
         <f t="shared" si="5"/>
         <v>36.72</v>
       </c>
@@ -14201,8 +14206,8 @@
       <c r="B30" s="29">
         <v>230</v>
       </c>
-      <c r="C30" s="216"/>
-      <c r="D30" s="224">
+      <c r="C30" s="202"/>
+      <c r="D30" s="210">
         <f t="shared" si="5"/>
         <v>36.979999999999997</v>
       </c>
@@ -14233,8 +14238,8 @@
       <c r="B31" s="29">
         <v>240</v>
       </c>
-      <c r="C31" s="216"/>
-      <c r="D31" s="224">
+      <c r="C31" s="202"/>
+      <c r="D31" s="210">
         <f t="shared" si="5"/>
         <v>37.24</v>
       </c>
@@ -14266,8 +14271,8 @@
       <c r="B32" s="29">
         <v>250</v>
       </c>
-      <c r="C32" s="216"/>
-      <c r="D32" s="224">
+      <c r="C32" s="202"/>
+      <c r="D32" s="210">
         <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
@@ -14298,8 +14303,8 @@
       <c r="B33" s="29">
         <v>260</v>
       </c>
-      <c r="C33" s="216"/>
-      <c r="D33" s="224">
+      <c r="C33" s="202"/>
+      <c r="D33" s="210">
         <f t="shared" si="5"/>
         <v>37.76</v>
       </c>
@@ -14330,8 +14335,8 @@
       <c r="B34" s="29">
         <v>270</v>
       </c>
-      <c r="C34" s="216"/>
-      <c r="D34" s="224">
+      <c r="C34" s="202"/>
+      <c r="D34" s="210">
         <f t="shared" si="5"/>
         <v>38.019999999999996</v>
       </c>
@@ -14362,8 +14367,8 @@
       <c r="B35" s="29">
         <v>280</v>
       </c>
-      <c r="C35" s="216"/>
-      <c r="D35" s="224">
+      <c r="C35" s="202"/>
+      <c r="D35" s="210">
         <f t="shared" si="5"/>
         <v>38.28</v>
       </c>
@@ -14394,8 +14399,8 @@
       <c r="B36" s="29">
         <v>290</v>
       </c>
-      <c r="C36" s="216"/>
-      <c r="D36" s="224">
+      <c r="C36" s="202"/>
+      <c r="D36" s="210">
         <f t="shared" si="5"/>
         <v>38.54</v>
       </c>
@@ -14426,8 +14431,8 @@
       <c r="B37" s="29">
         <v>300</v>
       </c>
-      <c r="C37" s="216"/>
-      <c r="D37" s="224">
+      <c r="C37" s="202"/>
+      <c r="D37" s="210">
         <f t="shared" si="5"/>
         <v>38.799999999999997</v>
       </c>
@@ -14458,8 +14463,8 @@
       <c r="B38" s="29">
         <v>310</v>
       </c>
-      <c r="C38" s="216"/>
-      <c r="D38" s="224">
+      <c r="C38" s="202"/>
+      <c r="D38" s="210">
         <f t="shared" si="5"/>
         <v>39.06</v>
       </c>
@@ -14496,8 +14501,8 @@
       <c r="B39" s="29">
         <v>320</v>
       </c>
-      <c r="C39" s="216"/>
-      <c r="D39" s="224">
+      <c r="C39" s="202"/>
+      <c r="D39" s="210">
         <f t="shared" si="5"/>
         <v>39.32</v>
       </c>
@@ -14534,8 +14539,8 @@
       <c r="B40" s="29">
         <v>330</v>
       </c>
-      <c r="C40" s="216"/>
-      <c r="D40" s="224">
+      <c r="C40" s="202"/>
+      <c r="D40" s="210">
         <f t="shared" si="5"/>
         <v>39.58</v>
       </c>
@@ -14566,8 +14571,8 @@
       <c r="B41" s="29">
         <v>340</v>
       </c>
-      <c r="C41" s="216"/>
-      <c r="D41" s="224">
+      <c r="C41" s="202"/>
+      <c r="D41" s="210">
         <f t="shared" si="5"/>
         <v>39.840000000000003</v>
       </c>
@@ -14598,8 +14603,8 @@
       <c r="B42" s="29">
         <v>350</v>
       </c>
-      <c r="C42" s="216"/>
-      <c r="D42" s="224">
+      <c r="C42" s="202"/>
+      <c r="D42" s="210">
         <f t="shared" si="5"/>
         <v>40.1</v>
       </c>
@@ -14630,8 +14635,8 @@
       <c r="B43" s="29">
         <v>360</v>
       </c>
-      <c r="C43" s="216"/>
-      <c r="D43" s="224">
+      <c r="C43" s="202"/>
+      <c r="D43" s="210">
         <f t="shared" si="5"/>
         <v>40.36</v>
       </c>
@@ -14662,8 +14667,8 @@
       <c r="B44" s="29">
         <v>370</v>
       </c>
-      <c r="C44" s="216"/>
-      <c r="D44" s="224">
+      <c r="C44" s="202"/>
+      <c r="D44" s="210">
         <f t="shared" si="5"/>
         <v>40.619999999999997</v>
       </c>
@@ -14694,8 +14699,8 @@
       <c r="B45" s="29">
         <v>380</v>
       </c>
-      <c r="C45" s="216"/>
-      <c r="D45" s="224">
+      <c r="C45" s="202"/>
+      <c r="D45" s="210">
         <f t="shared" si="5"/>
         <v>40.879999999999995</v>
       </c>
@@ -14726,8 +14731,8 @@
       <c r="B46" s="29">
         <v>390</v>
       </c>
-      <c r="C46" s="216"/>
-      <c r="D46" s="224">
+      <c r="C46" s="202"/>
+      <c r="D46" s="210">
         <f t="shared" si="5"/>
         <v>41.14</v>
       </c>
@@ -14758,8 +14763,8 @@
       <c r="B47" s="29">
         <v>400</v>
       </c>
-      <c r="C47" s="216"/>
-      <c r="D47" s="224">
+      <c r="C47" s="202"/>
+      <c r="D47" s="210">
         <f t="shared" si="5"/>
         <v>41.4</v>
       </c>
@@ -14790,8 +14795,8 @@
       <c r="B48" s="29">
         <v>410</v>
       </c>
-      <c r="C48" s="216"/>
-      <c r="D48" s="224">
+      <c r="C48" s="202"/>
+      <c r="D48" s="210">
         <f t="shared" si="5"/>
         <v>41.66</v>
       </c>
@@ -14822,8 +14827,8 @@
       <c r="B49" s="29">
         <v>420</v>
       </c>
-      <c r="C49" s="216"/>
-      <c r="D49" s="224">
+      <c r="C49" s="202"/>
+      <c r="D49" s="210">
         <f t="shared" si="5"/>
         <v>41.92</v>
       </c>
@@ -14854,8 +14859,8 @@
       <c r="B50" s="29">
         <v>430</v>
       </c>
-      <c r="C50" s="216"/>
-      <c r="D50" s="224">
+      <c r="C50" s="202"/>
+      <c r="D50" s="210">
         <f t="shared" si="5"/>
         <v>42.18</v>
       </c>
@@ -14886,8 +14891,8 @@
       <c r="B51" s="29">
         <v>440</v>
       </c>
-      <c r="C51" s="216"/>
-      <c r="D51" s="224">
+      <c r="C51" s="202"/>
+      <c r="D51" s="210">
         <f t="shared" si="5"/>
         <v>42.44</v>
       </c>
@@ -14918,8 +14923,8 @@
       <c r="B52" s="29">
         <v>450</v>
       </c>
-      <c r="C52" s="216"/>
-      <c r="D52" s="224">
+      <c r="C52" s="202"/>
+      <c r="D52" s="210">
         <f t="shared" si="5"/>
         <v>42.7</v>
       </c>
@@ -14950,8 +14955,8 @@
       <c r="B53" s="29">
         <v>460</v>
       </c>
-      <c r="C53" s="216"/>
-      <c r="D53" s="224">
+      <c r="C53" s="202"/>
+      <c r="D53" s="210">
         <f t="shared" si="5"/>
         <v>42.96</v>
       </c>
@@ -14982,8 +14987,8 @@
       <c r="B54" s="29">
         <v>470</v>
       </c>
-      <c r="C54" s="216"/>
-      <c r="D54" s="224">
+      <c r="C54" s="202"/>
+      <c r="D54" s="210">
         <f t="shared" si="5"/>
         <v>43.22</v>
       </c>
@@ -15014,8 +15019,8 @@
       <c r="B55" s="29">
         <v>480</v>
       </c>
-      <c r="C55" s="216"/>
-      <c r="D55" s="224">
+      <c r="C55" s="202"/>
+      <c r="D55" s="210">
         <f t="shared" si="5"/>
         <v>43.48</v>
       </c>
@@ -15046,8 +15051,8 @@
       <c r="B56" s="29">
         <v>490</v>
       </c>
-      <c r="C56" s="216"/>
-      <c r="D56" s="224">
+      <c r="C56" s="202"/>
+      <c r="D56" s="210">
         <f t="shared" si="5"/>
         <v>43.74</v>
       </c>
@@ -15078,8 +15083,8 @@
       <c r="B57" s="29">
         <v>500</v>
       </c>
-      <c r="C57" s="216"/>
-      <c r="D57" s="224">
+      <c r="C57" s="202"/>
+      <c r="D57" s="210">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
@@ -15110,8 +15115,8 @@
       <c r="B58" s="29">
         <v>510</v>
       </c>
-      <c r="C58" s="216"/>
-      <c r="D58" s="224">
+      <c r="C58" s="202"/>
+      <c r="D58" s="210">
         <f t="shared" si="5"/>
         <v>44.26</v>
       </c>
@@ -15142,8 +15147,8 @@
       <c r="B59" s="29">
         <v>520</v>
       </c>
-      <c r="C59" s="216"/>
-      <c r="D59" s="224">
+      <c r="C59" s="202"/>
+      <c r="D59" s="210">
         <f t="shared" si="5"/>
         <v>44.519999999999996</v>
       </c>
@@ -15174,8 +15179,8 @@
       <c r="B60" s="29">
         <v>530</v>
       </c>
-      <c r="C60" s="216"/>
-      <c r="D60" s="224">
+      <c r="C60" s="202"/>
+      <c r="D60" s="210">
         <f t="shared" si="5"/>
         <v>44.78</v>
       </c>
@@ -15206,8 +15211,8 @@
       <c r="B61" s="29">
         <v>540</v>
       </c>
-      <c r="C61" s="216"/>
-      <c r="D61" s="224">
+      <c r="C61" s="202"/>
+      <c r="D61" s="210">
         <f t="shared" si="5"/>
         <v>45.04</v>
       </c>
@@ -15238,8 +15243,8 @@
       <c r="B62" s="29">
         <v>550</v>
       </c>
-      <c r="C62" s="216"/>
-      <c r="D62" s="224">
+      <c r="C62" s="202"/>
+      <c r="D62" s="210">
         <f t="shared" si="5"/>
         <v>45.3</v>
       </c>
@@ -15270,8 +15275,8 @@
       <c r="B63" s="29">
         <v>560</v>
       </c>
-      <c r="C63" s="216"/>
-      <c r="D63" s="224">
+      <c r="C63" s="202"/>
+      <c r="D63" s="210">
         <f t="shared" si="5"/>
         <v>45.56</v>
       </c>
@@ -15302,8 +15307,8 @@
       <c r="B64" s="29">
         <v>570</v>
       </c>
-      <c r="C64" s="216"/>
-      <c r="D64" s="224">
+      <c r="C64" s="202"/>
+      <c r="D64" s="210">
         <f t="shared" si="5"/>
         <v>45.82</v>
       </c>
@@ -15334,8 +15339,8 @@
       <c r="B65" s="29">
         <v>580</v>
       </c>
-      <c r="C65" s="216"/>
-      <c r="D65" s="224">
+      <c r="C65" s="202"/>
+      <c r="D65" s="210">
         <f t="shared" si="5"/>
         <v>46.08</v>
       </c>
@@ -15366,8 +15371,8 @@
       <c r="B66" s="29">
         <v>590</v>
       </c>
-      <c r="C66" s="216"/>
-      <c r="D66" s="224">
+      <c r="C66" s="202"/>
+      <c r="D66" s="210">
         <f t="shared" si="5"/>
         <v>46.34</v>
       </c>
@@ -15398,8 +15403,8 @@
       <c r="B67" s="29">
         <v>600</v>
       </c>
-      <c r="C67" s="216"/>
-      <c r="D67" s="224">
+      <c r="C67" s="202"/>
+      <c r="D67" s="210">
         <f t="shared" si="5"/>
         <v>46.6</v>
       </c>
@@ -15430,8 +15435,8 @@
       <c r="B68" s="29">
         <v>610</v>
       </c>
-      <c r="C68" s="216"/>
-      <c r="D68" s="224">
+      <c r="C68" s="202"/>
+      <c r="D68" s="210">
         <f t="shared" si="5"/>
         <v>46.86</v>
       </c>
@@ -15462,8 +15467,8 @@
       <c r="B69" s="29">
         <v>620</v>
       </c>
-      <c r="C69" s="216"/>
-      <c r="D69" s="224">
+      <c r="C69" s="202"/>
+      <c r="D69" s="210">
         <f t="shared" si="5"/>
         <v>47.120000000000005</v>
       </c>
@@ -15494,8 +15499,8 @@
       <c r="B70" s="29">
         <v>630</v>
       </c>
-      <c r="C70" s="216"/>
-      <c r="D70" s="224">
+      <c r="C70" s="202"/>
+      <c r="D70" s="210">
         <f t="shared" si="5"/>
         <v>47.379999999999995</v>
       </c>
@@ -15526,8 +15531,8 @@
       <c r="B71" s="29">
         <v>640</v>
       </c>
-      <c r="C71" s="216"/>
-      <c r="D71" s="224">
+      <c r="C71" s="202"/>
+      <c r="D71" s="210">
         <f t="shared" si="5"/>
         <v>47.64</v>
       </c>
@@ -15558,8 +15563,8 @@
       <c r="B72" s="29">
         <v>650</v>
       </c>
-      <c r="C72" s="216"/>
-      <c r="D72" s="224">
+      <c r="C72" s="202"/>
+      <c r="D72" s="210">
         <f t="shared" si="5"/>
         <v>47.9</v>
       </c>
@@ -15590,8 +15595,8 @@
       <c r="B73" s="29">
         <v>660</v>
       </c>
-      <c r="C73" s="216"/>
-      <c r="D73" s="224">
+      <c r="C73" s="202"/>
+      <c r="D73" s="210">
         <f t="shared" si="5"/>
         <v>48.16</v>
       </c>
@@ -15622,8 +15627,8 @@
       <c r="B74" s="29">
         <v>670</v>
       </c>
-      <c r="C74" s="216"/>
-      <c r="D74" s="224">
+      <c r="C74" s="202"/>
+      <c r="D74" s="210">
         <f t="shared" si="5"/>
         <v>48.42</v>
       </c>
@@ -15654,8 +15659,8 @@
       <c r="B75" s="29">
         <v>680</v>
       </c>
-      <c r="C75" s="216"/>
-      <c r="D75" s="224">
+      <c r="C75" s="202"/>
+      <c r="D75" s="210">
         <f t="shared" si="5"/>
         <v>48.68</v>
       </c>
@@ -15686,8 +15691,8 @@
       <c r="B76" s="29">
         <v>690</v>
       </c>
-      <c r="C76" s="216"/>
-      <c r="D76" s="223">
+      <c r="C76" s="202"/>
+      <c r="D76" s="209">
         <f t="shared" si="5"/>
         <v>48.94</v>
       </c>
@@ -15715,12 +15720,12 @@
       </c>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B77" s="220">
+      <c r="B77" s="206">
         <v>700</v>
       </c>
-      <c r="C77" s="221"/>
-      <c r="D77" s="219"/>
-      <c r="E77" s="223">
+      <c r="C77" s="207"/>
+      <c r="D77" s="205"/>
+      <c r="E77" s="209">
         <f>(B77*0.157)-60</f>
         <v>49.900000000000006</v>
       </c>
@@ -15751,9 +15756,9 @@
       <c r="B78" s="29">
         <v>710</v>
       </c>
-      <c r="C78" s="216"/>
-      <c r="D78" s="218"/>
-      <c r="E78" s="224">
+      <c r="C78" s="202"/>
+      <c r="D78" s="204"/>
+      <c r="E78" s="210">
         <f>(B78*0.157)-60</f>
         <v>51.47</v>
       </c>
@@ -15784,9 +15789,9 @@
       <c r="B79" s="29">
         <v>720</v>
       </c>
-      <c r="C79" s="216"/>
-      <c r="D79" s="218"/>
-      <c r="E79" s="224">
+      <c r="C79" s="202"/>
+      <c r="D79" s="204"/>
+      <c r="E79" s="210">
         <f t="shared" ref="E79:E110" si="12">(B79*0.157)-60</f>
         <v>53.040000000000006</v>
       </c>
@@ -15817,9 +15822,9 @@
       <c r="B80" s="29">
         <v>730</v>
       </c>
-      <c r="C80" s="216"/>
-      <c r="D80" s="218"/>
-      <c r="E80" s="224">
+      <c r="C80" s="202"/>
+      <c r="D80" s="204"/>
+      <c r="E80" s="210">
         <f t="shared" si="12"/>
         <v>54.61</v>
       </c>
@@ -15850,9 +15855,9 @@
       <c r="B81" s="29">
         <v>740</v>
       </c>
-      <c r="C81" s="216"/>
-      <c r="D81" s="218"/>
-      <c r="E81" s="224">
+      <c r="C81" s="202"/>
+      <c r="D81" s="204"/>
+      <c r="E81" s="210">
         <f t="shared" si="12"/>
         <v>56.180000000000007</v>
       </c>
@@ -15883,9 +15888,9 @@
       <c r="B82" s="29">
         <v>750</v>
       </c>
-      <c r="C82" s="216"/>
-      <c r="D82" s="218"/>
-      <c r="E82" s="224">
+      <c r="C82" s="202"/>
+      <c r="D82" s="204"/>
+      <c r="E82" s="210">
         <f t="shared" si="12"/>
         <v>57.75</v>
       </c>
@@ -15916,9 +15921,9 @@
       <c r="B83" s="29">
         <v>760</v>
       </c>
-      <c r="C83" s="216"/>
-      <c r="D83" s="218"/>
-      <c r="E83" s="224">
+      <c r="C83" s="202"/>
+      <c r="D83" s="204"/>
+      <c r="E83" s="210">
         <f t="shared" si="12"/>
         <v>59.320000000000007</v>
       </c>
@@ -15949,9 +15954,9 @@
       <c r="B84" s="29">
         <v>770</v>
       </c>
-      <c r="C84" s="216"/>
-      <c r="D84" s="218"/>
-      <c r="E84" s="224">
+      <c r="C84" s="202"/>
+      <c r="D84" s="204"/>
+      <c r="E84" s="210">
         <f t="shared" si="12"/>
         <v>60.89</v>
       </c>
@@ -15982,9 +15987,9 @@
       <c r="B85" s="29">
         <v>780</v>
       </c>
-      <c r="C85" s="216"/>
-      <c r="D85" s="218"/>
-      <c r="E85" s="224">
+      <c r="C85" s="202"/>
+      <c r="D85" s="204"/>
+      <c r="E85" s="210">
         <f t="shared" si="12"/>
         <v>62.459999999999994</v>
       </c>
@@ -16015,9 +16020,9 @@
       <c r="B86" s="29">
         <v>790</v>
       </c>
-      <c r="C86" s="216"/>
-      <c r="D86" s="218"/>
-      <c r="E86" s="224">
+      <c r="C86" s="202"/>
+      <c r="D86" s="204"/>
+      <c r="E86" s="210">
         <f t="shared" si="12"/>
         <v>64.03</v>
       </c>
@@ -16048,9 +16053,9 @@
       <c r="B87" s="29">
         <v>800</v>
       </c>
-      <c r="C87" s="216"/>
-      <c r="D87" s="218"/>
-      <c r="E87" s="224">
+      <c r="C87" s="202"/>
+      <c r="D87" s="204"/>
+      <c r="E87" s="210">
         <f t="shared" si="12"/>
         <v>65.599999999999994</v>
       </c>
@@ -16081,9 +16086,9 @@
       <c r="B88" s="29">
         <v>810</v>
       </c>
-      <c r="C88" s="216"/>
-      <c r="D88" s="218"/>
-      <c r="E88" s="224">
+      <c r="C88" s="202"/>
+      <c r="D88" s="204"/>
+      <c r="E88" s="210">
         <f t="shared" si="12"/>
         <v>67.17</v>
       </c>
@@ -16114,9 +16119,9 @@
       <c r="B89" s="29">
         <v>820</v>
       </c>
-      <c r="C89" s="216"/>
-      <c r="D89" s="218"/>
-      <c r="E89" s="224">
+      <c r="C89" s="202"/>
+      <c r="D89" s="204"/>
+      <c r="E89" s="210">
         <f t="shared" si="12"/>
         <v>68.740000000000009</v>
       </c>
@@ -16147,9 +16152,9 @@
       <c r="B90" s="29">
         <v>830</v>
       </c>
-      <c r="C90" s="216"/>
-      <c r="D90" s="218"/>
-      <c r="E90" s="224">
+      <c r="C90" s="202"/>
+      <c r="D90" s="204"/>
+      <c r="E90" s="210">
         <f t="shared" si="12"/>
         <v>70.31</v>
       </c>
@@ -16180,9 +16185,9 @@
       <c r="B91" s="29">
         <v>840</v>
       </c>
-      <c r="C91" s="216"/>
-      <c r="D91" s="218"/>
-      <c r="E91" s="224">
+      <c r="C91" s="202"/>
+      <c r="D91" s="204"/>
+      <c r="E91" s="210">
         <f t="shared" si="12"/>
         <v>71.88</v>
       </c>
@@ -16213,9 +16218,9 @@
       <c r="B92" s="29">
         <v>850</v>
       </c>
-      <c r="C92" s="216"/>
-      <c r="D92" s="218"/>
-      <c r="E92" s="224">
+      <c r="C92" s="202"/>
+      <c r="D92" s="204"/>
+      <c r="E92" s="210">
         <f t="shared" si="12"/>
         <v>73.449999999999989</v>
       </c>
@@ -16246,9 +16251,9 @@
       <c r="B93" s="29">
         <v>860</v>
       </c>
-      <c r="C93" s="216"/>
-      <c r="D93" s="218"/>
-      <c r="E93" s="224">
+      <c r="C93" s="202"/>
+      <c r="D93" s="204"/>
+      <c r="E93" s="210">
         <f t="shared" si="12"/>
         <v>75.02000000000001</v>
       </c>
@@ -16279,9 +16284,9 @@
       <c r="B94" s="29">
         <v>870</v>
       </c>
-      <c r="C94" s="216"/>
-      <c r="D94" s="218"/>
-      <c r="E94" s="224">
+      <c r="C94" s="202"/>
+      <c r="D94" s="204"/>
+      <c r="E94" s="210">
         <f t="shared" si="12"/>
         <v>76.59</v>
       </c>
@@ -16312,9 +16317,9 @@
       <c r="B95" s="29">
         <v>880</v>
       </c>
-      <c r="C95" s="216"/>
-      <c r="D95" s="218"/>
-      <c r="E95" s="224">
+      <c r="C95" s="202"/>
+      <c r="D95" s="204"/>
+      <c r="E95" s="210">
         <f t="shared" si="12"/>
         <v>78.16</v>
       </c>
@@ -16345,9 +16350,9 @@
       <c r="B96" s="29">
         <v>890</v>
       </c>
-      <c r="C96" s="216"/>
-      <c r="D96" s="218"/>
-      <c r="E96" s="224">
+      <c r="C96" s="202"/>
+      <c r="D96" s="204"/>
+      <c r="E96" s="210">
         <f t="shared" si="12"/>
         <v>79.72999999999999</v>
       </c>
@@ -16378,9 +16383,9 @@
       <c r="B97" s="29">
         <v>900</v>
       </c>
-      <c r="C97" s="216"/>
-      <c r="D97" s="218"/>
-      <c r="E97" s="224">
+      <c r="C97" s="202"/>
+      <c r="D97" s="204"/>
+      <c r="E97" s="210">
         <f t="shared" si="12"/>
         <v>81.300000000000011</v>
       </c>
@@ -16411,9 +16416,9 @@
       <c r="B98" s="29">
         <v>910</v>
       </c>
-      <c r="C98" s="216"/>
-      <c r="D98" s="218"/>
-      <c r="E98" s="224">
+      <c r="C98" s="202"/>
+      <c r="D98" s="204"/>
+      <c r="E98" s="210">
         <f t="shared" si="12"/>
         <v>82.87</v>
       </c>
@@ -16444,9 +16449,9 @@
       <c r="B99" s="29">
         <v>920</v>
       </c>
-      <c r="C99" s="216"/>
-      <c r="D99" s="218"/>
-      <c r="E99" s="224">
+      <c r="C99" s="202"/>
+      <c r="D99" s="204"/>
+      <c r="E99" s="210">
         <f t="shared" si="12"/>
         <v>84.44</v>
       </c>
@@ -16477,9 +16482,9 @@
       <c r="B100" s="29">
         <v>930</v>
       </c>
-      <c r="C100" s="216"/>
-      <c r="D100" s="218"/>
-      <c r="E100" s="224">
+      <c r="C100" s="202"/>
+      <c r="D100" s="204"/>
+      <c r="E100" s="210">
         <f t="shared" si="12"/>
         <v>86.009999999999991</v>
       </c>
@@ -16510,9 +16515,9 @@
       <c r="B101" s="29">
         <v>940</v>
       </c>
-      <c r="C101" s="216"/>
-      <c r="D101" s="218"/>
-      <c r="E101" s="224">
+      <c r="C101" s="202"/>
+      <c r="D101" s="204"/>
+      <c r="E101" s="210">
         <f t="shared" si="12"/>
         <v>87.580000000000013</v>
       </c>
@@ -16543,9 +16548,9 @@
       <c r="B102" s="29">
         <v>950</v>
       </c>
-      <c r="C102" s="216"/>
-      <c r="D102" s="218"/>
-      <c r="E102" s="224">
+      <c r="C102" s="202"/>
+      <c r="D102" s="204"/>
+      <c r="E102" s="210">
         <f t="shared" si="12"/>
         <v>89.15</v>
       </c>
@@ -16576,9 +16581,9 @@
       <c r="B103" s="29">
         <v>960</v>
       </c>
-      <c r="C103" s="216"/>
-      <c r="D103" s="218"/>
-      <c r="E103" s="224">
+      <c r="C103" s="202"/>
+      <c r="D103" s="204"/>
+      <c r="E103" s="210">
         <f t="shared" si="12"/>
         <v>90.72</v>
       </c>
@@ -16609,9 +16614,9 @@
       <c r="B104" s="29">
         <v>970</v>
       </c>
-      <c r="C104" s="216"/>
-      <c r="D104" s="218"/>
-      <c r="E104" s="224">
+      <c r="C104" s="202"/>
+      <c r="D104" s="204"/>
+      <c r="E104" s="210">
         <f t="shared" si="12"/>
         <v>92.289999999999992</v>
       </c>
@@ -16642,9 +16647,9 @@
       <c r="B105" s="29">
         <v>980</v>
       </c>
-      <c r="C105" s="216"/>
-      <c r="D105" s="218"/>
-      <c r="E105" s="224">
+      <c r="C105" s="202"/>
+      <c r="D105" s="204"/>
+      <c r="E105" s="210">
         <f t="shared" si="12"/>
         <v>93.860000000000014</v>
       </c>
@@ -16675,9 +16680,9 @@
       <c r="B106" s="29">
         <v>990</v>
       </c>
-      <c r="C106" s="216"/>
-      <c r="D106" s="218"/>
-      <c r="E106" s="224">
+      <c r="C106" s="202"/>
+      <c r="D106" s="204"/>
+      <c r="E106" s="210">
         <f t="shared" si="12"/>
         <v>95.43</v>
       </c>
@@ -16697,9 +16702,9 @@
       <c r="B107" s="29">
         <v>1000</v>
       </c>
-      <c r="C107" s="216"/>
-      <c r="D107" s="218"/>
-      <c r="E107" s="224">
+      <c r="C107" s="202"/>
+      <c r="D107" s="204"/>
+      <c r="E107" s="210">
         <f t="shared" si="12"/>
         <v>97</v>
       </c>
@@ -16719,9 +16724,9 @@
       <c r="B108" s="29">
         <v>1010</v>
       </c>
-      <c r="C108" s="216"/>
-      <c r="D108" s="218"/>
-      <c r="E108" s="224">
+      <c r="C108" s="202"/>
+      <c r="D108" s="204"/>
+      <c r="E108" s="210">
         <f t="shared" si="12"/>
         <v>98.57</v>
       </c>
@@ -16741,9 +16746,9 @@
       <c r="B109" s="29">
         <v>1020</v>
       </c>
-      <c r="C109" s="216"/>
-      <c r="D109" s="218"/>
-      <c r="E109" s="223">
+      <c r="C109" s="202"/>
+      <c r="D109" s="204"/>
+      <c r="E109" s="209">
         <f t="shared" si="12"/>
         <v>100.14000000000001</v>
       </c>
@@ -16763,7 +16768,7 @@
       <c r="B110" s="29">
         <v>1024</v>
       </c>
-      <c r="E110" s="223">
+      <c r="E110" s="209">
         <f t="shared" si="12"/>
         <v>100.768</v>
       </c>
@@ -17359,10 +17364,10 @@
       <c r="I1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="215" t="s">
+      <c r="K1" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="215"/>
+      <c r="L1" s="224"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="30">

--- a/Soft/Dimer.xlsx
+++ b/Soft/Dimer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.Datos\Electronica\Proyectos\Microchip\Git\Casandra\Soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF473B2-ACDF-4895-8A08-D2EA670BDBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F266221E-8B2C-48C6-911D-50D3A032183A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comandos" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="421">
   <si>
     <t>Valor</t>
   </si>
@@ -1267,9 +1267,6 @@
     <t>Estado de encendido de Sodios</t>
   </si>
   <si>
-    <t>Estado de encendido de Sirena</t>
-  </si>
-  <si>
     <t>LuzCamino</t>
   </si>
   <si>
@@ -1577,6 +1574,12 @@
   </si>
   <si>
     <t>Ventilador Ma&amp;Pa</t>
+  </si>
+  <si>
+    <t>0 a 5</t>
+  </si>
+  <si>
+    <t>X:0000 ; 1:1111 ; 2:1000 ; 3:1010 ; 4:1100 ; 5:0111</t>
   </si>
 </sst>
 </file>
@@ -6929,7 +6932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -7101,7 +7104,7 @@
         <v>130</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7125,7 +7128,7 @@
         <v>146</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7319,7 +7322,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="167" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F20" s="159"/>
       <c r="G20" s="12"/>
@@ -7898,7 +7901,7 @@
         <v>130</v>
       </c>
       <c r="K49" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7923,7 +7926,7 @@
         <v>146</v>
       </c>
       <c r="K50" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -8147,8 +8150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125AF8B-2E62-4DF1-9548-A1621FB537F6}">
   <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12112,10 +12115,10 @@
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29" t="s">
-        <v>275</v>
+        <v>419</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>316</v>
+        <v>420</v>
       </c>
       <c r="G147" s="29" t="s">
         <v>307</v>
@@ -12133,14 +12136,14 @@
         <v>245</v>
       </c>
       <c r="C148" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G148" s="29" t="s">
         <v>307</v>
@@ -12158,14 +12161,14 @@
         <v>245</v>
       </c>
       <c r="C149" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D149" s="29"/>
       <c r="E149" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G149" s="29" t="s">
         <v>307</v>
@@ -12183,14 +12186,14 @@
         <v>245</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D150" s="29"/>
       <c r="E150" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="F150" s="25" t="s">
         <v>322</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>323</v>
       </c>
       <c r="G150" s="29" t="s">
         <v>307</v>
@@ -12208,14 +12211,14 @@
         <v>245</v>
       </c>
       <c r="C151" s="188" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D151" s="188"/>
       <c r="E151" s="188" t="s">
         <v>275</v>
       </c>
       <c r="F151" s="190" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G151" s="188" t="s">
         <v>307</v>
@@ -12233,14 +12236,14 @@
         <v>264</v>
       </c>
       <c r="C152" s="180" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D152" s="180"/>
       <c r="E152" s="180" t="s">
+        <v>326</v>
+      </c>
+      <c r="F152" s="182" t="s">
         <v>327</v>
-      </c>
-      <c r="F152" s="182" t="s">
-        <v>328</v>
       </c>
       <c r="G152" s="180" t="s">
         <v>307</v>
@@ -12258,14 +12261,14 @@
         <v>264</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G153" s="29" t="s">
         <v>307</v>
@@ -12389,14 +12392,14 @@
         <v>264</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G158" s="29" t="s">
         <v>307</v>
@@ -12465,17 +12468,17 @@
         <v>53</v>
       </c>
       <c r="B161" s="180" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C161" s="180" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D161" s="180"/>
       <c r="E161" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F161" s="182" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G161" s="180" t="s">
         <v>307</v>
@@ -12490,17 +12493,17 @@
         <v>53</v>
       </c>
       <c r="B162" s="198" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C162" s="198" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D162" s="198"/>
       <c r="E162" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F162" s="199" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G162" s="198" t="s">
         <v>307</v>
@@ -12515,17 +12518,17 @@
         <v>53</v>
       </c>
       <c r="B163" s="198" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C163" s="198" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D163" s="198"/>
       <c r="E163" s="198" t="s">
         <v>275</v>
       </c>
       <c r="F163" s="199" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G163" s="198" t="s">
         <v>307</v>
@@ -12540,17 +12543,17 @@
         <v>53</v>
       </c>
       <c r="B164" s="198" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C164" s="198" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D164" s="185"/>
       <c r="E164" s="198" t="s">
         <v>275</v>
       </c>
       <c r="F164" s="199" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G164" s="198" t="s">
         <v>307</v>
@@ -12565,17 +12568,17 @@
         <v>53</v>
       </c>
       <c r="B165" s="198" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C165" s="198" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D165" s="185"/>
       <c r="E165" s="198" t="s">
         <v>275</v>
       </c>
       <c r="F165" s="199" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G165" s="198" t="s">
         <v>307</v>
@@ -12590,17 +12593,17 @@
         <v>53</v>
       </c>
       <c r="B166" s="188" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C166" s="188" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D166" s="189"/>
       <c r="E166" s="188" t="s">
         <v>275</v>
       </c>
       <c r="F166" s="190" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G166" s="188" t="s">
         <v>307</v>
@@ -12615,17 +12618,17 @@
         <v>53</v>
       </c>
       <c r="B167" s="180" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C167" s="180" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D167" s="180"/>
       <c r="E167" s="180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F167" s="182" t="s">
         <v>351</v>
-      </c>
-      <c r="F167" s="182" t="s">
-        <v>352</v>
       </c>
       <c r="G167" s="180" t="s">
         <v>307</v>
@@ -12640,7 +12643,7 @@
         <v>53</v>
       </c>
       <c r="B168" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C168" s="198" t="s">
         <v>273</v>
@@ -12665,7 +12668,7 @@
         <v>53</v>
       </c>
       <c r="B169" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C169" s="198" t="s">
         <v>301</v>
@@ -12690,7 +12693,7 @@
         <v>53</v>
       </c>
       <c r="B170" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C170" s="198" t="s">
         <v>304</v>
@@ -12715,7 +12718,7 @@
         <v>53</v>
       </c>
       <c r="B171" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C171" s="198" t="s">
         <v>308</v>
@@ -12740,17 +12743,17 @@
         <v>53</v>
       </c>
       <c r="B172" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C172" s="198" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D172" s="185"/>
       <c r="E172" s="198" t="s">
         <v>275</v>
       </c>
       <c r="F172" s="199" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G172" s="198" t="s">
         <v>307</v>
@@ -12765,19 +12768,19 @@
         <v>53</v>
       </c>
       <c r="B173" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C173" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D173" s="198" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E173" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F173" s="199" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G173" s="198" t="s">
         <v>307</v>
@@ -12792,19 +12795,19 @@
         <v>53</v>
       </c>
       <c r="B174" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C174" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D174" s="198" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E174" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F174" s="199" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G174" s="198" t="s">
         <v>307</v>
@@ -12819,19 +12822,19 @@
         <v>53</v>
       </c>
       <c r="B175" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C175" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D175" s="198" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E175" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F175" s="199" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G175" s="198" t="s">
         <v>307</v>
@@ -12846,19 +12849,19 @@
         <v>53</v>
       </c>
       <c r="B176" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C176" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D176" s="198" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E176" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F176" s="199" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G176" s="198" t="s">
         <v>307</v>
@@ -12873,19 +12876,19 @@
         <v>53</v>
       </c>
       <c r="B177" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C177" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D177" s="198" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E177" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F177" s="199" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G177" s="198" t="s">
         <v>307</v>
@@ -12900,19 +12903,19 @@
         <v>53</v>
       </c>
       <c r="B178" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C178" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D178" s="198" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E178" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F178" s="199" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G178" s="198" t="s">
         <v>307</v>
@@ -12927,19 +12930,19 @@
         <v>53</v>
       </c>
       <c r="B179" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C179" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D179" s="198" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E179" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F179" s="199" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G179" s="198" t="s">
         <v>307</v>
@@ -12954,19 +12957,19 @@
         <v>53</v>
       </c>
       <c r="B180" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C180" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D180" s="198" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E180" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F180" s="199" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G180" s="198" t="s">
         <v>307</v>
@@ -12981,19 +12984,19 @@
         <v>53</v>
       </c>
       <c r="B181" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C181" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D181" s="198" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E181" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F181" s="199" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G181" s="198" t="s">
         <v>307</v>
@@ -13008,19 +13011,19 @@
         <v>53</v>
       </c>
       <c r="B182" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C182" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D182" s="198" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E182" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F182" s="199" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G182" s="198" t="s">
         <v>307</v>
@@ -13035,19 +13038,19 @@
         <v>53</v>
       </c>
       <c r="B183" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C183" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D183" s="198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E183" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F183" s="199" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G183" s="198" t="s">
         <v>307</v>
@@ -13062,19 +13065,19 @@
         <v>53</v>
       </c>
       <c r="B184" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C184" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D184" s="198" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E184" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F184" s="199" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G184" s="198" t="s">
         <v>307</v>
@@ -13089,19 +13092,19 @@
         <v>53</v>
       </c>
       <c r="B185" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C185" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D185" s="198" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E185" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F185" s="199" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G185" s="198" t="s">
         <v>307</v>
@@ -13116,19 +13119,19 @@
         <v>53</v>
       </c>
       <c r="B186" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C186" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D186" s="198" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E186" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F186" s="199" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G186" s="198" t="s">
         <v>307</v>
@@ -13143,19 +13146,19 @@
         <v>53</v>
       </c>
       <c r="B187" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C187" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D187" s="198" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E187" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F187" s="199" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G187" s="198" t="s">
         <v>307</v>
@@ -13170,19 +13173,19 @@
         <v>53</v>
       </c>
       <c r="B188" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C188" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D188" s="198" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E188" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F188" s="199" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G188" s="198" t="s">
         <v>307</v>
@@ -13197,19 +13200,19 @@
         <v>53</v>
       </c>
       <c r="B189" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C189" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D189" s="198" t="s">
         <v>390</v>
       </c>
-      <c r="D189" s="198" t="s">
-        <v>391</v>
-      </c>
       <c r="E189" s="198" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F189" s="199" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G189" s="198" t="s">
         <v>307</v>
@@ -13224,19 +13227,19 @@
         <v>53</v>
       </c>
       <c r="B190" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C190" s="198" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D190" s="198" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E190" s="198" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F190" s="199" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G190" s="198" t="s">
         <v>307</v>
@@ -13251,19 +13254,19 @@
         <v>53</v>
       </c>
       <c r="B191" s="198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C191" s="198" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D191" s="198" t="s">
+        <v>394</v>
+      </c>
+      <c r="E191" s="198" t="s">
+        <v>399</v>
+      </c>
+      <c r="F191" s="199" t="s">
         <v>395</v>
-      </c>
-      <c r="E191" s="198" t="s">
-        <v>400</v>
-      </c>
-      <c r="F191" s="199" t="s">
-        <v>396</v>
       </c>
       <c r="G191" s="198" t="s">
         <v>307</v>
@@ -13278,19 +13281,19 @@
         <v>53</v>
       </c>
       <c r="B192" s="188" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C192" s="188" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D192" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="E192" s="188" t="s">
         <v>397</v>
       </c>
-      <c r="E192" s="188" t="s">
+      <c r="F192" s="190" t="s">
         <v>398</v>
-      </c>
-      <c r="F192" s="190" t="s">
-        <v>399</v>
       </c>
       <c r="G192" s="188" t="s">
         <v>307</v>
@@ -13322,40 +13325,40 @@
   <sheetData>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="K6" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="M6" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="K6" s="29" t="s">
+      <c r="T6" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="U6" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="V6" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="M6" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="T6" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="U6" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>335</v>
-      </c>
       <c r="Y6" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z6" s="29" t="s">
         <v>340</v>
-      </c>
-      <c r="Z6" s="29" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
@@ -13368,10 +13371,10 @@
       </c>
       <c r="D7" s="204"/>
       <c r="G7" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>336</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>337</v>
       </c>
       <c r="K7" s="29">
         <v>0</v>
@@ -13385,10 +13388,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q7" s="29" t="s">
         <v>336</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>337</v>
       </c>
       <c r="T7" s="29">
         <v>0</v>
@@ -13402,7 +13405,7 @@
         <v>23</v>
       </c>
       <c r="X7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y7">
         <v>200</v>
@@ -13455,7 +13458,7 @@
         <v>23.95</v>
       </c>
       <c r="X8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y8">
         <v>655</v>
@@ -13580,7 +13583,7 @@
         <v>25.85</v>
       </c>
       <c r="X10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y10">
         <f>(Z8-Z7)/(Y8-Y7)</f>
@@ -16795,130 +16798,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="200" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="201" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="200" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="201" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="200" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="201" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="200" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="201" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="200" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="201" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="200" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="201" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="200" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="201" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="200" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="201" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/Soft/Dimer.xlsx
+++ b/Soft/Dimer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.Datos\Electronica\Proyectos\Microchip\Git\Casandra\Soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F266221E-8B2C-48C6-911D-50D3A032183A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92D68E-2BE4-4873-91C0-953B13C2F320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comandos" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="426">
   <si>
     <t>Valor</t>
   </si>
@@ -1580,6 +1580,21 @@
   </si>
   <si>
     <t>X:0000 ; 1:1111 ; 2:1000 ; 3:1010 ; 4:1100 ; 5:0111</t>
+  </si>
+  <si>
+    <t>1 o 1</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Estado de reset del modulo</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -4999,7 +5014,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H192" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H197" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{37A22C23-BC30-49AA-B326-A1A665DE0E10}" name="N0" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{A945BC43-56EA-42D1-88E7-9CC1375157D6}" name="N1" dataDxfId="6"/>
@@ -8148,10 +8163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125AF8B-2E62-4DF1-9548-A1621FB537F6}">
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9509,7 +9524,7 @@
         <v>307</v>
       </c>
       <c r="H50" s="186" t="str">
-        <f t="shared" ref="H50:H55" si="1">CONCATENATE(A50,"/",B50,"/",C50,"/",D50,)</f>
+        <f t="shared" ref="H50:H54" si="1">CONCATENATE(A50,"/",B50,"/",C50,"/",D50,)</f>
         <v>Casandra/Cuartos/Temperatura/01</v>
       </c>
     </row>
@@ -9621,112 +9636,112 @@
         <v>Casandra/Cuartos/SensorMov/01</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="188" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="C55" s="188" t="s">
+      <c r="C55" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D55" s="189" t="s">
+      <c r="D55" s="185" t="s">
         <v>278</v>
       </c>
-      <c r="E55" s="188" t="s">
+      <c r="E55" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H55" s="186" t="str">
+        <f t="shared" ref="H55" si="2">CONCATENATE(A55,"/",B55,"/",C55,"/",D55,)</f>
+        <v>Casandra/Cuartos/SensorMov/02</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D56" s="185" t="s">
+        <v>423</v>
+      </c>
+      <c r="E56" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F55" s="190" t="s">
-        <v>311</v>
-      </c>
-      <c r="G55" s="188" t="s">
-        <v>307</v>
-      </c>
-      <c r="H55" s="191" t="str">
-        <f t="shared" si="1"/>
-        <v>Casandra/Cuartos/SensorMov/02</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="180" t="s">
+      <c r="F56" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H56" s="186" t="str">
+        <f t="shared" ref="H56" si="3">CONCATENATE(A56,"/",B56,"/",C56,"/",D56,)</f>
+        <v>Casandra/Cuartos/Modulo/1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="188" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="188" t="s">
+        <v>422</v>
+      </c>
+      <c r="D57" s="189" t="s">
+        <v>425</v>
+      </c>
+      <c r="E57" s="188" t="s">
+        <v>275</v>
+      </c>
+      <c r="F57" s="190" t="s">
+        <v>424</v>
+      </c>
+      <c r="G57" s="188" t="s">
+        <v>277</v>
+      </c>
+      <c r="H57" s="191" t="str">
+        <f>CONCATENATE(A57,"/",B57,"/",C57,,"/",D57)</f>
+        <v>Casandra/Cuartos/Modulo/2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="180" t="s">
         <v>251</v>
       </c>
-      <c r="C56" s="180" t="s">
+      <c r="C58" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="D56" s="181" t="s">
+      <c r="D58" s="181" t="s">
         <v>274</v>
       </c>
-      <c r="E56" s="180" t="s">
+      <c r="E58" s="180" t="s">
         <v>275</v>
       </c>
-      <c r="F56" s="182" t="s">
+      <c r="F58" s="182" t="s">
         <v>276</v>
       </c>
-      <c r="G56" s="180" t="s">
+      <c r="G58" s="180" t="s">
         <v>277</v>
       </c>
-      <c r="H56" s="183" t="str">
-        <f>CONCATENATE(A56,"/",B56,"/",C56,"/",D56)</f>
+      <c r="H58" s="183" t="str">
+        <f>CONCATENATE(A58,"/",B58,"/",C58,"/",D58)</f>
         <v>Casandra/Cocina/LuzEstado/01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D57" s="185" t="s">
-        <v>278</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="H57" s="186" t="str">
-        <f t="shared" ref="H57:H105" si="2">CONCATENATE(A57,"/",B57,"/",C57,"/",D57)</f>
-        <v>Casandra/Cocina/LuzEstado/02</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D58" s="185" t="s">
-        <v>279</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="H58" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/03</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -9740,7 +9755,7 @@
         <v>273</v>
       </c>
       <c r="D59" s="185" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>275</v>
@@ -9752,8 +9767,8 @@
         <v>277</v>
       </c>
       <c r="H59" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/04</v>
+        <f t="shared" ref="H59:H107" si="4">CONCATENATE(A59,"/",B59,"/",C59,"/",D59)</f>
+        <v>Casandra/Cocina/LuzEstado/02</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -9767,7 +9782,7 @@
         <v>273</v>
       </c>
       <c r="D60" s="185" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>275</v>
@@ -9779,8 +9794,8 @@
         <v>277</v>
       </c>
       <c r="H60" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/05</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/03</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -9794,7 +9809,7 @@
         <v>273</v>
       </c>
       <c r="D61" s="185" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>275</v>
@@ -9806,8 +9821,8 @@
         <v>277</v>
       </c>
       <c r="H61" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/06</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/04</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -9821,7 +9836,7 @@
         <v>273</v>
       </c>
       <c r="D62" s="185" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>275</v>
@@ -9833,8 +9848,8 @@
         <v>277</v>
       </c>
       <c r="H62" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/07</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/05</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -9848,7 +9863,7 @@
         <v>273</v>
       </c>
       <c r="D63" s="185" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>275</v>
@@ -9860,8 +9875,8 @@
         <v>277</v>
       </c>
       <c r="H63" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/08</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/06</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -9875,7 +9890,7 @@
         <v>273</v>
       </c>
       <c r="D64" s="185" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>275</v>
@@ -9887,8 +9902,8 @@
         <v>277</v>
       </c>
       <c r="H64" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/09</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/07</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -9902,7 +9917,7 @@
         <v>273</v>
       </c>
       <c r="D65" s="185" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E65" s="29" t="s">
         <v>275</v>
@@ -9914,8 +9929,8 @@
         <v>277</v>
       </c>
       <c r="H65" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/10</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/08</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -9929,7 +9944,7 @@
         <v>273</v>
       </c>
       <c r="D66" s="185" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>275</v>
@@ -9941,8 +9956,8 @@
         <v>277</v>
       </c>
       <c r="H66" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/11</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/09</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -9956,7 +9971,7 @@
         <v>273</v>
       </c>
       <c r="D67" s="185" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E67" s="29" t="s">
         <v>275</v>
@@ -9968,8 +9983,8 @@
         <v>277</v>
       </c>
       <c r="H67" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/12</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/10</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -9983,7 +9998,7 @@
         <v>273</v>
       </c>
       <c r="D68" s="185" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E68" s="29" t="s">
         <v>275</v>
@@ -9995,8 +10010,8 @@
         <v>277</v>
       </c>
       <c r="H68" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/13</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/11</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -10010,7 +10025,7 @@
         <v>273</v>
       </c>
       <c r="D69" s="185" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>275</v>
@@ -10022,8 +10037,8 @@
         <v>277</v>
       </c>
       <c r="H69" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/14</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/12</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -10037,7 +10052,7 @@
         <v>273</v>
       </c>
       <c r="D70" s="185" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>275</v>
@@ -10049,8 +10064,8 @@
         <v>277</v>
       </c>
       <c r="H70" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/15</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/13</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -10064,7 +10079,7 @@
         <v>273</v>
       </c>
       <c r="D71" s="185" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>275</v>
@@ -10076,8 +10091,8 @@
         <v>277</v>
       </c>
       <c r="H71" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/16</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/14</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -10091,7 +10106,7 @@
         <v>273</v>
       </c>
       <c r="D72" s="185" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>275</v>
@@ -10103,8 +10118,8 @@
         <v>277</v>
       </c>
       <c r="H72" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/17</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/15</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -10118,7 +10133,7 @@
         <v>273</v>
       </c>
       <c r="D73" s="185" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>275</v>
@@ -10130,8 +10145,8 @@
         <v>277</v>
       </c>
       <c r="H73" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/18</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/16</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -10145,7 +10160,7 @@
         <v>273</v>
       </c>
       <c r="D74" s="185" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>275</v>
@@ -10157,8 +10172,8 @@
         <v>277</v>
       </c>
       <c r="H74" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/19</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/17</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -10172,7 +10187,7 @@
         <v>273</v>
       </c>
       <c r="D75" s="185" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>275</v>
@@ -10184,8 +10199,8 @@
         <v>277</v>
       </c>
       <c r="H75" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/20</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/18</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -10199,7 +10214,7 @@
         <v>273</v>
       </c>
       <c r="D76" s="185" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E76" s="29" t="s">
         <v>275</v>
@@ -10211,8 +10226,8 @@
         <v>277</v>
       </c>
       <c r="H76" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/21</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/19</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -10226,7 +10241,7 @@
         <v>273</v>
       </c>
       <c r="D77" s="185" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E77" s="29" t="s">
         <v>275</v>
@@ -10238,8 +10253,8 @@
         <v>277</v>
       </c>
       <c r="H77" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/22</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/20</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -10253,7 +10268,7 @@
         <v>273</v>
       </c>
       <c r="D78" s="185" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E78" s="29" t="s">
         <v>275</v>
@@ -10265,8 +10280,8 @@
         <v>277</v>
       </c>
       <c r="H78" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/23</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/21</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -10280,7 +10295,7 @@
         <v>273</v>
       </c>
       <c r="D79" s="185" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E79" s="29" t="s">
         <v>275</v>
@@ -10292,8 +10307,8 @@
         <v>277</v>
       </c>
       <c r="H79" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/24</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/22</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -10307,7 +10322,7 @@
         <v>273</v>
       </c>
       <c r="D80" s="185" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>275</v>
@@ -10316,11 +10331,11 @@
         <v>276</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="H80" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/25</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/23</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -10334,7 +10349,7 @@
         <v>273</v>
       </c>
       <c r="D81" s="185" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>275</v>
@@ -10343,11 +10358,11 @@
         <v>276</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="H81" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzEstado/26</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/24</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -10358,23 +10373,23 @@
         <v>251</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D82" s="185" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="H82" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/01</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/25</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -10385,23 +10400,23 @@
         <v>251</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D83" s="185" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="H83" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/02</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzEstado/26</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -10415,7 +10430,7 @@
         <v>301</v>
       </c>
       <c r="D84" s="185" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>302</v>
@@ -10427,8 +10442,8 @@
         <v>277</v>
       </c>
       <c r="H84" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/03</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/01</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -10442,7 +10457,7 @@
         <v>301</v>
       </c>
       <c r="D85" s="185" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>302</v>
@@ -10454,8 +10469,8 @@
         <v>277</v>
       </c>
       <c r="H85" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/04</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/02</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -10469,7 +10484,7 @@
         <v>301</v>
       </c>
       <c r="D86" s="185" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>302</v>
@@ -10481,8 +10496,8 @@
         <v>277</v>
       </c>
       <c r="H86" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/05</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/03</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -10496,7 +10511,7 @@
         <v>301</v>
       </c>
       <c r="D87" s="185" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>302</v>
@@ -10508,8 +10523,8 @@
         <v>277</v>
       </c>
       <c r="H87" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/06</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/04</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -10523,7 +10538,7 @@
         <v>301</v>
       </c>
       <c r="D88" s="185" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E88" s="29" t="s">
         <v>302</v>
@@ -10535,8 +10550,8 @@
         <v>277</v>
       </c>
       <c r="H88" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/07</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/05</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -10550,7 +10565,7 @@
         <v>301</v>
       </c>
       <c r="D89" s="185" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E89" s="29" t="s">
         <v>302</v>
@@ -10562,8 +10577,8 @@
         <v>277</v>
       </c>
       <c r="H89" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/08</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/06</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -10577,7 +10592,7 @@
         <v>301</v>
       </c>
       <c r="D90" s="185" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E90" s="29" t="s">
         <v>302</v>
@@ -10589,8 +10604,8 @@
         <v>277</v>
       </c>
       <c r="H90" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/09</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/07</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -10604,7 +10619,7 @@
         <v>301</v>
       </c>
       <c r="D91" s="185" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E91" s="29" t="s">
         <v>302</v>
@@ -10616,8 +10631,8 @@
         <v>277</v>
       </c>
       <c r="H91" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/10</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/08</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -10631,7 +10646,7 @@
         <v>301</v>
       </c>
       <c r="D92" s="185" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E92" s="29" t="s">
         <v>302</v>
@@ -10643,8 +10658,8 @@
         <v>277</v>
       </c>
       <c r="H92" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/11</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/09</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -10658,7 +10673,7 @@
         <v>301</v>
       </c>
       <c r="D93" s="185" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E93" s="29" t="s">
         <v>302</v>
@@ -10670,8 +10685,8 @@
         <v>277</v>
       </c>
       <c r="H93" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/12</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/10</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -10685,7 +10700,7 @@
         <v>301</v>
       </c>
       <c r="D94" s="185" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E94" s="29" t="s">
         <v>302</v>
@@ -10697,8 +10712,8 @@
         <v>277</v>
       </c>
       <c r="H94" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/13</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/11</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -10712,7 +10727,7 @@
         <v>301</v>
       </c>
       <c r="D95" s="185" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E95" s="29" t="s">
         <v>302</v>
@@ -10724,8 +10739,8 @@
         <v>277</v>
       </c>
       <c r="H95" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/14</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/12</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -10739,7 +10754,7 @@
         <v>301</v>
       </c>
       <c r="D96" s="185" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E96" s="29" t="s">
         <v>302</v>
@@ -10751,8 +10766,8 @@
         <v>277</v>
       </c>
       <c r="H96" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/15</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/13</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -10766,7 +10781,7 @@
         <v>301</v>
       </c>
       <c r="D97" s="185" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E97" s="29" t="s">
         <v>302</v>
@@ -10778,8 +10793,8 @@
         <v>277</v>
       </c>
       <c r="H97" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/16</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/14</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -10793,7 +10808,7 @@
         <v>301</v>
       </c>
       <c r="D98" s="185" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E98" s="29" t="s">
         <v>302</v>
@@ -10805,8 +10820,8 @@
         <v>277</v>
       </c>
       <c r="H98" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/17</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/15</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -10820,7 +10835,7 @@
         <v>301</v>
       </c>
       <c r="D99" s="185" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E99" s="29" t="s">
         <v>302</v>
@@ -10832,8 +10847,8 @@
         <v>277</v>
       </c>
       <c r="H99" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/18</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/16</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -10847,7 +10862,7 @@
         <v>301</v>
       </c>
       <c r="D100" s="185" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E100" s="29" t="s">
         <v>302</v>
@@ -10859,8 +10874,8 @@
         <v>277</v>
       </c>
       <c r="H100" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/19</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/17</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -10874,7 +10889,7 @@
         <v>301</v>
       </c>
       <c r="D101" s="185" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E101" s="29" t="s">
         <v>302</v>
@@ -10886,8 +10901,8 @@
         <v>277</v>
       </c>
       <c r="H101" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/20</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/18</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -10901,7 +10916,7 @@
         <v>301</v>
       </c>
       <c r="D102" s="185" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E102" s="29" t="s">
         <v>302</v>
@@ -10913,8 +10928,8 @@
         <v>277</v>
       </c>
       <c r="H102" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/21</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/19</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -10928,7 +10943,7 @@
         <v>301</v>
       </c>
       <c r="D103" s="185" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E103" s="29" t="s">
         <v>302</v>
@@ -10940,8 +10955,8 @@
         <v>277</v>
       </c>
       <c r="H103" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/22</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/20</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -10955,7 +10970,7 @@
         <v>301</v>
       </c>
       <c r="D104" s="185" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E104" s="29" t="s">
         <v>302</v>
@@ -10967,8 +10982,8 @@
         <v>277</v>
       </c>
       <c r="H104" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/23</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/21</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -10982,7 +10997,7 @@
         <v>301</v>
       </c>
       <c r="D105" s="185" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E105" s="29" t="s">
         <v>302</v>
@@ -10994,8 +11009,8 @@
         <v>277</v>
       </c>
       <c r="H105" s="186" t="str">
-        <f t="shared" si="2"/>
-        <v>Casandra/Cocina/LuzIntensidad/24</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/22</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -11006,23 +11021,23 @@
         <v>251</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D106" s="185" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="H106" s="186" t="str">
-        <f t="shared" ref="H106:H115" si="3">CONCATENATE(A106,"/",B106,"/",C106,"/",D106,)</f>
-        <v>Casandra/Cocina/Temperatura/01</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/23</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -11033,23 +11048,23 @@
         <v>251</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D107" s="185" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="H107" s="186" t="str">
-        <f t="shared" si="3"/>
-        <v>Casandra/Cocina/Temperatura/02</v>
+        <f t="shared" si="4"/>
+        <v>Casandra/Cocina/LuzIntensidad/24</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -11060,7 +11075,7 @@
         <v>251</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D108" s="185" t="s">
         <v>274</v>
@@ -11069,14 +11084,14 @@
         <v>305</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G108" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H108" s="186" t="str">
-        <f t="shared" si="3"/>
-        <v>Casandra/Cocina/Humedad/01</v>
+        <f t="shared" ref="H108:H119" si="5">CONCATENATE(A108,"/",B108,"/",C108,"/",D108,)</f>
+        <v>Casandra/Cocina/Temperatura/01</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -11087,7 +11102,7 @@
         <v>251</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D109" s="185" t="s">
         <v>278</v>
@@ -11096,14 +11111,14 @@
         <v>305</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G109" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H109" s="186" t="str">
-        <f t="shared" si="3"/>
-        <v>Casandra/Cocina/Humedad/02</v>
+        <f t="shared" si="5"/>
+        <v>Casandra/Cocina/Temperatura/02</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -11114,23 +11129,23 @@
         <v>251</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D110" s="185" t="s">
         <v>274</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G110" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H110" s="186" t="str">
-        <f t="shared" si="3"/>
-        <v>Casandra/Cocina/SensorMov/01</v>
+        <f t="shared" si="5"/>
+        <v>Casandra/Cocina/Humedad/01</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -11141,23 +11156,23 @@
         <v>251</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="185" t="s">
         <v>278</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G111" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H111" s="186" t="str">
-        <f t="shared" si="3"/>
-        <v>Casandra/Cocina/SensorMov/02</v>
+        <f t="shared" si="5"/>
+        <v>Casandra/Cocina/Humedad/02</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -11171,7 +11186,7 @@
         <v>310</v>
       </c>
       <c r="D112" s="185" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E112" s="29" t="s">
         <v>275</v>
@@ -11183,8 +11198,8 @@
         <v>307</v>
       </c>
       <c r="H112" s="186" t="str">
-        <f t="shared" si="3"/>
-        <v>Casandra/Cocina/SensorMov/03</v>
+        <f t="shared" si="5"/>
+        <v>Casandra/Cocina/SensorMov/01</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -11198,7 +11213,7 @@
         <v>310</v>
       </c>
       <c r="D113" s="185" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E113" s="29" t="s">
         <v>275</v>
@@ -11210,8 +11225,8 @@
         <v>307</v>
       </c>
       <c r="H113" s="186" t="str">
-        <f t="shared" si="3"/>
-        <v>Casandra/Cocina/SensorMov/04</v>
+        <f t="shared" si="5"/>
+        <v>Casandra/Cocina/SensorMov/02</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -11225,7 +11240,7 @@
         <v>310</v>
       </c>
       <c r="D114" s="185" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E114" s="29" t="s">
         <v>275</v>
@@ -11237,62 +11252,62 @@
         <v>307</v>
       </c>
       <c r="H114" s="186" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>Casandra/Cocina/SensorMov/03</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="D115" s="185" t="s">
+        <v>280</v>
+      </c>
+      <c r="E115" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="G115" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H115" s="186" t="str">
+        <f t="shared" si="5"/>
+        <v>Casandra/Cocina/SensorMov/04</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="D116" s="185" t="s">
+        <v>281</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H116" s="186" t="str">
+        <f t="shared" si="5"/>
         <v>Casandra/Cocina/SensorMov/05</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="B115" s="188" t="s">
-        <v>251</v>
-      </c>
-      <c r="C115" s="188" t="s">
-        <v>310</v>
-      </c>
-      <c r="D115" s="189" t="s">
-        <v>282</v>
-      </c>
-      <c r="E115" s="188" t="s">
-        <v>275</v>
-      </c>
-      <c r="F115" s="190" t="s">
-        <v>311</v>
-      </c>
-      <c r="G115" s="188" t="s">
-        <v>307</v>
-      </c>
-      <c r="H115" s="191" t="str">
-        <f t="shared" si="3"/>
-        <v>Casandra/Cocina/SensorMov/06</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B116" s="180" t="s">
-        <v>250</v>
-      </c>
-      <c r="C116" s="180" t="s">
-        <v>273</v>
-      </c>
-      <c r="D116" s="181" t="s">
-        <v>274</v>
-      </c>
-      <c r="E116" s="180" t="s">
-        <v>275</v>
-      </c>
-      <c r="F116" s="182" t="s">
-        <v>276</v>
-      </c>
-      <c r="G116" s="180" t="s">
-        <v>277</v>
-      </c>
-      <c r="H116" s="183" t="str">
-        <f>CONCATENATE(A116,"/",B116,"/",C116,"/",D116)</f>
-        <v>Casandra/Galeria/LuzEstado/01</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -11300,26 +11315,26 @@
         <v>53</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="D117" s="185" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E117" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="G117" s="29" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="H117" s="186" t="str">
-        <f t="shared" ref="H117:H139" si="4">CONCATENATE(A117,"/",B117,"/",C117,"/",D117)</f>
-        <v>Casandra/Galeria/LuzEstado/02</v>
+        <f t="shared" ref="H117:H118" si="6">CONCATENATE(A117,"/",B117,"/",C117,"/",D117,)</f>
+        <v>Casandra/Cocina/SensorMov/06</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -11327,80 +11342,80 @@
         <v>53</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>273</v>
+        <v>422</v>
       </c>
       <c r="D118" s="185" t="s">
-        <v>279</v>
+        <v>423</v>
       </c>
       <c r="E118" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>276</v>
+        <v>424</v>
       </c>
       <c r="G118" s="29" t="s">
         <v>277</v>
       </c>
       <c r="H118" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzEstado/03</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B119" s="29" t="s">
+        <f t="shared" si="6"/>
+        <v>Casandra/Cocina/Modulo/1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" s="188" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" s="188" t="s">
+        <v>422</v>
+      </c>
+      <c r="D119" s="189" t="s">
+        <v>425</v>
+      </c>
+      <c r="E119" s="188" t="s">
+        <v>275</v>
+      </c>
+      <c r="F119" s="190" t="s">
+        <v>424</v>
+      </c>
+      <c r="G119" s="188" t="s">
+        <v>277</v>
+      </c>
+      <c r="H119" s="191" t="str">
+        <f t="shared" si="5"/>
+        <v>Casandra/Cocina/Modulo/2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" s="180" t="s">
         <v>250</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C120" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="D119" s="185" t="s">
-        <v>280</v>
-      </c>
-      <c r="E119" s="29" t="s">
+      <c r="D120" s="181" t="s">
+        <v>274</v>
+      </c>
+      <c r="E120" s="180" t="s">
         <v>275</v>
       </c>
-      <c r="F119" s="25" t="s">
+      <c r="F120" s="182" t="s">
         <v>276</v>
       </c>
-      <c r="G119" s="29" t="s">
+      <c r="G120" s="180" t="s">
         <v>277</v>
       </c>
-      <c r="H119" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzEstado/04</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D120" s="185" t="s">
-        <v>281</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G120" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="H120" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzEstado/05</v>
+      <c r="H120" s="183" t="str">
+        <f>CONCATENATE(A120,"/",B120,"/",C120,"/",D120)</f>
+        <v>Casandra/Galeria/LuzEstado/01</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -11414,7 +11429,7 @@
         <v>273</v>
       </c>
       <c r="D121" s="185" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E121" s="29" t="s">
         <v>275</v>
@@ -11426,8 +11441,8 @@
         <v>277</v>
       </c>
       <c r="H121" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzEstado/06</v>
+        <f t="shared" ref="H121:H143" si="7">CONCATENATE(A121,"/",B121,"/",C121,"/",D121)</f>
+        <v>Casandra/Galeria/LuzEstado/02</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -11441,7 +11456,7 @@
         <v>273</v>
       </c>
       <c r="D122" s="185" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E122" s="29" t="s">
         <v>275</v>
@@ -11453,8 +11468,8 @@
         <v>277</v>
       </c>
       <c r="H122" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzEstado/07</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzEstado/03</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -11468,7 +11483,7 @@
         <v>273</v>
       </c>
       <c r="D123" s="185" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E123" s="29" t="s">
         <v>275</v>
@@ -11480,8 +11495,8 @@
         <v>277</v>
       </c>
       <c r="H123" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzEstado/08</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzEstado/04</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -11495,7 +11510,7 @@
         <v>273</v>
       </c>
       <c r="D124" s="185" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E124" s="29" t="s">
         <v>275</v>
@@ -11507,8 +11522,8 @@
         <v>277</v>
       </c>
       <c r="H124" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzEstado/09</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzEstado/05</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -11522,7 +11537,7 @@
         <v>273</v>
       </c>
       <c r="D125" s="185" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E125" s="29" t="s">
         <v>275</v>
@@ -11534,8 +11549,8 @@
         <v>277</v>
       </c>
       <c r="H125" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzEstado/10</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzEstado/06</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -11549,7 +11564,7 @@
         <v>273</v>
       </c>
       <c r="D126" s="185" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E126" s="29" t="s">
         <v>275</v>
@@ -11561,8 +11576,8 @@
         <v>277</v>
       </c>
       <c r="H126" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzEstado/11</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzEstado/07</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -11576,7 +11591,7 @@
         <v>273</v>
       </c>
       <c r="D127" s="185" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E127" s="29" t="s">
         <v>275</v>
@@ -11588,8 +11603,8 @@
         <v>277</v>
       </c>
       <c r="H127" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzEstado/12</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzEstado/08</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -11600,23 +11615,23 @@
         <v>250</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D128" s="185" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="G128" s="29" t="s">
         <v>277</v>
       </c>
       <c r="H128" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/01</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzEstado/09</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -11627,23 +11642,23 @@
         <v>250</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D129" s="185" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="G129" s="29" t="s">
         <v>277</v>
       </c>
       <c r="H129" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/02</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzEstado/10</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -11654,23 +11669,23 @@
         <v>250</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D130" s="185" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F130" s="25" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="G130" s="29" t="s">
         <v>277</v>
       </c>
       <c r="H130" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/03</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzEstado/11</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -11681,23 +11696,23 @@
         <v>250</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D131" s="185" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="G131" s="29" t="s">
         <v>277</v>
       </c>
       <c r="H131" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/04</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzEstado/12</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -11711,7 +11726,7 @@
         <v>301</v>
       </c>
       <c r="D132" s="185" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E132" s="29" t="s">
         <v>302</v>
@@ -11723,8 +11738,8 @@
         <v>277</v>
       </c>
       <c r="H132" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/05</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/01</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -11738,7 +11753,7 @@
         <v>301</v>
       </c>
       <c r="D133" s="185" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E133" s="29" t="s">
         <v>302</v>
@@ -11750,8 +11765,8 @@
         <v>277</v>
       </c>
       <c r="H133" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/06</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/02</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -11765,7 +11780,7 @@
         <v>301</v>
       </c>
       <c r="D134" s="185" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E134" s="29" t="s">
         <v>302</v>
@@ -11777,8 +11792,8 @@
         <v>277</v>
       </c>
       <c r="H134" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/07</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/03</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -11792,7 +11807,7 @@
         <v>301</v>
       </c>
       <c r="D135" s="185" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E135" s="29" t="s">
         <v>302</v>
@@ -11804,8 +11819,8 @@
         <v>277</v>
       </c>
       <c r="H135" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/08</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/04</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -11819,7 +11834,7 @@
         <v>301</v>
       </c>
       <c r="D136" s="185" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E136" s="29" t="s">
         <v>302</v>
@@ -11831,8 +11846,8 @@
         <v>277</v>
       </c>
       <c r="H136" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/09</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/05</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -11846,7 +11861,7 @@
         <v>301</v>
       </c>
       <c r="D137" s="185" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E137" s="29" t="s">
         <v>302</v>
@@ -11858,8 +11873,8 @@
         <v>277</v>
       </c>
       <c r="H137" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/10</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/06</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -11873,7 +11888,7 @@
         <v>301</v>
       </c>
       <c r="D138" s="185" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E138" s="29" t="s">
         <v>302</v>
@@ -11885,8 +11900,8 @@
         <v>277</v>
       </c>
       <c r="H138" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/11</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/07</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -11900,7 +11915,7 @@
         <v>301</v>
       </c>
       <c r="D139" s="185" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E139" s="29" t="s">
         <v>302</v>
@@ -11912,8 +11927,8 @@
         <v>277</v>
       </c>
       <c r="H139" s="186" t="str">
-        <f t="shared" si="4"/>
-        <v>Casandra/Galeria/LuzIntensidad/12</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/08</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -11924,23 +11939,23 @@
         <v>250</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D140" s="185" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G140" s="29" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="H140" s="186" t="str">
-        <f t="shared" ref="H140:H145" si="5">CONCATENATE(A140,"/",B140,"/",C140,"/",D140,)</f>
-        <v>Casandra/Galeria/Temperatura/01</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/09</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -11951,23 +11966,23 @@
         <v>250</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D141" s="185" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G141" s="29" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="H141" s="186" t="str">
-        <f t="shared" si="5"/>
-        <v>Casandra/Galeria/Temperatura/02</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/10</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -11978,23 +11993,23 @@
         <v>250</v>
       </c>
       <c r="C142" s="29" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D142" s="185" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F142" s="25" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="H142" s="186" t="str">
-        <f t="shared" si="5"/>
-        <v>Casandra/Galeria/Humedad/01</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/11</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -12005,23 +12020,23 @@
         <v>250</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D143" s="185" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F143" s="25" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G143" s="29" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="H143" s="186" t="str">
-        <f t="shared" si="5"/>
-        <v>Casandra/Galeria/Humedad/02</v>
+        <f t="shared" si="7"/>
+        <v>Casandra/Galeria/LuzIntensidad/12</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -12032,26 +12047,26 @@
         <v>250</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D144" s="185" t="s">
         <v>274</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="F144" s="25" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G144" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H144" s="186" t="str">
-        <f t="shared" si="5"/>
-        <v>Casandra/Galeria/SensorMov/01</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H144:H150" si="8">CONCATENATE(A144,"/",B144,"/",C144,"/",D144,)</f>
+        <v>Casandra/Galeria/Temperatura/01</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="184" t="s">
         <v>53</v>
       </c>
@@ -12059,48 +12074,50 @@
         <v>250</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D145" s="185" t="s">
         <v>278</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="F145" s="25" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G145" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H145" s="186" t="str">
-        <f t="shared" si="5"/>
-        <v>Casandra/Galeria/SensorMov/02</v>
+        <f t="shared" si="8"/>
+        <v>Casandra/Galeria/Temperatura/02</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B146" s="180" t="s">
-        <v>245</v>
-      </c>
-      <c r="C146" s="180" t="s">
-        <v>314</v>
-      </c>
-      <c r="D146" s="181"/>
-      <c r="E146" s="180" t="s">
-        <v>275</v>
-      </c>
-      <c r="F146" s="182" t="s">
-        <v>315</v>
-      </c>
-      <c r="G146" s="180" t="s">
+      <c r="A146" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B146" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C146" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="D146" s="185" t="s">
+        <v>274</v>
+      </c>
+      <c r="E146" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="G146" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H146" s="183" t="str">
-        <f t="shared" ref="H146:H153" si="6">CONCATENATE(A146,"/",B146,"/",C146,)</f>
-        <v>Casandra/Hall/Sodios</v>
+      <c r="H146" s="186" t="str">
+        <f t="shared" si="8"/>
+        <v>Casandra/Galeria/Humedad/01</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -12108,24 +12125,26 @@
         <v>53</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C147" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D147" s="29"/>
+        <v>308</v>
+      </c>
+      <c r="D147" s="185" t="s">
+        <v>278</v>
+      </c>
       <c r="E147" s="29" t="s">
-        <v>419</v>
+        <v>305</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>420</v>
+        <v>309</v>
       </c>
       <c r="G147" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H147" s="186" t="str">
-        <f t="shared" si="6"/>
-        <v>Casandra/Hall/Sirena</v>
+        <f t="shared" si="8"/>
+        <v>Casandra/Galeria/Humedad/02</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -12133,24 +12152,26 @@
         <v>53</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C148" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="D148" s="29"/>
+        <v>310</v>
+      </c>
+      <c r="D148" s="185" t="s">
+        <v>274</v>
+      </c>
       <c r="E148" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G148" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H148" s="186" t="str">
-        <f t="shared" si="6"/>
-        <v>Casandra/Hall/LuzCamino</v>
+        <f t="shared" si="8"/>
+        <v>Casandra/Galeria/SensorMov/01</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -12158,99 +12179,103 @@
         <v>53</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C149" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="D149" s="29"/>
+        <v>310</v>
+      </c>
+      <c r="D149" s="185" t="s">
+        <v>278</v>
+      </c>
       <c r="E149" s="29" t="s">
-        <v>275</v>
+        <v>421</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G149" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H149" s="186" t="str">
-        <f t="shared" si="6"/>
-        <v>Casandra/Hall/LuzEntrada</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H149" si="9">CONCATENATE(A149,"/",B149,"/",C149,"/",D149,)</f>
+        <v>Casandra/Galeria/SensorMov/02</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="184" t="s">
         <v>53</v>
       </c>
       <c r="B150" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D150" s="185" t="s">
+        <v>423</v>
+      </c>
+      <c r="E150" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="G150" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H150" s="186" t="str">
+        <f t="shared" si="8"/>
+        <v>Casandra/Galeria/Modulo/1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B151" s="180" t="s">
         <v>245</v>
       </c>
-      <c r="C150" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="G150" s="29" t="s">
+      <c r="C151" s="180" t="s">
+        <v>314</v>
+      </c>
+      <c r="D151" s="181"/>
+      <c r="E151" s="180" t="s">
+        <v>275</v>
+      </c>
+      <c r="F151" s="182" t="s">
+        <v>315</v>
+      </c>
+      <c r="G151" s="180" t="s">
         <v>307</v>
       </c>
-      <c r="H150" s="186" t="str">
-        <f t="shared" si="6"/>
-        <v>Casandra/Hall/Porton</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="B151" s="188" t="s">
+      <c r="H151" s="183" t="str">
+        <f t="shared" ref="H151:H158" si="10">CONCATENATE(A151,"/",B151,"/",C151,)</f>
+        <v>Casandra/Hall/Sodios</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B152" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C151" s="188" t="s">
-        <v>323</v>
-      </c>
-      <c r="D151" s="188"/>
-      <c r="E151" s="188" t="s">
-        <v>275</v>
-      </c>
-      <c r="F151" s="190" t="s">
-        <v>324</v>
-      </c>
-      <c r="G151" s="188" t="s">
+      <c r="C152" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="G152" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H151" s="191" t="str">
-        <f t="shared" si="6"/>
-        <v>Casandra/Hall/Timbre</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B152" s="180" t="s">
-        <v>264</v>
-      </c>
-      <c r="C152" s="180" t="s">
-        <v>325</v>
-      </c>
-      <c r="D152" s="180"/>
-      <c r="E152" s="180" t="s">
-        <v>326</v>
-      </c>
-      <c r="F152" s="182" t="s">
-        <v>327</v>
-      </c>
-      <c r="G152" s="180" t="s">
-        <v>307</v>
-      </c>
-      <c r="H152" s="183" t="str">
-        <f t="shared" si="6"/>
-        <v>Casandra/Caldera/LuzSolar</v>
+      <c r="H152" s="186" t="str">
+        <f t="shared" si="10"/>
+        <v>Casandra/Hall/Sirena</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -12258,24 +12283,24 @@
         <v>53</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G153" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H153" s="186" t="str">
-        <f t="shared" si="6"/>
-        <v>Casandra/Caldera/Lluvia</v>
+        <f t="shared" si="10"/>
+        <v>Casandra/Hall/LuzCamino</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -12283,24 +12308,24 @@
         <v>53</v>
       </c>
       <c r="B154" s="29" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="G154" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H154" s="186" t="str">
-        <f>CONCATENATE(A154,"/",B154,"/",C154,)</f>
-        <v>Casandra/Caldera/Temperatura</v>
+        <f t="shared" si="10"/>
+        <v>Casandra/Hall/LuzEntrada</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -12308,80 +12333,74 @@
         <v>53</v>
       </c>
       <c r="B155" s="29" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D155" s="185" t="s">
-        <v>274</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="D155" s="29"/>
       <c r="E155" s="29" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="G155" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H155" s="186" t="str">
-        <f>CONCATENATE(A155,"/",B155,"/",C155,"/",D155,)</f>
-        <v>Casandra/Caldera/LuzEstado/01</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B156" s="29" t="s">
+        <f t="shared" si="10"/>
+        <v>Casandra/Hall/Porton</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B156" s="188" t="s">
+        <v>245</v>
+      </c>
+      <c r="C156" s="188" t="s">
+        <v>323</v>
+      </c>
+      <c r="D156" s="188"/>
+      <c r="E156" s="188" t="s">
+        <v>275</v>
+      </c>
+      <c r="F156" s="190" t="s">
+        <v>324</v>
+      </c>
+      <c r="G156" s="188" t="s">
+        <v>307</v>
+      </c>
+      <c r="H156" s="191" t="str">
+        <f t="shared" si="10"/>
+        <v>Casandra/Hall/Timbre</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B157" s="180" t="s">
         <v>264</v>
       </c>
-      <c r="C156" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D156" s="185" t="s">
-        <v>278</v>
-      </c>
-      <c r="E156" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F156" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G156" s="29" t="s">
+      <c r="C157" s="180" t="s">
+        <v>325</v>
+      </c>
+      <c r="D157" s="180"/>
+      <c r="E157" s="180" t="s">
+        <v>326</v>
+      </c>
+      <c r="F157" s="182" t="s">
+        <v>327</v>
+      </c>
+      <c r="G157" s="180" t="s">
         <v>307</v>
       </c>
-      <c r="H156" s="186" t="str">
-        <f>CONCATENATE(A156,"/",B156,"/",C156,"/",D156,)</f>
-        <v>Casandra/Caldera/LuzEstado/02</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B157" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="C157" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D157" s="185" t="s">
-        <v>279</v>
-      </c>
-      <c r="E157" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F157" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G157" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="H157" s="186" t="str">
-        <f>CONCATENATE(A157,"/",B157,"/",C157,"/",D157,)</f>
-        <v>Casandra/Caldera/LuzEstado/03</v>
+      <c r="H157" s="183" t="str">
+        <f t="shared" si="10"/>
+        <v>Casandra/Caldera/LuzSolar</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -12392,21 +12411,21 @@
         <v>264</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G158" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H158" s="186" t="str">
-        <f>CONCATENATE(A158,"/",B158,"/",C158,)</f>
-        <v>Casandra/Caldera/Termostato</v>
+        <f t="shared" si="10"/>
+        <v>Casandra/Caldera/Lluvia</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -12417,225 +12436,231 @@
         <v>264</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="D159" s="185" t="s">
-        <v>274</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D159" s="29"/>
       <c r="E159" s="29" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G159" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H159" s="186" t="str">
-        <f>CONCATENATE(A159,"/",B159,"/",C159,"/",D159,)</f>
-        <v>Casandra/Caldera/SensorMov/01</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="B160" s="188" t="s">
+        <f>CONCATENATE(A159,"/",B159,"/",C159,)</f>
+        <v>Casandra/Caldera/Temperatura</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B160" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="C160" s="188" t="s">
-        <v>310</v>
-      </c>
-      <c r="D160" s="189" t="s">
+      <c r="C160" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="D160" s="185" t="s">
+        <v>274</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G160" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H160" s="186" t="str">
+        <f>CONCATENATE(A160,"/",B160,"/",C160,"/",D160,)</f>
+        <v>Casandra/Caldera/LuzEstado/01</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="D161" s="185" t="s">
         <v>278</v>
       </c>
-      <c r="E160" s="188" t="s">
+      <c r="E161" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F160" s="190" t="s">
-        <v>311</v>
-      </c>
-      <c r="G160" s="188" t="s">
+      <c r="F161" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G161" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H160" s="191" t="str">
-        <f>CONCATENATE(A160,"/",B160,"/",C160,"/",D160,)</f>
-        <v>Casandra/Caldera/SensorMov/02</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B161" s="180" t="s">
-        <v>320</v>
-      </c>
-      <c r="C161" s="180" t="s">
-        <v>375</v>
-      </c>
-      <c r="D161" s="180"/>
-      <c r="E161" s="198" t="s">
-        <v>374</v>
-      </c>
-      <c r="F161" s="182" t="s">
-        <v>345</v>
-      </c>
-      <c r="G161" s="180" t="s">
-        <v>307</v>
-      </c>
-      <c r="H161" s="183" t="str">
-        <f t="shared" ref="H161:H165" si="7">CONCATENATE(A161,"/",B161,"/",C161,)</f>
-        <v>Casandra/Porton/BtnAbrir</v>
+      <c r="H161" s="186" t="str">
+        <f>CONCATENATE(A161,"/",B161,"/",C161,"/",D161,)</f>
+        <v>Casandra/Caldera/LuzEstado/02</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="B162" s="198" t="s">
-        <v>320</v>
-      </c>
-      <c r="C162" s="198" t="s">
-        <v>376</v>
-      </c>
-      <c r="D162" s="198"/>
-      <c r="E162" s="198" t="s">
-        <v>374</v>
-      </c>
-      <c r="F162" s="199" t="s">
-        <v>345</v>
-      </c>
-      <c r="G162" s="198" t="s">
+      <c r="B162" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="D162" s="185" t="s">
+        <v>279</v>
+      </c>
+      <c r="E162" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F162" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G162" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H162" s="186" t="str">
-        <f t="shared" si="7"/>
-        <v>Casandra/Porton/BtnCerrar</v>
+        <f>CONCATENATE(A162,"/",B162,"/",C162,"/",D162,)</f>
+        <v>Casandra/Caldera/LuzEstado/03</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="B163" s="198" t="s">
-        <v>320</v>
-      </c>
-      <c r="C163" s="198" t="s">
-        <v>316</v>
-      </c>
-      <c r="D163" s="198"/>
-      <c r="E163" s="198" t="s">
+      <c r="B163" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F163" s="199" t="s">
-        <v>344</v>
-      </c>
-      <c r="G163" s="198" t="s">
+      <c r="F163" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G163" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H163" s="186" t="str">
-        <f t="shared" si="7"/>
-        <v>Casandra/Porton/LuzCamino</v>
+        <f>CONCATENATE(A163,"/",B163,"/",C163,)</f>
+        <v>Casandra/Caldera/Termostato</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="B164" s="198" t="s">
+      <c r="B164" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="D164" s="185" t="s">
+        <v>274</v>
+      </c>
+      <c r="E164" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F164" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="G164" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H164" s="186" t="str">
+        <f>CONCATENATE(A164,"/",B164,"/",C164,"/",D164,)</f>
+        <v>Casandra/Caldera/SensorMov/01</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" s="188" t="s">
+        <v>264</v>
+      </c>
+      <c r="C165" s="188" t="s">
+        <v>310</v>
+      </c>
+      <c r="D165" s="189" t="s">
+        <v>278</v>
+      </c>
+      <c r="E165" s="188" t="s">
+        <v>275</v>
+      </c>
+      <c r="F165" s="190" t="s">
+        <v>311</v>
+      </c>
+      <c r="G165" s="188" t="s">
+        <v>307</v>
+      </c>
+      <c r="H165" s="191" t="str">
+        <f>CONCATENATE(A165,"/",B165,"/",C165,"/",D165,)</f>
+        <v>Casandra/Caldera/SensorMov/02</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B166" s="180" t="s">
         <v>320</v>
       </c>
-      <c r="C164" s="198" t="s">
-        <v>323</v>
-      </c>
-      <c r="D164" s="185"/>
-      <c r="E164" s="198" t="s">
-        <v>275</v>
-      </c>
-      <c r="F164" s="199" t="s">
-        <v>346</v>
-      </c>
-      <c r="G164" s="198" t="s">
+      <c r="C166" s="180" t="s">
+        <v>375</v>
+      </c>
+      <c r="D166" s="180"/>
+      <c r="E166" s="198" t="s">
+        <v>374</v>
+      </c>
+      <c r="F166" s="182" t="s">
+        <v>345</v>
+      </c>
+      <c r="G166" s="180" t="s">
         <v>307</v>
       </c>
-      <c r="H164" s="186" t="str">
-        <f t="shared" si="7"/>
-        <v>Casandra/Porton/Timbre</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B165" s="198" t="s">
+      <c r="H166" s="183" t="str">
+        <f t="shared" ref="H166:H170" si="11">CONCATENATE(A166,"/",B166,"/",C166,)</f>
+        <v>Casandra/Porton/BtnAbrir</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B167" s="198" t="s">
         <v>320</v>
       </c>
-      <c r="C165" s="198" t="s">
-        <v>342</v>
-      </c>
-      <c r="D165" s="185"/>
-      <c r="E165" s="198" t="s">
-        <v>275</v>
-      </c>
-      <c r="F165" s="199" t="s">
-        <v>347</v>
-      </c>
-      <c r="G165" s="198" t="s">
+      <c r="C167" s="198" t="s">
+        <v>376</v>
+      </c>
+      <c r="D167" s="198"/>
+      <c r="E167" s="198" t="s">
+        <v>374</v>
+      </c>
+      <c r="F167" s="199" t="s">
+        <v>345</v>
+      </c>
+      <c r="G167" s="198" t="s">
         <v>307</v>
       </c>
-      <c r="H165" s="186" t="str">
-        <f t="shared" si="7"/>
-        <v>Casandra/Porton/SensPuerta</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="B166" s="188" t="s">
-        <v>320</v>
-      </c>
-      <c r="C166" s="188" t="s">
-        <v>343</v>
-      </c>
-      <c r="D166" s="189"/>
-      <c r="E166" s="188" t="s">
-        <v>275</v>
-      </c>
-      <c r="F166" s="190" t="s">
-        <v>348</v>
-      </c>
-      <c r="G166" s="188" t="s">
-        <v>307</v>
-      </c>
-      <c r="H166" s="191" t="str">
-        <f>CONCATENATE(A166,"/",B166,"/",C166,)</f>
-        <v>Casandra/Porton/SensPorton</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B167" s="180" t="s">
-        <v>349</v>
-      </c>
-      <c r="C167" s="180" t="s">
-        <v>352</v>
-      </c>
-      <c r="D167" s="180"/>
-      <c r="E167" s="180" t="s">
-        <v>350</v>
-      </c>
-      <c r="F167" s="182" t="s">
-        <v>351</v>
-      </c>
-      <c r="G167" s="180" t="s">
-        <v>307</v>
-      </c>
-      <c r="H167" s="183" t="str">
-        <f t="shared" ref="H167:H171" si="8">CONCATENATE(A167,"/",B167,"/",C167,)</f>
-        <v>Casandra/Estar/LuzRGB</v>
+      <c r="H167" s="186" t="str">
+        <f t="shared" si="11"/>
+        <v>Casandra/Porton/BtnCerrar</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -12643,24 +12668,24 @@
         <v>53</v>
       </c>
       <c r="B168" s="198" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C168" s="198" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="D168" s="198"/>
       <c r="E168" s="198" t="s">
         <v>275</v>
       </c>
       <c r="F168" s="199" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="G168" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H168" s="186" t="str">
-        <f t="shared" si="8"/>
-        <v>Casandra/Estar/LuzEstado</v>
+        <f t="shared" si="11"/>
+        <v>Casandra/Porton/LuzCamino</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -12668,24 +12693,24 @@
         <v>53</v>
       </c>
       <c r="B169" s="198" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C169" s="198" t="s">
-        <v>301</v>
-      </c>
-      <c r="D169" s="198"/>
+        <v>323</v>
+      </c>
+      <c r="D169" s="185"/>
       <c r="E169" s="198" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F169" s="199" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="G169" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H169" s="186" t="str">
-        <f t="shared" si="8"/>
-        <v>Casandra/Estar/LuzIntensidad</v>
+        <f t="shared" si="11"/>
+        <v>Casandra/Porton/Timbre</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -12693,74 +12718,74 @@
         <v>53</v>
       </c>
       <c r="B170" s="198" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C170" s="198" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="D170" s="185"/>
       <c r="E170" s="198" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="F170" s="199" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="G170" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H170" s="186" t="str">
-        <f t="shared" si="8"/>
-        <v>Casandra/Estar/Temperatura</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B171" s="198" t="s">
+        <f t="shared" si="11"/>
+        <v>Casandra/Porton/SensPuerta</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B171" s="188" t="s">
+        <v>320</v>
+      </c>
+      <c r="C171" s="188" t="s">
+        <v>343</v>
+      </c>
+      <c r="D171" s="189"/>
+      <c r="E171" s="188" t="s">
+        <v>275</v>
+      </c>
+      <c r="F171" s="190" t="s">
+        <v>348</v>
+      </c>
+      <c r="G171" s="188" t="s">
+        <v>307</v>
+      </c>
+      <c r="H171" s="191" t="str">
+        <f>CONCATENATE(A171,"/",B171,"/",C171,)</f>
+        <v>Casandra/Porton/SensPorton</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B172" s="180" t="s">
         <v>349</v>
       </c>
-      <c r="C171" s="198" t="s">
-        <v>308</v>
-      </c>
-      <c r="D171" s="185"/>
-      <c r="E171" s="198" t="s">
-        <v>305</v>
-      </c>
-      <c r="F171" s="199" t="s">
-        <v>309</v>
-      </c>
-      <c r="G171" s="198" t="s">
+      <c r="C172" s="180" t="s">
+        <v>352</v>
+      </c>
+      <c r="D172" s="180"/>
+      <c r="E172" s="180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F172" s="182" t="s">
+        <v>351</v>
+      </c>
+      <c r="G172" s="180" t="s">
         <v>307</v>
       </c>
-      <c r="H171" s="186" t="str">
-        <f t="shared" si="8"/>
-        <v>Casandra/Estar/Humedad</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B172" s="198" t="s">
-        <v>349</v>
-      </c>
-      <c r="C172" s="198" t="s">
-        <v>330</v>
-      </c>
-      <c r="D172" s="185"/>
-      <c r="E172" s="198" t="s">
-        <v>275</v>
-      </c>
-      <c r="F172" s="199" t="s">
-        <v>331</v>
-      </c>
-      <c r="G172" s="198" t="s">
-        <v>307</v>
-      </c>
-      <c r="H172" s="186" t="str">
-        <f>CONCATENATE(A172,"/",B172,"/",C172,)</f>
-        <v>Casandra/Estar/Termostato</v>
+      <c r="H172" s="183" t="str">
+        <f t="shared" ref="H172:H176" si="12">CONCATENATE(A172,"/",B172,"/",C172,)</f>
+        <v>Casandra/Estar/LuzRGB</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -12771,23 +12796,21 @@
         <v>349</v>
       </c>
       <c r="C173" s="198" t="s">
-        <v>388</v>
-      </c>
-      <c r="D173" s="198" t="s">
-        <v>377</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="D173" s="198"/>
       <c r="E173" s="198" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="F173" s="199" t="s">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="G173" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H173" s="186" t="str">
-        <f>CONCATENATE(A173,"/",B173,"/",C173,"/",D173,)</f>
-        <v>Casandra/Estar/CRemoto/BtnOnTV</v>
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/LuzEstado</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -12798,23 +12821,21 @@
         <v>349</v>
       </c>
       <c r="C174" s="198" t="s">
-        <v>388</v>
-      </c>
-      <c r="D174" s="198" t="s">
-        <v>378</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D174" s="198"/>
       <c r="E174" s="198" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="F174" s="199" t="s">
-        <v>383</v>
+        <v>303</v>
       </c>
       <c r="G174" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H174" s="186" t="str">
-        <f t="shared" ref="H174:H188" si="9">CONCATENATE(A174,"/",B174,"/",C174,"/",D174,)</f>
-        <v>Casandra/Estar/CRemoto/BtnOnDeco</v>
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/LuzIntensidad</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -12825,23 +12846,21 @@
         <v>349</v>
       </c>
       <c r="C175" s="198" t="s">
-        <v>388</v>
-      </c>
-      <c r="D175" s="198" t="s">
-        <v>379</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D175" s="185"/>
       <c r="E175" s="198" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="F175" s="199" t="s">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="G175" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H175" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/BtnCanalUpDeco</v>
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/Temperatura</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -12852,23 +12871,21 @@
         <v>349</v>
       </c>
       <c r="C176" s="198" t="s">
-        <v>388</v>
-      </c>
-      <c r="D176" s="198" t="s">
-        <v>380</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D176" s="185"/>
       <c r="E176" s="198" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="F176" s="199" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="G176" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H176" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/BtnCanalDoDeco</v>
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/Humedad</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -12879,23 +12896,21 @@
         <v>349</v>
       </c>
       <c r="C177" s="198" t="s">
-        <v>388</v>
-      </c>
-      <c r="D177" s="198" t="s">
-        <v>382</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D177" s="185"/>
       <c r="E177" s="198" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="F177" s="199" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="G177" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H177" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/BtnVolUpDeco</v>
+        <f>CONCATENATE(A177,"/",B177,"/",C177,)</f>
+        <v>Casandra/Estar/Termostato</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -12909,20 +12924,20 @@
         <v>388</v>
       </c>
       <c r="D178" s="198" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E178" s="198" t="s">
         <v>374</v>
       </c>
       <c r="F178" s="199" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="G178" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H178" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/BtnVolDoDeco</v>
+        <f>CONCATENATE(A178,"/",B178,"/",C178,"/",D178,)</f>
+        <v>Casandra/Estar/CRemoto/BtnOnTV</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -12936,20 +12951,20 @@
         <v>388</v>
       </c>
       <c r="D179" s="198" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="E179" s="198" t="s">
         <v>374</v>
       </c>
       <c r="F179" s="199" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="G179" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H179" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn0</v>
+        <f t="shared" ref="H179:H193" si="13">CONCATENATE(A179,"/",B179,"/",C179,"/",D179,)</f>
+        <v>Casandra/Estar/CRemoto/BtnOnDeco</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -12963,20 +12978,20 @@
         <v>388</v>
       </c>
       <c r="D180" s="198" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="E180" s="198" t="s">
         <v>374</v>
       </c>
       <c r="F180" s="199" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="G180" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H180" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn1</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/BtnCanalUpDeco</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -12990,20 +13005,20 @@
         <v>388</v>
       </c>
       <c r="D181" s="198" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="E181" s="198" t="s">
         <v>374</v>
       </c>
       <c r="F181" s="199" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="G181" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H181" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn2</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/BtnCanalDoDeco</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -13017,20 +13032,20 @@
         <v>388</v>
       </c>
       <c r="D182" s="198" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="E182" s="198" t="s">
         <v>374</v>
       </c>
       <c r="F182" s="199" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="G182" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H182" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn3</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/BtnVolUpDeco</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -13044,20 +13059,20 @@
         <v>388</v>
       </c>
       <c r="D183" s="198" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="E183" s="198" t="s">
         <v>374</v>
       </c>
       <c r="F183" s="199" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="G183" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H183" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn4</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/BtnVolDoDeco</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -13071,20 +13086,20 @@
         <v>388</v>
       </c>
       <c r="D184" s="198" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E184" s="198" t="s">
         <v>374</v>
       </c>
       <c r="F184" s="199" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G184" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H184" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn5</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn0</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -13098,20 +13113,20 @@
         <v>388</v>
       </c>
       <c r="D185" s="198" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E185" s="198" t="s">
         <v>374</v>
       </c>
       <c r="F185" s="199" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G185" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H185" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn6</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn1</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -13125,20 +13140,20 @@
         <v>388</v>
       </c>
       <c r="D186" s="198" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E186" s="198" t="s">
         <v>374</v>
       </c>
       <c r="F186" s="199" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G186" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H186" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn7</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn2</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -13152,20 +13167,20 @@
         <v>388</v>
       </c>
       <c r="D187" s="198" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E187" s="198" t="s">
         <v>374</v>
       </c>
       <c r="F187" s="199" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G187" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H187" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn8</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn3</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -13179,20 +13194,20 @@
         <v>388</v>
       </c>
       <c r="D188" s="198" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E188" s="198" t="s">
         <v>374</v>
       </c>
       <c r="F188" s="199" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G188" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H188" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn9</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn4</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -13203,23 +13218,23 @@
         <v>349</v>
       </c>
       <c r="C189" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D189" s="198" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="E189" s="198" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="F189" s="199" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G189" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H189" s="186" t="str">
-        <f t="shared" ref="H189:H190" si="10">CONCATENATE(A189,"/",B189,"/",C189,"/",D189,)</f>
-        <v>Casandra/Estar/AA/Fan</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn5</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -13230,23 +13245,23 @@
         <v>349</v>
       </c>
       <c r="C190" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D190" s="198" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="E190" s="198" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="F190" s="199" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="G190" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H190" s="186" t="str">
-        <f t="shared" si="10"/>
-        <v>Casandra/Estar/AA/Modo</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn6</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -13257,49 +13272,184 @@
         <v>349</v>
       </c>
       <c r="C191" s="198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D191" s="198" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="E191" s="198" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="F191" s="199" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="G191" s="198" t="s">
         <v>307</v>
       </c>
       <c r="H191" s="186" t="str">
-        <f t="shared" ref="H191" si="11">CONCATENATE(A191,"/",B191,"/",C191,"/",D191,)</f>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B192" s="198" t="s">
+        <v>349</v>
+      </c>
+      <c r="C192" s="198" t="s">
+        <v>388</v>
+      </c>
+      <c r="D192" s="198" t="s">
+        <v>362</v>
+      </c>
+      <c r="E192" s="198" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" s="199" t="s">
+        <v>372</v>
+      </c>
+      <c r="G192" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H192" s="186" t="str">
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B193" s="198" t="s">
+        <v>349</v>
+      </c>
+      <c r="C193" s="198" t="s">
+        <v>388</v>
+      </c>
+      <c r="D193" s="198" t="s">
+        <v>363</v>
+      </c>
+      <c r="E193" s="198" t="s">
+        <v>374</v>
+      </c>
+      <c r="F193" s="199" t="s">
+        <v>373</v>
+      </c>
+      <c r="G193" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H193" s="186" t="str">
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B194" s="198" t="s">
+        <v>349</v>
+      </c>
+      <c r="C194" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D194" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="E194" s="198" t="s">
+        <v>399</v>
+      </c>
+      <c r="F194" s="199" t="s">
+        <v>392</v>
+      </c>
+      <c r="G194" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H194" s="186" t="str">
+        <f t="shared" ref="H194:H195" si="14">CONCATENATE(A194,"/",B194,"/",C194,"/",D194,)</f>
+        <v>Casandra/Estar/AA/Fan</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B195" s="198" t="s">
+        <v>349</v>
+      </c>
+      <c r="C195" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D195" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="E195" s="198" t="s">
+        <v>399</v>
+      </c>
+      <c r="F195" s="199" t="s">
+        <v>393</v>
+      </c>
+      <c r="G195" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H195" s="186" t="str">
+        <f t="shared" si="14"/>
+        <v>Casandra/Estar/AA/Modo</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B196" s="198" t="s">
+        <v>349</v>
+      </c>
+      <c r="C196" s="198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D196" s="198" t="s">
+        <v>394</v>
+      </c>
+      <c r="E196" s="198" t="s">
+        <v>399</v>
+      </c>
+      <c r="F196" s="199" t="s">
+        <v>395</v>
+      </c>
+      <c r="G196" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H196" s="186" t="str">
+        <f t="shared" ref="H196" si="15">CONCATENATE(A196,"/",B196,"/",C196,"/",D196,)</f>
         <v>Casandra/Estar/AA/Swing</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="B192" s="188" t="s">
+    <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B197" s="188" t="s">
         <v>349</v>
       </c>
-      <c r="C192" s="188" t="s">
+      <c r="C197" s="188" t="s">
         <v>389</v>
       </c>
-      <c r="D192" s="188" t="s">
+      <c r="D197" s="188" t="s">
         <v>396</v>
       </c>
-      <c r="E192" s="188" t="s">
+      <c r="E197" s="188" t="s">
         <v>397</v>
       </c>
-      <c r="F192" s="190" t="s">
+      <c r="F197" s="190" t="s">
         <v>398</v>
       </c>
-      <c r="G192" s="188" t="s">
+      <c r="G197" s="188" t="s">
         <v>307</v>
       </c>
-      <c r="H192" s="191" t="str">
-        <f t="shared" ref="H192" si="12">CONCATENATE(A192,"/",B192,"/",C192,"/",D192,)</f>
+      <c r="H197" s="191" t="str">
+        <f t="shared" ref="H197" si="16">CONCATENATE(A197,"/",B197,"/",C197,"/",D197,)</f>
         <v>Casandra/Estar/AA/TempObj</v>
       </c>
     </row>

--- a/Soft/Dimer.xlsx
+++ b/Soft/Dimer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.Datos\Electronica\Proyectos\Microchip\Git\Casandra\Soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92D68E-2BE4-4873-91C0-953B13C2F320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B805CC-3DC3-464C-AE0E-23DCD58637FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="432">
   <si>
     <t>Valor</t>
   </si>
@@ -1595,6 +1595,24 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Huerta</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Tiempo de prendido</t>
+  </si>
+  <si>
+    <t>Tiempo de apagado</t>
   </si>
 </sst>
 </file>
@@ -5014,7 +5032,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H197" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H199" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{37A22C23-BC30-49AA-B326-A1A665DE0E10}" name="N0" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{A945BC43-56EA-42D1-88E7-9CC1375157D6}" name="N1" dataDxfId="6"/>
@@ -8163,10 +8181,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125AF8B-2E62-4DF1-9548-A1621FB537F6}">
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13449,8 +13467,58 @@
         <v>307</v>
       </c>
       <c r="H197" s="191" t="str">
-        <f t="shared" ref="H197" si="16">CONCATENATE(A197,"/",B197,"/",C197,"/",D197,)</f>
+        <f t="shared" ref="H197:H198" si="16">CONCATENATE(A197,"/",B197,"/",C197,"/",D197,)</f>
         <v>Casandra/Estar/AA/TempObj</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B198" s="198" t="s">
+        <v>426</v>
+      </c>
+      <c r="C198" s="198" t="s">
+        <v>427</v>
+      </c>
+      <c r="D198" s="198"/>
+      <c r="E198" s="198" t="s">
+        <v>429</v>
+      </c>
+      <c r="F198" s="199" t="s">
+        <v>430</v>
+      </c>
+      <c r="G198" s="198" t="s">
+        <v>307</v>
+      </c>
+      <c r="H198" s="186" t="str">
+        <f>CONCATENATE(A198,"/",B198,"/",C198,)</f>
+        <v>Casandra/Huerta/On</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B199" s="188" t="s">
+        <v>426</v>
+      </c>
+      <c r="C199" s="188" t="s">
+        <v>428</v>
+      </c>
+      <c r="D199" s="188"/>
+      <c r="E199" s="188" t="s">
+        <v>429</v>
+      </c>
+      <c r="F199" s="190" t="s">
+        <v>431</v>
+      </c>
+      <c r="G199" s="188" t="s">
+        <v>307</v>
+      </c>
+      <c r="H199" s="191" t="str">
+        <f>CONCATENATE(A199,"/",B199,"/",C199,)</f>
+        <v>Casandra/Huerta/Off</v>
       </c>
     </row>
   </sheetData>

--- a/Soft/Dimer.xlsx
+++ b/Soft/Dimer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.Datos\Electronica\Proyectos\Microchip\Git\Casandra\Soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF377F-5164-42C6-8977-D7DD19968AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9262B3B4-C2AA-4688-8D1C-B63705C4B45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="480">
   <si>
     <t>Valor</t>
   </si>
@@ -1602,9 +1602,6 @@
     <t>Off</t>
   </si>
   <si>
-    <t>Long</t>
-  </si>
-  <si>
     <t>Tiempo de prendido</t>
   </si>
   <si>
@@ -1615,6 +1612,150 @@
   </si>
   <si>
     <t>on o off</t>
+  </si>
+  <si>
+    <t>DecoBtnOK</t>
+  </si>
+  <si>
+    <t>DecoBtnUp</t>
+  </si>
+  <si>
+    <t>DecoBtnDw</t>
+  </si>
+  <si>
+    <t>DecoBtnDe</t>
+  </si>
+  <si>
+    <t>DecoBtnIz</t>
+  </si>
+  <si>
+    <t>DecoBtnMute</t>
+  </si>
+  <si>
+    <t>DecoBtnGuide</t>
+  </si>
+  <si>
+    <t>DecoBtnExit</t>
+  </si>
+  <si>
+    <t>0x101F00F</t>
+  </si>
+  <si>
+    <t>0x101609F</t>
+  </si>
+  <si>
+    <t>0x101E01F</t>
+  </si>
+  <si>
+    <t>0x101E817</t>
+  </si>
+  <si>
+    <t>0x101708F</t>
+  </si>
+  <si>
+    <t>0x10158A7</t>
+  </si>
+  <si>
+    <t>0x1018877</t>
+  </si>
+  <si>
+    <t>0x101E41B</t>
+  </si>
+  <si>
+    <t>ModoLED</t>
+  </si>
+  <si>
+    <t>VelocidadLED</t>
+  </si>
+  <si>
+    <t>0 a 10</t>
+  </si>
+  <si>
+    <t>Modos de encendido del led</t>
+  </si>
+  <si>
+    <t>Velocidad del modo de encendido</t>
+  </si>
+  <si>
+    <t>BbaEstado</t>
+  </si>
+  <si>
+    <t>3 a 5000 seg</t>
+  </si>
+  <si>
+    <t>Boton OK deco Express</t>
+  </si>
+  <si>
+    <t>Boton Arriba deco Express</t>
+  </si>
+  <si>
+    <t>Boton Abajo deco Express</t>
+  </si>
+  <si>
+    <t>Boton Derecha deco Express</t>
+  </si>
+  <si>
+    <t>Boton Izquierda deco Express</t>
+  </si>
+  <si>
+    <t>Boton Mute deco Express</t>
+  </si>
+  <si>
+    <t>Boton Guide deco Express</t>
+  </si>
+  <si>
+    <t>Boton Exit deco Express</t>
+  </si>
+  <si>
+    <t>DecoBtnOk</t>
+  </si>
+  <si>
+    <t>CocinaBis</t>
+  </si>
+  <si>
+    <t>Estado de reset del Mosquito Cocina</t>
+  </si>
+  <si>
+    <t>Estado de reset del Mosquito Cuartos</t>
+  </si>
+  <si>
+    <t>Estado de reset del Mosquito Galeria</t>
+  </si>
+  <si>
+    <t>Estado de reset del Mosquito Hall</t>
+  </si>
+  <si>
+    <t>Estado de reset del Mosquito Caldera</t>
+  </si>
+  <si>
+    <t>Estado de reset del Mosquito Porton</t>
+  </si>
+  <si>
+    <t>Estado de reset del Mosquito Estar</t>
+  </si>
+  <si>
+    <t>Estado de reset del Mosquito Huerta</t>
+  </si>
+  <si>
+    <t>Estado de reset del Mosquito CocinaBis</t>
+  </si>
+  <si>
+    <t>LEDMesadaInt</t>
+  </si>
+  <si>
+    <t>SWPorton</t>
+  </si>
+  <si>
+    <t>LEDMesadaEst</t>
+  </si>
+  <si>
+    <t>Bomba</t>
+  </si>
+  <si>
+    <t>Sensor de encendido de la bomba</t>
+  </si>
+  <si>
+    <t>Comando de encendido de la bomba</t>
   </si>
 </sst>
 </file>
@@ -2701,7 +2842,7 @@
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3255,6 +3396,10 @@
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3297,6 +3442,12 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
@@ -3331,14 +3482,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5012,7 +5163,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H199" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H231" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{37A22C23-BC30-49AA-B326-A1A665DE0E10}" name="N0" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{A945BC43-56EA-42D1-88E7-9CC1375157D6}" name="N1" dataDxfId="6"/>
@@ -5370,22 +5521,22 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="205" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="F2" s="205" t="s">
+      <c r="D2" s="206"/>
+      <c r="F2" s="207" t="s">
         <v>179</v>
       </c>
-      <c r="G2" s="206"/>
-      <c r="J2" s="207" t="s">
+      <c r="G2" s="208"/>
+      <c r="J2" s="209" t="s">
         <v>154</v>
       </c>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="209"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="211"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="15" t="s">
@@ -5403,18 +5554,18 @@
       <c r="G3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="212" t="s">
+      <c r="J3" s="214" t="s">
         <v>175</v>
       </c>
-      <c r="K3" s="210" t="s">
+      <c r="K3" s="212" t="s">
         <v>176</v>
       </c>
-      <c r="L3" s="211"/>
-      <c r="M3" s="210" t="s">
+      <c r="L3" s="213"/>
+      <c r="M3" s="212" t="s">
         <v>177</v>
       </c>
-      <c r="N3" s="211"/>
-      <c r="O3" s="214" t="s">
+      <c r="N3" s="213"/>
+      <c r="O3" s="216" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5432,7 +5583,7 @@
         <v>0.1</v>
       </c>
       <c r="I4" s="45"/>
-      <c r="J4" s="213"/>
+      <c r="J4" s="215"/>
       <c r="K4" s="96" t="s">
         <v>0</v>
       </c>
@@ -5445,7 +5596,7 @@
       <c r="N4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="215"/>
+      <c r="O4" s="217"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -6946,7 +7097,7 @@
   <dimension ref="B1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6998,7 +7149,7 @@
       <c r="F3" s="154"/>
       <c r="G3" s="78"/>
       <c r="J3" s="30">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="K3" s="30" t="s">
         <v>249</v>
@@ -7335,7 +7486,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="162" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F20" s="154"/>
       <c r="G20" s="12"/>
@@ -8161,16 +8312,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125AF8B-2E62-4DF1-9548-A1621FB537F6}">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="H217" sqref="H217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -9657,7 +9809,7 @@
         <v>307</v>
       </c>
       <c r="H55" s="181" t="str">
-        <f t="shared" ref="H55:H57" si="2">CONCATENATE(A55,"/",B55,"/",C55,"/",D55,)</f>
+        <f t="shared" ref="H55:H58" si="2">CONCATENATE(A55,"/",B55,"/",C55,"/",D55,)</f>
         <v>Casandra/Cuartos/SensorMov/02</v>
       </c>
     </row>
@@ -9669,26 +9821,24 @@
         <v>249</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="D56" s="180" t="s">
-        <v>422</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D56" s="180"/>
       <c r="E56" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="H56" s="181" t="str">
-        <f t="shared" ref="H56" si="3">CONCATENATE(A56,"/",B56,"/",C56,"/",D56,)</f>
-        <v>Casandra/Cuartos/Modulo/1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>CONCATENATE(A56,"/",B56,"/",C56,)</f>
+        <v>Casandra/Cuartos/Mosquito</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="179" t="s">
         <v>53</v>
       </c>
@@ -9699,10 +9849,10 @@
         <v>421</v>
       </c>
       <c r="D57" s="180" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>423</v>
@@ -9711,62 +9861,62 @@
         <v>277</v>
       </c>
       <c r="H57" s="181" t="str">
+        <f t="shared" ref="H57" si="3">CONCATENATE(A57,"/",B57,"/",C57,"/",D57,)</f>
+        <v>Casandra/Cuartos/Modulo/1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="D58" s="180" t="s">
+        <v>424</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H58" s="181" t="str">
         <f t="shared" si="2"/>
         <v>Casandra/Cuartos/Modulo/2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="174" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="175" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="C58" s="175" t="s">
+      <c r="C59" s="175" t="s">
         <v>273</v>
       </c>
-      <c r="D58" s="176" t="s">
+      <c r="D59" s="176" t="s">
         <v>274</v>
       </c>
-      <c r="E58" s="175" t="s">
+      <c r="E59" s="175" t="s">
         <v>275</v>
       </c>
-      <c r="F58" s="177" t="s">
+      <c r="F59" s="177" t="s">
         <v>276</v>
       </c>
-      <c r="G58" s="175" t="s">
+      <c r="G59" s="175" t="s">
         <v>277</v>
       </c>
-      <c r="H58" s="178" t="str">
-        <f>CONCATENATE(A58,"/",B58,"/",C58,"/",D58)</f>
+      <c r="H59" s="178" t="str">
+        <f>CONCATENATE(A59,"/",B59,"/",C59,"/",D59)</f>
         <v>Casandra/Cocina/LuzEstado/01</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D59" s="180" t="s">
-        <v>278</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="H59" s="181" t="str">
-        <f t="shared" ref="H59:H107" si="4">CONCATENATE(A59,"/",B59,"/",C59,"/",D59)</f>
-        <v>Casandra/Cocina/LuzEstado/02</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -9780,7 +9930,7 @@
         <v>273</v>
       </c>
       <c r="D60" s="180" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>275</v>
@@ -9792,1306 +9942,1306 @@
         <v>277</v>
       </c>
       <c r="H60" s="181" t="str">
+        <f t="shared" ref="H60:H108" si="4">CONCATENATE(A60,"/",B60,"/",C60,"/",D60)</f>
+        <v>Casandra/Cocina/LuzEstado/02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" s="180" t="s">
+        <v>279</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H61" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/03</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="29" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C62" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D61" s="180" t="s">
+      <c r="D62" s="180" t="s">
         <v>280</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E62" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F62" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G62" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H61" s="181" t="str">
+      <c r="H62" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/04</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="29" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C63" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D62" s="180" t="s">
+      <c r="D63" s="180" t="s">
         <v>281</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E63" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F63" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="G63" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H62" s="181" t="str">
+      <c r="H63" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/05</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="29" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C64" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D63" s="180" t="s">
+      <c r="D64" s="180" t="s">
         <v>282</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E64" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F64" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G64" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H63" s="181" t="str">
+      <c r="H64" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/06</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" s="29" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C65" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D64" s="180" t="s">
+      <c r="D65" s="180" t="s">
         <v>283</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E65" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F65" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G65" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H64" s="181" t="str">
+      <c r="H65" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/07</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="29" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C66" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D65" s="180" t="s">
+      <c r="D66" s="180" t="s">
         <v>284</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E66" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F66" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G66" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H65" s="181" t="str">
+      <c r="H66" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/08</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="29" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C67" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D66" s="180" t="s">
+      <c r="D67" s="180" t="s">
         <v>285</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E67" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F67" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G67" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H66" s="181" t="str">
+      <c r="H67" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/09</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="29" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C68" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D67" s="180" t="s">
+      <c r="D68" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E68" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F68" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G67" s="29" t="s">
+      <c r="G68" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H67" s="181" t="str">
+      <c r="H68" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="29" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C69" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D68" s="180" t="s">
+      <c r="D69" s="180" t="s">
         <v>287</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E69" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F69" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G68" s="29" t="s">
+      <c r="G69" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H68" s="181" t="str">
+      <c r="H69" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="29" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C70" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D69" s="180" t="s">
+      <c r="D70" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E70" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F70" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G70" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H69" s="181" t="str">
+      <c r="H70" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/12</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="29" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C71" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D70" s="180" t="s">
+      <c r="D71" s="180" t="s">
         <v>289</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="E71" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F71" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G70" s="29" t="s">
+      <c r="G71" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H70" s="181" t="str">
+      <c r="H71" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="29" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C72" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D71" s="180" t="s">
+      <c r="D72" s="180" t="s">
         <v>290</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E72" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F72" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="G72" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H71" s="181" t="str">
+      <c r="H72" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/14</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" s="29" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C73" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="180" t="s">
+      <c r="D73" s="180" t="s">
         <v>291</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E73" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F73" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="G73" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H72" s="181" t="str">
+      <c r="H73" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="29" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C74" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D73" s="180" t="s">
+      <c r="D74" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E74" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F74" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G73" s="29" t="s">
+      <c r="G74" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H73" s="181" t="str">
+      <c r="H74" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/16</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="29" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C75" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D74" s="180" t="s">
+      <c r="D75" s="180" t="s">
         <v>293</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E75" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F75" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G74" s="29" t="s">
+      <c r="G75" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H74" s="181" t="str">
+      <c r="H75" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/17</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" s="29" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C76" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D75" s="180" t="s">
+      <c r="D76" s="180" t="s">
         <v>294</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E76" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F75" s="25" t="s">
+      <c r="F76" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G76" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H75" s="181" t="str">
+      <c r="H76" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/18</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" s="29" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C77" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D76" s="180" t="s">
+      <c r="D77" s="180" t="s">
         <v>295</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E77" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F77" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G76" s="29" t="s">
+      <c r="G77" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H76" s="181" t="str">
+      <c r="H77" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/19</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" s="29" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C78" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D77" s="180" t="s">
+      <c r="D78" s="180" t="s">
         <v>296</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="E78" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F78" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G77" s="29" t="s">
+      <c r="G78" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H77" s="181" t="str">
+      <c r="H78" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/20</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" s="29" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C79" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D78" s="180" t="s">
+      <c r="D79" s="180" t="s">
         <v>297</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E79" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F78" s="25" t="s">
+      <c r="F79" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G78" s="29" t="s">
+      <c r="G79" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H78" s="181" t="str">
+      <c r="H79" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/21</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" s="29" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C80" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D79" s="180" t="s">
+      <c r="D80" s="180" t="s">
         <v>298</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="E80" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F79" s="25" t="s">
+      <c r="F80" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G79" s="29" t="s">
+      <c r="G80" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H79" s="181" t="str">
+      <c r="H80" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/22</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" s="29" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C81" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D80" s="180" t="s">
+      <c r="D81" s="180" t="s">
         <v>299</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E81" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F80" s="25" t="s">
+      <c r="F81" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G81" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H80" s="181" t="str">
+      <c r="H81" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/23</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B81" s="29" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C82" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D81" s="180" t="s">
+      <c r="D82" s="180" t="s">
         <v>300</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E82" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F81" s="25" t="s">
+      <c r="F82" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G81" s="29" t="s">
+      <c r="G82" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H81" s="181" t="str">
+      <c r="H82" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/24</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B82" s="29" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C83" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D82" s="180" t="s">
+      <c r="D83" s="180" t="s">
         <v>312</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E83" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F83" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="29" t="s">
+      <c r="G83" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H82" s="181" t="str">
+      <c r="H83" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/25</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B83" s="29" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C84" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D83" s="180" t="s">
+      <c r="D84" s="180" t="s">
         <v>313</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E84" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F83" s="25" t="s">
+      <c r="F84" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="G84" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H83" s="181" t="str">
+      <c r="H84" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzEstado/26</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B84" s="29" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C85" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D84" s="180" t="s">
+      <c r="D85" s="180" t="s">
         <v>274</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E85" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F84" s="25" t="s">
+      <c r="F85" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="G85" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H84" s="181" t="str">
+      <c r="H85" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/01</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B85" s="29" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C86" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D85" s="180" t="s">
+      <c r="D86" s="180" t="s">
         <v>278</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E86" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F85" s="25" t="s">
+      <c r="F86" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G85" s="29" t="s">
+      <c r="G86" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H85" s="181" t="str">
+      <c r="H86" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/02</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B86" s="29" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C87" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D86" s="180" t="s">
+      <c r="D87" s="180" t="s">
         <v>279</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E87" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F86" s="25" t="s">
+      <c r="F87" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G86" s="29" t="s">
+      <c r="G87" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H86" s="181" t="str">
+      <c r="H87" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/03</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B87" s="29" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C88" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D87" s="180" t="s">
+      <c r="D88" s="180" t="s">
         <v>280</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E88" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F87" s="25" t="s">
+      <c r="F88" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G87" s="29" t="s">
+      <c r="G88" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H87" s="181" t="str">
+      <c r="H88" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/04</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" s="29" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C89" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D88" s="180" t="s">
+      <c r="D89" s="180" t="s">
         <v>281</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E89" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F89" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G89" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H88" s="181" t="str">
+      <c r="H89" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/05</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B89" s="29" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C90" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D89" s="180" t="s">
+      <c r="D90" s="180" t="s">
         <v>282</v>
       </c>
-      <c r="E89" s="29" t="s">
+      <c r="E90" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F89" s="25" t="s">
+      <c r="F90" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G90" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H89" s="181" t="str">
+      <c r="H90" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/06</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B90" s="29" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C91" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D90" s="180" t="s">
+      <c r="D91" s="180" t="s">
         <v>283</v>
       </c>
-      <c r="E90" s="29" t="s">
+      <c r="E91" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F91" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G91" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H90" s="181" t="str">
+      <c r="H91" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/07</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B91" s="29" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C92" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D91" s="180" t="s">
+      <c r="D92" s="180" t="s">
         <v>284</v>
       </c>
-      <c r="E91" s="29" t="s">
+      <c r="E92" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="F92" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G91" s="29" t="s">
+      <c r="G92" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H91" s="181" t="str">
+      <c r="H92" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/08</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B92" s="29" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C93" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D92" s="180" t="s">
+      <c r="D93" s="180" t="s">
         <v>285</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="E93" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F93" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G92" s="29" t="s">
+      <c r="G93" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H92" s="181" t="str">
+      <c r="H93" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/09</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B93" s="29" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C94" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D93" s="180" t="s">
+      <c r="D94" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="E93" s="29" t="s">
+      <c r="E94" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="F94" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G94" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H93" s="181" t="str">
+      <c r="H94" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/10</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B94" s="29" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C95" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D94" s="180" t="s">
+      <c r="D95" s="180" t="s">
         <v>287</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="E95" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F94" s="25" t="s">
+      <c r="F95" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G95" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H94" s="181" t="str">
+      <c r="H95" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B95" s="29" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C96" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D95" s="180" t="s">
+      <c r="D96" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="E95" s="29" t="s">
+      <c r="E96" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F95" s="25" t="s">
+      <c r="F96" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G95" s="29" t="s">
+      <c r="G96" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H95" s="181" t="str">
+      <c r="H96" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/12</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B96" s="29" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C97" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D96" s="180" t="s">
+      <c r="D97" s="180" t="s">
         <v>289</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="E97" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="F97" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G96" s="29" t="s">
+      <c r="G97" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H96" s="181" t="str">
+      <c r="H97" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/13</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B97" s="29" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C98" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D97" s="180" t="s">
+      <c r="D98" s="180" t="s">
         <v>290</v>
       </c>
-      <c r="E97" s="29" t="s">
+      <c r="E98" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F97" s="25" t="s">
+      <c r="F98" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G98" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H97" s="181" t="str">
+      <c r="H98" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/14</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98" s="29" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C99" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D98" s="180" t="s">
+      <c r="D99" s="180" t="s">
         <v>291</v>
       </c>
-      <c r="E98" s="29" t="s">
+      <c r="E99" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F98" s="25" t="s">
+      <c r="F99" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G98" s="29" t="s">
+      <c r="G99" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H98" s="181" t="str">
+      <c r="H99" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99" s="29" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C100" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D99" s="180" t="s">
+      <c r="D100" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E100" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F99" s="25" t="s">
+      <c r="F100" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G100" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H99" s="181" t="str">
+      <c r="H100" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/16</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B100" s="29" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C101" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D100" s="180" t="s">
+      <c r="D101" s="180" t="s">
         <v>293</v>
       </c>
-      <c r="E100" s="29" t="s">
+      <c r="E101" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F100" s="25" t="s">
+      <c r="F101" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G101" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H100" s="181" t="str">
+      <c r="H101" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/17</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" s="29" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C102" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="180" t="s">
+      <c r="D102" s="180" t="s">
         <v>294</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="E102" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="25" t="s">
+      <c r="F102" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G101" s="29" t="s">
+      <c r="G102" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H101" s="181" t="str">
+      <c r="H102" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/18</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B102" s="29" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C103" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D102" s="180" t="s">
+      <c r="D103" s="180" t="s">
         <v>295</v>
       </c>
-      <c r="E102" s="29" t="s">
+      <c r="E103" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F102" s="25" t="s">
+      <c r="F103" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G103" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H102" s="181" t="str">
+      <c r="H103" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/19</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B103" s="29" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C104" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D103" s="180" t="s">
+      <c r="D104" s="180" t="s">
         <v>296</v>
       </c>
-      <c r="E103" s="29" t="s">
+      <c r="E104" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="F104" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G103" s="29" t="s">
+      <c r="G104" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H103" s="181" t="str">
+      <c r="H104" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/20</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B104" s="29" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C105" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D104" s="180" t="s">
+      <c r="D105" s="180" t="s">
         <v>297</v>
       </c>
-      <c r="E104" s="29" t="s">
+      <c r="E105" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F104" s="25" t="s">
+      <c r="F105" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G104" s="29" t="s">
+      <c r="G105" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H104" s="181" t="str">
+      <c r="H105" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/21</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B105" s="29" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C106" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D105" s="180" t="s">
+      <c r="D106" s="180" t="s">
         <v>298</v>
       </c>
-      <c r="E105" s="29" t="s">
+      <c r="E106" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F105" s="25" t="s">
+      <c r="F106" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G105" s="29" t="s">
+      <c r="G106" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H105" s="181" t="str">
+      <c r="H106" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/22</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B106" s="29" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C107" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D106" s="180" t="s">
+      <c r="D107" s="180" t="s">
         <v>299</v>
       </c>
-      <c r="E106" s="29" t="s">
+      <c r="E107" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F106" s="25" t="s">
+      <c r="F107" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G107" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H106" s="181" t="str">
+      <c r="H107" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/23</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B107" s="29" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C108" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D107" s="180" t="s">
+      <c r="D108" s="180" t="s">
         <v>300</v>
       </c>
-      <c r="E107" s="29" t="s">
+      <c r="E108" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F107" s="25" t="s">
+      <c r="F108" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G107" s="29" t="s">
+      <c r="G108" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H107" s="181" t="str">
+      <c r="H108" s="181" t="str">
         <f t="shared" si="4"/>
         <v>Casandra/Cocina/LuzIntensidad/24</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="C108" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="D108" s="180" t="s">
-        <v>274</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F108" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="G108" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="H108" s="181" t="str">
-        <f t="shared" ref="H108:H119" si="5">CONCATENATE(A108,"/",B108,"/",C108,"/",D108,)</f>
-        <v>Casandra/Cocina/Temperatura/01</v>
-      </c>
-    </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="179" t="s">
         <v>53</v>
@@ -11103,7 +11253,7 @@
         <v>304</v>
       </c>
       <c r="D109" s="180" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E109" s="29" t="s">
         <v>305</v>
@@ -11115,1423 +11265,1419 @@
         <v>307</v>
       </c>
       <c r="H109" s="181" t="str">
+        <f t="shared" ref="H109:H121" si="5">CONCATENATE(A109,"/",B109,"/",C109,"/",D109,)</f>
+        <v>Casandra/Cocina/Temperatura/01</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D110" s="180" t="s">
+        <v>278</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G110" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H110" s="181" t="str">
         <f t="shared" si="5"/>
         <v>Casandra/Cocina/Temperatura/02</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B110" s="29" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C110" s="29" t="s">
+      <c r="C111" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="D110" s="180" t="s">
+      <c r="D111" s="180" t="s">
         <v>274</v>
       </c>
-      <c r="E110" s="29" t="s">
+      <c r="E111" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F110" s="25" t="s">
+      <c r="F111" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G110" s="29" t="s">
+      <c r="G111" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H110" s="181" t="str">
+      <c r="H111" s="181" t="str">
         <f t="shared" si="5"/>
         <v>Casandra/Cocina/Humedad/01</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B111" s="29" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C112" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="D111" s="180" t="s">
+      <c r="D112" s="180" t="s">
         <v>278</v>
       </c>
-      <c r="E111" s="29" t="s">
+      <c r="E112" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F111" s="25" t="s">
+      <c r="F112" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G111" s="29" t="s">
+      <c r="G112" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H111" s="181" t="str">
+      <c r="H112" s="181" t="str">
         <f t="shared" si="5"/>
         <v>Casandra/Cocina/Humedad/02</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B112" s="29" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C112" s="29" t="s">
+      <c r="C113" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D112" s="180" t="s">
+      <c r="D113" s="180" t="s">
         <v>274</v>
       </c>
-      <c r="E112" s="29" t="s">
+      <c r="E113" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F112" s="25" t="s">
+      <c r="F113" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="G112" s="29" t="s">
+      <c r="G113" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H112" s="181" t="str">
+      <c r="H113" s="181" t="str">
         <f t="shared" si="5"/>
         <v>Casandra/Cocina/SensorMov/01</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B113" s="29" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C113" s="29" t="s">
+      <c r="C114" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D113" s="180" t="s">
+      <c r="D114" s="180" t="s">
         <v>278</v>
       </c>
-      <c r="E113" s="29" t="s">
+      <c r="E114" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F113" s="25" t="s">
+      <c r="F114" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="G113" s="29" t="s">
+      <c r="G114" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H113" s="181" t="str">
+      <c r="H114" s="181" t="str">
         <f t="shared" si="5"/>
         <v>Casandra/Cocina/SensorMov/02</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B114" s="29" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C115" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D114" s="180" t="s">
+      <c r="D115" s="180" t="s">
         <v>279</v>
       </c>
-      <c r="E114" s="29" t="s">
+      <c r="E115" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F114" s="25" t="s">
+      <c r="F115" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="G114" s="29" t="s">
+      <c r="G115" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H114" s="181" t="str">
+      <c r="H115" s="181" t="str">
         <f t="shared" si="5"/>
         <v>Casandra/Cocina/SensorMov/03</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B115" s="29" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C115" s="29" t="s">
+      <c r="C116" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D115" s="180" t="s">
+      <c r="D116" s="180" t="s">
         <v>280</v>
       </c>
-      <c r="E115" s="29" t="s">
+      <c r="E116" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F115" s="25" t="s">
+      <c r="F116" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="G115" s="29" t="s">
+      <c r="G116" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H115" s="181" t="str">
+      <c r="H116" s="181" t="str">
         <f t="shared" si="5"/>
         <v>Casandra/Cocina/SensorMov/04</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B116" s="29" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C116" s="29" t="s">
+      <c r="C117" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D116" s="180" t="s">
+      <c r="D117" s="180" t="s">
         <v>281</v>
       </c>
-      <c r="E116" s="29" t="s">
+      <c r="E117" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F116" s="25" t="s">
+      <c r="F117" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="G116" s="29" t="s">
+      <c r="G117" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H116" s="181" t="str">
+      <c r="H117" s="181" t="str">
         <f t="shared" si="5"/>
         <v>Casandra/Cocina/SensorMov/05</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B117" s="29" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="C118" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D117" s="180" t="s">
+      <c r="D118" s="180" t="s">
         <v>282</v>
       </c>
-      <c r="E117" s="29" t="s">
+      <c r="E118" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F117" s="25" t="s">
+      <c r="F118" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="G117" s="29" t="s">
+      <c r="G118" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H117" s="181" t="str">
+      <c r="H118" s="181" t="str">
         <f t="shared" si="5"/>
         <v>Casandra/Cocina/SensorMov/06</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B118" s="29" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C118" s="29" t="s">
+      <c r="C119" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D119" s="180"/>
+      <c r="E119" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="G119" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H119" s="181" t="str">
+        <f>CONCATENATE(A119,"/",B119,"/",C119,)</f>
+        <v>Casandra/Cocina/Mosquito</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="D118" s="180" t="s">
+      <c r="D120" s="180" t="s">
         <v>422</v>
       </c>
-      <c r="E118" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F118" s="25" t="s">
+      <c r="E120" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F120" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="G118" s="29" t="s">
+      <c r="G120" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H118" s="181" t="str">
+      <c r="H120" s="181" t="str">
         <f t="shared" si="5"/>
         <v>Casandra/Cocina/Modulo/1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B119" s="29" t="s">
+    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A121" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C121" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="D119" s="180" t="s">
+      <c r="D121" s="180" t="s">
         <v>424</v>
       </c>
-      <c r="E119" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F119" s="25" t="s">
+      <c r="E121" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F121" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="G119" s="29" t="s">
+      <c r="G121" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H119" s="181" t="str">
+      <c r="H121" s="181" t="str">
         <f t="shared" si="5"/>
         <v>Casandra/Cocina/Modulo/2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="174" t="s">
-        <v>53</v>
-      </c>
-      <c r="B120" s="175" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B122" s="175" t="s">
         <v>250</v>
       </c>
-      <c r="C120" s="175" t="s">
+      <c r="C122" s="175" t="s">
         <v>273</v>
       </c>
-      <c r="D120" s="176" t="s">
+      <c r="D122" s="176" t="s">
         <v>274</v>
       </c>
-      <c r="E120" s="175" t="s">
+      <c r="E122" s="175" t="s">
         <v>275</v>
       </c>
-      <c r="F120" s="177" t="s">
+      <c r="F122" s="177" t="s">
         <v>276</v>
       </c>
-      <c r="G120" s="175" t="s">
+      <c r="G122" s="175" t="s">
         <v>277</v>
       </c>
-      <c r="H120" s="178" t="str">
-        <f>CONCATENATE(A120,"/",B120,"/",C120,"/",D120)</f>
+      <c r="H122" s="178" t="str">
+        <f>CONCATENATE(A122,"/",B122,"/",C122,"/",D122)</f>
         <v>Casandra/Galeria/LuzEstado/01</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B121" s="29" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C121" s="29" t="s">
+      <c r="C123" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D121" s="180" t="s">
+      <c r="D123" s="180" t="s">
         <v>278</v>
       </c>
-      <c r="E121" s="29" t="s">
+      <c r="E123" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F121" s="25" t="s">
+      <c r="F123" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G121" s="29" t="s">
+      <c r="G123" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H121" s="181" t="str">
-        <f t="shared" ref="H121:H143" si="6">CONCATENATE(A121,"/",B121,"/",C121,"/",D121)</f>
+      <c r="H123" s="181" t="str">
+        <f t="shared" ref="H123:H145" si="6">CONCATENATE(A123,"/",B123,"/",C123,"/",D123)</f>
         <v>Casandra/Galeria/LuzEstado/02</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B122" s="29" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B124" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C122" s="29" t="s">
+      <c r="C124" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D122" s="180" t="s">
+      <c r="D124" s="180" t="s">
         <v>279</v>
       </c>
-      <c r="E122" s="29" t="s">
+      <c r="E124" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F122" s="25" t="s">
+      <c r="F124" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G122" s="29" t="s">
+      <c r="G124" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H122" s="181" t="str">
+      <c r="H124" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzEstado/03</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B123" s="29" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C123" s="29" t="s">
+      <c r="C125" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D123" s="180" t="s">
+      <c r="D125" s="180" t="s">
         <v>280</v>
       </c>
-      <c r="E123" s="29" t="s">
+      <c r="E125" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F123" s="25" t="s">
+      <c r="F125" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G123" s="29" t="s">
+      <c r="G125" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H123" s="181" t="str">
+      <c r="H125" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzEstado/04</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B124" s="29" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C124" s="29" t="s">
+      <c r="C126" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D124" s="180" t="s">
+      <c r="D126" s="180" t="s">
         <v>281</v>
       </c>
-      <c r="E124" s="29" t="s">
+      <c r="E126" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F124" s="25" t="s">
+      <c r="F126" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G126" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H124" s="181" t="str">
+      <c r="H126" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzEstado/05</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B125" s="29" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B127" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C127" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D125" s="180" t="s">
+      <c r="D127" s="180" t="s">
         <v>282</v>
       </c>
-      <c r="E125" s="29" t="s">
+      <c r="E127" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F125" s="25" t="s">
+      <c r="F127" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G125" s="29" t="s">
+      <c r="G127" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H125" s="181" t="str">
+      <c r="H127" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzEstado/06</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B126" s="29" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B128" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C128" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D126" s="180" t="s">
+      <c r="D128" s="180" t="s">
         <v>283</v>
       </c>
-      <c r="E126" s="29" t="s">
+      <c r="E128" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F126" s="25" t="s">
+      <c r="F128" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G126" s="29" t="s">
+      <c r="G128" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H126" s="181" t="str">
+      <c r="H128" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzEstado/07</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B127" s="29" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C127" s="29" t="s">
+      <c r="C129" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D127" s="180" t="s">
+      <c r="D129" s="180" t="s">
         <v>284</v>
       </c>
-      <c r="E127" s="29" t="s">
+      <c r="E129" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F127" s="25" t="s">
+      <c r="F129" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G127" s="29" t="s">
+      <c r="G129" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H127" s="181" t="str">
+      <c r="H129" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzEstado/08</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B128" s="29" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B130" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C130" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D128" s="180" t="s">
+      <c r="D130" s="180" t="s">
         <v>285</v>
       </c>
-      <c r="E128" s="29" t="s">
+      <c r="E130" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F128" s="25" t="s">
+      <c r="F130" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G128" s="29" t="s">
+      <c r="G130" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H128" s="181" t="str">
+      <c r="H130" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzEstado/09</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B129" s="29" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C129" s="29" t="s">
+      <c r="C131" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D129" s="180" t="s">
+      <c r="D131" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="E129" s="29" t="s">
+      <c r="E131" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F129" s="25" t="s">
+      <c r="F131" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G129" s="29" t="s">
+      <c r="G131" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H129" s="181" t="str">
+      <c r="H131" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzEstado/10</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B130" s="29" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B132" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C130" s="29" t="s">
+      <c r="C132" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D130" s="180" t="s">
+      <c r="D132" s="180" t="s">
         <v>287</v>
       </c>
-      <c r="E130" s="29" t="s">
+      <c r="E132" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F130" s="25" t="s">
+      <c r="F132" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G130" s="29" t="s">
+      <c r="G132" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H130" s="181" t="str">
+      <c r="H132" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzEstado/11</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B131" s="29" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B133" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C133" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D131" s="180" t="s">
+      <c r="D133" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="E131" s="29" t="s">
+      <c r="E133" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F131" s="25" t="s">
+      <c r="F133" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G131" s="29" t="s">
+      <c r="G133" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H131" s="181" t="str">
+      <c r="H133" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzEstado/12</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B132" s="29" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B134" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C132" s="29" t="s">
+      <c r="C134" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D132" s="180" t="s">
+      <c r="D134" s="180" t="s">
         <v>274</v>
       </c>
-      <c r="E132" s="29" t="s">
+      <c r="E134" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F132" s="25" t="s">
+      <c r="F134" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G132" s="29" t="s">
+      <c r="G134" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H132" s="181" t="str">
+      <c r="H134" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/01</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B133" s="29" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B135" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C133" s="29" t="s">
+      <c r="C135" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D133" s="180" t="s">
+      <c r="D135" s="180" t="s">
         <v>278</v>
       </c>
-      <c r="E133" s="29" t="s">
+      <c r="E135" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F133" s="25" t="s">
+      <c r="F135" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G133" s="29" t="s">
+      <c r="G135" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H133" s="181" t="str">
+      <c r="H135" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/02</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B134" s="29" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C134" s="29" t="s">
+      <c r="C136" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D134" s="180" t="s">
+      <c r="D136" s="180" t="s">
         <v>279</v>
       </c>
-      <c r="E134" s="29" t="s">
+      <c r="E136" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F134" s="25" t="s">
+      <c r="F136" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G134" s="29" t="s">
+      <c r="G136" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H134" s="181" t="str">
+      <c r="H136" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/03</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B135" s="29" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C135" s="29" t="s">
+      <c r="C137" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D135" s="180" t="s">
+      <c r="D137" s="180" t="s">
         <v>280</v>
       </c>
-      <c r="E135" s="29" t="s">
+      <c r="E137" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F135" s="25" t="s">
+      <c r="F137" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G135" s="29" t="s">
+      <c r="G137" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H135" s="181" t="str">
+      <c r="H137" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/04</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B136" s="29" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C136" s="29" t="s">
+      <c r="C138" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D136" s="180" t="s">
+      <c r="D138" s="180" t="s">
         <v>281</v>
       </c>
-      <c r="E136" s="29" t="s">
+      <c r="E138" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F136" s="25" t="s">
+      <c r="F138" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G136" s="29" t="s">
+      <c r="G138" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H136" s="181" t="str">
+      <c r="H138" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/05</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B137" s="29" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C137" s="29" t="s">
+      <c r="C139" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D137" s="180" t="s">
+      <c r="D139" s="180" t="s">
         <v>282</v>
       </c>
-      <c r="E137" s="29" t="s">
+      <c r="E139" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F137" s="25" t="s">
+      <c r="F139" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G137" s="29" t="s">
+      <c r="G139" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H137" s="181" t="str">
+      <c r="H139" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/06</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B138" s="29" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C138" s="29" t="s">
+      <c r="C140" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D138" s="180" t="s">
+      <c r="D140" s="180" t="s">
         <v>283</v>
       </c>
-      <c r="E138" s="29" t="s">
+      <c r="E140" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F138" s="25" t="s">
+      <c r="F140" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G138" s="29" t="s">
+      <c r="G140" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H138" s="181" t="str">
+      <c r="H140" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/07</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B139" s="29" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C139" s="29" t="s">
+      <c r="C141" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D139" s="180" t="s">
+      <c r="D141" s="180" t="s">
         <v>284</v>
       </c>
-      <c r="E139" s="29" t="s">
+      <c r="E141" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F139" s="25" t="s">
+      <c r="F141" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G139" s="29" t="s">
+      <c r="G141" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H139" s="181" t="str">
+      <c r="H141" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/08</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B140" s="29" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C140" s="29" t="s">
+      <c r="C142" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D140" s="180" t="s">
+      <c r="D142" s="180" t="s">
         <v>285</v>
       </c>
-      <c r="E140" s="29" t="s">
+      <c r="E142" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F140" s="25" t="s">
+      <c r="F142" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G140" s="29" t="s">
+      <c r="G142" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H140" s="181" t="str">
+      <c r="H142" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/09</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B141" s="29" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C141" s="29" t="s">
+      <c r="C143" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D141" s="180" t="s">
+      <c r="D143" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="E141" s="29" t="s">
+      <c r="E143" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F141" s="25" t="s">
+      <c r="F143" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G141" s="29" t="s">
+      <c r="G143" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H141" s="181" t="str">
+      <c r="H143" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/10</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B142" s="29" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C142" s="29" t="s">
+      <c r="C144" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D142" s="180" t="s">
+      <c r="D144" s="180" t="s">
         <v>287</v>
       </c>
-      <c r="E142" s="29" t="s">
+      <c r="E144" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F142" s="25" t="s">
+      <c r="F144" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G142" s="29" t="s">
+      <c r="G144" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H142" s="181" t="str">
+      <c r="H144" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/11</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B143" s="29" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C143" s="29" t="s">
+      <c r="C145" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D143" s="180" t="s">
+      <c r="D145" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="E143" s="29" t="s">
+      <c r="E145" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F143" s="25" t="s">
+      <c r="F145" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G143" s="29" t="s">
+      <c r="G145" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H143" s="181" t="str">
+      <c r="H145" s="181" t="str">
         <f t="shared" si="6"/>
         <v>Casandra/Galeria/LuzIntensidad/12</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B144" s="29" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B146" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C144" s="29" t="s">
+      <c r="C146" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="D144" s="180" t="s">
+      <c r="D146" s="180" t="s">
         <v>274</v>
       </c>
-      <c r="E144" s="29" t="s">
+      <c r="E146" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F144" s="25" t="s">
+      <c r="F146" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="G144" s="29" t="s">
+      <c r="G146" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H144" s="181" t="str">
-        <f t="shared" ref="H144:H150" si="7">CONCATENATE(A144,"/",B144,"/",C144,"/",D144,)</f>
+      <c r="H146" s="181" t="str">
+        <f t="shared" ref="H146:H153" si="7">CONCATENATE(A146,"/",B146,"/",C146,"/",D146,)</f>
         <v>Casandra/Galeria/Temperatura/01</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B145" s="29" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C145" s="29" t="s">
+      <c r="C147" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="D145" s="180" t="s">
+      <c r="D147" s="180" t="s">
         <v>278</v>
       </c>
-      <c r="E145" s="29" t="s">
+      <c r="E147" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F145" s="25" t="s">
+      <c r="F147" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="G145" s="29" t="s">
+      <c r="G147" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H145" s="181" t="str">
+      <c r="H147" s="181" t="str">
         <f t="shared" si="7"/>
         <v>Casandra/Galeria/Temperatura/02</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B146" s="29" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B148" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C146" s="29" t="s">
+      <c r="C148" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="D146" s="180" t="s">
+      <c r="D148" s="180" t="s">
         <v>274</v>
       </c>
-      <c r="E146" s="29" t="s">
+      <c r="E148" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F146" s="25" t="s">
+      <c r="F148" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G146" s="29" t="s">
+      <c r="G148" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H146" s="181" t="str">
+      <c r="H148" s="181" t="str">
         <f t="shared" si="7"/>
         <v>Casandra/Galeria/Humedad/01</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B147" s="29" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C147" s="29" t="s">
+      <c r="C149" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="D147" s="180" t="s">
+      <c r="D149" s="180" t="s">
         <v>278</v>
       </c>
-      <c r="E147" s="29" t="s">
+      <c r="E149" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F147" s="25" t="s">
+      <c r="F149" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G147" s="29" t="s">
+      <c r="G149" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H147" s="181" t="str">
+      <c r="H149" s="181" t="str">
         <f t="shared" si="7"/>
         <v>Casandra/Galeria/Humedad/02</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B148" s="29" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B150" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C148" s="29" t="s">
+      <c r="C150" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D148" s="180" t="s">
+      <c r="D150" s="180" t="s">
         <v>274</v>
       </c>
-      <c r="E148" s="29" t="s">
+      <c r="E150" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F148" s="25" t="s">
+      <c r="F150" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="G148" s="29" t="s">
+      <c r="G150" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H148" s="181" t="str">
+      <c r="H150" s="181" t="str">
         <f t="shared" si="7"/>
         <v>Casandra/Galeria/SensorMov/01</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B149" s="29" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B151" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C149" s="29" t="s">
+      <c r="C151" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D149" s="180" t="s">
+      <c r="D151" s="180" t="s">
         <v>278</v>
       </c>
-      <c r="E149" s="29" t="s">
+      <c r="E151" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="F149" s="25" t="s">
+      <c r="F151" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="G149" s="29" t="s">
+      <c r="G151" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H149" s="181" t="str">
+      <c r="H151" s="181" t="str">
         <f t="shared" si="7"/>
         <v>Casandra/Galeria/SensorMov/02</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B150" s="29" t="s">
+    <row r="152" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B152" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C150" s="29" t="s">
+      <c r="C152" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D152" s="180"/>
+      <c r="E152" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="G152" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H152" s="181" t="str">
+        <f>CONCATENATE(A152,"/",B152,"/",C152,)</f>
+        <v>Casandra/Galeria/Mosquito</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A153" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B153" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C153" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="D150" s="180" t="s">
+      <c r="D153" s="180" t="s">
         <v>422</v>
       </c>
-      <c r="E150" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F150" s="25" t="s">
+      <c r="E153" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F153" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="G150" s="29" t="s">
+      <c r="G153" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H150" s="181" t="str">
+      <c r="H153" s="181" t="str">
         <f t="shared" si="7"/>
         <v>Casandra/Galeria/Modulo/1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="174" t="s">
-        <v>53</v>
-      </c>
-      <c r="B151" s="175" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B154" s="175" t="s">
         <v>245</v>
       </c>
-      <c r="C151" s="175" t="s">
+      <c r="C154" s="175" t="s">
         <v>314</v>
       </c>
-      <c r="D151" s="176"/>
-      <c r="E151" s="175" t="s">
+      <c r="D154" s="176"/>
+      <c r="E154" s="175" t="s">
         <v>275</v>
       </c>
-      <c r="F151" s="177" t="s">
+      <c r="F154" s="177" t="s">
         <v>315</v>
       </c>
-      <c r="G151" s="175" t="s">
+      <c r="G154" s="175" t="s">
         <v>307</v>
       </c>
-      <c r="H151" s="178" t="str">
-        <f t="shared" ref="H151:H158" si="8">CONCATENATE(A151,"/",B151,"/",C151,)</f>
+      <c r="H154" s="178" t="str">
+        <f t="shared" ref="H154:H162" si="8">CONCATENATE(A154,"/",B154,"/",C154,)</f>
         <v>Casandra/Hall/Sodios</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B152" s="29" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B155" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="29" t="s">
+      <c r="C155" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29" t="s">
+      <c r="D155" s="29"/>
+      <c r="E155" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="F152" s="25" t="s">
+      <c r="F155" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="G152" s="29" t="s">
+      <c r="G155" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H152" s="181" t="str">
+      <c r="H155" s="181" t="str">
         <f t="shared" si="8"/>
         <v>Casandra/Hall/Sirena</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B153" s="29" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B156" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C153" s="29" t="s">
+      <c r="C156" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29" t="s">
+      <c r="D156" s="29"/>
+      <c r="E156" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F153" s="25" t="s">
+      <c r="F156" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="G153" s="29" t="s">
+      <c r="G156" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H153" s="181" t="str">
+      <c r="H156" s="181" t="str">
         <f t="shared" si="8"/>
         <v>Casandra/Hall/LuzCamino</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B154" s="29" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B157" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C154" s="29" t="s">
+      <c r="C157" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29" t="s">
+      <c r="D157" s="29"/>
+      <c r="E157" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F154" s="25" t="s">
+      <c r="F157" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="G154" s="29" t="s">
+      <c r="G157" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H154" s="181" t="str">
+      <c r="H157" s="181" t="str">
         <f t="shared" si="8"/>
         <v>Casandra/Hall/LuzEntrada</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B155" s="29" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B158" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C155" s="29" t="s">
+      <c r="C158" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29" t="s">
+      <c r="D158" s="29"/>
+      <c r="E158" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F155" s="25" t="s">
+      <c r="F158" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="G155" s="29" t="s">
+      <c r="G158" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H155" s="181" t="str">
+      <c r="H158" s="181" t="str">
         <f t="shared" si="8"/>
         <v>Casandra/Hall/Porton</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="182" t="s">
-        <v>53</v>
-      </c>
-      <c r="B156" s="183" t="s">
+    <row r="159" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B159" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C156" s="183" t="s">
+      <c r="C159" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="D156" s="183"/>
-      <c r="E156" s="183" t="s">
+      <c r="D159" s="29"/>
+      <c r="E159" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F156" s="185" t="s">
+      <c r="F159" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="G156" s="183" t="s">
+      <c r="G159" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H156" s="186" t="str">
+      <c r="H159" s="181" t="str">
         <f t="shared" si="8"/>
         <v>Casandra/Hall/Timbre</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="174" t="s">
-        <v>53</v>
-      </c>
-      <c r="B157" s="175" t="s">
+    <row r="160" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" s="182" t="s">
+        <v>53</v>
+      </c>
+      <c r="B160" s="183" t="s">
+        <v>245</v>
+      </c>
+      <c r="C160" s="183" t="s">
+        <v>248</v>
+      </c>
+      <c r="D160" s="183"/>
+      <c r="E160" s="183" t="s">
+        <v>431</v>
+      </c>
+      <c r="F160" s="185" t="s">
+        <v>468</v>
+      </c>
+      <c r="G160" s="183" t="s">
+        <v>307</v>
+      </c>
+      <c r="H160" s="186" t="str">
+        <f t="shared" ref="H160" si="9">CONCATENATE(A160,"/",B160,"/",C160,)</f>
+        <v>Casandra/Hall/Mosquito</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" s="175" t="s">
         <v>264</v>
       </c>
-      <c r="C157" s="175" t="s">
+      <c r="C161" s="175" t="s">
         <v>325</v>
       </c>
-      <c r="D157" s="175"/>
-      <c r="E157" s="175" t="s">
+      <c r="D161" s="175"/>
+      <c r="E161" s="175" t="s">
         <v>326</v>
       </c>
-      <c r="F157" s="177" t="s">
+      <c r="F161" s="177" t="s">
         <v>327</v>
       </c>
-      <c r="G157" s="175" t="s">
+      <c r="G161" s="175" t="s">
         <v>307</v>
       </c>
-      <c r="H157" s="178" t="str">
+      <c r="H161" s="178" t="str">
         <f t="shared" si="8"/>
         <v>Casandra/Caldera/LuzSolar</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B158" s="29" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B162" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="C158" s="29" t="s">
+      <c r="C162" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="D158" s="29"/>
-      <c r="E158" s="29" t="s">
+      <c r="D162" s="29"/>
+      <c r="E162" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F158" s="25" t="s">
+      <c r="F162" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="G158" s="29" t="s">
+      <c r="G162" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H158" s="181" t="str">
+      <c r="H162" s="181" t="str">
         <f t="shared" si="8"/>
         <v>Casandra/Caldera/Lluvia</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B159" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="C159" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F159" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="G159" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="H159" s="181" t="str">
-        <f>CONCATENATE(A159,"/",B159,"/",C159,)</f>
-        <v>Casandra/Caldera/Temperatura</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B160" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="C160" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D160" s="180" t="s">
-        <v>274</v>
-      </c>
-      <c r="E160" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F160" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G160" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="H160" s="181" t="str">
-        <f>CONCATENATE(A160,"/",B160,"/",C160,"/",D160,)</f>
-        <v>Casandra/Caldera/LuzEstado/01</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B161" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="C161" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D161" s="180" t="s">
-        <v>278</v>
-      </c>
-      <c r="E161" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F161" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G161" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="H161" s="181" t="str">
-        <f>CONCATENATE(A161,"/",B161,"/",C161,"/",D161,)</f>
-        <v>Casandra/Caldera/LuzEstado/02</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B162" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="C162" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D162" s="180" t="s">
-        <v>279</v>
-      </c>
-      <c r="E162" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F162" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G162" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="H162" s="181" t="str">
-        <f>CONCATENATE(A162,"/",B162,"/",C162,"/",D162,)</f>
-        <v>Casandra/Caldera/LuzEstado/03</v>
-      </c>
-    </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="179" t="s">
         <v>53</v>
@@ -12540,21 +12686,21 @@
         <v>264</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="29" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="G163" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H163" s="181" t="str">
         <f>CONCATENATE(A163,"/",B163,"/",C163,)</f>
-        <v>Casandra/Caldera/Termostato</v>
+        <v>Casandra/Caldera/Temperatura</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -12565,7 +12711,7 @@
         <v>264</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D164" s="180" t="s">
         <v>274</v>
@@ -12574,66 +12720,68 @@
         <v>275</v>
       </c>
       <c r="F164" s="25" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="G164" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H164" s="181" t="str">
         <f>CONCATENATE(A164,"/",B164,"/",C164,"/",D164,)</f>
-        <v>Casandra/Caldera/SensorMov/01</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="182" t="s">
-        <v>53</v>
-      </c>
-      <c r="B165" s="183" t="s">
+        <v>Casandra/Caldera/LuzEstado/01</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="C165" s="183" t="s">
-        <v>310</v>
-      </c>
-      <c r="D165" s="184" t="s">
+      <c r="C165" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="D165" s="180" t="s">
         <v>278</v>
       </c>
-      <c r="E165" s="183" t="s">
+      <c r="E165" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F165" s="185" t="s">
-        <v>311</v>
-      </c>
-      <c r="G165" s="183" t="s">
+      <c r="F165" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G165" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H165" s="186" t="str">
+      <c r="H165" s="181" t="str">
         <f>CONCATENATE(A165,"/",B165,"/",C165,"/",D165,)</f>
-        <v>Casandra/Caldera/SensorMov/02</v>
+        <v>Casandra/Caldera/LuzEstado/02</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="174" t="s">
-        <v>53</v>
-      </c>
-      <c r="B166" s="175" t="s">
-        <v>320</v>
-      </c>
-      <c r="C166" s="175" t="s">
-        <v>375</v>
-      </c>
-      <c r="D166" s="175"/>
+      <c r="A166" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B166" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C166" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="D166" s="180" t="s">
+        <v>279</v>
+      </c>
       <c r="E166" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="F166" s="177" t="s">
-        <v>345</v>
-      </c>
-      <c r="G166" s="175" t="s">
+        <v>275</v>
+      </c>
+      <c r="F166" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G166" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H166" s="178" t="str">
-        <f t="shared" ref="H166:H170" si="9">CONCATENATE(A166,"/",B166,"/",C166,)</f>
-        <v>Casandra/Porton/BtnAbrir</v>
+      <c r="H166" s="181" t="str">
+        <f>CONCATENATE(A166,"/",B166,"/",C166,"/",D166,)</f>
+        <v>Casandra/Caldera/LuzEstado/03</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -12641,24 +12789,24 @@
         <v>53</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="29" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="F167" s="25" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G167" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H167" s="181" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Porton/BtnCerrar</v>
+        <f>CONCATENATE(A167,"/",B167,"/",C167,)</f>
+        <v>Casandra/Caldera/Termostato</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -12666,124 +12814,128 @@
         <v>53</v>
       </c>
       <c r="B168" s="29" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="D168" s="29"/>
+        <v>310</v>
+      </c>
+      <c r="D168" s="180" t="s">
+        <v>274</v>
+      </c>
       <c r="E168" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F168" s="25" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="G168" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H168" s="181" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Porton/LuzCamino</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(A168,"/",B168,"/",C168,"/",D168,)</f>
+        <v>Casandra/Caldera/SensorMov/01</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="179" t="s">
         <v>53</v>
       </c>
       <c r="B169" s="29" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="C169" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="D169" s="180"/>
+        <v>310</v>
+      </c>
+      <c r="D169" s="180" t="s">
+        <v>278</v>
+      </c>
       <c r="E169" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="G169" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H169" s="181" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Porton/Timbre</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B170" s="29" t="s">
+        <f>CONCATENATE(A169,"/",B169,"/",C169,"/",D169,)</f>
+        <v>Casandra/Caldera/SensorMov/02</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A170" s="182" t="s">
+        <v>53</v>
+      </c>
+      <c r="B170" s="183" t="s">
+        <v>264</v>
+      </c>
+      <c r="C170" s="183" t="s">
+        <v>248</v>
+      </c>
+      <c r="D170" s="184"/>
+      <c r="E170" s="183" t="s">
+        <v>431</v>
+      </c>
+      <c r="F170" s="185" t="s">
+        <v>469</v>
+      </c>
+      <c r="G170" s="183" t="s">
+        <v>307</v>
+      </c>
+      <c r="H170" s="186" t="str">
+        <f>CONCATENATE(A170,"/",B170,"/",C170,)</f>
+        <v>Casandra/Caldera/Mosquito</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B171" s="175" t="s">
         <v>320</v>
       </c>
-      <c r="C170" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="D170" s="180"/>
-      <c r="E170" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F170" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="G170" s="29" t="s">
+      <c r="C171" s="175" t="s">
+        <v>375</v>
+      </c>
+      <c r="D171" s="175"/>
+      <c r="E171" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F171" s="177" t="s">
+        <v>345</v>
+      </c>
+      <c r="G171" s="175" t="s">
         <v>307</v>
       </c>
-      <c r="H170" s="181" t="str">
-        <f t="shared" si="9"/>
-        <v>Casandra/Porton/SensPuerta</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="182" t="s">
-        <v>53</v>
-      </c>
-      <c r="B171" s="183" t="s">
+      <c r="H171" s="178" t="str">
+        <f t="shared" ref="H171:H175" si="10">CONCATENATE(A171,"/",B171,"/",C171,)</f>
+        <v>Casandra/Porton/BtnAbrir</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B172" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="C171" s="183" t="s">
-        <v>343</v>
-      </c>
-      <c r="D171" s="184"/>
-      <c r="E171" s="183" t="s">
-        <v>275</v>
-      </c>
-      <c r="F171" s="185" t="s">
-        <v>348</v>
-      </c>
-      <c r="G171" s="183" t="s">
+      <c r="C172" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F172" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="G172" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H171" s="186" t="str">
-        <f>CONCATENATE(A171,"/",B171,"/",C171,)</f>
-        <v>Casandra/Porton/SensPorton</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="174" t="s">
-        <v>53</v>
-      </c>
-      <c r="B172" s="175" t="s">
-        <v>349</v>
-      </c>
-      <c r="C172" s="175" t="s">
-        <v>352</v>
-      </c>
-      <c r="D172" s="175"/>
-      <c r="E172" s="175" t="s">
-        <v>350</v>
-      </c>
-      <c r="F172" s="177" t="s">
-        <v>351</v>
-      </c>
-      <c r="G172" s="175" t="s">
-        <v>307</v>
-      </c>
-      <c r="H172" s="178" t="str">
-        <f t="shared" ref="H172:H176" si="10">CONCATENATE(A172,"/",B172,"/",C172,)</f>
-        <v>Casandra/Estar/LuzRGB</v>
+      <c r="H172" s="181" t="str">
+        <f t="shared" si="10"/>
+        <v>Casandra/Porton/BtnCerrar</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -12791,24 +12943,24 @@
         <v>53</v>
       </c>
       <c r="B173" s="29" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C173" s="29" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="D173" s="29"/>
       <c r="E173" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F173" s="25" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="G173" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H173" s="181" t="str">
         <f t="shared" si="10"/>
-        <v>Casandra/Estar/LuzEstado</v>
+        <v>Casandra/Porton/LuzCamino</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -12816,24 +12968,24 @@
         <v>53</v>
       </c>
       <c r="B174" s="29" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="D174" s="29"/>
+        <v>323</v>
+      </c>
+      <c r="D174" s="180"/>
       <c r="E174" s="29" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F174" s="25" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="G174" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H174" s="181" t="str">
         <f t="shared" si="10"/>
-        <v>Casandra/Estar/LuzIntensidad</v>
+        <v>Casandra/Porton/Timbre</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -12841,101 +12993,99 @@
         <v>53</v>
       </c>
       <c r="B175" s="29" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C175" s="29" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="D175" s="180"/>
       <c r="E175" s="29" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="F175" s="25" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="G175" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H175" s="181" t="str">
         <f t="shared" si="10"/>
-        <v>Casandra/Estar/Temperatura</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+        <v>Casandra/Porton/SensPuerta</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="179" t="s">
         <v>53</v>
       </c>
       <c r="B176" s="29" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="D176" s="180"/>
       <c r="E176" s="29" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="F176" s="25" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="G176" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H176" s="181" t="str">
-        <f t="shared" si="10"/>
-        <v>Casandra/Estar/Humedad</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B177" s="29" t="s">
+        <f>CONCATENATE(A176,"/",B176,"/",C176,)</f>
+        <v>Casandra/Porton/SensPorton</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A177" s="182" t="s">
+        <v>53</v>
+      </c>
+      <c r="B177" s="183" t="s">
+        <v>320</v>
+      </c>
+      <c r="C177" s="183" t="s">
+        <v>248</v>
+      </c>
+      <c r="D177" s="184"/>
+      <c r="E177" s="183" t="s">
+        <v>431</v>
+      </c>
+      <c r="F177" s="185" t="s">
+        <v>470</v>
+      </c>
+      <c r="G177" s="183" t="s">
+        <v>307</v>
+      </c>
+      <c r="H177" s="186" t="str">
+        <f>CONCATENATE(A177,"/",B177,"/",C177,)</f>
+        <v>Casandra/Porton/Mosquito</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B178" s="175" t="s">
         <v>349</v>
       </c>
-      <c r="C177" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="D177" s="180"/>
-      <c r="E177" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F177" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="G177" s="29" t="s">
+      <c r="C178" s="175" t="s">
+        <v>352</v>
+      </c>
+      <c r="D178" s="175"/>
+      <c r="E178" s="175" t="s">
+        <v>350</v>
+      </c>
+      <c r="F178" s="177" t="s">
+        <v>351</v>
+      </c>
+      <c r="G178" s="175" t="s">
         <v>307</v>
       </c>
-      <c r="H177" s="181" t="str">
-        <f>CONCATENATE(A177,"/",B177,"/",C177,)</f>
-        <v>Casandra/Estar/Termostato</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="179" t="s">
-        <v>53</v>
-      </c>
-      <c r="B178" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="C178" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="D178" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="E178" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="F178" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="G178" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="H178" s="181" t="str">
-        <f>CONCATENATE(A178,"/",B178,"/",C178,"/",D178,)</f>
-        <v>Casandra/Estar/CRemoto/BtnOnTV</v>
+      <c r="H178" s="178" t="str">
+        <f t="shared" ref="H178:H184" si="11">CONCATENATE(A178,"/",B178,"/",C178,)</f>
+        <v>Casandra/Estar/LuzRGB</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -12946,23 +13096,21 @@
         <v>349</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="D179" s="29" t="s">
-        <v>378</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="D179" s="29"/>
       <c r="E179" s="29" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="F179" s="25" t="s">
-        <v>383</v>
+        <v>276</v>
       </c>
       <c r="G179" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H179" s="181" t="str">
-        <f t="shared" ref="H179:H193" si="11">CONCATENATE(A179,"/",B179,"/",C179,"/",D179,)</f>
-        <v>Casandra/Estar/CRemoto/BtnOnDeco</v>
+        <f t="shared" si="11"/>
+        <v>Casandra/Estar/LuzEstado</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -12973,23 +13121,21 @@
         <v>349</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="D180" s="29" t="s">
-        <v>379</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="D180" s="29"/>
       <c r="E180" s="29" t="s">
-        <v>374</v>
+        <v>450</v>
       </c>
       <c r="F180" s="25" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="G180" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H180" s="181" t="str">
         <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/BtnCanalUpDeco</v>
+        <v>Casandra/Estar/ModoLED</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -13000,23 +13146,21 @@
         <v>349</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="D181" s="29" t="s">
-        <v>380</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="D181" s="29"/>
       <c r="E181" s="29" t="s">
-        <v>374</v>
+        <v>450</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="G181" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H181" s="181" t="str">
         <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/BtnCanalDoDeco</v>
+        <v>Casandra/Estar/VelocidadLED</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -13027,23 +13171,21 @@
         <v>349</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="D182" s="29" t="s">
-        <v>382</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D182" s="29"/>
       <c r="E182" s="29" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="F182" s="25" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
       <c r="G182" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H182" s="181" t="str">
         <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/BtnVolUpDeco</v>
+        <v>Casandra/Estar/LuzIntensidad</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -13054,23 +13196,21 @@
         <v>349</v>
       </c>
       <c r="C183" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="D183" s="29" t="s">
-        <v>381</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D183" s="180"/>
       <c r="E183" s="29" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="F183" s="25" t="s">
-        <v>387</v>
+        <v>306</v>
       </c>
       <c r="G183" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H183" s="181" t="str">
         <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/BtnVolDoDeco</v>
+        <v>Casandra/Estar/Temperatura</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -13081,23 +13221,21 @@
         <v>349</v>
       </c>
       <c r="C184" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="D184" s="29" t="s">
-        <v>354</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D184" s="180"/>
       <c r="E184" s="29" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="F184" s="25" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="G184" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H184" s="181" t="str">
         <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn0</v>
+        <v>Casandra/Estar/Humedad</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -13108,23 +13246,21 @@
         <v>349</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="D185" s="29" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D185" s="180"/>
       <c r="E185" s="29" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="F185" s="25" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="G185" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H185" s="181" t="str">
-        <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn1</v>
+        <f>CONCATENATE(A185,"/",B185,"/",C185,)</f>
+        <v>Casandra/Estar/Termostato</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -13138,20 +13274,20 @@
         <v>388</v>
       </c>
       <c r="D186" s="29" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="E186" s="29" t="s">
         <v>374</v>
       </c>
       <c r="F186" s="25" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="G186" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H186" s="181" t="str">
-        <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn2</v>
+        <f>CONCATENATE(A186,"/",B186,"/",C186,"/",D186,)</f>
+        <v>Casandra/Estar/CRemoto/BtnOnTV</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -13165,20 +13301,20 @@
         <v>388</v>
       </c>
       <c r="D187" s="29" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="E187" s="29" t="s">
         <v>374</v>
       </c>
       <c r="F187" s="25" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="G187" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H187" s="181" t="str">
-        <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn3</v>
+        <f t="shared" ref="H187:H209" si="12">CONCATENATE(A187,"/",B187,"/",C187,"/",D187,)</f>
+        <v>Casandra/Estar/CRemoto/BtnOnDeco</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -13192,20 +13328,20 @@
         <v>388</v>
       </c>
       <c r="D188" s="29" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="E188" s="29" t="s">
         <v>374</v>
       </c>
       <c r="F188" s="25" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G188" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H188" s="181" t="str">
-        <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn4</v>
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/BtnCanalUpDeco</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -13219,20 +13355,20 @@
         <v>388</v>
       </c>
       <c r="D189" s="29" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="E189" s="29" t="s">
         <v>374</v>
       </c>
       <c r="F189" s="25" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="G189" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H189" s="181" t="str">
-        <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn5</v>
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/BtnCanalDoDeco</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -13246,20 +13382,20 @@
         <v>388</v>
       </c>
       <c r="D190" s="29" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E190" s="29" t="s">
         <v>374</v>
       </c>
       <c r="F190" s="25" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="G190" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H190" s="181" t="str">
-        <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn6</v>
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/BtnVolUpDeco</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -13273,20 +13409,20 @@
         <v>388</v>
       </c>
       <c r="D191" s="29" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="E191" s="29" t="s">
         <v>374</v>
       </c>
       <c r="F191" s="25" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G191" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H191" s="181" t="str">
-        <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn7</v>
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/BtnVolDoDeco</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -13300,20 +13436,20 @@
         <v>388</v>
       </c>
       <c r="D192" s="29" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E192" s="29" t="s">
         <v>374</v>
       </c>
       <c r="F192" s="25" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G192" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H192" s="181" t="str">
-        <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn8</v>
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn0</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -13327,20 +13463,20 @@
         <v>388</v>
       </c>
       <c r="D193" s="29" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E193" s="29" t="s">
         <v>374</v>
       </c>
       <c r="F193" s="25" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G193" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H193" s="181" t="str">
-        <f t="shared" si="11"/>
-        <v>Casandra/Estar/CRemoto/DecoBtn9</v>
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn1</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -13351,23 +13487,23 @@
         <v>349</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D194" s="29" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="E194" s="29" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="F194" s="25" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="G194" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H194" s="181" t="str">
-        <f t="shared" ref="H194:H195" si="12">CONCATENATE(A194,"/",B194,"/",C194,"/",D194,)</f>
-        <v>Casandra/Estar/AA/Fan</v>
+        <f t="shared" ref="H194:H201" si="13">CONCATENATE(A194,"/",B194,"/",C194,"/",D194,)</f>
+        <v>Casandra/Estar/CRemoto/DecoBtn2</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -13378,23 +13514,23 @@
         <v>349</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D195" s="29" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="E195" s="29" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="F195" s="25" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="G195" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H195" s="181" t="str">
-        <f t="shared" si="12"/>
-        <v>Casandra/Estar/AA/Modo</v>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn3</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -13405,50 +13541,50 @@
         <v>349</v>
       </c>
       <c r="C196" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D196" s="29" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="E196" s="29" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="F196" s="25" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="G196" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H196" s="181" t="str">
-        <f t="shared" ref="H196" si="13">CONCATENATE(A196,"/",B196,"/",C196,"/",D196,)</f>
-        <v>Casandra/Estar/AA/Swing</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="182" t="s">
-        <v>53</v>
-      </c>
-      <c r="B197" s="183" t="s">
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B197" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="C197" s="183" t="s">
-        <v>389</v>
-      </c>
-      <c r="D197" s="183" t="s">
-        <v>396</v>
-      </c>
-      <c r="E197" s="183" t="s">
-        <v>397</v>
-      </c>
-      <c r="F197" s="185" t="s">
-        <v>398</v>
-      </c>
-      <c r="G197" s="183" t="s">
+      <c r="C197" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="E197" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F197" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="G197" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H197" s="186" t="str">
-        <f t="shared" ref="H197" si="14">CONCATENATE(A197,"/",B197,"/",C197,"/",D197,)</f>
-        <v>Casandra/Estar/AA/TempObj</v>
+      <c r="H197" s="181" t="str">
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn5</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -13456,50 +13592,781 @@
         <v>53</v>
       </c>
       <c r="B198" s="29" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="C198" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="D198" s="29"/>
+        <v>388</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>360</v>
+      </c>
       <c r="E198" s="29" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="F198" s="25" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="G198" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H198" s="181" t="str">
-        <f>CONCATENATE(A198,"/",B198,"/",C198,)</f>
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B199" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C199" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D199" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E199" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F199" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="G199" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H199" s="181" t="str">
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B200" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D200" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="E200" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F200" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="G200" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H200" s="181" t="str">
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B201" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E201" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F201" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="G201" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H201" s="181" t="str">
+        <f t="shared" si="13"/>
+        <v>Casandra/Estar/CRemoto/DecoBtn9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B202" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C202" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="E202" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F202" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="G202" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H202" s="181" t="str">
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/DecoBtnOk</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B203" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D203" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="E203" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F203" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="G203" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H203" s="181" t="str">
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/DecoBtnUp</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B204" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C204" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D204" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E204" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F204" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="G204" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H204" s="181" t="str">
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/DecoBtnDw</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B205" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C205" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D205" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="E205" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F205" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="G205" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H205" s="181" t="str">
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/DecoBtnDe</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B206" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C206" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="E206" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F206" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G206" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H206" s="181" t="str">
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/DecoBtnIz</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B207" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C207" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D207" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="E207" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F207" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="G207" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H207" s="181" t="str">
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/DecoBtnMute</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B208" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C208" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="E208" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F208" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="G208" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H208" s="181" t="str">
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/DecoBtnGuide</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B209" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C209" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D209" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="E209" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F209" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="G209" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H209" s="181" t="str">
+        <f t="shared" si="12"/>
+        <v>Casandra/Estar/CRemoto/DecoBtnExit</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B210" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C210" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E210" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="F210" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="G210" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H210" s="181" t="str">
+        <f t="shared" ref="H210:H211" si="14">CONCATENATE(A210,"/",B210,"/",C210,"/",D210,)</f>
+        <v>Casandra/Estar/AA/Fan</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B211" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C211" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="D211" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="E211" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="F211" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="G211" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H211" s="181" t="str">
+        <f t="shared" si="14"/>
+        <v>Casandra/Estar/AA/Modo</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B212" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C212" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="D212" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="E212" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="F212" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="G212" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H212" s="181" t="str">
+        <f t="shared" ref="H212" si="15">CONCATENATE(A212,"/",B212,"/",C212,"/",D212,)</f>
+        <v>Casandra/Estar/AA/Swing</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B213" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C213" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="D213" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E213" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="F213" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="G213" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H213" s="181" t="str">
+        <f t="shared" ref="H213" si="16">CONCATENATE(A213,"/",B213,"/",C213,"/",D213,)</f>
+        <v>Casandra/Estar/AA/TempObj</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A214" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B214" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C214" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D214" s="29"/>
+      <c r="E214" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F214" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="G214" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H214" s="181" t="str">
+        <f>CONCATENATE(A214,"/",B214,"/",C214,)</f>
+        <v>Casandra/Estar/Mosquito</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B215" s="175" t="s">
+        <v>425</v>
+      </c>
+      <c r="C215" s="175" t="s">
+        <v>426</v>
+      </c>
+      <c r="D215" s="175"/>
+      <c r="E215" s="175" t="s">
+        <v>454</v>
+      </c>
+      <c r="F215" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="G215" s="175" t="s">
+        <v>307</v>
+      </c>
+      <c r="H215" s="178" t="str">
+        <f>CONCATENATE(A215,"/",B215,"/",C215,)</f>
         <v>Casandra/Huerta/On</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="182" t="s">
-        <v>53</v>
-      </c>
-      <c r="B199" s="183" t="s">
+    <row r="216" spans="1:8" s="219" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B216" s="219" t="s">
         <v>425</v>
       </c>
-      <c r="C199" s="183" t="s">
+      <c r="C216" s="219" t="s">
         <v>427</v>
       </c>
-      <c r="D199" s="183"/>
-      <c r="E199" s="183" t="s">
-        <v>428</v>
-      </c>
-      <c r="F199" s="185" t="s">
-        <v>430</v>
-      </c>
-      <c r="G199" s="183" t="s">
+      <c r="E216" s="219" t="s">
+        <v>454</v>
+      </c>
+      <c r="F216" s="220" t="s">
+        <v>429</v>
+      </c>
+      <c r="G216" s="219" t="s">
         <v>307</v>
       </c>
-      <c r="H199" s="186" t="str">
-        <f>CONCATENATE(A199,"/",B199,"/",C199,)</f>
+      <c r="H216" s="181" t="str">
+        <f t="shared" ref="H216:H219" si="17">CONCATENATE(A216,"/",B216,"/",C216,)</f>
         <v>Casandra/Huerta/Off</v>
       </c>
+    </row>
+    <row r="217" spans="1:8" s="219" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B217" s="219" t="s">
+        <v>425</v>
+      </c>
+      <c r="C217" s="219" t="s">
+        <v>477</v>
+      </c>
+      <c r="E217" s="219" t="s">
+        <v>275</v>
+      </c>
+      <c r="F217" s="220" t="s">
+        <v>478</v>
+      </c>
+      <c r="G217" s="219" t="s">
+        <v>307</v>
+      </c>
+      <c r="H217" s="181" t="str">
+        <f t="shared" ref="H217" si="18">CONCATENATE(A217,"/",B217,"/",C217,)</f>
+        <v>Casandra/Huerta/Bomba</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B218" s="219" t="s">
+        <v>425</v>
+      </c>
+      <c r="C218" s="219" t="s">
+        <v>453</v>
+      </c>
+      <c r="D218" s="219"/>
+      <c r="E218" s="219" t="s">
+        <v>275</v>
+      </c>
+      <c r="F218" s="220" t="s">
+        <v>479</v>
+      </c>
+      <c r="G218" s="219" t="s">
+        <v>307</v>
+      </c>
+      <c r="H218" s="181" t="str">
+        <f t="shared" si="17"/>
+        <v>Casandra/Huerta/BbaEstado</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A219" s="182" t="s">
+        <v>53</v>
+      </c>
+      <c r="B219" s="183" t="s">
+        <v>425</v>
+      </c>
+      <c r="C219" s="183" t="s">
+        <v>248</v>
+      </c>
+      <c r="D219" s="183"/>
+      <c r="E219" s="183" t="s">
+        <v>431</v>
+      </c>
+      <c r="F219" s="185" t="s">
+        <v>472</v>
+      </c>
+      <c r="G219" s="183" t="s">
+        <v>307</v>
+      </c>
+      <c r="H219" s="186" t="str">
+        <f t="shared" si="17"/>
+        <v>Casandra/Huerta/Mosquito</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B220" s="175" t="s">
+        <v>464</v>
+      </c>
+      <c r="C220" s="175" t="s">
+        <v>476</v>
+      </c>
+      <c r="D220" s="175"/>
+      <c r="E220" s="175"/>
+      <c r="F220" s="177"/>
+      <c r="G220" s="175" t="s">
+        <v>307</v>
+      </c>
+      <c r="H220" s="178" t="str">
+        <f>CONCATENATE(A220,"/",B220,"/",C220,)</f>
+        <v>Casandra/CocinaBis/LEDMesadaEst</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B221" s="219" t="s">
+        <v>464</v>
+      </c>
+      <c r="C221" s="219" t="s">
+        <v>474</v>
+      </c>
+      <c r="D221" s="219"/>
+      <c r="E221" s="219"/>
+      <c r="F221" s="220"/>
+      <c r="G221" s="219" t="s">
+        <v>307</v>
+      </c>
+      <c r="H221" s="181" t="str">
+        <f t="shared" ref="H221:H226" si="19">CONCATENATE(A221,"/",B221,"/",C221,)</f>
+        <v>Casandra/CocinaBis/LEDMesadaInt</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B222" s="219" t="s">
+        <v>464</v>
+      </c>
+      <c r="C222" s="219" t="s">
+        <v>448</v>
+      </c>
+      <c r="D222" s="219"/>
+      <c r="E222" s="219"/>
+      <c r="F222" s="220"/>
+      <c r="G222" s="219" t="s">
+        <v>307</v>
+      </c>
+      <c r="H222" s="181" t="str">
+        <f t="shared" si="19"/>
+        <v>Casandra/CocinaBis/ModoLED</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B223" s="219" t="s">
+        <v>464</v>
+      </c>
+      <c r="C223" s="219" t="s">
+        <v>449</v>
+      </c>
+      <c r="D223" s="219"/>
+      <c r="E223" s="219"/>
+      <c r="F223" s="220"/>
+      <c r="G223" s="219" t="s">
+        <v>307</v>
+      </c>
+      <c r="H223" s="181" t="str">
+        <f t="shared" si="19"/>
+        <v>Casandra/CocinaBis/VelocidadLED</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B224" s="219" t="s">
+        <v>464</v>
+      </c>
+      <c r="C224" s="219" t="s">
+        <v>475</v>
+      </c>
+      <c r="D224" s="219"/>
+      <c r="E224" s="219"/>
+      <c r="F224" s="220"/>
+      <c r="G224" s="219" t="s">
+        <v>307</v>
+      </c>
+      <c r="H224" s="181" t="str">
+        <f t="shared" si="19"/>
+        <v>Casandra/CocinaBis/SWPorton</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B225" s="219" t="s">
+        <v>464</v>
+      </c>
+      <c r="C225" s="219" t="s">
+        <v>318</v>
+      </c>
+      <c r="D225" s="219"/>
+      <c r="E225" s="219"/>
+      <c r="F225" s="220"/>
+      <c r="G225" s="219" t="s">
+        <v>307</v>
+      </c>
+      <c r="H225" s="181" t="str">
+        <f t="shared" si="19"/>
+        <v>Casandra/CocinaBis/LuzEntrada</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="182" t="s">
+        <v>53</v>
+      </c>
+      <c r="B226" s="183" t="s">
+        <v>464</v>
+      </c>
+      <c r="C226" s="183" t="s">
+        <v>248</v>
+      </c>
+      <c r="D226" s="183"/>
+      <c r="E226" s="183" t="s">
+        <v>431</v>
+      </c>
+      <c r="F226" s="185" t="s">
+        <v>473</v>
+      </c>
+      <c r="G226" s="183" t="s">
+        <v>307</v>
+      </c>
+      <c r="H226" s="186" t="str">
+        <f t="shared" si="19"/>
+        <v>Casandra/CocinaBis/Mosquito</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="179"/>
+      <c r="B227" s="29"/>
+      <c r="C227" s="29"/>
+      <c r="D227" s="29"/>
+      <c r="E227" s="29"/>
+      <c r="F227" s="25"/>
+      <c r="G227" s="29"/>
+      <c r="H227" s="181"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="179"/>
+      <c r="B228" s="29"/>
+      <c r="C228" s="29"/>
+      <c r="D228" s="29"/>
+      <c r="E228" s="29"/>
+      <c r="F228" s="25"/>
+      <c r="G228" s="29"/>
+      <c r="H228" s="181"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="179"/>
+      <c r="B229" s="29"/>
+      <c r="C229" s="29"/>
+      <c r="D229" s="29"/>
+      <c r="E229" s="29"/>
+      <c r="F229" s="25"/>
+      <c r="G229" s="29"/>
+      <c r="H229" s="181"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="179"/>
+      <c r="B230" s="29"/>
+      <c r="C230" s="29"/>
+      <c r="D230" s="29"/>
+      <c r="E230" s="29"/>
+      <c r="F230" s="25"/>
+      <c r="G230" s="29"/>
+      <c r="H230" s="181"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="179"/>
+      <c r="B231" s="29"/>
+      <c r="C231" s="29"/>
+      <c r="D231" s="29"/>
+      <c r="E231" s="29"/>
+      <c r="F231" s="25"/>
+      <c r="G231" s="29"/>
+      <c r="H231" s="181"/>
     </row>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
@@ -16983,10 +17850,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5386A27A-B822-47B7-95F2-B520916D5573}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17120,6 +17987,70 @@
       </c>
       <c r="B16" t="s">
         <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="203" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="203" t="s">
+        <v>435</v>
+      </c>
+      <c r="B20" s="204" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="203" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B23" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="203" t="s">
+        <v>439</v>
+      </c>
+      <c r="B24" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -17565,10 +18496,10 @@
       <c r="I1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="216" t="s">
+      <c r="K1" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="216"/>
+      <c r="L1" s="218"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="30">

--- a/Soft/Dimer.xlsx
+++ b/Soft/Dimer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.Datos\Electronica\Proyectos\Microchip\Git\Casandra\Soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9262B3B4-C2AA-4688-8D1C-B63705C4B45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A35B6A0-065A-487E-BDA5-B848F6846371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="486">
   <si>
     <t>Valor</t>
   </si>
@@ -1756,6 +1756,24 @@
   </si>
   <si>
     <t>Comando de encendido de la bomba</t>
+  </si>
+  <si>
+    <t>Reset / Reconect / Exec</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Estado de Switch Porton</t>
+  </si>
+  <si>
+    <t>Estado de encendido de luz LED</t>
+  </si>
+  <si>
+    <t>Intensidad de encendido de luz LED</t>
+  </si>
+  <si>
+    <t>Modos de encendido del LED</t>
   </si>
 </sst>
 </file>
@@ -2842,7 +2860,7 @@
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3442,12 +3460,6 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
@@ -3482,14 +3494,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5163,7 +5175,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H231" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A796F4E9-7890-46E8-8DEA-A5685AEE8D14}" name="Tabla1" displayName="Tabla1" ref="A1:H231" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{37A22C23-BC30-49AA-B326-A1A665DE0E10}" name="N0" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{A945BC43-56EA-42D1-88E7-9CC1375157D6}" name="N1" dataDxfId="6"/>
@@ -8314,8 +8326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125AF8B-2E62-4DF1-9548-A1621FB537F6}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="H217" sqref="H217"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9825,7 +9837,7 @@
       </c>
       <c r="D56" s="180"/>
       <c r="E56" s="29" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>466</v>
@@ -11524,7 +11536,7 @@
       </c>
       <c r="D119" s="180"/>
       <c r="E119" s="29" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="F119" s="25" t="s">
         <v>465</v>
@@ -12413,7 +12425,7 @@
       </c>
       <c r="D152" s="180"/>
       <c r="E152" s="29" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="F152" s="25" t="s">
         <v>467</v>
@@ -12578,7 +12590,7 @@
         <v>Casandra/Hall/Porton</v>
       </c>
     </row>
-    <row r="159" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="179" t="s">
         <v>53</v>
       </c>
@@ -12603,7 +12615,7 @@
         <v>Casandra/Hall/Timbre</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="182" t="s">
         <v>53</v>
       </c>
@@ -12614,8 +12626,8 @@
         <v>248</v>
       </c>
       <c r="D160" s="183"/>
-      <c r="E160" s="183" t="s">
-        <v>431</v>
+      <c r="E160" s="29" t="s">
+        <v>480</v>
       </c>
       <c r="F160" s="185" t="s">
         <v>468</v>
@@ -12836,7 +12848,7 @@
         <v>Casandra/Caldera/SensorMov/01</v>
       </c>
     </row>
-    <row r="169" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="179" t="s">
         <v>53</v>
       </c>
@@ -12863,7 +12875,7 @@
         <v>Casandra/Caldera/SensorMov/02</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="182" t="s">
         <v>53</v>
       </c>
@@ -12875,7 +12887,7 @@
       </c>
       <c r="D170" s="184"/>
       <c r="E170" s="183" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="F170" s="185" t="s">
         <v>469</v>
@@ -13013,7 +13025,7 @@
         <v>Casandra/Porton/SensPuerta</v>
       </c>
     </row>
-    <row r="176" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="179" t="s">
         <v>53</v>
       </c>
@@ -13038,7 +13050,7 @@
         <v>Casandra/Porton/SensPorton</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="182" t="s">
         <v>53</v>
       </c>
@@ -13049,8 +13061,8 @@
         <v>248</v>
       </c>
       <c r="D177" s="184"/>
-      <c r="E177" s="183" t="s">
-        <v>431</v>
+      <c r="E177" s="29" t="s">
+        <v>480</v>
       </c>
       <c r="F177" s="185" t="s">
         <v>470</v>
@@ -14031,7 +14043,7 @@
       </c>
       <c r="D214" s="29"/>
       <c r="E214" s="29" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="F214" s="25" t="s">
         <v>471</v>
@@ -14069,23 +14081,23 @@
         <v>Casandra/Huerta/On</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="219" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B216" s="219" t="s">
+      <c r="B216" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="C216" s="219" t="s">
+      <c r="C216" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="E216" s="219" t="s">
+      <c r="E216" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="F216" s="220" t="s">
+      <c r="F216" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="G216" s="219" t="s">
+      <c r="G216" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H216" s="181" t="str">
@@ -14093,23 +14105,23 @@
         <v>Casandra/Huerta/Off</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="219" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B217" s="219" t="s">
+      <c r="B217" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="C217" s="219" t="s">
+      <c r="C217" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="E217" s="219" t="s">
+      <c r="E217" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F217" s="220" t="s">
+      <c r="F217" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="G217" s="219" t="s">
+      <c r="G217" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H217" s="181" t="str">
@@ -14121,20 +14133,20 @@
       <c r="A218" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B218" s="219" t="s">
+      <c r="B218" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="C218" s="219" t="s">
+      <c r="C218" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="D218" s="219"/>
-      <c r="E218" s="219" t="s">
+      <c r="D218" s="29"/>
+      <c r="E218" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F218" s="220" t="s">
+      <c r="F218" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="G218" s="219" t="s">
+      <c r="G218" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H218" s="181" t="str">
@@ -14142,7 +14154,7 @@
         <v>Casandra/Huerta/BbaEstado</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="182" t="s">
         <v>53</v>
       </c>
@@ -14153,8 +14165,8 @@
         <v>248</v>
       </c>
       <c r="D219" s="183"/>
-      <c r="E219" s="183" t="s">
-        <v>431</v>
+      <c r="E219" s="29" t="s">
+        <v>480</v>
       </c>
       <c r="F219" s="185" t="s">
         <v>472</v>
@@ -14178,8 +14190,12 @@
         <v>476</v>
       </c>
       <c r="D220" s="175"/>
-      <c r="E220" s="175"/>
-      <c r="F220" s="177"/>
+      <c r="E220" s="175" t="s">
+        <v>275</v>
+      </c>
+      <c r="F220" s="25" t="s">
+        <v>483</v>
+      </c>
       <c r="G220" s="175" t="s">
         <v>307</v>
       </c>
@@ -14192,16 +14208,20 @@
       <c r="A221" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B221" s="219" t="s">
+      <c r="B221" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="C221" s="219" t="s">
+      <c r="C221" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="D221" s="219"/>
-      <c r="E221" s="219"/>
-      <c r="F221" s="220"/>
-      <c r="G221" s="219" t="s">
+      <c r="D221" s="29"/>
+      <c r="E221" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="F221" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="G221" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H221" s="181" t="str">
@@ -14213,16 +14233,20 @@
       <c r="A222" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B222" s="219" t="s">
+      <c r="B222" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="C222" s="219" t="s">
+      <c r="C222" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="D222" s="219"/>
-      <c r="E222" s="219"/>
-      <c r="F222" s="220"/>
-      <c r="G222" s="219" t="s">
+      <c r="D222" s="29"/>
+      <c r="E222" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="F222" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="G222" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H222" s="181" t="str">
@@ -14234,16 +14258,20 @@
       <c r="A223" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B223" s="219" t="s">
+      <c r="B223" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="C223" s="219" t="s">
+      <c r="C223" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="D223" s="219"/>
-      <c r="E223" s="219"/>
-      <c r="F223" s="220"/>
-      <c r="G223" s="219" t="s">
+      <c r="D223" s="29"/>
+      <c r="E223" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="F223" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="G223" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H223" s="181" t="str">
@@ -14255,16 +14283,20 @@
       <c r="A224" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B224" s="219" t="s">
+      <c r="B224" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="C224" s="219" t="s">
+      <c r="C224" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="D224" s="219"/>
-      <c r="E224" s="219"/>
-      <c r="F224" s="220"/>
-      <c r="G224" s="219" t="s">
+      <c r="D224" s="29"/>
+      <c r="E224" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F224" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="G224" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H224" s="181" t="str">
@@ -14276,16 +14308,20 @@
       <c r="A225" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B225" s="219" t="s">
+      <c r="B225" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="C225" s="219" t="s">
+      <c r="C225" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="D225" s="219"/>
-      <c r="E225" s="219"/>
-      <c r="F225" s="220"/>
-      <c r="G225" s="219" t="s">
+      <c r="D225" s="29"/>
+      <c r="E225" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F225" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="G225" s="29" t="s">
         <v>307</v>
       </c>
       <c r="H225" s="181" t="str">
@@ -14305,7 +14341,7 @@
       </c>
       <c r="D226" s="183"/>
       <c r="E226" s="183" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="F226" s="185" t="s">
         <v>473</v>
